--- a/discord/Game System Calculations.xlsx
+++ b/discord/Game System Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerald\iCloudDrive\Working Folder\Coding\Python\Projects\ZeusRPG\discord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE72AFE-E1A4-4F28-9A46-0CB8314D4130}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031D6B1E-0100-42A4-8A44-CD2037E4A4FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCB550A9-44B4-4A74-8B55-9A7FD8859F8C}"/>
   </bookViews>
@@ -24,8 +24,127 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jerald</author>
+  </authors>
+  <commentList>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{89E27D02-8219-41AB-98A7-54924DE94F7A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Damage</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Attack^2 / (Attack + Defence)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{C238B19C-5462-42C6-A1AB-C0FDDEFA2F30}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Level</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Random between min and max value of total player levels</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{EDEE47DC-01EE-44F0-8AE7-2F60A61C0BAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attack &amp; Defence</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Average of total player stats * 75% scaling
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Average of total player stats * 50% scaling
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Player</t>
   </si>
@@ -59,12 +178,42 @@
   <si>
     <t>XP Constant</t>
   </si>
+  <si>
+    <t>Monster Stats</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Party Members</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Skills Damage</t>
+  </si>
+  <si>
+    <t>skillOne</t>
+  </si>
+  <si>
+    <t>skillTwo</t>
+  </si>
+  <si>
+    <t>skillThree</t>
+  </si>
+  <si>
+    <t>Reduction</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +229,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,8 +283,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -130,15 +331,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -160,18 +409,77 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5679,16 +5987,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5715,16 +6023,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6048,11 +6356,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264FC943-0808-4ECD-AA51-67678092A672}">
-  <dimension ref="B1:L126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264FC943-0808-4ECD-AA51-67678092A672}">
+  <dimension ref="B1:R126"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="I5" sqref="I5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6060,3168 +6368,3406 @@
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="10" max="12" width="11.42578125" customWidth="1"/>
+    <col min="10" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="G1" s="2" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
         <v>100</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>7</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="I5" s="10" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="I5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <f>B$3+IF($B7&lt;$I$8,J$7*$B7,IF($B7&lt;$I$9,$B7*J$8,IF($B7&lt;$I$10,$B7*J$9,$B7*J$10)))</f>
         <v>105</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f t="shared" ref="D7:E7" si="0">C$3+IF($B7&lt;$I$8,K$7*$B7,IF($B7&lt;$I$9,$B7*K$8,IF($B7&lt;$I$10,$B7*K$9,$B7*K$10)))</f>
         <v>9</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <f>D7^2/(D7+E7)</f>
         <v>5.0625</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f>($G$2*(B7^3))/5</f>
         <v>2</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>1</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>5</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>2</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="6">
-        <f t="shared" ref="C8:C26" si="1">B$3+IF($B8&lt;$I$8,J$7*$B8,IF($B8&lt;$I$9,$B8*J$8,IF($B8&lt;$I$10,$B8*J$9,$B8*J$10)))</f>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:C16" si="1">B$3+IF($B8&lt;$I$8,J$7*$B8,IF($B8&lt;$I$9,$B8*J$8,IF($B8&lt;$I$10,$B8*J$9,$B8*J$10)))</f>
         <v>110</v>
       </c>
-      <c r="D8" s="6">
-        <f t="shared" ref="D8:D26" si="2">C$3+IF($B8&lt;$I$8,K$7*$B8,IF($B8&lt;$I$9,$B8*K$8,IF($B8&lt;$I$10,$B8*K$9,$B8*K$10)))</f>
+      <c r="D8" s="5">
+        <f t="shared" ref="D8:D17" si="2">C$3+IF($B8&lt;$I$8,K$7*$B8,IF($B8&lt;$I$9,$B8*K$8,IF($B8&lt;$I$10,$B8*K$9,$B8*K$10)))</f>
         <v>11</v>
       </c>
-      <c r="E8" s="6">
-        <f t="shared" ref="E8:E26" si="3">D$3+IF($B8&lt;$I$8,L$7*$B8,IF($B8&lt;$I$9,$B8*L$8,IF($B8&lt;$I$10,$B8*L$9,$B8*L$10)))</f>
+      <c r="E8" s="5">
+        <f t="shared" ref="E8:E17" si="3">D$3+IF($B8&lt;$I$8,L$7*$B8,IF($B8&lt;$I$9,$B8*L$8,IF($B8&lt;$I$10,$B8*L$9,$B8*L$10)))</f>
         <v>9</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <f t="shared" ref="F8:F71" si="4">D8^2/(D8+E8)</f>
         <v>6.05</v>
       </c>
-      <c r="G8" s="6">
-        <f t="shared" ref="G8:G26" si="5">($G$2*(B8^3))/5</f>
+      <c r="G8" s="5">
+        <f t="shared" ref="G8:G16" si="5">($G$2*(B8^3))/5</f>
         <v>16</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>30</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <f>J7+J$11</f>
         <v>9</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <f t="shared" ref="K8:L8" si="6">K7+K$11</f>
         <v>6</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <f t="shared" si="4"/>
         <v>7.041666666666667</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>60</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <f t="shared" ref="J9:J10" si="7">J8+J$11</f>
         <v>13</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <f t="shared" ref="K9:K10" si="8">K8+K$11</f>
         <v>10</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <f t="shared" ref="L9:L10" si="9">L8+L$11</f>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <f t="shared" si="4"/>
         <v>8.0357142857142865</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>90</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
         <v>5</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <f t="shared" si="4"/>
         <v>9.03125</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <f t="shared" si="5"/>
         <v>250</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>4</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>4</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
         <v>6</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <f t="shared" si="4"/>
         <v>10.027777777777779</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f t="shared" si="5"/>
         <v>432</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <f t="shared" si="4"/>
         <v>11.025</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <f t="shared" si="5"/>
         <v>686</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
         <v>8</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="8">
         <f t="shared" si="4"/>
         <v>12.022727272727273</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <f t="shared" si="5"/>
         <v>1024</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
+      <c r="I14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="17"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8">
         <f t="shared" si="4"/>
         <v>13.020833333333334</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f t="shared" si="5"/>
         <v>1458</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+      <c r="I15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
         <v>10</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="8">
         <f t="shared" si="4"/>
         <v>14.01923076923077</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
+      <c r="I16" s="6">
+        <f ca="1">RANDBETWEEN($I$22,$I$23)</f>
+        <v>7</v>
+      </c>
+      <c r="J16" s="6">
+        <f ca="1">VLOOKUP($I16,$B$7:$G$126,2,0)</f>
+        <v>135</v>
+      </c>
+      <c r="K16" s="6">
+        <f ca="1">VLOOKUP($I16,$B$7:$G$126,3,0)</f>
+        <v>21</v>
+      </c>
+      <c r="L16" s="6">
+        <f ca="1">VLOOKUP($I16,$B$7:$G$126,4,0)</f>
+        <v>19</v>
+      </c>
+      <c r="M16" s="30">
+        <f ca="1">VLOOKUP($I16,$B$7:$G$126,5,0)</f>
+        <v>11.025</v>
+      </c>
+      <c r="N16" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="O16" s="24">
+        <f ca="1">K16*$N$16</f>
+        <v>25.2</v>
+      </c>
+      <c r="P16" s="24">
+        <f ca="1">K16*$N$17</f>
+        <v>105</v>
+      </c>
+      <c r="Q16" s="24">
+        <f ca="1">K16*$N$18</f>
+        <v>35.699999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
         <v>11</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <f>B$3+IF($B17&lt;$I$8,J$7*$B17,IF($B17&lt;$I$9,$B17*J$8,IF($B17&lt;$I$10,$B17*J$9,$B17*J$10)))</f>
         <v>155</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8">
         <f t="shared" si="4"/>
         <v>15.017857142857142</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f>($G$2*(B17^3))/5</f>
         <v>2662</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
+      <c r="I17" s="6">
+        <f ca="1">RANDBETWEEN($I$22,$I$23)</f>
+        <v>5</v>
+      </c>
+      <c r="J17" s="6">
+        <f ca="1">VLOOKUP($I17,$B$7:$G$126,2,0)</f>
+        <v>125</v>
+      </c>
+      <c r="K17" s="6">
+        <f ca="1">VLOOKUP($I17,$B$7:$G$126,3,0)</f>
+        <v>17</v>
+      </c>
+      <c r="L17" s="20">
+        <f ca="1">VLOOKUP($I17,$B$7:$G$126,4,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M17" s="30">
+        <f t="shared" ref="M17:M19" ca="1" si="10">VLOOKUP($I17,$B$7:$G$126,5,0)</f>
+        <v>9.03125</v>
+      </c>
+      <c r="N17" s="22">
+        <v>5</v>
+      </c>
+      <c r="O17" s="24">
+        <f t="shared" ref="O17:O19" ca="1" si="11">K17*$N$16</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="P17" s="24">
+        <f t="shared" ref="P17:P19" ca="1" si="12">K17*$N$17</f>
+        <v>85</v>
+      </c>
+      <c r="Q17" s="24">
+        <f t="shared" ref="Q17:Q19" ca="1" si="13">K17*$N$18</f>
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
         <v>12</v>
       </c>
-      <c r="C18" s="6">
-        <f t="shared" ref="C18:C37" si="10">B$3+IF($B18&lt;$I$8,J$7*$B18,IF($B18&lt;$I$9,$B18*J$8,IF($B18&lt;$I$10,$B18*J$9,$B18*J$10)))</f>
+      <c r="C18" s="5">
+        <f t="shared" ref="C18:C26" si="14">B$3+IF($B18&lt;$I$8,J$7*$B18,IF($B18&lt;$I$9,$B18*J$8,IF($B18&lt;$I$10,$B18*J$9,$B18*J$10)))</f>
         <v>160</v>
       </c>
-      <c r="D18" s="6">
-        <f t="shared" ref="D18:D47" si="11">C$3+IF($B18&lt;$I$8,K$7*$B18,IF($B18&lt;$I$9,$B18*K$8,IF($B18&lt;$I$10,$B18*K$9,$B18*K$10)))</f>
+      <c r="D18" s="5">
+        <f t="shared" ref="D18:D47" si="15">C$3+IF($B18&lt;$I$8,K$7*$B18,IF($B18&lt;$I$9,$B18*K$8,IF($B18&lt;$I$10,$B18*K$9,$B18*K$10)))</f>
         <v>31</v>
       </c>
-      <c r="E18" s="6">
-        <f t="shared" ref="E18:E47" si="12">D$3+IF($B18&lt;$I$8,L$7*$B18,IF($B18&lt;$I$9,$B18*L$8,IF($B18&lt;$I$10,$B18*L$9,$B18*L$10)))</f>
+      <c r="E18" s="5">
+        <f t="shared" ref="E18:E47" si="16">D$3+IF($B18&lt;$I$8,L$7*$B18,IF($B18&lt;$I$9,$B18*L$8,IF($B18&lt;$I$10,$B18*L$9,$B18*L$10)))</f>
         <v>29</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="8">
         <f t="shared" si="4"/>
         <v>16.016666666666666</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" ref="G18:G37" si="13">($G$2*(B18^3))/5</f>
+      <c r="G18" s="5">
+        <f t="shared" ref="G18:G26" si="17">($G$2*(B18^3))/5</f>
         <v>3456</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
+      <c r="I18" s="6">
+        <f ca="1">RANDBETWEEN($I$22,$I$23)</f>
+        <v>6</v>
+      </c>
+      <c r="J18" s="6">
+        <f ca="1">VLOOKUP($I18,$B$7:$G$126,2,0)</f>
+        <v>130</v>
+      </c>
+      <c r="K18" s="19">
+        <f ca="1">VLOOKUP($I18,$B$7:$G$126,3,0)</f>
+        <v>19</v>
+      </c>
+      <c r="L18" s="6">
+        <f ca="1">VLOOKUP($I18,$B$7:$G$126,4,0)</f>
+        <v>17</v>
+      </c>
+      <c r="M18" s="30">
+        <f t="shared" ca="1" si="10"/>
+        <v>10.027777777777779</v>
+      </c>
+      <c r="N18" s="22">
+        <v>1.7</v>
+      </c>
+      <c r="O18" s="24">
+        <f t="shared" ca="1" si="11"/>
+        <v>22.8</v>
+      </c>
+      <c r="P18" s="24">
+        <f t="shared" ca="1" si="12"/>
+        <v>95</v>
+      </c>
+      <c r="Q18" s="24">
+        <f t="shared" ca="1" si="13"/>
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
         <v>13</v>
       </c>
-      <c r="C19" s="6">
-        <f t="shared" si="10"/>
+      <c r="C19" s="5">
+        <f t="shared" si="14"/>
         <v>165</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" si="11"/>
+      <c r="D19" s="5">
+        <f t="shared" si="15"/>
         <v>33</v>
       </c>
-      <c r="E19" s="6">
-        <f t="shared" si="12"/>
+      <c r="E19" s="5">
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="8">
         <f t="shared" si="4"/>
         <v>17.015625</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="13"/>
+      <c r="G19" s="5">
+        <f t="shared" si="17"/>
         <v>4394</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
+      <c r="I19" s="6">
+        <f ca="1">RANDBETWEEN($I$22,$I$23)</f>
+        <v>10</v>
+      </c>
+      <c r="J19" s="6">
+        <f ca="1">VLOOKUP($I19,$B$7:$G$126,2,0)</f>
+        <v>150</v>
+      </c>
+      <c r="K19" s="19">
+        <f ca="1">VLOOKUP($I19,$B$7:$G$126,3,0)</f>
+        <v>27</v>
+      </c>
+      <c r="L19" s="6">
+        <f ca="1">VLOOKUP($I19,$B$7:$G$126,4,0)</f>
+        <v>25</v>
+      </c>
+      <c r="M19" s="30">
+        <f t="shared" ca="1" si="10"/>
+        <v>14.01923076923077</v>
+      </c>
+      <c r="N19" s="25"/>
+      <c r="O19" s="24">
+        <f t="shared" ca="1" si="11"/>
+        <v>32.4</v>
+      </c>
+      <c r="P19" s="24">
+        <f t="shared" ca="1" si="12"/>
+        <v>135</v>
+      </c>
+      <c r="Q19" s="24">
+        <f t="shared" ca="1" si="13"/>
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
         <v>14</v>
       </c>
-      <c r="C20" s="6">
-        <f t="shared" si="10"/>
+      <c r="C20" s="5">
+        <f t="shared" si="14"/>
         <v>170</v>
       </c>
-      <c r="D20" s="6">
-        <f t="shared" si="11"/>
+      <c r="D20" s="5">
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
-      <c r="E20" s="6">
-        <f t="shared" si="12"/>
+      <c r="E20" s="5">
+        <f t="shared" si="16"/>
         <v>33</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="8">
         <f t="shared" si="4"/>
         <v>18.014705882352942</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="13"/>
+      <c r="G20" s="5">
+        <f t="shared" si="17"/>
         <v>5488</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
         <v>15</v>
       </c>
-      <c r="C21" s="6">
-        <f t="shared" si="10"/>
+      <c r="C21" s="5">
+        <f t="shared" si="14"/>
         <v>175</v>
       </c>
-      <c r="D21" s="6">
-        <f t="shared" si="11"/>
+      <c r="D21" s="5">
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
-      <c r="E21" s="6">
-        <f t="shared" si="12"/>
+      <c r="E21" s="5">
+        <f t="shared" si="16"/>
         <v>35</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="8">
         <f t="shared" si="4"/>
         <v>19.013888888888889</v>
       </c>
-      <c r="G21" s="6">
-        <f t="shared" si="13"/>
+      <c r="G21" s="5">
+        <f t="shared" si="17"/>
         <v>6750</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
         <v>16</v>
       </c>
-      <c r="C22" s="6">
-        <f t="shared" si="10"/>
+      <c r="C22" s="5">
+        <f t="shared" si="14"/>
         <v>180</v>
       </c>
-      <c r="D22" s="6">
-        <f t="shared" si="11"/>
+      <c r="D22" s="5">
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
-      <c r="E22" s="6">
-        <f t="shared" si="12"/>
+      <c r="E22" s="5">
+        <f t="shared" si="16"/>
         <v>37</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="8">
         <f t="shared" si="4"/>
         <v>20.013157894736842</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" si="13"/>
+      <c r="G22" s="5">
+        <f t="shared" si="17"/>
         <v>8192</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
+      <c r="I22" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
         <v>17</v>
       </c>
-      <c r="C23" s="6">
-        <f t="shared" si="10"/>
+      <c r="C23" s="5">
+        <f t="shared" si="14"/>
         <v>185</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" si="11"/>
+      <c r="D23" s="5">
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
-      <c r="E23" s="6">
-        <f t="shared" si="12"/>
+      <c r="E23" s="5">
+        <f t="shared" si="16"/>
         <v>39</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="8">
         <f t="shared" si="4"/>
         <v>21.012499999999999</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="13"/>
+      <c r="G23" s="5">
+        <f t="shared" si="17"/>
         <v>9826</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
+      <c r="I23" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
         <v>18</v>
       </c>
-      <c r="C24" s="6">
-        <f t="shared" si="10"/>
+      <c r="C24" s="5">
+        <f t="shared" si="14"/>
         <v>190</v>
       </c>
-      <c r="D24" s="6">
-        <f t="shared" si="11"/>
+      <c r="D24" s="5">
+        <f t="shared" si="15"/>
         <v>43</v>
       </c>
-      <c r="E24" s="6">
-        <f t="shared" si="12"/>
+      <c r="E24" s="5">
+        <f t="shared" si="16"/>
         <v>41</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="8">
         <f t="shared" si="4"/>
         <v>22.011904761904763</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="13"/>
+      <c r="G24" s="5">
+        <f t="shared" si="17"/>
         <v>11664</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
         <v>19</v>
       </c>
-      <c r="C25" s="6">
-        <f t="shared" si="10"/>
+      <c r="C25" s="5">
+        <f t="shared" si="14"/>
         <v>195</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" si="11"/>
+      <c r="D25" s="5">
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
-      <c r="E25" s="6">
-        <f t="shared" si="12"/>
+      <c r="E25" s="5">
+        <f t="shared" si="16"/>
         <v>43</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="8">
         <f t="shared" si="4"/>
         <v>23.011363636363637</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="13"/>
+      <c r="G25" s="5">
+        <f t="shared" si="17"/>
         <v>13718</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="6">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
         <v>20</v>
       </c>
-      <c r="C26" s="6">
-        <f t="shared" si="10"/>
+      <c r="C26" s="5">
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
-      <c r="D26" s="6">
-        <f t="shared" si="11"/>
+      <c r="D26" s="5">
+        <f t="shared" si="15"/>
         <v>47</v>
       </c>
-      <c r="E26" s="6">
-        <f t="shared" si="12"/>
+      <c r="E26" s="5">
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="8">
         <f t="shared" si="4"/>
         <v>24.010869565217391</v>
       </c>
-      <c r="G26" s="6">
-        <f t="shared" si="13"/>
+      <c r="G26" s="5">
+        <f t="shared" si="17"/>
         <v>16000</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
+      <c r="I26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
         <v>21</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <f>B$3+IF($B27&lt;$I$8,J$7*$B27,IF($B27&lt;$I$9,$B27*J$8,IF($B27&lt;$I$10,$B27*J$9,$B27*J$10)))</f>
         <v>205</v>
       </c>
-      <c r="D27" s="6">
-        <f t="shared" si="11"/>
+      <c r="D27" s="5">
+        <f t="shared" si="15"/>
         <v>49</v>
       </c>
-      <c r="E27" s="6">
-        <f t="shared" si="12"/>
+      <c r="E27" s="5">
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="8">
         <f t="shared" si="4"/>
         <v>25.010416666666668</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <f>($G$2*(B27^3))/5</f>
         <v>18522</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="6">
+      <c r="I27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
         <v>22</v>
       </c>
-      <c r="C28" s="6">
-        <f t="shared" ref="C28:C36" si="14">B$3+IF($B28&lt;$I$8,J$7*$B28,IF($B28&lt;$I$9,$B28*J$8,IF($B28&lt;$I$10,$B28*J$9,$B28*J$10)))</f>
+      <c r="C28" s="5">
+        <f t="shared" ref="C28:C36" si="18">B$3+IF($B28&lt;$I$8,J$7*$B28,IF($B28&lt;$I$9,$B28*J$8,IF($B28&lt;$I$10,$B28*J$9,$B28*J$10)))</f>
         <v>210</v>
       </c>
-      <c r="D28" s="6">
-        <f t="shared" si="11"/>
+      <c r="D28" s="5">
+        <f t="shared" si="15"/>
         <v>51</v>
       </c>
-      <c r="E28" s="6">
-        <f t="shared" si="12"/>
+      <c r="E28" s="5">
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="8">
         <f t="shared" si="4"/>
         <v>26.01</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" ref="G28:G36" si="15">($G$2*(B28^3))/5</f>
+      <c r="G28" s="5">
+        <f t="shared" ref="G28:G36" si="19">($G$2*(B28^3))/5</f>
         <v>21296</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="6">
+      <c r="I28" s="2">
+        <f ca="1">RANDBETWEEN(MIN(I16:I19),MAX(I16:I19))</f>
+        <v>10</v>
+      </c>
+      <c r="J28" s="2">
+        <f ca="1">AVERAGE(J16:J19)*4*$M$28</f>
+        <v>270</v>
+      </c>
+      <c r="K28" s="2">
+        <f ca="1">AVERAGE(K16:K19)*4*$M$28</f>
+        <v>42</v>
+      </c>
+      <c r="L28" s="2">
+        <f ca="1">AVERAGE(L16:L19)*4*$M$28</f>
+        <v>38</v>
+      </c>
+      <c r="M28" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="6">
-        <f t="shared" si="14"/>
+      <c r="C29" s="5">
+        <f t="shared" si="18"/>
         <v>215</v>
       </c>
-      <c r="D29" s="6">
-        <f t="shared" si="11"/>
+      <c r="D29" s="5">
+        <f t="shared" si="15"/>
         <v>53</v>
       </c>
-      <c r="E29" s="6">
-        <f t="shared" si="12"/>
+      <c r="E29" s="5">
+        <f t="shared" si="16"/>
         <v>51</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="8">
         <f t="shared" si="4"/>
         <v>27.009615384615383</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
+        <f t="shared" si="19"/>
+        <v>24334</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <v>24</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="18"/>
+        <v>220</v>
+      </c>
+      <c r="D30" s="5">
         <f t="shared" si="15"/>
-        <v>24334</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="6">
-        <v>24</v>
-      </c>
-      <c r="C30" s="6">
-        <f t="shared" si="14"/>
-        <v>220</v>
-      </c>
-      <c r="D30" s="6">
-        <f t="shared" si="11"/>
         <v>55</v>
       </c>
-      <c r="E30" s="6">
-        <f t="shared" si="12"/>
+      <c r="E30" s="5">
+        <f t="shared" si="16"/>
         <v>53</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="8">
         <f t="shared" si="4"/>
         <v>28.00925925925926</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
+        <f t="shared" si="19"/>
+        <v>27648</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <v>25</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="18"/>
+        <v>225</v>
+      </c>
+      <c r="D31" s="5">
         <f t="shared" si="15"/>
-        <v>27648</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="6">
-        <v>25</v>
-      </c>
-      <c r="C31" s="6">
-        <f t="shared" si="14"/>
-        <v>225</v>
-      </c>
-      <c r="D31" s="6">
-        <f t="shared" si="11"/>
         <v>57</v>
       </c>
-      <c r="E31" s="6">
-        <f t="shared" si="12"/>
+      <c r="E31" s="5">
+        <f t="shared" si="16"/>
         <v>55</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="8">
         <f t="shared" si="4"/>
         <v>29.008928571428573</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
+        <f t="shared" si="19"/>
+        <v>31250</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>26</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="18"/>
+        <v>230</v>
+      </c>
+      <c r="D32" s="5">
         <f t="shared" si="15"/>
-        <v>31250</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="6">
-        <v>26</v>
-      </c>
-      <c r="C32" s="6">
-        <f t="shared" si="14"/>
-        <v>230</v>
-      </c>
-      <c r="D32" s="6">
-        <f t="shared" si="11"/>
         <v>59</v>
       </c>
-      <c r="E32" s="6">
-        <f t="shared" si="12"/>
+      <c r="E32" s="5">
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="8">
         <f t="shared" si="4"/>
         <v>30.008620689655171</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
+        <f t="shared" si="19"/>
+        <v>35152</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>27</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="18"/>
+        <v>235</v>
+      </c>
+      <c r="D33" s="5">
         <f t="shared" si="15"/>
-        <v>35152</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="6">
-        <v>27</v>
-      </c>
-      <c r="C33" s="6">
-        <f t="shared" si="14"/>
-        <v>235</v>
-      </c>
-      <c r="D33" s="6">
-        <f t="shared" si="11"/>
         <v>61</v>
       </c>
-      <c r="E33" s="6">
-        <f t="shared" si="12"/>
+      <c r="E33" s="5">
+        <f t="shared" si="16"/>
         <v>59</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="8">
         <f t="shared" si="4"/>
         <v>31.008333333333333</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
+        <f t="shared" si="19"/>
+        <v>39366</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <v>28</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="18"/>
+        <v>240</v>
+      </c>
+      <c r="D34" s="5">
         <f t="shared" si="15"/>
-        <v>39366</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="6">
-        <v>28</v>
-      </c>
-      <c r="C34" s="6">
-        <f t="shared" si="14"/>
-        <v>240</v>
-      </c>
-      <c r="D34" s="6">
-        <f t="shared" si="11"/>
         <v>63</v>
       </c>
-      <c r="E34" s="6">
-        <f t="shared" si="12"/>
+      <c r="E34" s="5">
+        <f t="shared" si="16"/>
         <v>61</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="8">
         <f t="shared" si="4"/>
         <v>32.008064516129032</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
+        <f t="shared" si="19"/>
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <v>29</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="18"/>
+        <v>245</v>
+      </c>
+      <c r="D35" s="5">
         <f t="shared" si="15"/>
-        <v>43904</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="6">
-        <v>29</v>
-      </c>
-      <c r="C35" s="6">
-        <f t="shared" si="14"/>
-        <v>245</v>
-      </c>
-      <c r="D35" s="6">
-        <f t="shared" si="11"/>
         <v>65</v>
       </c>
-      <c r="E35" s="6">
-        <f t="shared" si="12"/>
+      <c r="E35" s="5">
+        <f t="shared" si="16"/>
         <v>63</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="8">
         <f t="shared" si="4"/>
         <v>33.0078125</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
+        <f t="shared" si="19"/>
+        <v>48778</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
+        <v>30</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="18"/>
+        <v>370</v>
+      </c>
+      <c r="D36" s="5">
         <f t="shared" si="15"/>
-        <v>48778</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="6">
-        <v>30</v>
-      </c>
-      <c r="C36" s="6">
-        <f t="shared" si="14"/>
-        <v>370</v>
-      </c>
-      <c r="D36" s="6">
-        <f t="shared" si="11"/>
         <v>187</v>
       </c>
-      <c r="E36" s="6">
-        <f t="shared" si="12"/>
+      <c r="E36" s="5">
+        <f t="shared" si="16"/>
         <v>155</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="8">
         <f t="shared" si="4"/>
         <v>102.24853801169591</v>
       </c>
-      <c r="G36" s="6">
-        <f t="shared" si="15"/>
+      <c r="G36" s="5">
+        <f t="shared" si="19"/>
         <v>54000</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>31</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <f>B$3+IF($B37&lt;$I$8,J$7*$B37,IF($B37&lt;$I$9,$B37*J$8,IF($B37&lt;$I$10,$B37*J$9,$B37*J$10)))</f>
         <v>379</v>
       </c>
-      <c r="D37" s="6">
-        <f t="shared" si="11"/>
+      <c r="D37" s="5">
+        <f t="shared" si="15"/>
         <v>193</v>
       </c>
-      <c r="E37" s="6">
-        <f t="shared" si="12"/>
+      <c r="E37" s="5">
+        <f t="shared" si="16"/>
         <v>160</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="8">
         <f t="shared" si="4"/>
         <v>105.52124645892351</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <f>($G$2*(B37^3))/5</f>
         <v>59582</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>32</v>
       </c>
-      <c r="C38" s="6">
-        <f t="shared" ref="C38:C46" si="16">B$3+IF($B38&lt;$I$8,J$7*$B38,IF($B38&lt;$I$9,$B38*J$8,IF($B38&lt;$I$10,$B38*J$9,$B38*J$10)))</f>
+      <c r="C38" s="5">
+        <f t="shared" ref="C38:C46" si="20">B$3+IF($B38&lt;$I$8,J$7*$B38,IF($B38&lt;$I$9,$B38*J$8,IF($B38&lt;$I$10,$B38*J$9,$B38*J$10)))</f>
         <v>388</v>
       </c>
-      <c r="D38" s="6">
-        <f t="shared" si="11"/>
+      <c r="D38" s="5">
+        <f t="shared" si="15"/>
         <v>199</v>
       </c>
-      <c r="E38" s="6">
-        <f t="shared" si="12"/>
+      <c r="E38" s="5">
+        <f t="shared" si="16"/>
         <v>165</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="8">
         <f t="shared" si="4"/>
         <v>108.79395604395604</v>
       </c>
-      <c r="G38" s="6">
-        <f t="shared" ref="G38:G54" si="17">($G$2*(B38^3))/5</f>
+      <c r="G38" s="5">
+        <f t="shared" ref="G38:G46" si="21">($G$2*(B38^3))/5</f>
         <v>65536</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>33</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
+        <f t="shared" si="20"/>
+        <v>397</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="15"/>
+        <v>205</v>
+      </c>
+      <c r="E39" s="5">
         <f t="shared" si="16"/>
-        <v>397</v>
-      </c>
-      <c r="D39" s="6">
-        <f t="shared" si="11"/>
-        <v>205</v>
-      </c>
-      <c r="E39" s="6">
-        <f t="shared" si="12"/>
         <v>170</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="8">
         <f t="shared" si="4"/>
         <v>112.06666666666666</v>
       </c>
-      <c r="G39" s="6">
-        <f t="shared" si="17"/>
+      <c r="G39" s="5">
+        <f t="shared" si="21"/>
         <v>71874</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>34</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
+        <f t="shared" si="20"/>
+        <v>406</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="15"/>
+        <v>211</v>
+      </c>
+      <c r="E40" s="5">
         <f t="shared" si="16"/>
-        <v>406</v>
-      </c>
-      <c r="D40" s="6">
-        <f t="shared" si="11"/>
-        <v>211</v>
-      </c>
-      <c r="E40" s="6">
-        <f t="shared" si="12"/>
         <v>175</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="8">
         <f t="shared" si="4"/>
         <v>115.33937823834196</v>
       </c>
-      <c r="G40" s="6">
-        <f t="shared" si="17"/>
+      <c r="G40" s="5">
+        <f t="shared" si="21"/>
         <v>78608</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>35</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
+        <f t="shared" si="20"/>
+        <v>415</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="15"/>
+        <v>217</v>
+      </c>
+      <c r="E41" s="5">
         <f t="shared" si="16"/>
-        <v>415</v>
-      </c>
-      <c r="D41" s="6">
-        <f t="shared" si="11"/>
-        <v>217</v>
-      </c>
-      <c r="E41" s="6">
-        <f t="shared" si="12"/>
         <v>180</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="8">
         <f t="shared" si="4"/>
         <v>118.61209068010075</v>
       </c>
-      <c r="G41" s="6">
-        <f t="shared" si="17"/>
+      <c r="G41" s="5">
+        <f t="shared" si="21"/>
         <v>85750</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>36</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
+        <f t="shared" si="20"/>
+        <v>424</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="15"/>
+        <v>223</v>
+      </c>
+      <c r="E42" s="5">
         <f t="shared" si="16"/>
-        <v>424</v>
-      </c>
-      <c r="D42" s="6">
-        <f t="shared" si="11"/>
-        <v>223</v>
-      </c>
-      <c r="E42" s="6">
-        <f t="shared" si="12"/>
         <v>185</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="8">
         <f t="shared" si="4"/>
         <v>121.88480392156863</v>
       </c>
-      <c r="G42" s="6">
-        <f t="shared" si="17"/>
+      <c r="G42" s="5">
+        <f t="shared" si="21"/>
         <v>93312</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>37</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
+        <f t="shared" si="20"/>
+        <v>433</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="15"/>
+        <v>229</v>
+      </c>
+      <c r="E43" s="5">
         <f t="shared" si="16"/>
-        <v>433</v>
-      </c>
-      <c r="D43" s="6">
-        <f t="shared" si="11"/>
-        <v>229</v>
-      </c>
-      <c r="E43" s="6">
-        <f t="shared" si="12"/>
         <v>190</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="8">
         <f t="shared" si="4"/>
         <v>125.15751789976133</v>
       </c>
-      <c r="G43" s="6">
-        <f t="shared" si="17"/>
+      <c r="G43" s="5">
+        <f t="shared" si="21"/>
         <v>101306</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>38</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
+        <f t="shared" si="20"/>
+        <v>442</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="15"/>
+        <v>235</v>
+      </c>
+      <c r="E44" s="5">
         <f t="shared" si="16"/>
-        <v>442</v>
-      </c>
-      <c r="D44" s="6">
-        <f t="shared" si="11"/>
-        <v>235</v>
-      </c>
-      <c r="E44" s="6">
-        <f t="shared" si="12"/>
         <v>195</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="8">
         <f t="shared" si="4"/>
         <v>128.43023255813952</v>
       </c>
-      <c r="G44" s="6">
-        <f t="shared" si="17"/>
+      <c r="G44" s="5">
+        <f t="shared" si="21"/>
         <v>109744</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>39</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
+        <f t="shared" si="20"/>
+        <v>451</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="15"/>
+        <v>241</v>
+      </c>
+      <c r="E45" s="5">
         <f t="shared" si="16"/>
-        <v>451</v>
-      </c>
-      <c r="D45" s="6">
-        <f t="shared" si="11"/>
-        <v>241</v>
-      </c>
-      <c r="E45" s="6">
-        <f t="shared" si="12"/>
         <v>200</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="8">
         <f t="shared" si="4"/>
         <v>131.702947845805</v>
       </c>
-      <c r="G45" s="6">
-        <f t="shared" si="17"/>
+      <c r="G45" s="5">
+        <f t="shared" si="21"/>
         <v>118638</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>40</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
+        <f t="shared" si="20"/>
+        <v>460</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="15"/>
+        <v>247</v>
+      </c>
+      <c r="E46" s="5">
         <f t="shared" si="16"/>
-        <v>460</v>
-      </c>
-      <c r="D46" s="6">
-        <f t="shared" si="11"/>
-        <v>247</v>
-      </c>
-      <c r="E46" s="6">
-        <f t="shared" si="12"/>
         <v>205</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="8">
         <f t="shared" si="4"/>
         <v>134.97566371681415</v>
       </c>
-      <c r="G46" s="6">
-        <f t="shared" si="17"/>
+      <c r="G46" s="5">
+        <f t="shared" si="21"/>
         <v>128000</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>41</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <f>B$3+IF($B47&lt;$I$8,J$7*$B47,IF($B47&lt;$I$9,$B47*J$8,IF($B47&lt;$I$10,$B47*J$9,$B47*J$10)))</f>
         <v>469</v>
       </c>
-      <c r="D47" s="6">
-        <f t="shared" si="11"/>
+      <c r="D47" s="5">
+        <f t="shared" si="15"/>
         <v>253</v>
       </c>
-      <c r="E47" s="6">
-        <f t="shared" si="12"/>
+      <c r="E47" s="5">
+        <f t="shared" si="16"/>
         <v>210</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="8">
         <f t="shared" si="4"/>
         <v>138.24838012958963</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <f>($G$2*(B47^3))/5</f>
         <v>137842</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>42</v>
       </c>
-      <c r="C48" s="6">
-        <f t="shared" ref="C48:C54" si="18">B$3+IF($B48&lt;$I$8,J$7*$B48,IF($B48&lt;$I$9,$B48*J$8,IF($B48&lt;$I$10,$B48*J$9,$B48*J$10)))</f>
+      <c r="C48" s="5">
+        <f t="shared" ref="C48:C54" si="22">B$3+IF($B48&lt;$I$8,J$7*$B48,IF($B48&lt;$I$9,$B48*J$8,IF($B48&lt;$I$10,$B48*J$9,$B48*J$10)))</f>
         <v>478</v>
       </c>
-      <c r="D48" s="6">
-        <f t="shared" ref="D48:D111" si="19">C$3+IF($B48&lt;$I$8,K$7*$B48,IF($B48&lt;$I$9,$B48*K$8,IF($B48&lt;$I$10,$B48*K$9,$B48*K$10)))</f>
+      <c r="D48" s="5">
+        <f t="shared" ref="D48:D111" si="23">C$3+IF($B48&lt;$I$8,K$7*$B48,IF($B48&lt;$I$9,$B48*K$8,IF($B48&lt;$I$10,$B48*K$9,$B48*K$10)))</f>
         <v>259</v>
       </c>
-      <c r="E48" s="6">
-        <f t="shared" ref="E48:E111" si="20">D$3+IF($B48&lt;$I$8,L$7*$B48,IF($B48&lt;$I$9,$B48*L$8,IF($B48&lt;$I$10,$B48*L$9,$B48*L$10)))</f>
+      <c r="E48" s="5">
+        <f t="shared" ref="E48:E111" si="24">D$3+IF($B48&lt;$I$8,L$7*$B48,IF($B48&lt;$I$9,$B48*L$8,IF($B48&lt;$I$10,$B48*L$9,$B48*L$10)))</f>
         <v>215</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="8">
         <f t="shared" si="4"/>
         <v>141.5210970464135</v>
       </c>
-      <c r="G48" s="6">
-        <f t="shared" ref="G48:G54" si="21">($G$2*(B48^3))/5</f>
+      <c r="G48" s="5">
+        <f t="shared" ref="G48:G54" si="25">($G$2*(B48^3))/5</f>
         <v>148176</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>43</v>
       </c>
-      <c r="C49" s="6">
-        <f t="shared" si="18"/>
+      <c r="C49" s="5">
+        <f t="shared" si="22"/>
         <v>487</v>
       </c>
-      <c r="D49" s="6">
-        <f t="shared" si="19"/>
+      <c r="D49" s="5">
+        <f t="shared" si="23"/>
         <v>265</v>
       </c>
-      <c r="E49" s="6">
-        <f t="shared" si="20"/>
+      <c r="E49" s="5">
+        <f t="shared" si="24"/>
         <v>220</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="8">
         <f t="shared" si="4"/>
         <v>144.79381443298968</v>
       </c>
-      <c r="G49" s="6">
-        <f t="shared" si="21"/>
+      <c r="G49" s="5">
+        <f t="shared" si="25"/>
         <v>159014</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>44</v>
       </c>
-      <c r="C50" s="6">
-        <f t="shared" si="18"/>
+      <c r="C50" s="5">
+        <f t="shared" si="22"/>
         <v>496</v>
       </c>
-      <c r="D50" s="6">
-        <f t="shared" si="19"/>
+      <c r="D50" s="5">
+        <f t="shared" si="23"/>
         <v>271</v>
       </c>
-      <c r="E50" s="6">
-        <f t="shared" si="20"/>
+      <c r="E50" s="5">
+        <f t="shared" si="24"/>
         <v>225</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="8">
         <f t="shared" si="4"/>
         <v>148.06653225806451</v>
       </c>
-      <c r="G50" s="6">
-        <f t="shared" si="21"/>
+      <c r="G50" s="5">
+        <f t="shared" si="25"/>
         <v>170368</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <v>45</v>
       </c>
-      <c r="C51" s="6">
-        <f t="shared" si="18"/>
+      <c r="C51" s="5">
+        <f t="shared" si="22"/>
         <v>505</v>
       </c>
-      <c r="D51" s="6">
-        <f t="shared" si="19"/>
+      <c r="D51" s="5">
+        <f t="shared" si="23"/>
         <v>277</v>
       </c>
-      <c r="E51" s="6">
-        <f t="shared" si="20"/>
+      <c r="E51" s="5">
+        <f t="shared" si="24"/>
         <v>230</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="8">
         <f t="shared" si="4"/>
         <v>151.33925049309664</v>
       </c>
-      <c r="G51" s="6">
-        <f t="shared" si="21"/>
+      <c r="G51" s="5">
+        <f t="shared" si="25"/>
         <v>182250</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>46</v>
       </c>
-      <c r="C52" s="6">
-        <f t="shared" si="18"/>
+      <c r="C52" s="5">
+        <f t="shared" si="22"/>
         <v>514</v>
       </c>
-      <c r="D52" s="6">
-        <f t="shared" si="19"/>
+      <c r="D52" s="5">
+        <f t="shared" si="23"/>
         <v>283</v>
       </c>
-      <c r="E52" s="6">
-        <f t="shared" si="20"/>
+      <c r="E52" s="5">
+        <f t="shared" si="24"/>
         <v>235</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="8">
         <f t="shared" si="4"/>
         <v>154.6119691119691</v>
       </c>
-      <c r="G52" s="6">
-        <f t="shared" si="21"/>
+      <c r="G52" s="5">
+        <f t="shared" si="25"/>
         <v>194672</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>47</v>
       </c>
-      <c r="C53" s="6">
-        <f t="shared" si="18"/>
+      <c r="C53" s="5">
+        <f t="shared" si="22"/>
         <v>523</v>
       </c>
-      <c r="D53" s="6">
-        <f t="shared" si="19"/>
+      <c r="D53" s="5">
+        <f t="shared" si="23"/>
         <v>289</v>
       </c>
-      <c r="E53" s="6">
-        <f t="shared" si="20"/>
+      <c r="E53" s="5">
+        <f t="shared" si="24"/>
         <v>240</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="8">
         <f t="shared" si="4"/>
         <v>157.88468809073723</v>
       </c>
-      <c r="G53" s="6">
-        <f t="shared" si="21"/>
+      <c r="G53" s="5">
+        <f t="shared" si="25"/>
         <v>207646</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>48</v>
       </c>
-      <c r="C54" s="6">
-        <f t="shared" si="18"/>
+      <c r="C54" s="5">
+        <f t="shared" si="22"/>
         <v>532</v>
       </c>
-      <c r="D54" s="6">
-        <f t="shared" si="19"/>
+      <c r="D54" s="5">
+        <f t="shared" si="23"/>
         <v>295</v>
       </c>
-      <c r="E54" s="6">
-        <f t="shared" si="20"/>
+      <c r="E54" s="5">
+        <f t="shared" si="24"/>
         <v>245</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="8">
         <f t="shared" si="4"/>
         <v>161.15740740740742</v>
       </c>
-      <c r="G54" s="6">
-        <f t="shared" si="21"/>
+      <c r="G54" s="5">
+        <f t="shared" si="25"/>
         <v>221184</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="6">
+      <c r="B55" s="5">
         <v>49</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <f>B$3+IF($B55&lt;$I$8,J$7*$B55,IF($B55&lt;$I$9,$B55*J$8,IF($B55&lt;$I$10,$B55*J$9,$B55*J$10)))</f>
         <v>541</v>
       </c>
-      <c r="D55" s="6">
-        <f t="shared" si="19"/>
+      <c r="D55" s="5">
+        <f t="shared" si="23"/>
         <v>301</v>
       </c>
-      <c r="E55" s="6">
-        <f t="shared" si="20"/>
+      <c r="E55" s="5">
+        <f t="shared" si="24"/>
         <v>250</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="8">
         <f t="shared" si="4"/>
         <v>164.43012704174228</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="5">
         <f>($G$2*(B55^3))/5</f>
         <v>235298</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="6">
+      <c r="B56" s="5">
         <v>50</v>
       </c>
-      <c r="C56" s="6">
-        <f t="shared" ref="C56:C64" si="22">B$3+IF($B56&lt;$I$8,J$7*$B56,IF($B56&lt;$I$9,$B56*J$8,IF($B56&lt;$I$10,$B56*J$9,$B56*J$10)))</f>
+      <c r="C56" s="5">
+        <f t="shared" ref="C56:C64" si="26">B$3+IF($B56&lt;$I$8,J$7*$B56,IF($B56&lt;$I$9,$B56*J$8,IF($B56&lt;$I$10,$B56*J$9,$B56*J$10)))</f>
         <v>550</v>
       </c>
-      <c r="D56" s="6">
-        <f t="shared" si="19"/>
+      <c r="D56" s="5">
+        <f t="shared" si="23"/>
         <v>307</v>
       </c>
-      <c r="E56" s="6">
-        <f t="shared" si="20"/>
+      <c r="E56" s="5">
+        <f t="shared" si="24"/>
         <v>255</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="8">
         <f t="shared" si="4"/>
         <v>167.70284697508896</v>
       </c>
-      <c r="G56" s="6">
-        <f t="shared" ref="G56:G74" si="23">($G$2*(B56^3))/5</f>
+      <c r="G56" s="5">
+        <f t="shared" ref="G56:G64" si="27">($G$2*(B56^3))/5</f>
         <v>250000</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>51</v>
       </c>
-      <c r="C57" s="6">
-        <f t="shared" si="22"/>
+      <c r="C57" s="5">
+        <f t="shared" si="26"/>
         <v>559</v>
       </c>
-      <c r="D57" s="6">
-        <f t="shared" si="19"/>
+      <c r="D57" s="5">
+        <f t="shared" si="23"/>
         <v>313</v>
       </c>
-      <c r="E57" s="6">
-        <f t="shared" si="20"/>
+      <c r="E57" s="5">
+        <f t="shared" si="24"/>
         <v>260</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="8">
         <f t="shared" si="4"/>
         <v>170.97556719022688</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="5">
+        <f t="shared" si="27"/>
+        <v>265302</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="5">
+        <v>52</v>
+      </c>
+      <c r="C58" s="5">
+        <f t="shared" si="26"/>
+        <v>568</v>
+      </c>
+      <c r="D58" s="5">
         <f t="shared" si="23"/>
-        <v>265302</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="6">
-        <v>52</v>
-      </c>
-      <c r="C58" s="6">
-        <f t="shared" si="22"/>
-        <v>568</v>
-      </c>
-      <c r="D58" s="6">
-        <f t="shared" si="19"/>
         <v>319</v>
       </c>
-      <c r="E58" s="6">
-        <f t="shared" si="20"/>
+      <c r="E58" s="5">
+        <f t="shared" si="24"/>
         <v>265</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="8">
         <f t="shared" si="4"/>
         <v>174.24828767123287</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="5">
+        <f t="shared" si="27"/>
+        <v>281216</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="5">
+        <v>53</v>
+      </c>
+      <c r="C59" s="5">
+        <f t="shared" si="26"/>
+        <v>577</v>
+      </c>
+      <c r="D59" s="5">
         <f t="shared" si="23"/>
-        <v>281216</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="6">
-        <v>53</v>
-      </c>
-      <c r="C59" s="6">
-        <f t="shared" si="22"/>
-        <v>577</v>
-      </c>
-      <c r="D59" s="6">
-        <f t="shared" si="19"/>
         <v>325</v>
       </c>
-      <c r="E59" s="6">
-        <f t="shared" si="20"/>
+      <c r="E59" s="5">
+        <f t="shared" si="24"/>
         <v>270</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="8">
         <f t="shared" si="4"/>
         <v>177.52100840336135</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="5">
+        <f t="shared" si="27"/>
+        <v>297754</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="5">
+        <v>54</v>
+      </c>
+      <c r="C60" s="5">
+        <f t="shared" si="26"/>
+        <v>586</v>
+      </c>
+      <c r="D60" s="5">
         <f t="shared" si="23"/>
-        <v>297754</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="6">
-        <v>54</v>
-      </c>
-      <c r="C60" s="6">
-        <f t="shared" si="22"/>
-        <v>586</v>
-      </c>
-      <c r="D60" s="6">
-        <f t="shared" si="19"/>
         <v>331</v>
       </c>
-      <c r="E60" s="6">
-        <f t="shared" si="20"/>
+      <c r="E60" s="5">
+        <f t="shared" si="24"/>
         <v>275</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="8">
         <f t="shared" si="4"/>
         <v>180.79372937293729</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="5">
+        <f t="shared" si="27"/>
+        <v>314928</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="5">
+        <v>55</v>
+      </c>
+      <c r="C61" s="5">
+        <f t="shared" si="26"/>
+        <v>595</v>
+      </c>
+      <c r="D61" s="5">
         <f t="shared" si="23"/>
-        <v>314928</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="6">
-        <v>55</v>
-      </c>
-      <c r="C61" s="6">
-        <f t="shared" si="22"/>
-        <v>595</v>
-      </c>
-      <c r="D61" s="6">
-        <f t="shared" si="19"/>
         <v>337</v>
       </c>
-      <c r="E61" s="6">
-        <f t="shared" si="20"/>
+      <c r="E61" s="5">
+        <f t="shared" si="24"/>
         <v>280</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="8">
         <f t="shared" si="4"/>
         <v>184.06645056726094</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="5">
+        <f t="shared" si="27"/>
+        <v>332750</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="5">
+        <v>56</v>
+      </c>
+      <c r="C62" s="5">
+        <f t="shared" si="26"/>
+        <v>604</v>
+      </c>
+      <c r="D62" s="5">
         <f t="shared" si="23"/>
-        <v>332750</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="6">
-        <v>56</v>
-      </c>
-      <c r="C62" s="6">
-        <f t="shared" si="22"/>
-        <v>604</v>
-      </c>
-      <c r="D62" s="6">
-        <f t="shared" si="19"/>
         <v>343</v>
       </c>
-      <c r="E62" s="6">
-        <f t="shared" si="20"/>
+      <c r="E62" s="5">
+        <f t="shared" si="24"/>
         <v>285</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="8">
         <f t="shared" si="4"/>
         <v>187.33917197452229</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="5">
+        <f t="shared" si="27"/>
+        <v>351232</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="5">
+        <v>57</v>
+      </c>
+      <c r="C63" s="5">
+        <f t="shared" si="26"/>
+        <v>613</v>
+      </c>
+      <c r="D63" s="5">
         <f t="shared" si="23"/>
-        <v>351232</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="6">
-        <v>57</v>
-      </c>
-      <c r="C63" s="6">
-        <f t="shared" si="22"/>
-        <v>613</v>
-      </c>
-      <c r="D63" s="6">
-        <f t="shared" si="19"/>
         <v>349</v>
       </c>
-      <c r="E63" s="6">
-        <f t="shared" si="20"/>
+      <c r="E63" s="5">
+        <f t="shared" si="24"/>
         <v>290</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="8">
         <f t="shared" si="4"/>
         <v>190.61189358372457</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="5">
+        <f t="shared" si="27"/>
+        <v>370386</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="5">
+        <v>58</v>
+      </c>
+      <c r="C64" s="5">
+        <f t="shared" si="26"/>
+        <v>622</v>
+      </c>
+      <c r="D64" s="5">
         <f t="shared" si="23"/>
-        <v>370386</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="6">
-        <v>58</v>
-      </c>
-      <c r="C64" s="6">
-        <f t="shared" si="22"/>
-        <v>622</v>
-      </c>
-      <c r="D64" s="6">
-        <f t="shared" si="19"/>
         <v>355</v>
       </c>
-      <c r="E64" s="6">
-        <f t="shared" si="20"/>
+      <c r="E64" s="5">
+        <f t="shared" si="24"/>
         <v>295</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="8">
         <f t="shared" si="4"/>
         <v>193.88461538461539</v>
       </c>
-      <c r="G64" s="6">
-        <f t="shared" si="23"/>
+      <c r="G64" s="5">
+        <f t="shared" si="27"/>
         <v>390224</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>59</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <f>B$3+IF($B65&lt;$I$8,J$7*$B65,IF($B65&lt;$I$9,$B65*J$8,IF($B65&lt;$I$10,$B65*J$9,$B65*J$10)))</f>
         <v>631</v>
       </c>
-      <c r="D65" s="6">
-        <f t="shared" si="19"/>
+      <c r="D65" s="5">
+        <f t="shared" si="23"/>
         <v>361</v>
       </c>
-      <c r="E65" s="6">
-        <f t="shared" si="20"/>
+      <c r="E65" s="5">
+        <f t="shared" si="24"/>
         <v>300</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="8">
         <f t="shared" si="4"/>
         <v>197.15733736762482</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65" s="5">
         <f>($G$2*(B65^3))/5</f>
         <v>410758</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="6">
+      <c r="B66" s="5">
         <v>60</v>
       </c>
-      <c r="C66" s="6">
-        <f t="shared" ref="C66:C74" si="24">B$3+IF($B66&lt;$I$8,J$7*$B66,IF($B66&lt;$I$9,$B66*J$8,IF($B66&lt;$I$10,$B66*J$9,$B66*J$10)))</f>
+      <c r="C66" s="5">
+        <f t="shared" ref="C66:C74" si="28">B$3+IF($B66&lt;$I$8,J$7*$B66,IF($B66&lt;$I$9,$B66*J$8,IF($B66&lt;$I$10,$B66*J$9,$B66*J$10)))</f>
         <v>880</v>
       </c>
-      <c r="D66" s="6">
-        <f t="shared" si="19"/>
+      <c r="D66" s="5">
+        <f t="shared" si="23"/>
         <v>607</v>
       </c>
-      <c r="E66" s="6">
-        <f t="shared" si="20"/>
+      <c r="E66" s="5">
+        <f t="shared" si="24"/>
         <v>485</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="8">
         <f t="shared" si="4"/>
         <v>337.40750915750914</v>
       </c>
-      <c r="G66" s="6">
-        <f t="shared" ref="G66:G75" si="25">($G$2*(B66^3))/5</f>
+      <c r="G66" s="5">
+        <f t="shared" ref="G66:G74" si="29">($G$2*(B66^3))/5</f>
         <v>432000</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="6">
+      <c r="B67" s="5">
         <v>61</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="5">
+        <f t="shared" si="28"/>
+        <v>893</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" si="23"/>
+        <v>617</v>
+      </c>
+      <c r="E67" s="5">
         <f t="shared" si="24"/>
-        <v>893</v>
-      </c>
-      <c r="D67" s="6">
-        <f t="shared" si="19"/>
-        <v>617</v>
-      </c>
-      <c r="E67" s="6">
-        <f t="shared" si="20"/>
         <v>493</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="8">
         <f t="shared" si="4"/>
         <v>342.96306306306309</v>
       </c>
-      <c r="G67" s="6">
-        <f t="shared" si="25"/>
+      <c r="G67" s="5">
+        <f t="shared" si="29"/>
         <v>453962</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="6">
+      <c r="B68" s="5">
         <v>62</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="5">
+        <f t="shared" si="28"/>
+        <v>906</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="23"/>
+        <v>627</v>
+      </c>
+      <c r="E68" s="5">
         <f t="shared" si="24"/>
-        <v>906</v>
-      </c>
-      <c r="D68" s="6">
-        <f t="shared" si="19"/>
-        <v>627</v>
-      </c>
-      <c r="E68" s="6">
-        <f t="shared" si="20"/>
         <v>501</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="8">
         <f t="shared" si="4"/>
         <v>348.51861702127661</v>
       </c>
-      <c r="G68" s="6">
-        <f t="shared" si="25"/>
+      <c r="G68" s="5">
+        <f t="shared" si="29"/>
         <v>476656</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="6">
+      <c r="B69" s="5">
         <v>63</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="5">
+        <f t="shared" si="28"/>
+        <v>919</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" si="23"/>
+        <v>637</v>
+      </c>
+      <c r="E69" s="5">
         <f t="shared" si="24"/>
-        <v>919</v>
-      </c>
-      <c r="D69" s="6">
-        <f t="shared" si="19"/>
-        <v>637</v>
-      </c>
-      <c r="E69" s="6">
-        <f t="shared" si="20"/>
         <v>509</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="8">
         <f t="shared" si="4"/>
         <v>354.07417102966843</v>
       </c>
-      <c r="G69" s="6">
-        <f t="shared" si="25"/>
+      <c r="G69" s="5">
+        <f t="shared" si="29"/>
         <v>500094</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="6">
+      <c r="B70" s="5">
         <v>64</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="5">
+        <f t="shared" si="28"/>
+        <v>932</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="23"/>
+        <v>647</v>
+      </c>
+      <c r="E70" s="5">
         <f t="shared" si="24"/>
-        <v>932</v>
-      </c>
-      <c r="D70" s="6">
-        <f t="shared" si="19"/>
-        <v>647</v>
-      </c>
-      <c r="E70" s="6">
-        <f t="shared" si="20"/>
         <v>517</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="8">
         <f t="shared" si="4"/>
         <v>359.62972508591065</v>
       </c>
-      <c r="G70" s="6">
-        <f t="shared" si="25"/>
+      <c r="G70" s="5">
+        <f t="shared" si="29"/>
         <v>524288</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="6">
+      <c r="B71" s="5">
         <v>65</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="5">
+        <f t="shared" si="28"/>
+        <v>945</v>
+      </c>
+      <c r="D71" s="5">
+        <f t="shared" si="23"/>
+        <v>657</v>
+      </c>
+      <c r="E71" s="5">
         <f t="shared" si="24"/>
-        <v>945</v>
-      </c>
-      <c r="D71" s="6">
-        <f t="shared" si="19"/>
-        <v>657</v>
-      </c>
-      <c r="E71" s="6">
-        <f t="shared" si="20"/>
         <v>525</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F71" s="8">
         <f t="shared" si="4"/>
         <v>365.18527918781729</v>
       </c>
-      <c r="G71" s="6">
-        <f t="shared" si="25"/>
+      <c r="G71" s="5">
+        <f t="shared" si="29"/>
         <v>549250</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="6">
+      <c r="B72" s="5">
         <v>66</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="5">
+        <f t="shared" si="28"/>
+        <v>958</v>
+      </c>
+      <c r="D72" s="5">
+        <f t="shared" si="23"/>
+        <v>667</v>
+      </c>
+      <c r="E72" s="5">
         <f t="shared" si="24"/>
-        <v>958</v>
-      </c>
-      <c r="D72" s="6">
-        <f t="shared" si="19"/>
-        <v>667</v>
-      </c>
-      <c r="E72" s="6">
-        <f t="shared" si="20"/>
         <v>533</v>
       </c>
-      <c r="F72" s="11">
-        <f t="shared" ref="F72:F126" si="26">D72^2/(D72+E72)</f>
+      <c r="F72" s="8">
+        <f t="shared" ref="F72:F126" si="30">D72^2/(D72+E72)</f>
         <v>370.74083333333334</v>
       </c>
-      <c r="G72" s="6">
-        <f t="shared" si="25"/>
+      <c r="G72" s="5">
+        <f t="shared" si="29"/>
         <v>574992</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="6">
+      <c r="B73" s="5">
         <v>67</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="5">
+        <f t="shared" si="28"/>
+        <v>971</v>
+      </c>
+      <c r="D73" s="5">
+        <f t="shared" si="23"/>
+        <v>677</v>
+      </c>
+      <c r="E73" s="5">
         <f t="shared" si="24"/>
-        <v>971</v>
-      </c>
-      <c r="D73" s="6">
-        <f t="shared" si="19"/>
-        <v>677</v>
-      </c>
-      <c r="E73" s="6">
-        <f t="shared" si="20"/>
         <v>541</v>
       </c>
-      <c r="F73" s="11">
-        <f t="shared" si="26"/>
+      <c r="F73" s="8">
+        <f t="shared" si="30"/>
         <v>376.29638752052546</v>
       </c>
-      <c r="G73" s="6">
-        <f t="shared" si="25"/>
+      <c r="G73" s="5">
+        <f t="shared" si="29"/>
         <v>601526</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="6">
+      <c r="B74" s="5">
         <v>68</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="5">
+        <f t="shared" si="28"/>
+        <v>984</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" si="23"/>
+        <v>687</v>
+      </c>
+      <c r="E74" s="5">
         <f t="shared" si="24"/>
-        <v>984</v>
-      </c>
-      <c r="D74" s="6">
-        <f t="shared" si="19"/>
-        <v>687</v>
-      </c>
-      <c r="E74" s="6">
-        <f t="shared" si="20"/>
         <v>549</v>
       </c>
-      <c r="F74" s="11">
-        <f t="shared" si="26"/>
+      <c r="F74" s="8">
+        <f t="shared" si="30"/>
         <v>381.85194174757282</v>
       </c>
-      <c r="G74" s="6">
-        <f t="shared" si="25"/>
+      <c r="G74" s="5">
+        <f t="shared" si="29"/>
         <v>628864</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="6">
+      <c r="B75" s="5">
         <v>69</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="5">
         <f>B$3+IF($B75&lt;$I$8,J$7*$B75,IF($B75&lt;$I$9,$B75*J$8,IF($B75&lt;$I$10,$B75*J$9,$B75*J$10)))</f>
         <v>997</v>
       </c>
-      <c r="D75" s="6">
-        <f t="shared" si="19"/>
+      <c r="D75" s="5">
+        <f t="shared" si="23"/>
         <v>697</v>
       </c>
-      <c r="E75" s="6">
-        <f t="shared" si="20"/>
+      <c r="E75" s="5">
+        <f t="shared" si="24"/>
         <v>557</v>
       </c>
-      <c r="F75" s="11">
-        <f t="shared" si="26"/>
+      <c r="F75" s="8">
+        <f t="shared" si="30"/>
         <v>387.40749601275917</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G75" s="5">
         <f>($G$2*(B75^3))/5</f>
         <v>657018</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="6">
+      <c r="B76" s="5">
         <v>70</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="5">
         <f>B$3+IF($B76&lt;$I$8,J$7*$B76,IF($B76&lt;$I$9,$B76*J$8,IF($B76&lt;$I$10,$B76*J$9,$B76*J$10)))</f>
         <v>1010</v>
       </c>
-      <c r="D76" s="6">
-        <f t="shared" si="19"/>
+      <c r="D76" s="5">
+        <f t="shared" si="23"/>
         <v>707</v>
       </c>
-      <c r="E76" s="6">
-        <f t="shared" si="20"/>
+      <c r="E76" s="5">
+        <f t="shared" si="24"/>
         <v>565</v>
       </c>
-      <c r="F76" s="11">
-        <f t="shared" si="26"/>
+      <c r="F76" s="8">
+        <f t="shared" si="30"/>
         <v>392.96305031446542</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76" s="5">
         <f>($G$2*(B76^3))/5</f>
         <v>686000</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="6">
+      <c r="B77" s="5">
         <v>71</v>
       </c>
-      <c r="C77" s="6">
-        <f t="shared" ref="C77:C85" si="27">B$3+IF($B77&lt;$I$8,J$7*$B77,IF($B77&lt;$I$9,$B77*J$8,IF($B77&lt;$I$10,$B77*J$9,$B77*J$10)))</f>
+      <c r="C77" s="5">
+        <f t="shared" ref="C77:C85" si="31">B$3+IF($B77&lt;$I$8,J$7*$B77,IF($B77&lt;$I$9,$B77*J$8,IF($B77&lt;$I$10,$B77*J$9,$B77*J$10)))</f>
         <v>1023</v>
       </c>
-      <c r="D77" s="6">
-        <f t="shared" si="19"/>
+      <c r="D77" s="5">
+        <f t="shared" si="23"/>
         <v>717</v>
       </c>
-      <c r="E77" s="6">
-        <f t="shared" si="20"/>
+      <c r="E77" s="5">
+        <f t="shared" si="24"/>
         <v>573</v>
       </c>
-      <c r="F77" s="11">
-        <f t="shared" si="26"/>
+      <c r="F77" s="8">
+        <f t="shared" si="30"/>
         <v>398.51860465116278</v>
       </c>
-      <c r="G77" s="6">
-        <f t="shared" ref="G77:G95" si="28">($G$2*(B77^3))/5</f>
+      <c r="G77" s="5">
+        <f t="shared" ref="G77:G85" si="32">($G$2*(B77^3))/5</f>
         <v>715822</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="6">
+      <c r="B78" s="5">
         <v>72</v>
       </c>
-      <c r="C78" s="6">
-        <f t="shared" si="27"/>
+      <c r="C78" s="5">
+        <f t="shared" si="31"/>
         <v>1036</v>
       </c>
-      <c r="D78" s="6">
-        <f t="shared" si="19"/>
+      <c r="D78" s="5">
+        <f t="shared" si="23"/>
         <v>727</v>
       </c>
-      <c r="E78" s="6">
-        <f t="shared" si="20"/>
+      <c r="E78" s="5">
+        <f t="shared" si="24"/>
         <v>581</v>
       </c>
-      <c r="F78" s="11">
-        <f t="shared" si="26"/>
+      <c r="F78" s="8">
+        <f t="shared" si="30"/>
         <v>404.07415902140673</v>
       </c>
-      <c r="G78" s="6">
-        <f t="shared" si="28"/>
+      <c r="G78" s="5">
+        <f t="shared" si="32"/>
         <v>746496</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="6">
+      <c r="B79" s="5">
         <v>73</v>
       </c>
-      <c r="C79" s="6">
-        <f t="shared" si="27"/>
+      <c r="C79" s="5">
+        <f t="shared" si="31"/>
         <v>1049</v>
       </c>
-      <c r="D79" s="6">
-        <f t="shared" si="19"/>
+      <c r="D79" s="5">
+        <f t="shared" si="23"/>
         <v>737</v>
       </c>
-      <c r="E79" s="6">
-        <f t="shared" si="20"/>
+      <c r="E79" s="5">
+        <f t="shared" si="24"/>
         <v>589</v>
       </c>
-      <c r="F79" s="11">
-        <f t="shared" si="26"/>
+      <c r="F79" s="8">
+        <f t="shared" si="30"/>
         <v>409.62971342383105</v>
       </c>
-      <c r="G79" s="6">
-        <f t="shared" si="28"/>
+      <c r="G79" s="5">
+        <f t="shared" si="32"/>
         <v>778034</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="6">
+      <c r="B80" s="5">
         <v>74</v>
       </c>
-      <c r="C80" s="6">
-        <f t="shared" si="27"/>
+      <c r="C80" s="5">
+        <f t="shared" si="31"/>
         <v>1062</v>
       </c>
-      <c r="D80" s="6">
-        <f t="shared" si="19"/>
+      <c r="D80" s="5">
+        <f t="shared" si="23"/>
         <v>747</v>
       </c>
-      <c r="E80" s="6">
-        <f t="shared" si="20"/>
+      <c r="E80" s="5">
+        <f t="shared" si="24"/>
         <v>597</v>
       </c>
-      <c r="F80" s="11">
-        <f t="shared" si="26"/>
+      <c r="F80" s="8">
+        <f t="shared" si="30"/>
         <v>415.18526785714283</v>
       </c>
-      <c r="G80" s="6">
-        <f t="shared" si="28"/>
+      <c r="G80" s="5">
+        <f t="shared" si="32"/>
         <v>810448</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="6">
+      <c r="B81" s="5">
         <v>75</v>
       </c>
-      <c r="C81" s="6">
-        <f t="shared" si="27"/>
+      <c r="C81" s="5">
+        <f t="shared" si="31"/>
         <v>1075</v>
       </c>
-      <c r="D81" s="6">
-        <f t="shared" si="19"/>
+      <c r="D81" s="5">
+        <f t="shared" si="23"/>
         <v>757</v>
       </c>
-      <c r="E81" s="6">
-        <f t="shared" si="20"/>
+      <c r="E81" s="5">
+        <f t="shared" si="24"/>
         <v>605</v>
       </c>
-      <c r="F81" s="11">
-        <f t="shared" si="26"/>
+      <c r="F81" s="8">
+        <f t="shared" si="30"/>
         <v>420.7408223201175</v>
       </c>
-      <c r="G81" s="6">
-        <f t="shared" si="28"/>
+      <c r="G81" s="5">
+        <f t="shared" si="32"/>
         <v>843750</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="6">
+      <c r="B82" s="5">
         <v>76</v>
       </c>
-      <c r="C82" s="6">
-        <f t="shared" si="27"/>
+      <c r="C82" s="5">
+        <f t="shared" si="31"/>
         <v>1088</v>
       </c>
-      <c r="D82" s="6">
-        <f t="shared" si="19"/>
+      <c r="D82" s="5">
+        <f t="shared" si="23"/>
         <v>767</v>
       </c>
-      <c r="E82" s="6">
-        <f t="shared" si="20"/>
+      <c r="E82" s="5">
+        <f t="shared" si="24"/>
         <v>613</v>
       </c>
-      <c r="F82" s="11">
-        <f t="shared" si="26"/>
+      <c r="F82" s="8">
+        <f t="shared" si="30"/>
         <v>426.2963768115942</v>
       </c>
-      <c r="G82" s="6">
-        <f t="shared" si="28"/>
+      <c r="G82" s="5">
+        <f t="shared" si="32"/>
         <v>877952</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="6">
+      <c r="B83" s="5">
         <v>77</v>
       </c>
-      <c r="C83" s="6">
-        <f t="shared" si="27"/>
+      <c r="C83" s="5">
+        <f t="shared" si="31"/>
         <v>1101</v>
       </c>
-      <c r="D83" s="6">
-        <f t="shared" si="19"/>
+      <c r="D83" s="5">
+        <f t="shared" si="23"/>
         <v>777</v>
       </c>
-      <c r="E83" s="6">
-        <f t="shared" si="20"/>
+      <c r="E83" s="5">
+        <f t="shared" si="24"/>
         <v>621</v>
       </c>
-      <c r="F83" s="11">
-        <f t="shared" si="26"/>
+      <c r="F83" s="8">
+        <f t="shared" si="30"/>
         <v>431.8519313304721</v>
       </c>
-      <c r="G83" s="6">
-        <f t="shared" si="28"/>
+      <c r="G83" s="5">
+        <f t="shared" si="32"/>
         <v>913066</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="6">
+      <c r="B84" s="5">
         <v>78</v>
       </c>
-      <c r="C84" s="6">
-        <f t="shared" si="27"/>
+      <c r="C84" s="5">
+        <f t="shared" si="31"/>
         <v>1114</v>
       </c>
-      <c r="D84" s="6">
-        <f t="shared" si="19"/>
+      <c r="D84" s="5">
+        <f t="shared" si="23"/>
         <v>787</v>
       </c>
-      <c r="E84" s="6">
-        <f t="shared" si="20"/>
+      <c r="E84" s="5">
+        <f t="shared" si="24"/>
         <v>629</v>
       </c>
-      <c r="F84" s="11">
-        <f t="shared" si="26"/>
+      <c r="F84" s="8">
+        <f t="shared" si="30"/>
         <v>437.40748587570624</v>
       </c>
-      <c r="G84" s="6">
-        <f t="shared" si="28"/>
+      <c r="G84" s="5">
+        <f t="shared" si="32"/>
         <v>949104</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="6">
+      <c r="B85" s="5">
         <v>79</v>
       </c>
-      <c r="C85" s="6">
-        <f t="shared" si="27"/>
+      <c r="C85" s="5">
+        <f t="shared" si="31"/>
         <v>1127</v>
       </c>
-      <c r="D85" s="6">
-        <f t="shared" si="19"/>
+      <c r="D85" s="5">
+        <f t="shared" si="23"/>
         <v>797</v>
       </c>
-      <c r="E85" s="6">
-        <f t="shared" si="20"/>
+      <c r="E85" s="5">
+        <f t="shared" si="24"/>
         <v>637</v>
       </c>
-      <c r="F85" s="11">
-        <f t="shared" si="26"/>
+      <c r="F85" s="8">
+        <f t="shared" si="30"/>
         <v>442.96304044630403</v>
       </c>
-      <c r="G85" s="6">
-        <f t="shared" si="28"/>
+      <c r="G85" s="5">
+        <f t="shared" si="32"/>
         <v>986078</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="6">
+      <c r="B86" s="5">
         <v>80</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="5">
         <f>B$3+IF($B86&lt;$I$8,J$7*$B86,IF($B86&lt;$I$9,$B86*J$8,IF($B86&lt;$I$10,$B86*J$9,$B86*J$10)))</f>
         <v>1140</v>
       </c>
-      <c r="D86" s="6">
-        <f t="shared" si="19"/>
+      <c r="D86" s="5">
+        <f t="shared" si="23"/>
         <v>807</v>
       </c>
-      <c r="E86" s="6">
-        <f t="shared" si="20"/>
+      <c r="E86" s="5">
+        <f t="shared" si="24"/>
         <v>645</v>
       </c>
-      <c r="F86" s="11">
-        <f t="shared" si="26"/>
+      <c r="F86" s="8">
+        <f t="shared" si="30"/>
         <v>448.51859504132233</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G86" s="5">
         <f>($G$2*(B86^3))/5</f>
         <v>1024000</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="6">
+      <c r="B87" s="5">
         <v>81</v>
       </c>
-      <c r="C87" s="6">
-        <f t="shared" ref="C87:C95" si="29">B$3+IF($B87&lt;$I$8,J$7*$B87,IF($B87&lt;$I$9,$B87*J$8,IF($B87&lt;$I$10,$B87*J$9,$B87*J$10)))</f>
+      <c r="C87" s="5">
+        <f t="shared" ref="C87:C95" si="33">B$3+IF($B87&lt;$I$8,J$7*$B87,IF($B87&lt;$I$9,$B87*J$8,IF($B87&lt;$I$10,$B87*J$9,$B87*J$10)))</f>
         <v>1153</v>
       </c>
-      <c r="D87" s="6">
-        <f t="shared" si="19"/>
+      <c r="D87" s="5">
+        <f t="shared" si="23"/>
         <v>817</v>
       </c>
-      <c r="E87" s="6">
-        <f t="shared" si="20"/>
+      <c r="E87" s="5">
+        <f t="shared" si="24"/>
         <v>653</v>
       </c>
-      <c r="F87" s="11">
-        <f t="shared" si="26"/>
+      <c r="F87" s="8">
+        <f t="shared" si="30"/>
         <v>454.07414965986396</v>
       </c>
-      <c r="G87" s="6">
-        <f t="shared" ref="G87:G98" si="30">($G$2*(B87^3))/5</f>
+      <c r="G87" s="5">
+        <f t="shared" ref="G87:G95" si="34">($G$2*(B87^3))/5</f>
         <v>1062882</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="6">
+      <c r="B88" s="5">
         <v>82</v>
       </c>
-      <c r="C88" s="6">
-        <f t="shared" si="29"/>
+      <c r="C88" s="5">
+        <f t="shared" si="33"/>
         <v>1166</v>
       </c>
-      <c r="D88" s="6">
-        <f t="shared" si="19"/>
+      <c r="D88" s="5">
+        <f t="shared" si="23"/>
         <v>827</v>
       </c>
-      <c r="E88" s="6">
-        <f t="shared" si="20"/>
+      <c r="E88" s="5">
+        <f t="shared" si="24"/>
         <v>661</v>
       </c>
-      <c r="F88" s="11">
-        <f t="shared" si="26"/>
+      <c r="F88" s="8">
+        <f t="shared" si="30"/>
         <v>459.62970430107526</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G88" s="5">
+        <f t="shared" si="34"/>
+        <v>1102736</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="5">
+        <v>83</v>
+      </c>
+      <c r="C89" s="5">
+        <f t="shared" si="33"/>
+        <v>1179</v>
+      </c>
+      <c r="D89" s="5">
+        <f t="shared" si="23"/>
+        <v>837</v>
+      </c>
+      <c r="E89" s="5">
+        <f t="shared" si="24"/>
+        <v>669</v>
+      </c>
+      <c r="F89" s="8">
         <f t="shared" si="30"/>
-        <v>1102736</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="6">
-        <v>83</v>
-      </c>
-      <c r="C89" s="6">
-        <f t="shared" si="29"/>
-        <v>1179</v>
-      </c>
-      <c r="D89" s="6">
-        <f t="shared" si="19"/>
-        <v>837</v>
-      </c>
-      <c r="E89" s="6">
-        <f t="shared" si="20"/>
-        <v>669</v>
-      </c>
-      <c r="F89" s="11">
-        <f t="shared" si="26"/>
         <v>465.18525896414343</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G89" s="5">
+        <f t="shared" si="34"/>
+        <v>1143574</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="5">
+        <v>84</v>
+      </c>
+      <c r="C90" s="5">
+        <f t="shared" si="33"/>
+        <v>1192</v>
+      </c>
+      <c r="D90" s="5">
+        <f t="shared" si="23"/>
+        <v>847</v>
+      </c>
+      <c r="E90" s="5">
+        <f t="shared" si="24"/>
+        <v>677</v>
+      </c>
+      <c r="F90" s="8">
         <f t="shared" si="30"/>
-        <v>1143574</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="6">
-        <v>84</v>
-      </c>
-      <c r="C90" s="6">
-        <f t="shared" si="29"/>
-        <v>1192</v>
-      </c>
-      <c r="D90" s="6">
-        <f t="shared" si="19"/>
-        <v>847</v>
-      </c>
-      <c r="E90" s="6">
-        <f t="shared" si="20"/>
-        <v>677</v>
-      </c>
-      <c r="F90" s="11">
-        <f t="shared" si="26"/>
         <v>470.74081364829397</v>
       </c>
-      <c r="G90" s="6">
+      <c r="G90" s="5">
+        <f t="shared" si="34"/>
+        <v>1185408</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="5">
+        <v>85</v>
+      </c>
+      <c r="C91" s="5">
+        <f t="shared" si="33"/>
+        <v>1205</v>
+      </c>
+      <c r="D91" s="5">
+        <f t="shared" si="23"/>
+        <v>857</v>
+      </c>
+      <c r="E91" s="5">
+        <f t="shared" si="24"/>
+        <v>685</v>
+      </c>
+      <c r="F91" s="8">
         <f t="shared" si="30"/>
-        <v>1185408</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="6">
-        <v>85</v>
-      </c>
-      <c r="C91" s="6">
-        <f t="shared" si="29"/>
-        <v>1205</v>
-      </c>
-      <c r="D91" s="6">
-        <f t="shared" si="19"/>
-        <v>857</v>
-      </c>
-      <c r="E91" s="6">
-        <f t="shared" si="20"/>
-        <v>685</v>
-      </c>
-      <c r="F91" s="11">
-        <f t="shared" si="26"/>
         <v>476.29636835278859</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G91" s="5">
+        <f t="shared" si="34"/>
+        <v>1228250</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="5">
+        <v>86</v>
+      </c>
+      <c r="C92" s="5">
+        <f t="shared" si="33"/>
+        <v>1218</v>
+      </c>
+      <c r="D92" s="5">
+        <f t="shared" si="23"/>
+        <v>867</v>
+      </c>
+      <c r="E92" s="5">
+        <f t="shared" si="24"/>
+        <v>693</v>
+      </c>
+      <c r="F92" s="8">
         <f t="shared" si="30"/>
-        <v>1228250</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="6">
-        <v>86</v>
-      </c>
-      <c r="C92" s="6">
-        <f t="shared" si="29"/>
-        <v>1218</v>
-      </c>
-      <c r="D92" s="6">
-        <f t="shared" si="19"/>
-        <v>867</v>
-      </c>
-      <c r="E92" s="6">
-        <f t="shared" si="20"/>
-        <v>693</v>
-      </c>
-      <c r="F92" s="11">
-        <f t="shared" si="26"/>
         <v>481.85192307692307</v>
       </c>
-      <c r="G92" s="6">
+      <c r="G92" s="5">
+        <f t="shared" si="34"/>
+        <v>1272112</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="5">
+        <v>87</v>
+      </c>
+      <c r="C93" s="5">
+        <f t="shared" si="33"/>
+        <v>1231</v>
+      </c>
+      <c r="D93" s="5">
+        <f t="shared" si="23"/>
+        <v>877</v>
+      </c>
+      <c r="E93" s="5">
+        <f t="shared" si="24"/>
+        <v>701</v>
+      </c>
+      <c r="F93" s="8">
         <f t="shared" si="30"/>
-        <v>1272112</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="6">
-        <v>87</v>
-      </c>
-      <c r="C93" s="6">
-        <f t="shared" si="29"/>
-        <v>1231</v>
-      </c>
-      <c r="D93" s="6">
-        <f t="shared" si="19"/>
-        <v>877</v>
-      </c>
-      <c r="E93" s="6">
-        <f t="shared" si="20"/>
-        <v>701</v>
-      </c>
-      <c r="F93" s="11">
-        <f t="shared" si="26"/>
         <v>487.40747782002535</v>
       </c>
-      <c r="G93" s="6">
+      <c r="G93" s="5">
+        <f t="shared" si="34"/>
+        <v>1317006</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="5">
+        <v>88</v>
+      </c>
+      <c r="C94" s="5">
+        <f t="shared" si="33"/>
+        <v>1244</v>
+      </c>
+      <c r="D94" s="5">
+        <f t="shared" si="23"/>
+        <v>887</v>
+      </c>
+      <c r="E94" s="5">
+        <f t="shared" si="24"/>
+        <v>709</v>
+      </c>
+      <c r="F94" s="8">
         <f t="shared" si="30"/>
-        <v>1317006</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="6">
-        <v>88</v>
-      </c>
-      <c r="C94" s="6">
-        <f t="shared" si="29"/>
-        <v>1244</v>
-      </c>
-      <c r="D94" s="6">
-        <f t="shared" si="19"/>
-        <v>887</v>
-      </c>
-      <c r="E94" s="6">
-        <f t="shared" si="20"/>
-        <v>709</v>
-      </c>
-      <c r="F94" s="11">
-        <f t="shared" si="26"/>
         <v>492.96303258145366</v>
       </c>
-      <c r="G94" s="6">
+      <c r="G94" s="5">
+        <f t="shared" si="34"/>
+        <v>1362944</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="5">
+        <v>89</v>
+      </c>
+      <c r="C95" s="5">
+        <f t="shared" si="33"/>
+        <v>1257</v>
+      </c>
+      <c r="D95" s="5">
+        <f t="shared" si="23"/>
+        <v>897</v>
+      </c>
+      <c r="E95" s="5">
+        <f t="shared" si="24"/>
+        <v>717</v>
+      </c>
+      <c r="F95" s="8">
         <f t="shared" si="30"/>
-        <v>1362944</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="6">
-        <v>89</v>
-      </c>
-      <c r="C95" s="6">
-        <f t="shared" si="29"/>
-        <v>1257</v>
-      </c>
-      <c r="D95" s="6">
-        <f t="shared" si="19"/>
-        <v>897</v>
-      </c>
-      <c r="E95" s="6">
-        <f t="shared" si="20"/>
-        <v>717</v>
-      </c>
-      <c r="F95" s="11">
-        <f t="shared" si="26"/>
         <v>498.51858736059478</v>
       </c>
-      <c r="G95" s="6">
-        <f t="shared" si="30"/>
+      <c r="G95" s="5">
+        <f t="shared" si="34"/>
         <v>1409938</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="6">
+      <c r="B96" s="5">
         <v>90</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="5">
         <f>B$3+IF($B96&lt;$I$8,J$7*$B96,IF($B96&lt;$I$9,$B96*J$8,IF($B96&lt;$I$10,$B96*J$9,$B96*J$10)))</f>
         <v>1630</v>
       </c>
-      <c r="D96" s="6">
-        <f t="shared" si="19"/>
+      <c r="D96" s="5">
+        <f t="shared" si="23"/>
         <v>1267</v>
       </c>
-      <c r="E96" s="6">
-        <f t="shared" si="20"/>
+      <c r="E96" s="5">
+        <f t="shared" si="24"/>
         <v>995</v>
       </c>
-      <c r="F96" s="11">
-        <f t="shared" si="26"/>
+      <c r="F96" s="8">
+        <f t="shared" si="30"/>
         <v>709.67683465959328</v>
       </c>
-      <c r="G96" s="6">
+      <c r="G96" s="5">
         <f>($G$2*(B96^3))/5</f>
         <v>1458000</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="6">
+      <c r="B97" s="5">
         <v>91</v>
       </c>
-      <c r="C97" s="6">
-        <f t="shared" ref="C97:C98" si="31">B$3+IF($B97&lt;$I$8,J$7*$B97,IF($B97&lt;$I$9,$B97*J$8,IF($B97&lt;$I$10,$B97*J$9,$B97*J$10)))</f>
+      <c r="C97" s="5">
+        <f t="shared" ref="C97:C98" si="35">B$3+IF($B97&lt;$I$8,J$7*$B97,IF($B97&lt;$I$9,$B97*J$8,IF($B97&lt;$I$10,$B97*J$9,$B97*J$10)))</f>
         <v>1647</v>
       </c>
-      <c r="D97" s="6">
-        <f t="shared" si="19"/>
+      <c r="D97" s="5">
+        <f t="shared" si="23"/>
         <v>1281</v>
       </c>
-      <c r="E97" s="6">
-        <f t="shared" si="20"/>
+      <c r="E97" s="5">
+        <f t="shared" si="24"/>
         <v>1006</v>
       </c>
-      <c r="F97" s="11">
-        <f t="shared" si="26"/>
+      <c r="F97" s="8">
+        <f t="shared" si="30"/>
         <v>717.51683428071715</v>
       </c>
-      <c r="G97" s="6">
-        <f t="shared" ref="G97:G98" si="32">($G$2*(B97^3))/5</f>
+      <c r="G97" s="5">
+        <f t="shared" ref="G97:G98" si="36">($G$2*(B97^3))/5</f>
         <v>1507142</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="6">
+      <c r="B98" s="5">
         <v>92</v>
       </c>
-      <c r="C98" s="6">
-        <f t="shared" si="31"/>
+      <c r="C98" s="5">
+        <f t="shared" si="35"/>
         <v>1664</v>
       </c>
-      <c r="D98" s="6">
-        <f t="shared" si="19"/>
+      <c r="D98" s="5">
+        <f t="shared" si="23"/>
         <v>1295</v>
       </c>
-      <c r="E98" s="6">
-        <f t="shared" si="20"/>
+      <c r="E98" s="5">
+        <f t="shared" si="24"/>
         <v>1017</v>
       </c>
-      <c r="F98" s="11">
-        <f t="shared" si="26"/>
+      <c r="F98" s="8">
+        <f t="shared" si="30"/>
         <v>725.35683391003465</v>
       </c>
-      <c r="G98" s="6">
-        <f t="shared" si="32"/>
+      <c r="G98" s="5">
+        <f t="shared" si="36"/>
         <v>1557376</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="6">
+      <c r="B99" s="5">
         <v>93</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="5">
         <f>B$3+IF($B99&lt;$I$8,J$7*$B99,IF($B99&lt;$I$9,$B99*J$8,IF($B99&lt;$I$10,$B99*J$9,$B99*J$10)))</f>
         <v>1681</v>
       </c>
-      <c r="D99" s="6">
-        <f t="shared" si="19"/>
+      <c r="D99" s="5">
+        <f t="shared" si="23"/>
         <v>1309</v>
       </c>
-      <c r="E99" s="6">
-        <f t="shared" si="20"/>
+      <c r="E99" s="5">
+        <f t="shared" si="24"/>
         <v>1028</v>
       </c>
-      <c r="F99" s="11">
-        <f t="shared" si="26"/>
+      <c r="F99" s="8">
+        <f t="shared" si="30"/>
         <v>733.19683354728284</v>
       </c>
-      <c r="G99" s="6">
+      <c r="G99" s="5">
         <f>($G$2*(B99^3))/5</f>
         <v>1608714</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="6">
+      <c r="B100" s="5">
         <v>94</v>
       </c>
-      <c r="C100" s="6">
-        <f t="shared" ref="C100:C108" si="33">B$3+IF($B100&lt;$I$8,J$7*$B100,IF($B100&lt;$I$9,$B100*J$8,IF($B100&lt;$I$10,$B100*J$9,$B100*J$10)))</f>
+      <c r="C100" s="5">
+        <f t="shared" ref="C100:C108" si="37">B$3+IF($B100&lt;$I$8,J$7*$B100,IF($B100&lt;$I$9,$B100*J$8,IF($B100&lt;$I$10,$B100*J$9,$B100*J$10)))</f>
         <v>1698</v>
       </c>
-      <c r="D100" s="6">
-        <f t="shared" si="19"/>
+      <c r="D100" s="5">
+        <f t="shared" si="23"/>
         <v>1323</v>
       </c>
-      <c r="E100" s="6">
-        <f t="shared" si="20"/>
+      <c r="E100" s="5">
+        <f t="shared" si="24"/>
         <v>1039</v>
       </c>
-      <c r="F100" s="11">
-        <f t="shared" si="26"/>
+      <c r="F100" s="8">
+        <f t="shared" si="30"/>
         <v>741.03683319221</v>
       </c>
-      <c r="G100" s="6">
-        <f t="shared" ref="G100:G114" si="34">($G$2*(B100^3))/5</f>
+      <c r="G100" s="5">
+        <f t="shared" ref="G100:G108" si="38">($G$2*(B100^3))/5</f>
         <v>1661168</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="6">
+      <c r="B101" s="5">
         <v>95</v>
       </c>
-      <c r="C101" s="6">
-        <f t="shared" si="33"/>
+      <c r="C101" s="5">
+        <f t="shared" si="37"/>
         <v>1715</v>
       </c>
-      <c r="D101" s="6">
-        <f t="shared" si="19"/>
+      <c r="D101" s="5">
+        <f t="shared" si="23"/>
         <v>1337</v>
       </c>
-      <c r="E101" s="6">
-        <f t="shared" si="20"/>
+      <c r="E101" s="5">
+        <f t="shared" si="24"/>
         <v>1050</v>
       </c>
-      <c r="F101" s="11">
-        <f t="shared" si="26"/>
+      <c r="F101" s="8">
+        <f t="shared" si="30"/>
         <v>748.87683284457478</v>
       </c>
-      <c r="G101" s="6">
-        <f t="shared" si="34"/>
+      <c r="G101" s="5">
+        <f t="shared" si="38"/>
         <v>1714750</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="6">
+      <c r="B102" s="5">
         <v>96</v>
       </c>
-      <c r="C102" s="6">
-        <f t="shared" si="33"/>
+      <c r="C102" s="5">
+        <f t="shared" si="37"/>
         <v>1732</v>
       </c>
-      <c r="D102" s="6">
-        <f t="shared" si="19"/>
+      <c r="D102" s="5">
+        <f t="shared" si="23"/>
         <v>1351</v>
       </c>
-      <c r="E102" s="6">
-        <f t="shared" si="20"/>
+      <c r="E102" s="5">
+        <f t="shared" si="24"/>
         <v>1061</v>
       </c>
-      <c r="F102" s="11">
-        <f t="shared" si="26"/>
+      <c r="F102" s="8">
+        <f t="shared" si="30"/>
         <v>756.71683250414594</v>
       </c>
-      <c r="G102" s="6">
-        <f t="shared" si="34"/>
+      <c r="G102" s="5">
+        <f t="shared" si="38"/>
         <v>1769472</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="6">
+      <c r="B103" s="5">
         <v>97</v>
       </c>
-      <c r="C103" s="6">
-        <f t="shared" si="33"/>
+      <c r="C103" s="5">
+        <f t="shared" si="37"/>
         <v>1749</v>
       </c>
-      <c r="D103" s="6">
-        <f t="shared" si="19"/>
+      <c r="D103" s="5">
+        <f t="shared" si="23"/>
         <v>1365</v>
       </c>
-      <c r="E103" s="6">
-        <f t="shared" si="20"/>
+      <c r="E103" s="5">
+        <f t="shared" si="24"/>
         <v>1072</v>
       </c>
-      <c r="F103" s="11">
-        <f t="shared" si="26"/>
+      <c r="F103" s="8">
+        <f t="shared" si="30"/>
         <v>764.55683217070168</v>
       </c>
-      <c r="G103" s="6">
-        <f t="shared" si="34"/>
+      <c r="G103" s="5">
+        <f t="shared" si="38"/>
         <v>1825346</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="6">
+      <c r="B104" s="5">
         <v>98</v>
       </c>
-      <c r="C104" s="6">
-        <f t="shared" si="33"/>
+      <c r="C104" s="5">
+        <f t="shared" si="37"/>
         <v>1766</v>
       </c>
-      <c r="D104" s="6">
-        <f t="shared" si="19"/>
+      <c r="D104" s="5">
+        <f t="shared" si="23"/>
         <v>1379</v>
       </c>
-      <c r="E104" s="6">
-        <f t="shared" si="20"/>
+      <c r="E104" s="5">
+        <f t="shared" si="24"/>
         <v>1083</v>
       </c>
-      <c r="F104" s="11">
-        <f t="shared" si="26"/>
+      <c r="F104" s="8">
+        <f t="shared" si="30"/>
         <v>772.39683184402929</v>
       </c>
-      <c r="G104" s="6">
-        <f t="shared" si="34"/>
+      <c r="G104" s="5">
+        <f t="shared" si="38"/>
         <v>1882384</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="6">
+      <c r="B105" s="5">
         <v>99</v>
       </c>
-      <c r="C105" s="6">
-        <f t="shared" si="33"/>
+      <c r="C105" s="5">
+        <f t="shared" si="37"/>
         <v>1783</v>
       </c>
-      <c r="D105" s="6">
-        <f t="shared" si="19"/>
+      <c r="D105" s="5">
+        <f t="shared" si="23"/>
         <v>1393</v>
       </c>
-      <c r="E105" s="6">
-        <f t="shared" si="20"/>
+      <c r="E105" s="5">
+        <f t="shared" si="24"/>
         <v>1094</v>
       </c>
-      <c r="F105" s="11">
-        <f t="shared" si="26"/>
+      <c r="F105" s="8">
+        <f t="shared" si="30"/>
         <v>780.23683152392437</v>
       </c>
-      <c r="G105" s="6">
-        <f t="shared" si="34"/>
+      <c r="G105" s="5">
+        <f t="shared" si="38"/>
         <v>1940598</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="6">
+      <c r="B106" s="5">
         <v>100</v>
       </c>
-      <c r="C106" s="6">
-        <f t="shared" si="33"/>
+      <c r="C106" s="5">
+        <f t="shared" si="37"/>
         <v>1800</v>
       </c>
-      <c r="D106" s="6">
-        <f t="shared" si="19"/>
+      <c r="D106" s="5">
+        <f t="shared" si="23"/>
         <v>1407</v>
       </c>
-      <c r="E106" s="6">
-        <f t="shared" si="20"/>
+      <c r="E106" s="5">
+        <f t="shared" si="24"/>
         <v>1105</v>
       </c>
-      <c r="F106" s="11">
-        <f t="shared" si="26"/>
+      <c r="F106" s="8">
+        <f t="shared" si="30"/>
         <v>788.07683121019113</v>
       </c>
-      <c r="G106" s="6">
-        <f t="shared" si="34"/>
+      <c r="G106" s="5">
+        <f t="shared" si="38"/>
         <v>2000000</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="6">
+      <c r="B107" s="5">
         <v>101</v>
       </c>
-      <c r="C107" s="6">
-        <f t="shared" si="33"/>
+      <c r="C107" s="5">
+        <f t="shared" si="37"/>
         <v>1817</v>
       </c>
-      <c r="D107" s="6">
-        <f t="shared" si="19"/>
+      <c r="D107" s="5">
+        <f t="shared" si="23"/>
         <v>1421</v>
       </c>
-      <c r="E107" s="6">
-        <f t="shared" si="20"/>
+      <c r="E107" s="5">
+        <f t="shared" si="24"/>
         <v>1116</v>
       </c>
-      <c r="F107" s="11">
-        <f t="shared" si="26"/>
+      <c r="F107" s="8">
+        <f t="shared" si="30"/>
         <v>795.91683090264087</v>
       </c>
-      <c r="G107" s="6">
-        <f t="shared" si="34"/>
+      <c r="G107" s="5">
+        <f t="shared" si="38"/>
         <v>2060602</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="6">
+      <c r="B108" s="5">
         <v>102</v>
       </c>
-      <c r="C108" s="6">
-        <f t="shared" si="33"/>
+      <c r="C108" s="5">
+        <f t="shared" si="37"/>
         <v>1834</v>
       </c>
-      <c r="D108" s="6">
-        <f t="shared" si="19"/>
+      <c r="D108" s="5">
+        <f t="shared" si="23"/>
         <v>1435</v>
       </c>
-      <c r="E108" s="6">
-        <f t="shared" si="20"/>
+      <c r="E108" s="5">
+        <f t="shared" si="24"/>
         <v>1127</v>
       </c>
-      <c r="F108" s="11">
-        <f t="shared" si="26"/>
+      <c r="F108" s="8">
+        <f t="shared" si="30"/>
         <v>803.75683060109293</v>
       </c>
-      <c r="G108" s="6">
-        <f t="shared" si="34"/>
+      <c r="G108" s="5">
+        <f t="shared" si="38"/>
         <v>2122416</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="6">
+      <c r="B109" s="5">
         <v>103</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="5">
         <f>B$3+IF($B109&lt;$I$8,J$7*$B109,IF($B109&lt;$I$9,$B109*J$8,IF($B109&lt;$I$10,$B109*J$9,$B109*J$10)))</f>
         <v>1851</v>
       </c>
-      <c r="D109" s="6">
-        <f t="shared" si="19"/>
+      <c r="D109" s="5">
+        <f t="shared" si="23"/>
         <v>1449</v>
       </c>
-      <c r="E109" s="6">
-        <f t="shared" si="20"/>
+      <c r="E109" s="5">
+        <f t="shared" si="24"/>
         <v>1138</v>
       </c>
-      <c r="F109" s="11">
-        <f t="shared" si="26"/>
+      <c r="F109" s="8">
+        <f t="shared" si="30"/>
         <v>811.59683030537303</v>
       </c>
-      <c r="G109" s="6">
+      <c r="G109" s="5">
         <f>($G$2*(B109^3))/5</f>
         <v>2185454</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="6">
+      <c r="B110" s="5">
         <v>104</v>
       </c>
-      <c r="C110" s="6">
-        <f t="shared" ref="C110:C114" si="35">B$3+IF($B110&lt;$I$8,J$7*$B110,IF($B110&lt;$I$9,$B110*J$8,IF($B110&lt;$I$10,$B110*J$9,$B110*J$10)))</f>
+      <c r="C110" s="5">
+        <f t="shared" ref="C110:C114" si="39">B$3+IF($B110&lt;$I$8,J$7*$B110,IF($B110&lt;$I$9,$B110*J$8,IF($B110&lt;$I$10,$B110*J$9,$B110*J$10)))</f>
         <v>1868</v>
       </c>
-      <c r="D110" s="6">
-        <f t="shared" si="19"/>
+      <c r="D110" s="5">
+        <f t="shared" si="23"/>
         <v>1463</v>
       </c>
-      <c r="E110" s="6">
-        <f t="shared" si="20"/>
+      <c r="E110" s="5">
+        <f t="shared" si="24"/>
         <v>1149</v>
       </c>
-      <c r="F110" s="11">
-        <f t="shared" si="26"/>
+      <c r="F110" s="8">
+        <f t="shared" si="30"/>
         <v>819.43683001531394</v>
       </c>
-      <c r="G110" s="6">
-        <f t="shared" ref="G110:G114" si="36">($G$2*(B110^3))/5</f>
+      <c r="G110" s="5">
+        <f t="shared" ref="G110:G114" si="40">($G$2*(B110^3))/5</f>
         <v>2249728</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="6">
+      <c r="B111" s="5">
         <v>105</v>
       </c>
-      <c r="C111" s="6">
-        <f t="shared" si="35"/>
+      <c r="C111" s="5">
+        <f t="shared" si="39"/>
         <v>1885</v>
       </c>
-      <c r="D111" s="6">
-        <f t="shared" si="19"/>
+      <c r="D111" s="5">
+        <f t="shared" si="23"/>
         <v>1477</v>
       </c>
-      <c r="E111" s="6">
-        <f t="shared" si="20"/>
+      <c r="E111" s="5">
+        <f t="shared" si="24"/>
         <v>1160</v>
       </c>
-      <c r="F111" s="11">
-        <f t="shared" si="26"/>
+      <c r="F111" s="8">
+        <f t="shared" si="30"/>
         <v>827.27682973075468</v>
       </c>
-      <c r="G111" s="6">
-        <f t="shared" si="36"/>
+      <c r="G111" s="5">
+        <f t="shared" si="40"/>
         <v>2315250</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="6">
+      <c r="B112" s="5">
         <v>106</v>
       </c>
-      <c r="C112" s="6">
-        <f t="shared" si="35"/>
+      <c r="C112" s="5">
+        <f t="shared" si="39"/>
         <v>1902</v>
       </c>
-      <c r="D112" s="6">
-        <f t="shared" ref="D112:D126" si="37">C$3+IF($B112&lt;$I$8,K$7*$B112,IF($B112&lt;$I$9,$B112*K$8,IF($B112&lt;$I$10,$B112*K$9,$B112*K$10)))</f>
+      <c r="D112" s="5">
+        <f t="shared" ref="D112:D126" si="41">C$3+IF($B112&lt;$I$8,K$7*$B112,IF($B112&lt;$I$9,$B112*K$8,IF($B112&lt;$I$10,$B112*K$9,$B112*K$10)))</f>
         <v>1491</v>
       </c>
-      <c r="E112" s="6">
-        <f t="shared" ref="E112:E126" si="38">D$3+IF($B112&lt;$I$8,L$7*$B112,IF($B112&lt;$I$9,$B112*L$8,IF($B112&lt;$I$10,$B112*L$9,$B112*L$10)))</f>
+      <c r="E112" s="5">
+        <f t="shared" ref="E112:E126" si="42">D$3+IF($B112&lt;$I$8,L$7*$B112,IF($B112&lt;$I$9,$B112*L$8,IF($B112&lt;$I$10,$B112*L$9,$B112*L$10)))</f>
         <v>1171</v>
       </c>
-      <c r="F112" s="11">
-        <f t="shared" si="26"/>
+      <c r="F112" s="8">
+        <f t="shared" si="30"/>
         <v>835.11682945154018</v>
       </c>
-      <c r="G112" s="6">
-        <f t="shared" si="36"/>
+      <c r="G112" s="5">
+        <f t="shared" si="40"/>
         <v>2382032</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="6">
+      <c r="B113" s="5">
         <v>107</v>
       </c>
-      <c r="C113" s="6">
-        <f t="shared" si="35"/>
+      <c r="C113" s="5">
+        <f t="shared" si="39"/>
         <v>1919</v>
       </c>
-      <c r="D113" s="6">
-        <f t="shared" si="37"/>
+      <c r="D113" s="5">
+        <f t="shared" si="41"/>
         <v>1505</v>
       </c>
-      <c r="E113" s="6">
-        <f t="shared" si="38"/>
+      <c r="E113" s="5">
+        <f t="shared" si="42"/>
         <v>1182</v>
       </c>
-      <c r="F113" s="11">
-        <f t="shared" si="26"/>
+      <c r="F113" s="8">
+        <f t="shared" si="30"/>
         <v>842.9568291775214</v>
       </c>
-      <c r="G113" s="6">
-        <f t="shared" si="36"/>
+      <c r="G113" s="5">
+        <f t="shared" si="40"/>
         <v>2450086</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="6">
+      <c r="B114" s="5">
         <v>108</v>
       </c>
-      <c r="C114" s="6">
-        <f t="shared" si="35"/>
+      <c r="C114" s="5">
+        <f t="shared" si="39"/>
         <v>1936</v>
       </c>
-      <c r="D114" s="6">
-        <f t="shared" si="37"/>
+      <c r="D114" s="5">
+        <f t="shared" si="41"/>
         <v>1519</v>
       </c>
-      <c r="E114" s="6">
-        <f t="shared" si="38"/>
+      <c r="E114" s="5">
+        <f t="shared" si="42"/>
         <v>1193</v>
       </c>
-      <c r="F114" s="11">
-        <f t="shared" si="26"/>
+      <c r="F114" s="8">
+        <f t="shared" si="30"/>
         <v>850.79682890855452</v>
       </c>
-      <c r="G114" s="6">
-        <f t="shared" si="36"/>
+      <c r="G114" s="5">
+        <f t="shared" si="40"/>
         <v>2519424</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="6">
+      <c r="B115" s="5">
         <v>109</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="5">
         <f>B$3+IF($B115&lt;$I$8,J$7*$B115,IF($B115&lt;$I$9,$B115*J$8,IF($B115&lt;$I$10,$B115*J$9,$B115*J$10)))</f>
         <v>1953</v>
       </c>
-      <c r="D115" s="6">
-        <f t="shared" si="37"/>
+      <c r="D115" s="5">
+        <f t="shared" si="41"/>
         <v>1533</v>
       </c>
-      <c r="E115" s="6">
-        <f t="shared" si="38"/>
+      <c r="E115" s="5">
+        <f t="shared" si="42"/>
         <v>1204</v>
       </c>
-      <c r="F115" s="11">
-        <f t="shared" si="26"/>
+      <c r="F115" s="8">
+        <f t="shared" si="30"/>
         <v>858.63682864450129</v>
       </c>
-      <c r="G115" s="6">
+      <c r="G115" s="5">
         <f>($G$2*(B115^3))/5</f>
         <v>2590058</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="6">
+      <c r="B116" s="5">
         <v>110</v>
       </c>
-      <c r="C116" s="6">
-        <f t="shared" ref="C116:C122" si="39">B$3+IF($B116&lt;$I$8,J$7*$B116,IF($B116&lt;$I$9,$B116*J$8,IF($B116&lt;$I$10,$B116*J$9,$B116*J$10)))</f>
+      <c r="C116" s="5">
+        <f t="shared" ref="C116:C122" si="43">B$3+IF($B116&lt;$I$8,J$7*$B116,IF($B116&lt;$I$9,$B116*J$8,IF($B116&lt;$I$10,$B116*J$9,$B116*J$10)))</f>
         <v>1970</v>
       </c>
-      <c r="D116" s="6">
-        <f t="shared" si="37"/>
+      <c r="D116" s="5">
+        <f t="shared" si="41"/>
         <v>1547</v>
       </c>
-      <c r="E116" s="6">
-        <f t="shared" si="38"/>
+      <c r="E116" s="5">
+        <f t="shared" si="42"/>
         <v>1215</v>
       </c>
-      <c r="F116" s="11">
-        <f t="shared" si="26"/>
+      <c r="F116" s="8">
+        <f t="shared" si="30"/>
         <v>866.47682838522815</v>
       </c>
-      <c r="G116" s="6">
-        <f t="shared" ref="G116:G122" si="40">($G$2*(B116^3))/5</f>
+      <c r="G116" s="5">
+        <f t="shared" ref="G116:G122" si="44">($G$2*(B116^3))/5</f>
         <v>2662000</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="6">
+      <c r="B117" s="5">
         <v>111</v>
       </c>
-      <c r="C117" s="6">
-        <f t="shared" si="39"/>
+      <c r="C117" s="5">
+        <f t="shared" si="43"/>
         <v>1987</v>
       </c>
-      <c r="D117" s="6">
-        <f t="shared" si="37"/>
+      <c r="D117" s="5">
+        <f t="shared" si="41"/>
         <v>1561</v>
       </c>
-      <c r="E117" s="6">
-        <f t="shared" si="38"/>
+      <c r="E117" s="5">
+        <f t="shared" si="42"/>
         <v>1226</v>
       </c>
-      <c r="F117" s="11">
-        <f t="shared" si="26"/>
+      <c r="F117" s="8">
+        <f t="shared" si="30"/>
         <v>874.31682813060638</v>
       </c>
-      <c r="G117" s="6">
-        <f t="shared" si="40"/>
+      <c r="G117" s="5">
+        <f t="shared" si="44"/>
         <v>2735262</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="6">
+      <c r="B118" s="5">
         <v>112</v>
       </c>
-      <c r="C118" s="6">
-        <f t="shared" si="39"/>
+      <c r="C118" s="5">
+        <f t="shared" si="43"/>
         <v>2004</v>
       </c>
-      <c r="D118" s="6">
-        <f t="shared" si="37"/>
+      <c r="D118" s="5">
+        <f t="shared" si="41"/>
         <v>1575</v>
       </c>
-      <c r="E118" s="6">
-        <f t="shared" si="38"/>
+      <c r="E118" s="5">
+        <f t="shared" si="42"/>
         <v>1237</v>
       </c>
-      <c r="F118" s="11">
-        <f t="shared" si="26"/>
+      <c r="F118" s="8">
+        <f t="shared" si="30"/>
         <v>882.15682788051208</v>
       </c>
-      <c r="G118" s="6">
-        <f t="shared" si="40"/>
+      <c r="G118" s="5">
+        <f t="shared" si="44"/>
         <v>2809856</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="6">
+      <c r="B119" s="5">
         <v>113</v>
       </c>
-      <c r="C119" s="6">
-        <f t="shared" si="39"/>
+      <c r="C119" s="5">
+        <f t="shared" si="43"/>
         <v>2021</v>
       </c>
-      <c r="D119" s="6">
-        <f t="shared" si="37"/>
+      <c r="D119" s="5">
+        <f t="shared" si="41"/>
         <v>1589</v>
       </c>
-      <c r="E119" s="6">
-        <f t="shared" si="38"/>
+      <c r="E119" s="5">
+        <f t="shared" si="42"/>
         <v>1248</v>
       </c>
-      <c r="F119" s="11">
-        <f t="shared" si="26"/>
+      <c r="F119" s="8">
+        <f t="shared" si="30"/>
         <v>889.99682763482554</v>
       </c>
-      <c r="G119" s="6">
-        <f t="shared" si="40"/>
+      <c r="G119" s="5">
+        <f t="shared" si="44"/>
         <v>2885794</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="6">
+      <c r="B120" s="5">
         <v>114</v>
       </c>
-      <c r="C120" s="6">
-        <f t="shared" si="39"/>
+      <c r="C120" s="5">
+        <f t="shared" si="43"/>
         <v>2038</v>
       </c>
-      <c r="D120" s="6">
-        <f t="shared" si="37"/>
+      <c r="D120" s="5">
+        <f t="shared" si="41"/>
         <v>1603</v>
       </c>
-      <c r="E120" s="6">
-        <f t="shared" si="38"/>
+      <c r="E120" s="5">
+        <f t="shared" si="42"/>
         <v>1259</v>
       </c>
-      <c r="F120" s="11">
-        <f t="shared" si="26"/>
+      <c r="F120" s="8">
+        <f t="shared" si="30"/>
         <v>897.83682739343112</v>
       </c>
-      <c r="G120" s="6">
-        <f t="shared" si="40"/>
+      <c r="G120" s="5">
+        <f t="shared" si="44"/>
         <v>2963088</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="6">
+      <c r="B121" s="5">
         <v>115</v>
       </c>
-      <c r="C121" s="6">
-        <f t="shared" si="39"/>
+      <c r="C121" s="5">
+        <f t="shared" si="43"/>
         <v>2055</v>
       </c>
-      <c r="D121" s="6">
-        <f t="shared" si="37"/>
+      <c r="D121" s="5">
+        <f t="shared" si="41"/>
         <v>1617</v>
       </c>
-      <c r="E121" s="6">
-        <f t="shared" si="38"/>
+      <c r="E121" s="5">
+        <f t="shared" si="42"/>
         <v>1270</v>
       </c>
-      <c r="F121" s="11">
-        <f t="shared" si="26"/>
+      <c r="F121" s="8">
+        <f t="shared" si="30"/>
         <v>905.67682715621754</v>
       </c>
-      <c r="G121" s="6">
-        <f t="shared" si="40"/>
+      <c r="G121" s="5">
+        <f t="shared" si="44"/>
         <v>3041750</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="6">
+      <c r="B122" s="5">
         <v>116</v>
       </c>
-      <c r="C122" s="6">
-        <f t="shared" si="39"/>
+      <c r="C122" s="5">
+        <f t="shared" si="43"/>
         <v>2072</v>
       </c>
-      <c r="D122" s="6">
-        <f t="shared" si="37"/>
+      <c r="D122" s="5">
+        <f t="shared" si="41"/>
         <v>1631</v>
       </c>
-      <c r="E122" s="6">
-        <f t="shared" si="38"/>
+      <c r="E122" s="5">
+        <f t="shared" si="42"/>
         <v>1281</v>
       </c>
-      <c r="F122" s="11">
-        <f t="shared" si="26"/>
+      <c r="F122" s="8">
+        <f t="shared" si="30"/>
         <v>913.51682692307691</v>
       </c>
-      <c r="G122" s="6">
-        <f t="shared" si="40"/>
+      <c r="G122" s="5">
+        <f t="shared" si="44"/>
         <v>3121792</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="6">
+      <c r="B123" s="5">
         <v>117</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="5">
         <f>B$3+IF($B123&lt;$I$8,J$7*$B123,IF($B123&lt;$I$9,$B123*J$8,IF($B123&lt;$I$10,$B123*J$9,$B123*J$10)))</f>
         <v>2089</v>
       </c>
-      <c r="D123" s="6">
-        <f t="shared" si="37"/>
+      <c r="D123" s="5">
+        <f t="shared" si="41"/>
         <v>1645</v>
       </c>
-      <c r="E123" s="6">
-        <f t="shared" si="38"/>
+      <c r="E123" s="5">
+        <f t="shared" si="42"/>
         <v>1292</v>
       </c>
-      <c r="F123" s="11">
-        <f t="shared" si="26"/>
+      <c r="F123" s="8">
+        <f t="shared" si="30"/>
         <v>921.3568266939053</v>
       </c>
-      <c r="G123" s="6">
+      <c r="G123" s="5">
         <f>($G$2*(B123^3))/5</f>
         <v>3203226</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="6">
+      <c r="B124" s="5">
         <v>118</v>
       </c>
-      <c r="C124" s="6">
-        <f t="shared" ref="C124:C125" si="41">B$3+IF($B124&lt;$I$8,J$7*$B124,IF($B124&lt;$I$9,$B124*J$8,IF($B124&lt;$I$10,$B124*J$9,$B124*J$10)))</f>
+      <c r="C124" s="5">
+        <f t="shared" ref="C124:C125" si="45">B$3+IF($B124&lt;$I$8,J$7*$B124,IF($B124&lt;$I$9,$B124*J$8,IF($B124&lt;$I$10,$B124*J$9,$B124*J$10)))</f>
         <v>2106</v>
       </c>
-      <c r="D124" s="6">
-        <f t="shared" si="37"/>
+      <c r="D124" s="5">
+        <f t="shared" si="41"/>
         <v>1659</v>
       </c>
-      <c r="E124" s="6">
-        <f t="shared" si="38"/>
+      <c r="E124" s="5">
+        <f t="shared" si="42"/>
         <v>1303</v>
       </c>
-      <c r="F124" s="11">
-        <f t="shared" si="26"/>
+      <c r="F124" s="8">
+        <f t="shared" si="30"/>
         <v>929.19682646860224</v>
       </c>
-      <c r="G124" s="6">
-        <f t="shared" ref="G124:G125" si="42">($G$2*(B124^3))/5</f>
+      <c r="G124" s="5">
+        <f t="shared" ref="G124:G125" si="46">($G$2*(B124^3))/5</f>
         <v>3286064</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="6">
+      <c r="B125" s="5">
         <v>119</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="5">
+        <f t="shared" si="45"/>
+        <v>2123</v>
+      </c>
+      <c r="D125" s="5">
         <f t="shared" si="41"/>
-        <v>2123</v>
-      </c>
-      <c r="D125" s="6">
-        <f t="shared" si="37"/>
         <v>1673</v>
       </c>
-      <c r="E125" s="6">
-        <f t="shared" si="38"/>
+      <c r="E125" s="5">
+        <f t="shared" si="42"/>
         <v>1314</v>
       </c>
-      <c r="F125" s="11">
-        <f t="shared" si="26"/>
+      <c r="F125" s="8">
+        <f t="shared" si="30"/>
         <v>937.03682624707062</v>
       </c>
-      <c r="G125" s="6">
-        <f t="shared" si="42"/>
+      <c r="G125" s="5">
+        <f t="shared" si="46"/>
         <v>3370318</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="6">
+      <c r="B126" s="5">
         <v>120</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="5">
         <f>B$3+IF($B126&lt;$I$8,J$7*$B126,IF($B126&lt;$I$9,$B126*J$8,IF($B126&lt;$I$10,$B126*J$9,$B126*J$10)))</f>
         <v>2140</v>
       </c>
-      <c r="D126" s="6">
-        <f t="shared" si="37"/>
+      <c r="D126" s="5">
+        <f t="shared" si="41"/>
         <v>1687</v>
       </c>
-      <c r="E126" s="6">
-        <f t="shared" si="38"/>
+      <c r="E126" s="5">
+        <f t="shared" si="42"/>
         <v>1325</v>
       </c>
-      <c r="F126" s="11">
-        <f t="shared" si="26"/>
+      <c r="F126" s="8">
+        <f t="shared" si="30"/>
         <v>944.87682602921643</v>
       </c>
-      <c r="G126" s="6">
+      <c r="G126" s="5">
         <f>($G$2*(B126^3))/5</f>
         <v>3456000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I14:M14"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="I5:L5"/>
@@ -9229,5 +9775,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/discord/Game System Calculations.xlsx
+++ b/discord/Game System Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerald\iCloudDrive\Working Folder\Coding\Python\Projects\ZeusRPG\discord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031D6B1E-0100-42A4-8A44-CD2037E4A4FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E99515-404D-4401-95C7-72E11C982346}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCB550A9-44B4-4A74-8B55-9A7FD8859F8C}"/>
   </bookViews>
@@ -66,7 +66,52 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{C238B19C-5462-42C6-A1AB-C0FDDEFA2F30}">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{ECDAE1E8-B640-4E7A-B724-A675C2D82C6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Experience</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(5 * (Level^3)) / 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{C238B19C-5462-42C6-A1AB-C0FDDEFA2F30}">
       <text>
         <r>
           <rPr>
@@ -91,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{EDEE47DC-01EE-44F0-8AE7-2F60A61C0BAD}">
+    <comment ref="K24" authorId="0" shapeId="0" xr:uid="{EDEE47DC-01EE-44F0-8AE7-2F60A61C0BAD}">
       <text>
         <r>
           <rPr>
@@ -112,7 +157,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Average of total player stats * 75% scaling
+Average of total player stats * 30% scaling
 </t>
         </r>
         <r>
@@ -134,8 +179,88 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Average of total player stats * 50% scaling
+Average of total player stats * 30% scaling
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O24" authorId="0" shapeId="0" xr:uid="{FDF4D623-1F50-4E81-A762-19B30506CC4B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Exp Gained</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Level^2) * 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P24" authorId="0" shapeId="0" xr:uid="{B05261B9-DD3E-4642-B716-03028AF95CD8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Damage</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attack^2 / (Attack + Defence)*2</t>
         </r>
       </text>
     </comment>
@@ -144,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Player</t>
   </si>
@@ -208,12 +333,24 @@
   <si>
     <t>Reduction</t>
   </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Monsters Needed</t>
+  </si>
+  <si>
+    <t># of turns to kill</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +393,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -308,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -381,12 +531,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,26 +584,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,6 +615,12 @@
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,10 +630,37 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -955,367 +1142,367 @@
             <c:numRef>
               <c:f>Sheet1!$G$7:$G$126</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="120"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>33.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250</c:v>
+                  <c:v>156.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>432</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>686</c:v>
+                  <c:v>428.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1024</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1458</c:v>
+                  <c:v>911.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2662</c:v>
+                  <c:v>1663.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3456</c:v>
+                  <c:v>2160</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4394</c:v>
+                  <c:v>2746.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5488</c:v>
+                  <c:v>3430</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6750</c:v>
+                  <c:v>4218.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8192</c:v>
+                  <c:v>5120</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9826</c:v>
+                  <c:v>6141.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11664</c:v>
+                  <c:v>7290</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13718</c:v>
+                  <c:v>8573.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18522</c:v>
+                  <c:v>11576.25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21296</c:v>
+                  <c:v>13310</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24334</c:v>
+                  <c:v>15208.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27648</c:v>
+                  <c:v>17280</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31250</c:v>
+                  <c:v>19531.25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>35152</c:v>
+                  <c:v>21970</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>39366</c:v>
+                  <c:v>24603.75</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43904</c:v>
+                  <c:v>27440</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>48778</c:v>
+                  <c:v>30486.25</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>54000</c:v>
+                  <c:v>33750</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>59582</c:v>
+                  <c:v>37238.75</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>65536</c:v>
+                  <c:v>40960</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>71874</c:v>
+                  <c:v>44921.25</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>78608</c:v>
+                  <c:v>49130</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>85750</c:v>
+                  <c:v>53593.75</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>93312</c:v>
+                  <c:v>58320</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>101306</c:v>
+                  <c:v>63316.25</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>109744</c:v>
+                  <c:v>68590</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>118638</c:v>
+                  <c:v>74148.75</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>128000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>137842</c:v>
+                  <c:v>86151.25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>148176</c:v>
+                  <c:v>92610</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>159014</c:v>
+                  <c:v>99383.75</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>170368</c:v>
+                  <c:v>106480</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>182250</c:v>
+                  <c:v>113906.25</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>194672</c:v>
+                  <c:v>121670</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>207646</c:v>
+                  <c:v>129778.75</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>221184</c:v>
+                  <c:v>138240</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>235298</c:v>
+                  <c:v>147061.25</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>250000</c:v>
+                  <c:v>156250</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>265302</c:v>
+                  <c:v>165813.75</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>281216</c:v>
+                  <c:v>175760</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>297754</c:v>
+                  <c:v>186096.25</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>314928</c:v>
+                  <c:v>196830</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>332750</c:v>
+                  <c:v>207968.75</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>351232</c:v>
+                  <c:v>219520</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>370386</c:v>
+                  <c:v>231491.25</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>390224</c:v>
+                  <c:v>243890</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>410758</c:v>
+                  <c:v>256723.75</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>432000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>453962</c:v>
+                  <c:v>283726.25</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>476656</c:v>
+                  <c:v>297910</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>500094</c:v>
+                  <c:v>312558.75</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>524288</c:v>
+                  <c:v>327680</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>549250</c:v>
+                  <c:v>343281.25</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>574992</c:v>
+                  <c:v>359370</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>601526</c:v>
+                  <c:v>375953.75</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>628864</c:v>
+                  <c:v>393040</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>657018</c:v>
+                  <c:v>410636.25</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>686000</c:v>
+                  <c:v>428750</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>715822</c:v>
+                  <c:v>447388.75</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>746496</c:v>
+                  <c:v>466560</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>778034</c:v>
+                  <c:v>486271.25</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>810448</c:v>
+                  <c:v>506530</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>843750</c:v>
+                  <c:v>527343.75</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>877952</c:v>
+                  <c:v>548720</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>913066</c:v>
+                  <c:v>570666.25</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>949104</c:v>
+                  <c:v>593190</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>986078</c:v>
+                  <c:v>616298.75</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1024000</c:v>
+                  <c:v>640000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1062882</c:v>
+                  <c:v>664301.25</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1102736</c:v>
+                  <c:v>689210</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1143574</c:v>
+                  <c:v>714733.75</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1185408</c:v>
+                  <c:v>740880</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1228250</c:v>
+                  <c:v>767656.25</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1272112</c:v>
+                  <c:v>795070</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1317006</c:v>
+                  <c:v>823128.75</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1362944</c:v>
+                  <c:v>851840</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1409938</c:v>
+                  <c:v>881211.25</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1458000</c:v>
+                  <c:v>911250</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1507142</c:v>
+                  <c:v>941963.75</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1557376</c:v>
+                  <c:v>973360</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1608714</c:v>
+                  <c:v>1005446.25</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1661168</c:v>
+                  <c:v>1038230</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1714750</c:v>
+                  <c:v>1071718.75</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1769472</c:v>
+                  <c:v>1105920</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1825346</c:v>
+                  <c:v>1140841.25</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1882384</c:v>
+                  <c:v>1176490</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1940598</c:v>
+                  <c:v>1212873.75</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2000000</c:v>
+                  <c:v>1250000</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2060602</c:v>
+                  <c:v>1287876.25</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2122416</c:v>
+                  <c:v>1326510</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2185454</c:v>
+                  <c:v>1365908.75</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2249728</c:v>
+                  <c:v>1406080</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2315250</c:v>
+                  <c:v>1447031.25</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2382032</c:v>
+                  <c:v>1488770</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2450086</c:v>
+                  <c:v>1531303.75</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2519424</c:v>
+                  <c:v>1574640</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2590058</c:v>
+                  <c:v>1618786.25</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2662000</c:v>
+                  <c:v>1663750</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2735262</c:v>
+                  <c:v>1709538.75</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2809856</c:v>
+                  <c:v>1756160</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2885794</c:v>
+                  <c:v>1803621.25</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2963088</c:v>
+                  <c:v>1851930</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3041750</c:v>
+                  <c:v>1901093.75</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3121792</c:v>
+                  <c:v>1951120</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3203226</c:v>
+                  <c:v>2002016.25</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3286064</c:v>
+                  <c:v>2053790</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3370318</c:v>
+                  <c:v>2106448.75</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3456000</c:v>
+                  <c:v>2160000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,7 +1609,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5987,13 +6174,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
@@ -6023,13 +6210,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>100012</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>404812</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
@@ -6357,10 +6544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264FC943-0808-4ECD-AA51-67678092A672}">
-  <dimension ref="B1:R126"/>
+  <dimension ref="B1:S126"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:L5"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6368,24 +6555,26 @@
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="10" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6396,10 +6585,11 @@
         <v>3</v>
       </c>
       <c r="G2" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>100</v>
       </c>
@@ -6410,3367 +6600,3874 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="I5" s="11" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="J5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7" s="5">
-        <f>B$3+IF($B7&lt;$I$8,J$7*$B7,IF($B7&lt;$I$9,$B7*J$8,IF($B7&lt;$I$10,$B7*J$9,$B7*J$10)))</f>
+        <f>B$3+IF($B7&lt;$J$8,K$7*$B7,IF($B7&lt;$J$9,$B7*K$8,IF($B7&lt;$J$10,$B7*K$9,$B7*K$10)))</f>
         <v>105</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:E7" si="0">C$3+IF($B7&lt;$I$8,K$7*$B7,IF($B7&lt;$I$9,$B7*K$8,IF($B7&lt;$I$10,$B7*K$9,$B7*K$10)))</f>
+        <f>C$3+IF($B7&lt;$J$8,L$7*$B7,IF($B7&lt;$J$9,$B7*L$8,IF($B7&lt;$J$10,$B7*L$9,$B7*L$10)))</f>
         <v>9</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="0"/>
+        <f>D$3+IF($B7&lt;$J$8,M$7*$B7,IF($B7&lt;$J$9,$B7*M$8,IF($B7&lt;$J$10,$B7*M$9,$B7*M$10)))</f>
         <v>7</v>
       </c>
       <c r="F7" s="8">
         <f>D7^2/(D7+E7)</f>
         <v>5.0625</v>
       </c>
-      <c r="G7" s="5">
-        <f>($G$2*(B7^3))/5</f>
-        <v>2</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="G7" s="8">
+        <f>($G$2*(B7^3))/4</f>
+        <v>1.25</v>
+      </c>
+      <c r="H7" s="8">
+        <f>G7/$O$24</f>
+        <v>8.6805555555555559E-3</v>
+      </c>
+      <c r="J7" s="6">
         <v>1</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>5</v>
-      </c>
-      <c r="K7" s="6">
-        <v>2</v>
       </c>
       <c r="L7" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>2</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C8:C16" si="1">B$3+IF($B8&lt;$I$8,J$7*$B8,IF($B8&lt;$I$9,$B8*J$8,IF($B8&lt;$I$10,$B8*J$9,$B8*J$10)))</f>
+        <f t="shared" ref="C8:C16" si="0">B$3+IF($B8&lt;$J$8,K$7*$B8,IF($B8&lt;$J$9,$B8*K$8,IF($B8&lt;$J$10,$B8*K$9,$B8*K$10)))</f>
         <v>110</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" ref="D8:D17" si="2">C$3+IF($B8&lt;$I$8,K$7*$B8,IF($B8&lt;$I$9,$B8*K$8,IF($B8&lt;$I$10,$B8*K$9,$B8*K$10)))</f>
+        <f t="shared" ref="D8:D17" si="1">C$3+IF($B8&lt;$J$8,L$7*$B8,IF($B8&lt;$J$9,$B8*L$8,IF($B8&lt;$J$10,$B8*L$9,$B8*L$10)))</f>
         <v>11</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" ref="E8:E17" si="3">D$3+IF($B8&lt;$I$8,L$7*$B8,IF($B8&lt;$I$9,$B8*L$8,IF($B8&lt;$I$10,$B8*L$9,$B8*L$10)))</f>
+        <f t="shared" ref="E8:E17" si="2">D$3+IF($B8&lt;$J$8,M$7*$B8,IF($B8&lt;$J$9,$B8*M$8,IF($B8&lt;$J$10,$B8*M$9,$B8*M$10)))</f>
         <v>9</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F71" si="4">D8^2/(D8+E8)</f>
+        <f t="shared" ref="F8:F71" si="3">D8^2/(D8+E8)</f>
         <v>6.05</v>
       </c>
-      <c r="G8" s="5">
-        <f t="shared" ref="G8:G16" si="5">($G$2*(B8^3))/5</f>
-        <v>16</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="G8" s="8">
+        <f t="shared" ref="G8:G71" si="4">($G$2*(B8^3))/4</f>
+        <v>10</v>
+      </c>
+      <c r="H8" s="8">
+        <f>G8/$O$24</f>
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="J8" s="6">
         <v>30</v>
       </c>
-      <c r="J8" s="6">
-        <f>J7+J$11</f>
+      <c r="K8" s="6">
+        <f>K7+K$11</f>
         <v>9</v>
       </c>
-      <c r="K8" s="6">
-        <f t="shared" ref="K8:L8" si="6">K7+K$11</f>
+      <c r="L8" s="6">
+        <f t="shared" ref="L8:M8" si="5">L7+L$11</f>
         <v>6</v>
       </c>
-      <c r="L8" s="6">
-        <f t="shared" si="6"/>
+      <c r="M8" s="6">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="D9" s="5">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="3"/>
+        <v>7.041666666666667</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="4"/>
+        <v>33.75</v>
+      </c>
+      <c r="H9" s="8">
+        <f>G9/$O$24</f>
+        <v>0.234375</v>
+      </c>
+      <c r="J9" s="6">
+        <v>60</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" ref="K9:K10" si="6">K8+K$11</f>
+        <v>13</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" ref="L9:L10" si="7">L8+L$11</f>
+        <v>10</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" ref="M9:M10" si="8">M8+M$11</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F10" s="8">
         <f t="shared" si="3"/>
+        <v>8.0357142857142865</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="H10" s="8">
+        <f>G10/$O$24</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J10" s="6">
+        <v>90</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="F9" s="8">
-        <f t="shared" si="4"/>
-        <v>7.041666666666667</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="I9" s="6">
-        <v>60</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" ref="J9:J10" si="7">J8+J$11</f>
-        <v>13</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" ref="K9:K10" si="8">K8+K$11</f>
-        <v>10</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" ref="L9:L10" si="9">L8+L$11</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5">
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="D10" s="5">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F11" s="8">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="F10" s="8">
+        <v>9.03125</v>
+      </c>
+      <c r="G11" s="8">
         <f t="shared" si="4"/>
-        <v>8.0357142857142865</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="5"/>
-        <v>128</v>
-      </c>
-      <c r="I10" s="6">
-        <v>90</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5">
+        <v>156.25</v>
+      </c>
+      <c r="H11" s="8">
+        <f>G11/$O$24</f>
+        <v>1.0850694444444444</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="7">
+        <v>4</v>
+      </c>
+      <c r="L11" s="7">
+        <v>4</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="D11" s="5">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F12" s="8">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="F11" s="8">
+        <v>10.027777777777779</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="4"/>
-        <v>9.03125</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="5"/>
-        <v>250</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="7">
-        <v>4</v>
-      </c>
-      <c r="K11" s="7">
-        <v>4</v>
-      </c>
-      <c r="L11" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5">
+        <v>270</v>
+      </c>
+      <c r="H12" s="8">
+        <f>G12/$O$24</f>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="D12" s="5">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F13" s="8">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="F12" s="8">
+        <v>11.025</v>
+      </c>
+      <c r="G13" s="8">
         <f t="shared" si="4"/>
-        <v>10.027777777777779</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="5"/>
-        <v>432</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5">
+        <v>428.75</v>
+      </c>
+      <c r="H13" s="8">
+        <f>G13/$O$24</f>
+        <v>2.9774305555555554</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
-      <c r="D13" s="5">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F14" s="8">
         <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="F13" s="8">
+        <v>12.022727272727273</v>
+      </c>
+      <c r="G14" s="8">
         <f t="shared" si="4"/>
-        <v>11.025</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="5"/>
-        <v>686</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5">
+        <v>640</v>
+      </c>
+      <c r="H14" s="8">
+        <f>G14/$O$24</f>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="D14" s="5">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F15" s="8">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="F14" s="8">
+        <v>13.020833333333334</v>
+      </c>
+      <c r="G15" s="8">
         <f t="shared" si="4"/>
-        <v>12.022727272727273</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="5"/>
-        <v>1024</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="17"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5">
+        <v>911.25</v>
+      </c>
+      <c r="H15" s="8">
+        <f>G15/$O$24</f>
+        <v>6.328125</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>145</v>
-      </c>
-      <c r="D15" s="5">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F16" s="8">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="F15" s="8">
+        <v>14.01923076923077</v>
+      </c>
+      <c r="G16" s="8">
         <f t="shared" si="4"/>
-        <v>13.020833333333334</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="5"/>
-        <v>1458</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H16" s="8">
+        <f>G16/$O$24</f>
+        <v>8.6805555555555554</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="6">
+        <f ca="1">RANDBETWEEN($I$17,$I$18)</f>
+        <v>4</v>
+      </c>
+      <c r="K16" s="6">
+        <f ca="1">VLOOKUP($J16,$B$7:$G$126,2,0)</f>
+        <v>120</v>
+      </c>
+      <c r="L16" s="6">
+        <f ca="1">VLOOKUP($J16,$B$7:$G$126,3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M16" s="6">
+        <f ca="1">VLOOKUP($J16,$B$7:$G$126,4,0)</f>
+        <v>13</v>
+      </c>
+      <c r="N16" s="21">
+        <f ca="1">VLOOKUP($J16,$B$7:$G$126,5,0)</f>
+        <v>8.0357142857142865</v>
+      </c>
+      <c r="O16" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="P16" s="18">
+        <f ca="1">L16*$O$16</f>
         <v>18</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
-        <v>10</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="Q16" s="18">
+        <f ca="1">L16*$O$17</f>
+        <v>75</v>
+      </c>
+      <c r="R16" s="18">
+        <f ca="1">L16*$O$18</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5">
+        <f>B$3+IF($B17&lt;$J$8,K$7*$B17,IF($B17&lt;$J$9,$B17*K$8,IF($B17&lt;$J$10,$B17*K$9,$B17*K$10)))</f>
+        <v>155</v>
+      </c>
+      <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="D16" s="5">
+        <v>29</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F17" s="8">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="F16" s="8">
+        <v>15.017857142857142</v>
+      </c>
+      <c r="G17" s="8">
         <f t="shared" si="4"/>
-        <v>14.01923076923077</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="I16" s="6">
-        <f ca="1">RANDBETWEEN($I$22,$I$23)</f>
+        <v>1663.75</v>
+      </c>
+      <c r="H17" s="8">
+        <f>G17/$O$24</f>
+        <v>11.553819444444445</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <f ca="1">RANDBETWEEN($I$17,$I$18)</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <f ca="1">VLOOKUP($J17,$B$7:$G$126,2,0)</f>
+        <v>105</v>
+      </c>
+      <c r="L17" s="6">
+        <f ca="1">VLOOKUP($J17,$B$7:$G$126,3,0)</f>
+        <v>9</v>
+      </c>
+      <c r="M17" s="14">
+        <f ca="1">VLOOKUP($J17,$B$7:$G$126,4,0)</f>
         <v>7</v>
       </c>
-      <c r="J16" s="6">
-        <f ca="1">VLOOKUP($I16,$B$7:$G$126,2,0)</f>
-        <v>135</v>
-      </c>
-      <c r="K16" s="6">
-        <f ca="1">VLOOKUP($I16,$B$7:$G$126,3,0)</f>
-        <v>21</v>
-      </c>
-      <c r="L16" s="6">
-        <f ca="1">VLOOKUP($I16,$B$7:$G$126,4,0)</f>
-        <v>19</v>
-      </c>
-      <c r="M16" s="30">
-        <f ca="1">VLOOKUP($I16,$B$7:$G$126,5,0)</f>
-        <v>11.025</v>
-      </c>
-      <c r="N16" s="22">
-        <v>1.2</v>
-      </c>
-      <c r="O16" s="24">
-        <f ca="1">K16*$N$16</f>
-        <v>25.2</v>
-      </c>
-      <c r="P16" s="24">
-        <f ca="1">K16*$N$17</f>
-        <v>105</v>
-      </c>
-      <c r="Q16" s="24">
-        <f ca="1">K16*$N$18</f>
-        <v>35.699999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5">
-        <f>B$3+IF($B17&lt;$I$8,J$7*$B17,IF($B17&lt;$I$9,$B17*J$8,IF($B17&lt;$I$10,$B17*J$9,$B17*J$10)))</f>
-        <v>155</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="4"/>
-        <v>15.017857142857142</v>
-      </c>
-      <c r="G17" s="5">
-        <f>($G$2*(B17^3))/5</f>
-        <v>2662</v>
-      </c>
-      <c r="I17" s="6">
-        <f ca="1">RANDBETWEEN($I$22,$I$23)</f>
+      <c r="N17" s="21">
+        <f t="shared" ref="N17:N19" ca="1" si="9">VLOOKUP($J17,$B$7:$G$126,5,0)</f>
+        <v>5.0625</v>
+      </c>
+      <c r="O17" s="16">
         <v>5</v>
       </c>
-      <c r="J17" s="6">
-        <f ca="1">VLOOKUP($I17,$B$7:$G$126,2,0)</f>
-        <v>125</v>
-      </c>
-      <c r="K17" s="6">
-        <f ca="1">VLOOKUP($I17,$B$7:$G$126,3,0)</f>
-        <v>17</v>
-      </c>
-      <c r="L17" s="20">
-        <f ca="1">VLOOKUP($I17,$B$7:$G$126,4,0)</f>
-        <v>15</v>
-      </c>
-      <c r="M17" s="30">
-        <f t="shared" ref="M17:M19" ca="1" si="10">VLOOKUP($I17,$B$7:$G$126,5,0)</f>
-        <v>9.03125</v>
-      </c>
-      <c r="N17" s="22">
-        <v>5</v>
-      </c>
-      <c r="O17" s="24">
-        <f t="shared" ref="O17:O19" ca="1" si="11">K17*$N$16</f>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="P17" s="24">
-        <f t="shared" ref="P17:P19" ca="1" si="12">K17*$N$17</f>
-        <v>85</v>
-      </c>
-      <c r="Q17" s="24">
-        <f t="shared" ref="Q17:Q19" ca="1" si="13">K17*$N$18</f>
-        <v>28.9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P17" s="18">
+        <f t="shared" ref="P17:P19" ca="1" si="10">L17*$O$16</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="Q17" s="18">
+        <f t="shared" ref="Q17:Q19" ca="1" si="11">L17*$O$17</f>
+        <v>45</v>
+      </c>
+      <c r="R17" s="18">
+        <f t="shared" ref="R17:R19" ca="1" si="12">L17*$O$18</f>
+        <v>15.299999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>12</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ref="C18:C26" si="14">B$3+IF($B18&lt;$I$8,J$7*$B18,IF($B18&lt;$I$9,$B18*J$8,IF($B18&lt;$I$10,$B18*J$9,$B18*J$10)))</f>
+        <f t="shared" ref="C18:C26" si="13">B$3+IF($B18&lt;$J$8,K$7*$B18,IF($B18&lt;$J$9,$B18*K$8,IF($B18&lt;$J$10,$B18*K$9,$B18*K$10)))</f>
         <v>160</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" ref="D18:D47" si="15">C$3+IF($B18&lt;$I$8,K$7*$B18,IF($B18&lt;$I$9,$B18*K$8,IF($B18&lt;$I$10,$B18*K$9,$B18*K$10)))</f>
+        <f t="shared" ref="D18:D47" si="14">C$3+IF($B18&lt;$J$8,L$7*$B18,IF($B18&lt;$J$9,$B18*L$8,IF($B18&lt;$J$10,$B18*L$9,$B18*L$10)))</f>
         <v>31</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" ref="E18:E47" si="16">D$3+IF($B18&lt;$I$8,L$7*$B18,IF($B18&lt;$I$9,$B18*L$8,IF($B18&lt;$I$10,$B18*L$9,$B18*L$10)))</f>
+        <f t="shared" ref="E18:E47" si="15">D$3+IF($B18&lt;$J$8,M$7*$B18,IF($B18&lt;$J$9,$B18*M$8,IF($B18&lt;$J$10,$B18*M$9,$B18*M$10)))</f>
         <v>29</v>
       </c>
       <c r="F18" s="8">
+        <f t="shared" si="3"/>
+        <v>16.016666666666666</v>
+      </c>
+      <c r="G18" s="8">
         <f t="shared" si="4"/>
-        <v>16.016666666666666</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G26" si="17">($G$2*(B18^3))/5</f>
-        <v>3456</v>
-      </c>
-      <c r="I18" s="6">
-        <f ca="1">RANDBETWEEN($I$22,$I$23)</f>
-        <v>6</v>
+        <v>2160</v>
+      </c>
+      <c r="H18" s="8">
+        <f>G18/$O$24</f>
+        <v>15</v>
+      </c>
+      <c r="I18" s="10">
+        <v>10</v>
       </c>
       <c r="J18" s="6">
-        <f ca="1">VLOOKUP($I18,$B$7:$G$126,2,0)</f>
-        <v>130</v>
-      </c>
-      <c r="K18" s="19">
-        <f ca="1">VLOOKUP($I18,$B$7:$G$126,3,0)</f>
-        <v>19</v>
-      </c>
-      <c r="L18" s="6">
-        <f ca="1">VLOOKUP($I18,$B$7:$G$126,4,0)</f>
-        <v>17</v>
-      </c>
-      <c r="M18" s="30">
+        <f ca="1">RANDBETWEEN($I$17,$I$18)</f>
+        <v>10</v>
+      </c>
+      <c r="K18" s="6">
+        <f ca="1">VLOOKUP($J18,$B$7:$G$126,2,0)</f>
+        <v>150</v>
+      </c>
+      <c r="L18" s="13">
+        <f ca="1">VLOOKUP($J18,$B$7:$G$126,3,0)</f>
+        <v>27</v>
+      </c>
+      <c r="M18" s="6">
+        <f ca="1">VLOOKUP($J18,$B$7:$G$126,4,0)</f>
+        <v>25</v>
+      </c>
+      <c r="N18" s="21">
+        <f t="shared" ca="1" si="9"/>
+        <v>14.01923076923077</v>
+      </c>
+      <c r="O18" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="P18" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>10.027777777777779</v>
-      </c>
-      <c r="N18" s="22">
-        <v>1.7</v>
-      </c>
-      <c r="O18" s="24">
+        <v>32.4</v>
+      </c>
+      <c r="Q18" s="18">
         <f t="shared" ca="1" si="11"/>
-        <v>22.8</v>
-      </c>
-      <c r="P18" s="24">
+        <v>135</v>
+      </c>
+      <c r="R18" s="18">
         <f t="shared" ca="1" si="12"/>
-        <v>95</v>
-      </c>
-      <c r="Q18" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>32.299999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>13</v>
       </c>
       <c r="C19" s="5">
+        <f t="shared" si="13"/>
+        <v>165</v>
+      </c>
+      <c r="D19" s="5">
         <f t="shared" si="14"/>
-        <v>165</v>
-      </c>
-      <c r="D19" s="5">
+        <v>33</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="3"/>
+        <v>17.015625</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="4"/>
+        <v>2746.25</v>
+      </c>
+      <c r="H19" s="8">
+        <f>G19/$O$24</f>
+        <v>19.071180555555557</v>
+      </c>
+      <c r="J19" s="6">
+        <f ca="1">RANDBETWEEN($I$17,$I$18)</f>
+        <v>2</v>
+      </c>
+      <c r="K19" s="6">
+        <f ca="1">VLOOKUP($J19,$B$7:$G$126,2,0)</f>
+        <v>110</v>
+      </c>
+      <c r="L19" s="13">
+        <f ca="1">VLOOKUP($J19,$B$7:$G$126,3,0)</f>
+        <v>11</v>
+      </c>
+      <c r="M19" s="6">
+        <f ca="1">VLOOKUP($J19,$B$7:$G$126,4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="N19" s="21">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.05</v>
+      </c>
+      <c r="O19" s="19"/>
+      <c r="P19" s="18">
+        <f t="shared" ca="1" si="10"/>
+        <v>13.2</v>
+      </c>
+      <c r="Q19" s="18">
+        <f t="shared" ca="1" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="R19" s="18">
+        <f t="shared" ca="1" si="12"/>
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="13"/>
+        <v>170</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="15"/>
         <v>33</v>
       </c>
-      <c r="E19" s="5">
-        <f t="shared" si="16"/>
-        <v>31</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="F20" s="8">
+        <f t="shared" si="3"/>
+        <v>18.014705882352942</v>
+      </c>
+      <c r="G20" s="8">
         <f t="shared" si="4"/>
-        <v>17.015625</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="17"/>
-        <v>4394</v>
-      </c>
-      <c r="I19" s="6">
-        <f ca="1">RANDBETWEEN($I$22,$I$23)</f>
-        <v>10</v>
-      </c>
-      <c r="J19" s="6">
-        <f ca="1">VLOOKUP($I19,$B$7:$G$126,2,0)</f>
-        <v>150</v>
-      </c>
-      <c r="K19" s="19">
-        <f ca="1">VLOOKUP($I19,$B$7:$G$126,3,0)</f>
-        <v>27</v>
-      </c>
-      <c r="L19" s="6">
-        <f ca="1">VLOOKUP($I19,$B$7:$G$126,4,0)</f>
-        <v>25</v>
-      </c>
-      <c r="M19" s="30">
-        <f t="shared" ca="1" si="10"/>
-        <v>14.01923076923077</v>
-      </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>32.4</v>
-      </c>
-      <c r="P19" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>135</v>
-      </c>
-      <c r="Q19" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>45.9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
-        <v>14</v>
-      </c>
-      <c r="C20" s="5">
+        <v>3430</v>
+      </c>
+      <c r="H20" s="8">
+        <f>G20/$O$24</f>
+        <v>23.819444444444443</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="13"/>
+        <v>175</v>
+      </c>
+      <c r="D21" s="5">
         <f t="shared" si="14"/>
-        <v>170</v>
-      </c>
-      <c r="D20" s="5">
+        <v>37</v>
+      </c>
+      <c r="E21" s="5">
         <f t="shared" si="15"/>
         <v>35</v>
       </c>
-      <c r="E20" s="5">
-        <f t="shared" si="16"/>
-        <v>33</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="F21" s="8">
+        <f t="shared" si="3"/>
+        <v>19.013888888888889</v>
+      </c>
+      <c r="G21" s="8">
         <f t="shared" si="4"/>
-        <v>18.014705882352942</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="17"/>
-        <v>5488</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
-        <v>15</v>
-      </c>
-      <c r="C21" s="5">
+        <v>4218.75</v>
+      </c>
+      <c r="H21" s="8">
+        <f>G21/$O$24</f>
+        <v>29.296875</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
+        <v>16</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="13"/>
+        <v>180</v>
+      </c>
+      <c r="D22" s="5">
         <f t="shared" si="14"/>
-        <v>175</v>
-      </c>
-      <c r="D21" s="5">
+        <v>39</v>
+      </c>
+      <c r="E22" s="5">
         <f t="shared" si="15"/>
         <v>37</v>
       </c>
-      <c r="E21" s="5">
-        <f t="shared" si="16"/>
-        <v>35</v>
-      </c>
-      <c r="F21" s="8">
+      <c r="F22" s="8">
+        <f t="shared" si="3"/>
+        <v>20.013157894736842</v>
+      </c>
+      <c r="G22" s="8">
         <f t="shared" si="4"/>
-        <v>19.013888888888889</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="17"/>
-        <v>6750</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
-        <v>16</v>
-      </c>
-      <c r="C22" s="5">
+        <v>5120</v>
+      </c>
+      <c r="H22" s="8">
+        <f>G22/$O$24</f>
+        <v>35.555555555555557</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="13"/>
+        <v>185</v>
+      </c>
+      <c r="D23" s="5">
         <f t="shared" si="14"/>
-        <v>180</v>
-      </c>
-      <c r="D22" s="5">
+        <v>41</v>
+      </c>
+      <c r="E23" s="5">
         <f t="shared" si="15"/>
         <v>39</v>
       </c>
-      <c r="E22" s="5">
-        <f t="shared" si="16"/>
-        <v>37</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="F23" s="8">
+        <f t="shared" si="3"/>
+        <v>21.012499999999999</v>
+      </c>
+      <c r="G23" s="8">
         <f t="shared" si="4"/>
-        <v>20.013157894736842</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="17"/>
-        <v>8192</v>
-      </c>
-      <c r="I22" s="16">
+        <v>6141.25</v>
+      </c>
+      <c r="H23" s="8">
+        <f>G23/$O$24</f>
+        <v>42.647569444444443</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
-        <v>17</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="L23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <v>18</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="13"/>
+        <v>190</v>
+      </c>
+      <c r="D24" s="5">
         <f t="shared" si="14"/>
-        <v>185</v>
-      </c>
-      <c r="D23" s="5">
+        <v>43</v>
+      </c>
+      <c r="E24" s="5">
         <f t="shared" si="15"/>
         <v>41</v>
       </c>
-      <c r="E23" s="5">
-        <f t="shared" si="16"/>
-        <v>39</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="F24" s="8">
+        <f t="shared" si="3"/>
+        <v>22.011904761904763</v>
+      </c>
+      <c r="G24" s="8">
         <f t="shared" si="4"/>
-        <v>21.012499999999999</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="17"/>
-        <v>9826</v>
-      </c>
-      <c r="I23" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
-        <v>18</v>
-      </c>
-      <c r="C24" s="5">
+        <v>7290</v>
+      </c>
+      <c r="H24" s="8">
+        <f>G24/$O$24</f>
+        <v>50.625</v>
+      </c>
+      <c r="J24" s="2">
+        <v>6</v>
+      </c>
+      <c r="K24" s="2">
+        <f ca="1">AVERAGE(K16:K19)*4*$N$24</f>
+        <v>363.75</v>
+      </c>
+      <c r="L24" s="2">
+        <f ca="1">AVERAGE(L16:L19)*4*$N$24</f>
+        <v>46.5</v>
+      </c>
+      <c r="M24" s="2">
+        <f ca="1">AVERAGE(M16:M19)*4*$N$24</f>
+        <v>40.5</v>
+      </c>
+      <c r="N24" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="O24" s="2">
+        <f>$J$24^2*4</f>
+        <v>144</v>
+      </c>
+      <c r="P24" s="34">
+        <f ca="1">L24^2/(L24+M24)*2</f>
+        <v>49.706896551724135</v>
+      </c>
+      <c r="Q24" s="35">
+        <f ca="1">K24/SUM(L16:L19)</f>
+        <v>5.866935483870968</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <v>19</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="13"/>
+        <v>195</v>
+      </c>
+      <c r="D25" s="5">
         <f t="shared" si="14"/>
-        <v>190</v>
-      </c>
-      <c r="D24" s="5">
+        <v>45</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="15"/>
         <v>43</v>
       </c>
-      <c r="E24" s="5">
-        <f t="shared" si="16"/>
-        <v>41</v>
-      </c>
-      <c r="F24" s="8">
+      <c r="F25" s="8">
+        <f t="shared" si="3"/>
+        <v>23.011363636363637</v>
+      </c>
+      <c r="G25" s="8">
         <f t="shared" si="4"/>
-        <v>22.011904761904763</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="17"/>
-        <v>11664</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="5">
-        <v>19</v>
-      </c>
-      <c r="C25" s="5">
+        <v>8573.75</v>
+      </c>
+      <c r="H25" s="8">
+        <f>G25/$O$24</f>
+        <v>59.539930555555557</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <v>20</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+      <c r="D26" s="5">
         <f t="shared" si="14"/>
-        <v>195</v>
-      </c>
-      <c r="D25" s="5">
+        <v>47</v>
+      </c>
+      <c r="E26" s="5">
         <f t="shared" si="15"/>
         <v>45</v>
       </c>
-      <c r="E25" s="5">
-        <f t="shared" si="16"/>
-        <v>43</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="F26" s="8">
+        <f t="shared" si="3"/>
+        <v>24.010869565217391</v>
+      </c>
+      <c r="G26" s="8">
         <f t="shared" si="4"/>
-        <v>23.011363636363637</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="17"/>
-        <v>13718</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
-        <v>20</v>
-      </c>
-      <c r="C26" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H26" s="8">
+        <f>G26/$O$24</f>
+        <v>69.444444444444443</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <v>21</v>
+      </c>
+      <c r="C27" s="5">
+        <f>B$3+IF($B27&lt;$J$8,K$7*$B27,IF($B27&lt;$J$9,$B27*K$8,IF($B27&lt;$J$10,$B27*K$9,$B27*K$10)))</f>
+        <v>205</v>
+      </c>
+      <c r="D27" s="5">
         <f t="shared" si="14"/>
-        <v>200</v>
-      </c>
-      <c r="D26" s="5">
+        <v>49</v>
+      </c>
+      <c r="E27" s="5">
         <f t="shared" si="15"/>
         <v>47</v>
       </c>
-      <c r="E26" s="5">
-        <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="F26" s="8">
+      <c r="F27" s="8">
+        <f t="shared" si="3"/>
+        <v>25.010416666666668</v>
+      </c>
+      <c r="G27" s="8">
         <f t="shared" si="4"/>
-        <v>24.010869565217391</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="17"/>
-        <v>16000</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="15"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="5">
-        <v>21</v>
-      </c>
-      <c r="C27" s="5">
-        <f>B$3+IF($B27&lt;$I$8,J$7*$B27,IF($B27&lt;$I$9,$B27*J$8,IF($B27&lt;$I$10,$B27*J$9,$B27*J$10)))</f>
-        <v>205</v>
-      </c>
-      <c r="D27" s="5">
+        <v>11576.25</v>
+      </c>
+      <c r="H27" s="8">
+        <f>G27/$O$24</f>
+        <v>80.390625</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <v>22</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" ref="C28:C36" si="16">B$3+IF($B28&lt;$J$8,K$7*$B28,IF($B28&lt;$J$9,$B28*K$8,IF($B28&lt;$J$10,$B28*K$9,$B28*K$10)))</f>
+        <v>210</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="14"/>
+        <v>51</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" si="15"/>
         <v>49</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F28" s="8">
+        <f t="shared" si="3"/>
+        <v>26.01</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="4"/>
+        <v>13310</v>
+      </c>
+      <c r="H28" s="8">
+        <f>G28/$O$24</f>
+        <v>92.430555555555557</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <v>23</v>
+      </c>
+      <c r="C29" s="5">
         <f t="shared" si="16"/>
-        <v>47</v>
-      </c>
-      <c r="F27" s="8">
-        <f t="shared" si="4"/>
-        <v>25.010416666666668</v>
-      </c>
-      <c r="G27" s="5">
-        <f>($G$2*(B27^3))/5</f>
-        <v>18522</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="5">
-        <v>22</v>
-      </c>
-      <c r="C28" s="5">
-        <f t="shared" ref="C28:C36" si="18">B$3+IF($B28&lt;$I$8,J$7*$B28,IF($B28&lt;$I$9,$B28*J$8,IF($B28&lt;$I$10,$B28*J$9,$B28*J$10)))</f>
-        <v>210</v>
-      </c>
-      <c r="D28" s="5">
+        <v>215</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="14"/>
+        <v>53</v>
+      </c>
+      <c r="E29" s="5">
         <f t="shared" si="15"/>
         <v>51</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F29" s="8">
+        <f t="shared" si="3"/>
+        <v>27.009615384615383</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="4"/>
+        <v>15208.75</v>
+      </c>
+      <c r="H29" s="8">
+        <f>G29/$O$24</f>
+        <v>105.61631944444444</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <v>24</v>
+      </c>
+      <c r="C30" s="5">
         <f t="shared" si="16"/>
-        <v>49</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" si="4"/>
-        <v>26.01</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" ref="G28:G36" si="19">($G$2*(B28^3))/5</f>
-        <v>21296</v>
-      </c>
-      <c r="I28" s="2">
-        <f ca="1">RANDBETWEEN(MIN(I16:I19),MAX(I16:I19))</f>
-        <v>10</v>
-      </c>
-      <c r="J28" s="2">
-        <f ca="1">AVERAGE(J16:J19)*4*$M$28</f>
-        <v>270</v>
-      </c>
-      <c r="K28" s="2">
-        <f ca="1">AVERAGE(K16:K19)*4*$M$28</f>
-        <v>42</v>
-      </c>
-      <c r="L28" s="2">
-        <f ca="1">AVERAGE(L16:L19)*4*$M$28</f>
-        <v>38</v>
-      </c>
-      <c r="M28" s="18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="5">
-        <v>23</v>
-      </c>
-      <c r="C29" s="5">
-        <f t="shared" si="18"/>
-        <v>215</v>
-      </c>
-      <c r="D29" s="5">
+        <v>220</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="14"/>
+        <v>55</v>
+      </c>
+      <c r="E30" s="5">
         <f t="shared" si="15"/>
         <v>53</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F30" s="8">
+        <f t="shared" si="3"/>
+        <v>28.00925925925926</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="4"/>
+        <v>17280</v>
+      </c>
+      <c r="H30" s="8">
+        <f>G30/$O$24</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <v>25</v>
+      </c>
+      <c r="C31" s="5">
         <f t="shared" si="16"/>
-        <v>51</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" si="4"/>
-        <v>27.009615384615383</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" si="19"/>
-        <v>24334</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="5">
-        <v>24</v>
-      </c>
-      <c r="C30" s="5">
-        <f t="shared" si="18"/>
-        <v>220</v>
-      </c>
-      <c r="D30" s="5">
+        <v>225</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="14"/>
+        <v>57</v>
+      </c>
+      <c r="E31" s="5">
         <f t="shared" si="15"/>
         <v>55</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F31" s="8">
+        <f t="shared" si="3"/>
+        <v>29.008928571428573</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="4"/>
+        <v>19531.25</v>
+      </c>
+      <c r="H31" s="8">
+        <f>G31/$O$24</f>
+        <v>135.63368055555554</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>26</v>
+      </c>
+      <c r="C32" s="5">
         <f t="shared" si="16"/>
-        <v>53</v>
-      </c>
-      <c r="F30" s="8">
-        <f t="shared" si="4"/>
-        <v>28.00925925925926</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" si="19"/>
-        <v>27648</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="5">
-        <v>25</v>
-      </c>
-      <c r="C31" s="5">
-        <f t="shared" si="18"/>
-        <v>225</v>
-      </c>
-      <c r="D31" s="5">
+        <v>230</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="14"/>
+        <v>59</v>
+      </c>
+      <c r="E32" s="5">
         <f t="shared" si="15"/>
         <v>57</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F32" s="8">
+        <f t="shared" si="3"/>
+        <v>30.008620689655171</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="4"/>
+        <v>21970</v>
+      </c>
+      <c r="H32" s="8">
+        <f>G32/$O$24</f>
+        <v>152.56944444444446</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>27</v>
+      </c>
+      <c r="C33" s="5">
         <f t="shared" si="16"/>
-        <v>55</v>
-      </c>
-      <c r="F31" s="8">
-        <f t="shared" si="4"/>
-        <v>29.008928571428573</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="19"/>
-        <v>31250</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
-        <v>26</v>
-      </c>
-      <c r="C32" s="5">
-        <f t="shared" si="18"/>
-        <v>230</v>
-      </c>
-      <c r="D32" s="5">
+        <v>235</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="14"/>
+        <v>61</v>
+      </c>
+      <c r="E33" s="5">
         <f t="shared" si="15"/>
         <v>59</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F33" s="8">
+        <f t="shared" si="3"/>
+        <v>31.008333333333333</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="4"/>
+        <v>24603.75</v>
+      </c>
+      <c r="H33" s="8">
+        <f>G33/$O$24</f>
+        <v>170.859375</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <v>28</v>
+      </c>
+      <c r="C34" s="5">
         <f t="shared" si="16"/>
-        <v>57</v>
-      </c>
-      <c r="F32" s="8">
-        <f t="shared" si="4"/>
-        <v>30.008620689655171</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="19"/>
-        <v>35152</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="5">
-        <v>27</v>
-      </c>
-      <c r="C33" s="5">
-        <f t="shared" si="18"/>
-        <v>235</v>
-      </c>
-      <c r="D33" s="5">
+        <v>240</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="14"/>
+        <v>63</v>
+      </c>
+      <c r="E34" s="5">
         <f t="shared" si="15"/>
         <v>61</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F34" s="8">
+        <f t="shared" si="3"/>
+        <v>32.008064516129032</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="4"/>
+        <v>27440</v>
+      </c>
+      <c r="H34" s="8">
+        <f>G34/$O$24</f>
+        <v>190.55555555555554</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <v>29</v>
+      </c>
+      <c r="C35" s="5">
         <f t="shared" si="16"/>
-        <v>59</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" si="4"/>
-        <v>31.008333333333333</v>
-      </c>
-      <c r="G33" s="5">
-        <f t="shared" si="19"/>
-        <v>39366</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="5">
-        <v>28</v>
-      </c>
-      <c r="C34" s="5">
-        <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="D34" s="5">
+        <v>245</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="E35" s="5">
         <f t="shared" si="15"/>
         <v>63</v>
       </c>
-      <c r="E34" s="5">
-        <f t="shared" si="16"/>
-        <v>61</v>
-      </c>
-      <c r="F34" s="8">
+      <c r="F35" s="8">
+        <f t="shared" si="3"/>
+        <v>33.0078125</v>
+      </c>
+      <c r="G35" s="8">
         <f t="shared" si="4"/>
-        <v>32.008064516129032</v>
-      </c>
-      <c r="G34" s="5">
-        <f t="shared" si="19"/>
-        <v>43904</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="5">
-        <v>29</v>
-      </c>
-      <c r="C35" s="5">
-        <f t="shared" si="18"/>
-        <v>245</v>
-      </c>
-      <c r="D35" s="5">
-        <f t="shared" si="15"/>
-        <v>65</v>
-      </c>
-      <c r="E35" s="5">
-        <f t="shared" si="16"/>
-        <v>63</v>
-      </c>
-      <c r="F35" s="8">
-        <f t="shared" si="4"/>
-        <v>33.0078125</v>
-      </c>
-      <c r="G35" s="5">
-        <f t="shared" si="19"/>
-        <v>48778</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+        <v>30486.25</v>
+      </c>
+      <c r="H35" s="8">
+        <f>G35/$O$24</f>
+        <v>211.71006944444446</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <v>30</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>370</v>
       </c>
       <c r="D36" s="5">
+        <f t="shared" si="14"/>
+        <v>187</v>
+      </c>
+      <c r="E36" s="5">
         <f t="shared" si="15"/>
-        <v>187</v>
-      </c>
-      <c r="E36" s="5">
-        <f t="shared" si="16"/>
         <v>155</v>
       </c>
       <c r="F36" s="8">
+        <f t="shared" si="3"/>
+        <v>102.24853801169591</v>
+      </c>
+      <c r="G36" s="8">
         <f t="shared" si="4"/>
-        <v>102.24853801169591</v>
-      </c>
-      <c r="G36" s="5">
-        <f t="shared" si="19"/>
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+        <v>33750</v>
+      </c>
+      <c r="H36" s="8">
+        <f>G36/$O$24</f>
+        <v>234.375</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <v>31</v>
       </c>
       <c r="C37" s="5">
-        <f>B$3+IF($B37&lt;$I$8,J$7*$B37,IF($B37&lt;$I$9,$B37*J$8,IF($B37&lt;$I$10,$B37*J$9,$B37*J$10)))</f>
+        <f>B$3+IF($B37&lt;$J$8,K$7*$B37,IF($B37&lt;$J$9,$B37*K$8,IF($B37&lt;$J$10,$B37*K$9,$B37*K$10)))</f>
         <v>379</v>
       </c>
       <c r="D37" s="5">
+        <f t="shared" si="14"/>
+        <v>193</v>
+      </c>
+      <c r="E37" s="5">
         <f t="shared" si="15"/>
-        <v>193</v>
-      </c>
-      <c r="E37" s="5">
-        <f t="shared" si="16"/>
         <v>160</v>
       </c>
       <c r="F37" s="8">
+        <f t="shared" si="3"/>
+        <v>105.52124645892351</v>
+      </c>
+      <c r="G37" s="8">
         <f t="shared" si="4"/>
-        <v>105.52124645892351</v>
-      </c>
-      <c r="G37" s="5">
-        <f>($G$2*(B37^3))/5</f>
-        <v>59582</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+        <v>37238.75</v>
+      </c>
+      <c r="H37" s="8">
+        <f>G37/$O$24</f>
+        <v>258.60243055555554</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
         <v>32</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" ref="C38:C46" si="20">B$3+IF($B38&lt;$I$8,J$7*$B38,IF($B38&lt;$I$9,$B38*J$8,IF($B38&lt;$I$10,$B38*J$9,$B38*J$10)))</f>
+        <f t="shared" ref="C38:C46" si="17">B$3+IF($B38&lt;$J$8,K$7*$B38,IF($B38&lt;$J$9,$B38*K$8,IF($B38&lt;$J$10,$B38*K$9,$B38*K$10)))</f>
         <v>388</v>
       </c>
       <c r="D38" s="5">
+        <f t="shared" si="14"/>
+        <v>199</v>
+      </c>
+      <c r="E38" s="5">
         <f t="shared" si="15"/>
-        <v>199</v>
-      </c>
-      <c r="E38" s="5">
-        <f t="shared" si="16"/>
         <v>165</v>
       </c>
       <c r="F38" s="8">
+        <f t="shared" si="3"/>
+        <v>108.79395604395604</v>
+      </c>
+      <c r="G38" s="8">
         <f t="shared" si="4"/>
-        <v>108.79395604395604</v>
-      </c>
-      <c r="G38" s="5">
-        <f t="shared" ref="G38:G46" si="21">($G$2*(B38^3))/5</f>
-        <v>65536</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+        <v>40960</v>
+      </c>
+      <c r="H38" s="8">
+        <f>G38/$O$24</f>
+        <v>284.44444444444446</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
         <v>33</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>397</v>
       </c>
       <c r="D39" s="5">
+        <f t="shared" si="14"/>
+        <v>205</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="15"/>
+        <v>170</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="3"/>
+        <v>112.06666666666666</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="4"/>
+        <v>44921.25</v>
+      </c>
+      <c r="H39" s="8">
+        <f>G39/$O$24</f>
+        <v>311.953125</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="5">
+        <v>34</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="17"/>
+        <v>406</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="14"/>
+        <v>211</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="15"/>
+        <v>175</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="3"/>
+        <v>115.33937823834196</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="4"/>
+        <v>49130</v>
+      </c>
+      <c r="H40" s="8">
+        <f>G40/$O$24</f>
+        <v>341.18055555555554</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="5">
+        <v>35</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" si="17"/>
+        <v>415</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="14"/>
+        <v>217</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="15"/>
+        <v>180</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="3"/>
+        <v>118.61209068010075</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="4"/>
+        <v>53593.75</v>
+      </c>
+      <c r="H41" s="8">
+        <f>G41/$O$24</f>
+        <v>372.17881944444446</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="5">
+        <v>36</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="17"/>
+        <v>424</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="14"/>
+        <v>223</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="15"/>
+        <v>185</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" si="3"/>
+        <v>121.88480392156863</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="4"/>
+        <v>58320</v>
+      </c>
+      <c r="H42" s="8">
+        <f>G42/$O$24</f>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="5">
+        <v>37</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="17"/>
+        <v>433</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="14"/>
+        <v>229</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="15"/>
+        <v>190</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="3"/>
+        <v>125.15751789976133</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="4"/>
+        <v>63316.25</v>
+      </c>
+      <c r="H43" s="8">
+        <f>G43/$O$24</f>
+        <v>439.69618055555554</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="5">
+        <v>38</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="17"/>
+        <v>442</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="14"/>
+        <v>235</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="15"/>
+        <v>195</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" si="3"/>
+        <v>128.43023255813952</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="4"/>
+        <v>68590</v>
+      </c>
+      <c r="H44" s="8">
+        <f>G44/$O$24</f>
+        <v>476.31944444444446</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="5">
+        <v>39</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="17"/>
+        <v>451</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="14"/>
+        <v>241</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="3"/>
+        <v>131.702947845805</v>
+      </c>
+      <c r="G45" s="8">
+        <f t="shared" si="4"/>
+        <v>74148.75</v>
+      </c>
+      <c r="H45" s="8">
+        <f>G45/$O$24</f>
+        <v>514.921875</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="5">
+        <v>40</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="17"/>
+        <v>460</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="14"/>
+        <v>247</v>
+      </c>
+      <c r="E46" s="5">
         <f t="shared" si="15"/>
         <v>205</v>
       </c>
-      <c r="E39" s="5">
-        <f t="shared" si="16"/>
-        <v>170</v>
-      </c>
-      <c r="F39" s="8">
+      <c r="F46" s="8">
+        <f t="shared" si="3"/>
+        <v>134.97566371681415</v>
+      </c>
+      <c r="G46" s="8">
         <f t="shared" si="4"/>
-        <v>112.06666666666666</v>
-      </c>
-      <c r="G39" s="5">
-        <f t="shared" si="21"/>
-        <v>71874</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="5">
-        <v>34</v>
-      </c>
-      <c r="C40" s="5">
-        <f t="shared" si="20"/>
-        <v>406</v>
-      </c>
-      <c r="D40" s="5">
-        <f t="shared" si="15"/>
-        <v>211</v>
-      </c>
-      <c r="E40" s="5">
-        <f t="shared" si="16"/>
-        <v>175</v>
-      </c>
-      <c r="F40" s="8">
-        <f t="shared" si="4"/>
-        <v>115.33937823834196</v>
-      </c>
-      <c r="G40" s="5">
-        <f t="shared" si="21"/>
-        <v>78608</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="5">
-        <v>35</v>
-      </c>
-      <c r="C41" s="5">
-        <f t="shared" si="20"/>
-        <v>415</v>
-      </c>
-      <c r="D41" s="5">
-        <f t="shared" si="15"/>
-        <v>217</v>
-      </c>
-      <c r="E41" s="5">
-        <f t="shared" si="16"/>
-        <v>180</v>
-      </c>
-      <c r="F41" s="8">
-        <f t="shared" si="4"/>
-        <v>118.61209068010075</v>
-      </c>
-      <c r="G41" s="5">
-        <f t="shared" si="21"/>
-        <v>85750</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="5">
-        <v>36</v>
-      </c>
-      <c r="C42" s="5">
-        <f t="shared" si="20"/>
-        <v>424</v>
-      </c>
-      <c r="D42" s="5">
-        <f t="shared" si="15"/>
-        <v>223</v>
-      </c>
-      <c r="E42" s="5">
-        <f t="shared" si="16"/>
-        <v>185</v>
-      </c>
-      <c r="F42" s="8">
-        <f t="shared" si="4"/>
-        <v>121.88480392156863</v>
-      </c>
-      <c r="G42" s="5">
-        <f t="shared" si="21"/>
-        <v>93312</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="5">
-        <v>37</v>
-      </c>
-      <c r="C43" s="5">
-        <f t="shared" si="20"/>
-        <v>433</v>
-      </c>
-      <c r="D43" s="5">
-        <f t="shared" si="15"/>
-        <v>229</v>
-      </c>
-      <c r="E43" s="5">
-        <f t="shared" si="16"/>
-        <v>190</v>
-      </c>
-      <c r="F43" s="8">
-        <f t="shared" si="4"/>
-        <v>125.15751789976133</v>
-      </c>
-      <c r="G43" s="5">
-        <f t="shared" si="21"/>
-        <v>101306</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="5">
-        <v>38</v>
-      </c>
-      <c r="C44" s="5">
-        <f t="shared" si="20"/>
-        <v>442</v>
-      </c>
-      <c r="D44" s="5">
-        <f t="shared" si="15"/>
-        <v>235</v>
-      </c>
-      <c r="E44" s="5">
-        <f t="shared" si="16"/>
-        <v>195</v>
-      </c>
-      <c r="F44" s="8">
-        <f t="shared" si="4"/>
-        <v>128.43023255813952</v>
-      </c>
-      <c r="G44" s="5">
-        <f t="shared" si="21"/>
-        <v>109744</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="5">
-        <v>39</v>
-      </c>
-      <c r="C45" s="5">
-        <f t="shared" si="20"/>
-        <v>451</v>
-      </c>
-      <c r="D45" s="5">
-        <f t="shared" si="15"/>
-        <v>241</v>
-      </c>
-      <c r="E45" s="5">
-        <f t="shared" si="16"/>
-        <v>200</v>
-      </c>
-      <c r="F45" s="8">
-        <f t="shared" si="4"/>
-        <v>131.702947845805</v>
-      </c>
-      <c r="G45" s="5">
-        <f t="shared" si="21"/>
-        <v>118638</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="5">
-        <v>40</v>
-      </c>
-      <c r="C46" s="5">
-        <f t="shared" si="20"/>
-        <v>460</v>
-      </c>
-      <c r="D46" s="5">
-        <f t="shared" si="15"/>
-        <v>247</v>
-      </c>
-      <c r="E46" s="5">
-        <f t="shared" si="16"/>
-        <v>205</v>
-      </c>
-      <c r="F46" s="8">
-        <f t="shared" si="4"/>
-        <v>134.97566371681415</v>
-      </c>
-      <c r="G46" s="5">
-        <f t="shared" si="21"/>
-        <v>128000</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+        <v>80000</v>
+      </c>
+      <c r="H46" s="8">
+        <f>G46/$O$24</f>
+        <v>555.55555555555554</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="5">
         <v>41</v>
       </c>
       <c r="C47" s="5">
-        <f>B$3+IF($B47&lt;$I$8,J$7*$B47,IF($B47&lt;$I$9,$B47*J$8,IF($B47&lt;$I$10,$B47*J$9,$B47*J$10)))</f>
+        <f>B$3+IF($B47&lt;$J$8,K$7*$B47,IF($B47&lt;$J$9,$B47*K$8,IF($B47&lt;$J$10,$B47*K$9,$B47*K$10)))</f>
         <v>469</v>
       </c>
       <c r="D47" s="5">
+        <f t="shared" si="14"/>
+        <v>253</v>
+      </c>
+      <c r="E47" s="5">
         <f t="shared" si="15"/>
-        <v>253</v>
-      </c>
-      <c r="E47" s="5">
-        <f t="shared" si="16"/>
         <v>210</v>
       </c>
       <c r="F47" s="8">
+        <f t="shared" si="3"/>
+        <v>138.24838012958963</v>
+      </c>
+      <c r="G47" s="8">
         <f t="shared" si="4"/>
-        <v>138.24838012958963</v>
-      </c>
-      <c r="G47" s="5">
-        <f>($G$2*(B47^3))/5</f>
-        <v>137842</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+        <v>86151.25</v>
+      </c>
+      <c r="H47" s="8">
+        <f>G47/$O$24</f>
+        <v>598.27256944444446</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="5">
         <v>42</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" ref="C48:C54" si="22">B$3+IF($B48&lt;$I$8,J$7*$B48,IF($B48&lt;$I$9,$B48*J$8,IF($B48&lt;$I$10,$B48*J$9,$B48*J$10)))</f>
+        <f t="shared" ref="C48:C54" si="18">B$3+IF($B48&lt;$J$8,K$7*$B48,IF($B48&lt;$J$9,$B48*K$8,IF($B48&lt;$J$10,$B48*K$9,$B48*K$10)))</f>
         <v>478</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" ref="D48:D111" si="23">C$3+IF($B48&lt;$I$8,K$7*$B48,IF($B48&lt;$I$9,$B48*K$8,IF($B48&lt;$I$10,$B48*K$9,$B48*K$10)))</f>
+        <f t="shared" ref="D48:D111" si="19">C$3+IF($B48&lt;$J$8,L$7*$B48,IF($B48&lt;$J$9,$B48*L$8,IF($B48&lt;$J$10,$B48*L$9,$B48*L$10)))</f>
         <v>259</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" ref="E48:E111" si="24">D$3+IF($B48&lt;$I$8,L$7*$B48,IF($B48&lt;$I$9,$B48*L$8,IF($B48&lt;$I$10,$B48*L$9,$B48*L$10)))</f>
+        <f t="shared" ref="E48:E111" si="20">D$3+IF($B48&lt;$J$8,M$7*$B48,IF($B48&lt;$J$9,$B48*M$8,IF($B48&lt;$J$10,$B48*M$9,$B48*M$10)))</f>
         <v>215</v>
       </c>
       <c r="F48" s="8">
+        <f t="shared" si="3"/>
+        <v>141.5210970464135</v>
+      </c>
+      <c r="G48" s="8">
         <f t="shared" si="4"/>
-        <v>141.5210970464135</v>
-      </c>
-      <c r="G48" s="5">
-        <f t="shared" ref="G48:G54" si="25">($G$2*(B48^3))/5</f>
-        <v>148176</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+        <v>92610</v>
+      </c>
+      <c r="H48" s="8">
+        <f>G48/$O$24</f>
+        <v>643.125</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="5">
         <v>43</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>487</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>265</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>220</v>
       </c>
       <c r="F49" s="8">
+        <f t="shared" si="3"/>
+        <v>144.79381443298968</v>
+      </c>
+      <c r="G49" s="8">
         <f t="shared" si="4"/>
-        <v>144.79381443298968</v>
-      </c>
-      <c r="G49" s="5">
-        <f t="shared" si="25"/>
-        <v>159014</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+        <v>99383.75</v>
+      </c>
+      <c r="H49" s="8">
+        <f>G49/$O$24</f>
+        <v>690.16493055555554</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="5">
         <v>44</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>496</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>271</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>225</v>
       </c>
       <c r="F50" s="8">
+        <f t="shared" si="3"/>
+        <v>148.06653225806451</v>
+      </c>
+      <c r="G50" s="8">
         <f t="shared" si="4"/>
-        <v>148.06653225806451</v>
-      </c>
-      <c r="G50" s="5">
-        <f t="shared" si="25"/>
-        <v>170368</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+        <v>106480</v>
+      </c>
+      <c r="H50" s="8">
+        <f>G50/$O$24</f>
+        <v>739.44444444444446</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="5">
         <v>45</v>
       </c>
       <c r="C51" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>505</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>277</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>230</v>
       </c>
       <c r="F51" s="8">
+        <f t="shared" si="3"/>
+        <v>151.33925049309664</v>
+      </c>
+      <c r="G51" s="8">
         <f t="shared" si="4"/>
-        <v>151.33925049309664</v>
-      </c>
-      <c r="G51" s="5">
-        <f t="shared" si="25"/>
-        <v>182250</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+        <v>113906.25</v>
+      </c>
+      <c r="H51" s="8">
+        <f>G51/$O$24</f>
+        <v>791.015625</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="5">
         <v>46</v>
       </c>
       <c r="C52" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>514</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>283</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>235</v>
       </c>
       <c r="F52" s="8">
+        <f t="shared" si="3"/>
+        <v>154.6119691119691</v>
+      </c>
+      <c r="G52" s="8">
         <f t="shared" si="4"/>
-        <v>154.6119691119691</v>
-      </c>
-      <c r="G52" s="5">
-        <f t="shared" si="25"/>
-        <v>194672</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+        <v>121670</v>
+      </c>
+      <c r="H52" s="8">
+        <f>G52/$O$24</f>
+        <v>844.93055555555554</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="5">
         <v>47</v>
       </c>
       <c r="C53" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>523</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>289</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>240</v>
       </c>
       <c r="F53" s="8">
+        <f t="shared" si="3"/>
+        <v>157.88468809073723</v>
+      </c>
+      <c r="G53" s="8">
         <f t="shared" si="4"/>
-        <v>157.88468809073723</v>
-      </c>
-      <c r="G53" s="5">
-        <f t="shared" si="25"/>
-        <v>207646</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+        <v>129778.75</v>
+      </c>
+      <c r="H53" s="8">
+        <f>G53/$O$24</f>
+        <v>901.24131944444446</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="5">
         <v>48</v>
       </c>
       <c r="C54" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>532</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>295</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>245</v>
       </c>
       <c r="F54" s="8">
+        <f t="shared" si="3"/>
+        <v>161.15740740740742</v>
+      </c>
+      <c r="G54" s="8">
         <f t="shared" si="4"/>
-        <v>161.15740740740742</v>
-      </c>
-      <c r="G54" s="5">
-        <f t="shared" si="25"/>
-        <v>221184</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+        <v>138240</v>
+      </c>
+      <c r="H54" s="8">
+        <f>G54/$O$24</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="5">
         <v>49</v>
       </c>
       <c r="C55" s="5">
-        <f>B$3+IF($B55&lt;$I$8,J$7*$B55,IF($B55&lt;$I$9,$B55*J$8,IF($B55&lt;$I$10,$B55*J$9,$B55*J$10)))</f>
+        <f>B$3+IF($B55&lt;$J$8,K$7*$B55,IF($B55&lt;$J$9,$B55*K$8,IF($B55&lt;$J$10,$B55*K$9,$B55*K$10)))</f>
         <v>541</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>301</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>250</v>
       </c>
       <c r="F55" s="8">
+        <f t="shared" si="3"/>
+        <v>164.43012704174228</v>
+      </c>
+      <c r="G55" s="8">
         <f t="shared" si="4"/>
-        <v>164.43012704174228</v>
-      </c>
-      <c r="G55" s="5">
-        <f>($G$2*(B55^3))/5</f>
-        <v>235298</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+        <v>147061.25</v>
+      </c>
+      <c r="H55" s="8">
+        <f>G55/$O$24</f>
+        <v>1021.2586805555555</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="5">
         <v>50</v>
       </c>
       <c r="C56" s="5">
-        <f t="shared" ref="C56:C64" si="26">B$3+IF($B56&lt;$I$8,J$7*$B56,IF($B56&lt;$I$9,$B56*J$8,IF($B56&lt;$I$10,$B56*J$9,$B56*J$10)))</f>
+        <f t="shared" ref="C56:C64" si="21">B$3+IF($B56&lt;$J$8,K$7*$B56,IF($B56&lt;$J$9,$B56*K$8,IF($B56&lt;$J$10,$B56*K$9,$B56*K$10)))</f>
         <v>550</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>307</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>255</v>
       </c>
       <c r="F56" s="8">
+        <f t="shared" si="3"/>
+        <v>167.70284697508896</v>
+      </c>
+      <c r="G56" s="8">
         <f t="shared" si="4"/>
-        <v>167.70284697508896</v>
-      </c>
-      <c r="G56" s="5">
-        <f t="shared" ref="G56:G64" si="27">($G$2*(B56^3))/5</f>
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+        <v>156250</v>
+      </c>
+      <c r="H56" s="8">
+        <f>G56/$O$24</f>
+        <v>1085.0694444444443</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="5">
         <v>51</v>
       </c>
       <c r="C57" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>559</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>313</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>260</v>
       </c>
       <c r="F57" s="8">
+        <f t="shared" si="3"/>
+        <v>170.97556719022688</v>
+      </c>
+      <c r="G57" s="8">
         <f t="shared" si="4"/>
-        <v>170.97556719022688</v>
-      </c>
-      <c r="G57" s="5">
-        <f t="shared" si="27"/>
-        <v>265302</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+        <v>165813.75</v>
+      </c>
+      <c r="H57" s="8">
+        <f>G57/$O$24</f>
+        <v>1151.484375</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="5">
         <v>52</v>
       </c>
       <c r="C58" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>568</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>319</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>265</v>
       </c>
       <c r="F58" s="8">
+        <f t="shared" si="3"/>
+        <v>174.24828767123287</v>
+      </c>
+      <c r="G58" s="8">
         <f t="shared" si="4"/>
-        <v>174.24828767123287</v>
-      </c>
-      <c r="G58" s="5">
-        <f t="shared" si="27"/>
-        <v>281216</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+        <v>175760</v>
+      </c>
+      <c r="H58" s="8">
+        <f>G58/$O$24</f>
+        <v>1220.5555555555557</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="5">
         <v>53</v>
       </c>
       <c r="C59" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>577</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>325</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>270</v>
       </c>
       <c r="F59" s="8">
+        <f t="shared" si="3"/>
+        <v>177.52100840336135</v>
+      </c>
+      <c r="G59" s="8">
         <f t="shared" si="4"/>
-        <v>177.52100840336135</v>
-      </c>
-      <c r="G59" s="5">
-        <f t="shared" si="27"/>
-        <v>297754</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+        <v>186096.25</v>
+      </c>
+      <c r="H59" s="8">
+        <f>G59/$O$24</f>
+        <v>1292.3350694444443</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="5">
         <v>54</v>
       </c>
       <c r="C60" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>586</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>331</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>275</v>
       </c>
       <c r="F60" s="8">
+        <f t="shared" si="3"/>
+        <v>180.79372937293729</v>
+      </c>
+      <c r="G60" s="8">
         <f t="shared" si="4"/>
-        <v>180.79372937293729</v>
-      </c>
-      <c r="G60" s="5">
-        <f t="shared" si="27"/>
-        <v>314928</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+        <v>196830</v>
+      </c>
+      <c r="H60" s="8">
+        <f>G60/$O$24</f>
+        <v>1366.875</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="5">
         <v>55</v>
       </c>
       <c r="C61" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>595</v>
       </c>
       <c r="D61" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>337</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>280</v>
       </c>
       <c r="F61" s="8">
+        <f t="shared" si="3"/>
+        <v>184.06645056726094</v>
+      </c>
+      <c r="G61" s="8">
         <f t="shared" si="4"/>
-        <v>184.06645056726094</v>
-      </c>
-      <c r="G61" s="5">
-        <f t="shared" si="27"/>
-        <v>332750</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+        <v>207968.75</v>
+      </c>
+      <c r="H61" s="8">
+        <f>G61/$O$24</f>
+        <v>1444.2274305555557</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="5">
         <v>56</v>
       </c>
       <c r="C62" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>604</v>
       </c>
       <c r="D62" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>343</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>285</v>
       </c>
       <c r="F62" s="8">
+        <f t="shared" si="3"/>
+        <v>187.33917197452229</v>
+      </c>
+      <c r="G62" s="8">
         <f t="shared" si="4"/>
-        <v>187.33917197452229</v>
-      </c>
-      <c r="G62" s="5">
-        <f t="shared" si="27"/>
-        <v>351232</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+        <v>219520</v>
+      </c>
+      <c r="H62" s="8">
+        <f>G62/$O$24</f>
+        <v>1524.4444444444443</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="5">
         <v>57</v>
       </c>
       <c r="C63" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>613</v>
       </c>
       <c r="D63" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>349</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>290</v>
       </c>
       <c r="F63" s="8">
+        <f t="shared" si="3"/>
+        <v>190.61189358372457</v>
+      </c>
+      <c r="G63" s="8">
         <f t="shared" si="4"/>
-        <v>190.61189358372457</v>
-      </c>
-      <c r="G63" s="5">
-        <f t="shared" si="27"/>
-        <v>370386</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+        <v>231491.25</v>
+      </c>
+      <c r="H63" s="8">
+        <f>G63/$O$24</f>
+        <v>1607.578125</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="5">
         <v>58</v>
       </c>
       <c r="C64" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>622</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>355</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>295</v>
       </c>
       <c r="F64" s="8">
+        <f t="shared" si="3"/>
+        <v>193.88461538461539</v>
+      </c>
+      <c r="G64" s="8">
         <f t="shared" si="4"/>
-        <v>193.88461538461539</v>
-      </c>
-      <c r="G64" s="5">
-        <f t="shared" si="27"/>
-        <v>390224</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+        <v>243890</v>
+      </c>
+      <c r="H64" s="8">
+        <f>G64/$O$24</f>
+        <v>1693.6805555555557</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="5">
         <v>59</v>
       </c>
       <c r="C65" s="5">
-        <f>B$3+IF($B65&lt;$I$8,J$7*$B65,IF($B65&lt;$I$9,$B65*J$8,IF($B65&lt;$I$10,$B65*J$9,$B65*J$10)))</f>
+        <f>B$3+IF($B65&lt;$J$8,K$7*$B65,IF($B65&lt;$J$9,$B65*K$8,IF($B65&lt;$J$10,$B65*K$9,$B65*K$10)))</f>
         <v>631</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>361</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="F65" s="8">
+        <f t="shared" si="3"/>
+        <v>197.15733736762482</v>
+      </c>
+      <c r="G65" s="8">
         <f t="shared" si="4"/>
-        <v>197.15733736762482</v>
-      </c>
-      <c r="G65" s="5">
-        <f>($G$2*(B65^3))/5</f>
-        <v>410758</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+        <v>256723.75</v>
+      </c>
+      <c r="H65" s="8">
+        <f>G65/$O$24</f>
+        <v>1782.8038194444443</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="5">
         <v>60</v>
       </c>
       <c r="C66" s="5">
-        <f t="shared" ref="C66:C74" si="28">B$3+IF($B66&lt;$I$8,J$7*$B66,IF($B66&lt;$I$9,$B66*J$8,IF($B66&lt;$I$10,$B66*J$9,$B66*J$10)))</f>
+        <f t="shared" ref="C66:C74" si="22">B$3+IF($B66&lt;$J$8,K$7*$B66,IF($B66&lt;$J$9,$B66*K$8,IF($B66&lt;$J$10,$B66*K$9,$B66*K$10)))</f>
         <v>880</v>
       </c>
       <c r="D66" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>607</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>485</v>
       </c>
       <c r="F66" s="8">
+        <f t="shared" si="3"/>
+        <v>337.40750915750914</v>
+      </c>
+      <c r="G66" s="8">
         <f t="shared" si="4"/>
-        <v>337.40750915750914</v>
-      </c>
-      <c r="G66" s="5">
-        <f t="shared" ref="G66:G74" si="29">($G$2*(B66^3))/5</f>
-        <v>432000</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+        <v>270000</v>
+      </c>
+      <c r="H66" s="8">
+        <f>G66/$O$24</f>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="5">
         <v>61</v>
       </c>
       <c r="C67" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>893</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>617</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>493</v>
       </c>
       <c r="F67" s="8">
+        <f t="shared" si="3"/>
+        <v>342.96306306306309</v>
+      </c>
+      <c r="G67" s="8">
         <f t="shared" si="4"/>
-        <v>342.96306306306309</v>
-      </c>
-      <c r="G67" s="5">
-        <f t="shared" si="29"/>
-        <v>453962</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+        <v>283726.25</v>
+      </c>
+      <c r="H67" s="8">
+        <f>G67/$O$24</f>
+        <v>1970.3211805555557</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="5">
         <v>62</v>
       </c>
       <c r="C68" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>906</v>
       </c>
       <c r="D68" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>627</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>501</v>
       </c>
       <c r="F68" s="8">
+        <f t="shared" si="3"/>
+        <v>348.51861702127661</v>
+      </c>
+      <c r="G68" s="8">
         <f t="shared" si="4"/>
-        <v>348.51861702127661</v>
-      </c>
-      <c r="G68" s="5">
-        <f t="shared" si="29"/>
-        <v>476656</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+        <v>297910</v>
+      </c>
+      <c r="H68" s="8">
+        <f>G68/$O$24</f>
+        <v>2068.8194444444443</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="5">
         <v>63</v>
       </c>
       <c r="C69" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>919</v>
       </c>
       <c r="D69" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>637</v>
       </c>
       <c r="E69" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>509</v>
       </c>
       <c r="F69" s="8">
+        <f t="shared" si="3"/>
+        <v>354.07417102966843</v>
+      </c>
+      <c r="G69" s="8">
         <f t="shared" si="4"/>
-        <v>354.07417102966843</v>
-      </c>
-      <c r="G69" s="5">
-        <f t="shared" si="29"/>
-        <v>500094</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+        <v>312558.75</v>
+      </c>
+      <c r="H69" s="8">
+        <f>G69/$O$24</f>
+        <v>2170.546875</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="5">
         <v>64</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>932</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>647</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>517</v>
       </c>
       <c r="F70" s="8">
+        <f t="shared" si="3"/>
+        <v>359.62972508591065</v>
+      </c>
+      <c r="G70" s="8">
         <f t="shared" si="4"/>
-        <v>359.62972508591065</v>
-      </c>
-      <c r="G70" s="5">
-        <f t="shared" si="29"/>
-        <v>524288</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+        <v>327680</v>
+      </c>
+      <c r="H70" s="8">
+        <f>G70/$O$24</f>
+        <v>2275.5555555555557</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="5">
         <v>65</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>945</v>
       </c>
       <c r="D71" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>657</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>525</v>
       </c>
       <c r="F71" s="8">
+        <f t="shared" si="3"/>
+        <v>365.18527918781729</v>
+      </c>
+      <c r="G71" s="8">
         <f t="shared" si="4"/>
-        <v>365.18527918781729</v>
-      </c>
-      <c r="G71" s="5">
-        <f t="shared" si="29"/>
-        <v>549250</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+        <v>343281.25</v>
+      </c>
+      <c r="H71" s="8">
+        <f>G71/$O$24</f>
+        <v>2383.8975694444443</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="5">
         <v>66</v>
       </c>
       <c r="C72" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>958</v>
       </c>
       <c r="D72" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>667</v>
       </c>
       <c r="E72" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>533</v>
       </c>
       <c r="F72" s="8">
-        <f t="shared" ref="F72:F126" si="30">D72^2/(D72+E72)</f>
+        <f t="shared" ref="F72:F126" si="23">D72^2/(D72+E72)</f>
         <v>370.74083333333334</v>
       </c>
-      <c r="G72" s="5">
-        <f t="shared" si="29"/>
-        <v>574992</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="8">
+        <f t="shared" ref="G72:G126" si="24">($G$2*(B72^3))/4</f>
+        <v>359370</v>
+      </c>
+      <c r="H72" s="8">
+        <f>G72/$O$24</f>
+        <v>2495.625</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="5">
         <v>67</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>971</v>
       </c>
       <c r="D73" s="5">
+        <f t="shared" si="19"/>
+        <v>677</v>
+      </c>
+      <c r="E73" s="5">
+        <f t="shared" si="20"/>
+        <v>541</v>
+      </c>
+      <c r="F73" s="8">
         <f t="shared" si="23"/>
-        <v>677</v>
-      </c>
-      <c r="E73" s="5">
+        <v>376.29638752052546</v>
+      </c>
+      <c r="G73" s="8">
         <f t="shared" si="24"/>
-        <v>541</v>
-      </c>
-      <c r="F73" s="8">
-        <f t="shared" si="30"/>
-        <v>376.29638752052546</v>
-      </c>
-      <c r="G73" s="5">
-        <f t="shared" si="29"/>
-        <v>601526</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+        <v>375953.75</v>
+      </c>
+      <c r="H73" s="8">
+        <f>G73/$O$24</f>
+        <v>2610.7899305555557</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="5">
         <v>68</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>984</v>
       </c>
       <c r="D74" s="5">
+        <f t="shared" si="19"/>
+        <v>687</v>
+      </c>
+      <c r="E74" s="5">
+        <f t="shared" si="20"/>
+        <v>549</v>
+      </c>
+      <c r="F74" s="8">
         <f t="shared" si="23"/>
-        <v>687</v>
-      </c>
-      <c r="E74" s="5">
+        <v>381.85194174757282</v>
+      </c>
+      <c r="G74" s="8">
         <f t="shared" si="24"/>
-        <v>549</v>
-      </c>
-      <c r="F74" s="8">
-        <f t="shared" si="30"/>
-        <v>381.85194174757282</v>
-      </c>
-      <c r="G74" s="5">
-        <f t="shared" si="29"/>
-        <v>628864</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+        <v>393040</v>
+      </c>
+      <c r="H74" s="8">
+        <f>G74/$O$24</f>
+        <v>2729.4444444444443</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="5">
         <v>69</v>
       </c>
       <c r="C75" s="5">
-        <f>B$3+IF($B75&lt;$I$8,J$7*$B75,IF($B75&lt;$I$9,$B75*J$8,IF($B75&lt;$I$10,$B75*J$9,$B75*J$10)))</f>
+        <f>B$3+IF($B75&lt;$J$8,K$7*$B75,IF($B75&lt;$J$9,$B75*K$8,IF($B75&lt;$J$10,$B75*K$9,$B75*K$10)))</f>
         <v>997</v>
       </c>
       <c r="D75" s="5">
+        <f t="shared" si="19"/>
+        <v>697</v>
+      </c>
+      <c r="E75" s="5">
+        <f t="shared" si="20"/>
+        <v>557</v>
+      </c>
+      <c r="F75" s="8">
         <f t="shared" si="23"/>
-        <v>697</v>
-      </c>
-      <c r="E75" s="5">
+        <v>387.40749601275917</v>
+      </c>
+      <c r="G75" s="8">
         <f t="shared" si="24"/>
-        <v>557</v>
-      </c>
-      <c r="F75" s="8">
-        <f t="shared" si="30"/>
-        <v>387.40749601275917</v>
-      </c>
-      <c r="G75" s="5">
-        <f>($G$2*(B75^3))/5</f>
-        <v>657018</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+        <v>410636.25</v>
+      </c>
+      <c r="H75" s="8">
+        <f>G75/$O$24</f>
+        <v>2851.640625</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="5">
         <v>70</v>
       </c>
       <c r="C76" s="5">
-        <f>B$3+IF($B76&lt;$I$8,J$7*$B76,IF($B76&lt;$I$9,$B76*J$8,IF($B76&lt;$I$10,$B76*J$9,$B76*J$10)))</f>
+        <f>B$3+IF($B76&lt;$J$8,K$7*$B76,IF($B76&lt;$J$9,$B76*K$8,IF($B76&lt;$J$10,$B76*K$9,$B76*K$10)))</f>
         <v>1010</v>
       </c>
       <c r="D76" s="5">
+        <f t="shared" si="19"/>
+        <v>707</v>
+      </c>
+      <c r="E76" s="5">
+        <f t="shared" si="20"/>
+        <v>565</v>
+      </c>
+      <c r="F76" s="8">
         <f t="shared" si="23"/>
-        <v>707</v>
-      </c>
-      <c r="E76" s="5">
+        <v>392.96305031446542</v>
+      </c>
+      <c r="G76" s="8">
         <f t="shared" si="24"/>
-        <v>565</v>
-      </c>
-      <c r="F76" s="8">
-        <f t="shared" si="30"/>
-        <v>392.96305031446542</v>
-      </c>
-      <c r="G76" s="5">
-        <f>($G$2*(B76^3))/5</f>
-        <v>686000</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+        <v>428750</v>
+      </c>
+      <c r="H76" s="8">
+        <f>G76/$O$24</f>
+        <v>2977.4305555555557</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="5">
         <v>71</v>
       </c>
       <c r="C77" s="5">
-        <f t="shared" ref="C77:C85" si="31">B$3+IF($B77&lt;$I$8,J$7*$B77,IF($B77&lt;$I$9,$B77*J$8,IF($B77&lt;$I$10,$B77*J$9,$B77*J$10)))</f>
+        <f t="shared" ref="C77:C85" si="25">B$3+IF($B77&lt;$J$8,K$7*$B77,IF($B77&lt;$J$9,$B77*K$8,IF($B77&lt;$J$10,$B77*K$9,$B77*K$10)))</f>
         <v>1023</v>
       </c>
       <c r="D77" s="5">
+        <f t="shared" si="19"/>
+        <v>717</v>
+      </c>
+      <c r="E77" s="5">
+        <f t="shared" si="20"/>
+        <v>573</v>
+      </c>
+      <c r="F77" s="8">
         <f t="shared" si="23"/>
-        <v>717</v>
-      </c>
-      <c r="E77" s="5">
+        <v>398.51860465116278</v>
+      </c>
+      <c r="G77" s="8">
         <f t="shared" si="24"/>
-        <v>573</v>
-      </c>
-      <c r="F77" s="8">
-        <f t="shared" si="30"/>
-        <v>398.51860465116278</v>
-      </c>
-      <c r="G77" s="5">
-        <f t="shared" ref="G77:G85" si="32">($G$2*(B77^3))/5</f>
-        <v>715822</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+        <v>447388.75</v>
+      </c>
+      <c r="H77" s="8">
+        <f>G77/$O$24</f>
+        <v>3106.8663194444443</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="5">
         <v>72</v>
       </c>
       <c r="C78" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>1036</v>
       </c>
       <c r="D78" s="5">
+        <f t="shared" si="19"/>
+        <v>727</v>
+      </c>
+      <c r="E78" s="5">
+        <f t="shared" si="20"/>
+        <v>581</v>
+      </c>
+      <c r="F78" s="8">
         <f t="shared" si="23"/>
-        <v>727</v>
-      </c>
-      <c r="E78" s="5">
+        <v>404.07415902140673</v>
+      </c>
+      <c r="G78" s="8">
         <f t="shared" si="24"/>
-        <v>581</v>
-      </c>
-      <c r="F78" s="8">
-        <f t="shared" si="30"/>
-        <v>404.07415902140673</v>
-      </c>
-      <c r="G78" s="5">
-        <f t="shared" si="32"/>
-        <v>746496</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+        <v>466560</v>
+      </c>
+      <c r="H78" s="8">
+        <f>G78/$O$24</f>
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="5">
         <v>73</v>
       </c>
       <c r="C79" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>1049</v>
       </c>
       <c r="D79" s="5">
+        <f t="shared" si="19"/>
+        <v>737</v>
+      </c>
+      <c r="E79" s="5">
+        <f t="shared" si="20"/>
+        <v>589</v>
+      </c>
+      <c r="F79" s="8">
         <f t="shared" si="23"/>
-        <v>737</v>
-      </c>
-      <c r="E79" s="5">
+        <v>409.62971342383105</v>
+      </c>
+      <c r="G79" s="8">
         <f t="shared" si="24"/>
-        <v>589</v>
-      </c>
-      <c r="F79" s="8">
-        <f t="shared" si="30"/>
-        <v>409.62971342383105</v>
-      </c>
-      <c r="G79" s="5">
-        <f t="shared" si="32"/>
-        <v>778034</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+        <v>486271.25</v>
+      </c>
+      <c r="H79" s="8">
+        <f>G79/$O$24</f>
+        <v>3376.8836805555557</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="5">
         <v>74</v>
       </c>
       <c r="C80" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>1062</v>
       </c>
       <c r="D80" s="5">
+        <f t="shared" si="19"/>
+        <v>747</v>
+      </c>
+      <c r="E80" s="5">
+        <f t="shared" si="20"/>
+        <v>597</v>
+      </c>
+      <c r="F80" s="8">
         <f t="shared" si="23"/>
-        <v>747</v>
-      </c>
-      <c r="E80" s="5">
+        <v>415.18526785714283</v>
+      </c>
+      <c r="G80" s="8">
         <f t="shared" si="24"/>
-        <v>597</v>
-      </c>
-      <c r="F80" s="8">
-        <f t="shared" si="30"/>
-        <v>415.18526785714283</v>
-      </c>
-      <c r="G80" s="5">
-        <f t="shared" si="32"/>
-        <v>810448</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+        <v>506530</v>
+      </c>
+      <c r="H80" s="8">
+        <f>G80/$O$24</f>
+        <v>3517.5694444444443</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="5">
         <v>75</v>
       </c>
       <c r="C81" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>1075</v>
       </c>
       <c r="D81" s="5">
+        <f t="shared" si="19"/>
+        <v>757</v>
+      </c>
+      <c r="E81" s="5">
+        <f t="shared" si="20"/>
+        <v>605</v>
+      </c>
+      <c r="F81" s="8">
         <f t="shared" si="23"/>
-        <v>757</v>
-      </c>
-      <c r="E81" s="5">
+        <v>420.7408223201175</v>
+      </c>
+      <c r="G81" s="8">
         <f t="shared" si="24"/>
-        <v>605</v>
-      </c>
-      <c r="F81" s="8">
-        <f t="shared" si="30"/>
-        <v>420.7408223201175</v>
-      </c>
-      <c r="G81" s="5">
-        <f t="shared" si="32"/>
-        <v>843750</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+        <v>527343.75</v>
+      </c>
+      <c r="H81" s="8">
+        <f>G81/$O$24</f>
+        <v>3662.109375</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="5">
         <v>76</v>
       </c>
       <c r="C82" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>1088</v>
       </c>
       <c r="D82" s="5">
+        <f t="shared" si="19"/>
+        <v>767</v>
+      </c>
+      <c r="E82" s="5">
+        <f t="shared" si="20"/>
+        <v>613</v>
+      </c>
+      <c r="F82" s="8">
         <f t="shared" si="23"/>
-        <v>767</v>
-      </c>
-      <c r="E82" s="5">
+        <v>426.2963768115942</v>
+      </c>
+      <c r="G82" s="8">
         <f t="shared" si="24"/>
-        <v>613</v>
-      </c>
-      <c r="F82" s="8">
-        <f t="shared" si="30"/>
-        <v>426.2963768115942</v>
-      </c>
-      <c r="G82" s="5">
-        <f t="shared" si="32"/>
-        <v>877952</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+        <v>548720</v>
+      </c>
+      <c r="H82" s="8">
+        <f>G82/$O$24</f>
+        <v>3810.5555555555557</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="5">
         <v>77</v>
       </c>
       <c r="C83" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>1101</v>
       </c>
       <c r="D83" s="5">
+        <f t="shared" si="19"/>
+        <v>777</v>
+      </c>
+      <c r="E83" s="5">
+        <f t="shared" si="20"/>
+        <v>621</v>
+      </c>
+      <c r="F83" s="8">
         <f t="shared" si="23"/>
-        <v>777</v>
-      </c>
-      <c r="E83" s="5">
+        <v>431.8519313304721</v>
+      </c>
+      <c r="G83" s="8">
         <f t="shared" si="24"/>
-        <v>621</v>
-      </c>
-      <c r="F83" s="8">
-        <f t="shared" si="30"/>
-        <v>431.8519313304721</v>
-      </c>
-      <c r="G83" s="5">
-        <f t="shared" si="32"/>
-        <v>913066</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+        <v>570666.25</v>
+      </c>
+      <c r="H83" s="8">
+        <f>G83/$O$24</f>
+        <v>3962.9600694444443</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="5">
         <v>78</v>
       </c>
       <c r="C84" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>1114</v>
       </c>
       <c r="D84" s="5">
+        <f t="shared" si="19"/>
+        <v>787</v>
+      </c>
+      <c r="E84" s="5">
+        <f t="shared" si="20"/>
+        <v>629</v>
+      </c>
+      <c r="F84" s="8">
         <f t="shared" si="23"/>
-        <v>787</v>
-      </c>
-      <c r="E84" s="5">
+        <v>437.40748587570624</v>
+      </c>
+      <c r="G84" s="8">
         <f t="shared" si="24"/>
-        <v>629</v>
-      </c>
-      <c r="F84" s="8">
-        <f t="shared" si="30"/>
-        <v>437.40748587570624</v>
-      </c>
-      <c r="G84" s="5">
-        <f t="shared" si="32"/>
-        <v>949104</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+        <v>593190</v>
+      </c>
+      <c r="H84" s="8">
+        <f>G84/$O$24</f>
+        <v>4119.375</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="5">
         <v>79</v>
       </c>
       <c r="C85" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>1127</v>
       </c>
       <c r="D85" s="5">
+        <f t="shared" si="19"/>
+        <v>797</v>
+      </c>
+      <c r="E85" s="5">
+        <f t="shared" si="20"/>
+        <v>637</v>
+      </c>
+      <c r="F85" s="8">
         <f t="shared" si="23"/>
-        <v>797</v>
-      </c>
-      <c r="E85" s="5">
+        <v>442.96304044630403</v>
+      </c>
+      <c r="G85" s="8">
         <f t="shared" si="24"/>
-        <v>637</v>
-      </c>
-      <c r="F85" s="8">
-        <f t="shared" si="30"/>
-        <v>442.96304044630403</v>
-      </c>
-      <c r="G85" s="5">
-        <f t="shared" si="32"/>
-        <v>986078</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+        <v>616298.75</v>
+      </c>
+      <c r="H85" s="8">
+        <f>G85/$O$24</f>
+        <v>4279.8524305555557</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="5">
         <v>80</v>
       </c>
       <c r="C86" s="5">
-        <f>B$3+IF($B86&lt;$I$8,J$7*$B86,IF($B86&lt;$I$9,$B86*J$8,IF($B86&lt;$I$10,$B86*J$9,$B86*J$10)))</f>
+        <f>B$3+IF($B86&lt;$J$8,K$7*$B86,IF($B86&lt;$J$9,$B86*K$8,IF($B86&lt;$J$10,$B86*K$9,$B86*K$10)))</f>
         <v>1140</v>
       </c>
       <c r="D86" s="5">
+        <f t="shared" si="19"/>
+        <v>807</v>
+      </c>
+      <c r="E86" s="5">
+        <f t="shared" si="20"/>
+        <v>645</v>
+      </c>
+      <c r="F86" s="8">
         <f t="shared" si="23"/>
-        <v>807</v>
-      </c>
-      <c r="E86" s="5">
+        <v>448.51859504132233</v>
+      </c>
+      <c r="G86" s="8">
         <f t="shared" si="24"/>
-        <v>645</v>
-      </c>
-      <c r="F86" s="8">
-        <f t="shared" si="30"/>
-        <v>448.51859504132233</v>
-      </c>
-      <c r="G86" s="5">
-        <f>($G$2*(B86^3))/5</f>
-        <v>1024000</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+        <v>640000</v>
+      </c>
+      <c r="H86" s="8">
+        <f>G86/$O$24</f>
+        <v>4444.4444444444443</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="5">
         <v>81</v>
       </c>
       <c r="C87" s="5">
-        <f t="shared" ref="C87:C95" si="33">B$3+IF($B87&lt;$I$8,J$7*$B87,IF($B87&lt;$I$9,$B87*J$8,IF($B87&lt;$I$10,$B87*J$9,$B87*J$10)))</f>
+        <f t="shared" ref="C87:C95" si="26">B$3+IF($B87&lt;$J$8,K$7*$B87,IF($B87&lt;$J$9,$B87*K$8,IF($B87&lt;$J$10,$B87*K$9,$B87*K$10)))</f>
         <v>1153</v>
       </c>
       <c r="D87" s="5">
+        <f t="shared" si="19"/>
+        <v>817</v>
+      </c>
+      <c r="E87" s="5">
+        <f t="shared" si="20"/>
+        <v>653</v>
+      </c>
+      <c r="F87" s="8">
         <f t="shared" si="23"/>
-        <v>817</v>
-      </c>
-      <c r="E87" s="5">
+        <v>454.07414965986396</v>
+      </c>
+      <c r="G87" s="8">
         <f t="shared" si="24"/>
-        <v>653</v>
-      </c>
-      <c r="F87" s="8">
-        <f t="shared" si="30"/>
-        <v>454.07414965986396</v>
-      </c>
-      <c r="G87" s="5">
-        <f t="shared" ref="G87:G95" si="34">($G$2*(B87^3))/5</f>
-        <v>1062882</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+        <v>664301.25</v>
+      </c>
+      <c r="H87" s="8">
+        <f>G87/$O$24</f>
+        <v>4613.203125</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="5">
         <v>82</v>
       </c>
       <c r="C88" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>1166</v>
       </c>
       <c r="D88" s="5">
+        <f t="shared" si="19"/>
+        <v>827</v>
+      </c>
+      <c r="E88" s="5">
+        <f t="shared" si="20"/>
+        <v>661</v>
+      </c>
+      <c r="F88" s="8">
         <f t="shared" si="23"/>
-        <v>827</v>
-      </c>
-      <c r="E88" s="5">
+        <v>459.62970430107526</v>
+      </c>
+      <c r="G88" s="8">
         <f t="shared" si="24"/>
-        <v>661</v>
-      </c>
-      <c r="F88" s="8">
-        <f t="shared" si="30"/>
-        <v>459.62970430107526</v>
-      </c>
-      <c r="G88" s="5">
-        <f t="shared" si="34"/>
-        <v>1102736</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+        <v>689210</v>
+      </c>
+      <c r="H88" s="8">
+        <f>G88/$O$24</f>
+        <v>4786.1805555555557</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="5">
         <v>83</v>
       </c>
       <c r="C89" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>1179</v>
       </c>
       <c r="D89" s="5">
+        <f t="shared" si="19"/>
+        <v>837</v>
+      </c>
+      <c r="E89" s="5">
+        <f t="shared" si="20"/>
+        <v>669</v>
+      </c>
+      <c r="F89" s="8">
         <f t="shared" si="23"/>
-        <v>837</v>
-      </c>
-      <c r="E89" s="5">
+        <v>465.18525896414343</v>
+      </c>
+      <c r="G89" s="8">
         <f t="shared" si="24"/>
-        <v>669</v>
-      </c>
-      <c r="F89" s="8">
-        <f t="shared" si="30"/>
-        <v>465.18525896414343</v>
-      </c>
-      <c r="G89" s="5">
-        <f t="shared" si="34"/>
-        <v>1143574</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+        <v>714733.75</v>
+      </c>
+      <c r="H89" s="8">
+        <f>G89/$O$24</f>
+        <v>4963.4288194444443</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="5">
         <v>84</v>
       </c>
       <c r="C90" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>1192</v>
       </c>
       <c r="D90" s="5">
+        <f t="shared" si="19"/>
+        <v>847</v>
+      </c>
+      <c r="E90" s="5">
+        <f t="shared" si="20"/>
+        <v>677</v>
+      </c>
+      <c r="F90" s="8">
         <f t="shared" si="23"/>
-        <v>847</v>
-      </c>
-      <c r="E90" s="5">
+        <v>470.74081364829397</v>
+      </c>
+      <c r="G90" s="8">
         <f t="shared" si="24"/>
-        <v>677</v>
-      </c>
-      <c r="F90" s="8">
-        <f t="shared" si="30"/>
-        <v>470.74081364829397</v>
-      </c>
-      <c r="G90" s="5">
-        <f t="shared" si="34"/>
-        <v>1185408</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+        <v>740880</v>
+      </c>
+      <c r="H90" s="8">
+        <f>G90/$O$24</f>
+        <v>5145</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="5">
         <v>85</v>
       </c>
       <c r="C91" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>1205</v>
       </c>
       <c r="D91" s="5">
+        <f t="shared" si="19"/>
+        <v>857</v>
+      </c>
+      <c r="E91" s="5">
+        <f t="shared" si="20"/>
+        <v>685</v>
+      </c>
+      <c r="F91" s="8">
         <f t="shared" si="23"/>
-        <v>857</v>
-      </c>
-      <c r="E91" s="5">
+        <v>476.29636835278859</v>
+      </c>
+      <c r="G91" s="8">
         <f t="shared" si="24"/>
-        <v>685</v>
-      </c>
-      <c r="F91" s="8">
-        <f t="shared" si="30"/>
-        <v>476.29636835278859</v>
-      </c>
-      <c r="G91" s="5">
-        <f t="shared" si="34"/>
-        <v>1228250</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+        <v>767656.25</v>
+      </c>
+      <c r="H91" s="8">
+        <f>G91/$O$24</f>
+        <v>5330.9461805555557</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="5">
         <v>86</v>
       </c>
       <c r="C92" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>1218</v>
       </c>
       <c r="D92" s="5">
+        <f t="shared" si="19"/>
+        <v>867</v>
+      </c>
+      <c r="E92" s="5">
+        <f t="shared" si="20"/>
+        <v>693</v>
+      </c>
+      <c r="F92" s="8">
         <f t="shared" si="23"/>
-        <v>867</v>
-      </c>
-      <c r="E92" s="5">
+        <v>481.85192307692307</v>
+      </c>
+      <c r="G92" s="8">
         <f t="shared" si="24"/>
-        <v>693</v>
-      </c>
-      <c r="F92" s="8">
-        <f t="shared" si="30"/>
-        <v>481.85192307692307</v>
-      </c>
-      <c r="G92" s="5">
-        <f t="shared" si="34"/>
-        <v>1272112</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+        <v>795070</v>
+      </c>
+      <c r="H92" s="8">
+        <f>G92/$O$24</f>
+        <v>5521.3194444444443</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="5">
         <v>87</v>
       </c>
       <c r="C93" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>1231</v>
       </c>
       <c r="D93" s="5">
+        <f t="shared" si="19"/>
+        <v>877</v>
+      </c>
+      <c r="E93" s="5">
+        <f t="shared" si="20"/>
+        <v>701</v>
+      </c>
+      <c r="F93" s="8">
         <f t="shared" si="23"/>
-        <v>877</v>
-      </c>
-      <c r="E93" s="5">
+        <v>487.40747782002535</v>
+      </c>
+      <c r="G93" s="8">
         <f t="shared" si="24"/>
-        <v>701</v>
-      </c>
-      <c r="F93" s="8">
-        <f t="shared" si="30"/>
-        <v>487.40747782002535</v>
-      </c>
-      <c r="G93" s="5">
-        <f t="shared" si="34"/>
-        <v>1317006</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+        <v>823128.75</v>
+      </c>
+      <c r="H93" s="8">
+        <f>G93/$O$24</f>
+        <v>5716.171875</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="5">
         <v>88</v>
       </c>
       <c r="C94" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>1244</v>
       </c>
       <c r="D94" s="5">
+        <f t="shared" si="19"/>
+        <v>887</v>
+      </c>
+      <c r="E94" s="5">
+        <f t="shared" si="20"/>
+        <v>709</v>
+      </c>
+      <c r="F94" s="8">
         <f t="shared" si="23"/>
-        <v>887</v>
-      </c>
-      <c r="E94" s="5">
+        <v>492.96303258145366</v>
+      </c>
+      <c r="G94" s="8">
         <f t="shared" si="24"/>
-        <v>709</v>
-      </c>
-      <c r="F94" s="8">
-        <f t="shared" si="30"/>
-        <v>492.96303258145366</v>
-      </c>
-      <c r="G94" s="5">
-        <f t="shared" si="34"/>
-        <v>1362944</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+        <v>851840</v>
+      </c>
+      <c r="H94" s="8">
+        <f>G94/$O$24</f>
+        <v>5915.5555555555557</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="5">
         <v>89</v>
       </c>
       <c r="C95" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>1257</v>
       </c>
       <c r="D95" s="5">
+        <f t="shared" si="19"/>
+        <v>897</v>
+      </c>
+      <c r="E95" s="5">
+        <f t="shared" si="20"/>
+        <v>717</v>
+      </c>
+      <c r="F95" s="8">
         <f t="shared" si="23"/>
-        <v>897</v>
-      </c>
-      <c r="E95" s="5">
+        <v>498.51858736059478</v>
+      </c>
+      <c r="G95" s="8">
         <f t="shared" si="24"/>
-        <v>717</v>
-      </c>
-      <c r="F95" s="8">
-        <f t="shared" si="30"/>
-        <v>498.51858736059478</v>
-      </c>
-      <c r="G95" s="5">
-        <f t="shared" si="34"/>
-        <v>1409938</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+        <v>881211.25</v>
+      </c>
+      <c r="H95" s="8">
+        <f>G95/$O$24</f>
+        <v>6119.5225694444443</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="5">
         <v>90</v>
       </c>
       <c r="C96" s="5">
-        <f>B$3+IF($B96&lt;$I$8,J$7*$B96,IF($B96&lt;$I$9,$B96*J$8,IF($B96&lt;$I$10,$B96*J$9,$B96*J$10)))</f>
+        <f>B$3+IF($B96&lt;$J$8,K$7*$B96,IF($B96&lt;$J$9,$B96*K$8,IF($B96&lt;$J$10,$B96*K$9,$B96*K$10)))</f>
         <v>1630</v>
       </c>
       <c r="D96" s="5">
+        <f t="shared" si="19"/>
+        <v>1267</v>
+      </c>
+      <c r="E96" s="5">
+        <f t="shared" si="20"/>
+        <v>995</v>
+      </c>
+      <c r="F96" s="8">
         <f t="shared" si="23"/>
-        <v>1267</v>
-      </c>
-      <c r="E96" s="5">
+        <v>709.67683465959328</v>
+      </c>
+      <c r="G96" s="8">
         <f t="shared" si="24"/>
-        <v>995</v>
-      </c>
-      <c r="F96" s="8">
-        <f t="shared" si="30"/>
-        <v>709.67683465959328</v>
-      </c>
-      <c r="G96" s="5">
-        <f>($G$2*(B96^3))/5</f>
-        <v>1458000</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+        <v>911250</v>
+      </c>
+      <c r="H96" s="8">
+        <f>G96/$O$24</f>
+        <v>6328.125</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="5">
         <v>91</v>
       </c>
       <c r="C97" s="5">
-        <f t="shared" ref="C97:C98" si="35">B$3+IF($B97&lt;$I$8,J$7*$B97,IF($B97&lt;$I$9,$B97*J$8,IF($B97&lt;$I$10,$B97*J$9,$B97*J$10)))</f>
+        <f t="shared" ref="C97:C98" si="27">B$3+IF($B97&lt;$J$8,K$7*$B97,IF($B97&lt;$J$9,$B97*K$8,IF($B97&lt;$J$10,$B97*K$9,$B97*K$10)))</f>
         <v>1647</v>
       </c>
       <c r="D97" s="5">
+        <f t="shared" si="19"/>
+        <v>1281</v>
+      </c>
+      <c r="E97" s="5">
+        <f t="shared" si="20"/>
+        <v>1006</v>
+      </c>
+      <c r="F97" s="8">
         <f t="shared" si="23"/>
-        <v>1281</v>
-      </c>
-      <c r="E97" s="5">
+        <v>717.51683428071715</v>
+      </c>
+      <c r="G97" s="8">
         <f t="shared" si="24"/>
-        <v>1006</v>
-      </c>
-      <c r="F97" s="8">
-        <f t="shared" si="30"/>
-        <v>717.51683428071715</v>
-      </c>
-      <c r="G97" s="5">
-        <f t="shared" ref="G97:G98" si="36">($G$2*(B97^3))/5</f>
-        <v>1507142</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+        <v>941963.75</v>
+      </c>
+      <c r="H97" s="8">
+        <f>G97/$O$24</f>
+        <v>6541.4149305555557</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="5">
         <v>92</v>
       </c>
       <c r="C98" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>1664</v>
       </c>
       <c r="D98" s="5">
+        <f t="shared" si="19"/>
+        <v>1295</v>
+      </c>
+      <c r="E98" s="5">
+        <f t="shared" si="20"/>
+        <v>1017</v>
+      </c>
+      <c r="F98" s="8">
         <f t="shared" si="23"/>
-        <v>1295</v>
-      </c>
-      <c r="E98" s="5">
+        <v>725.35683391003465</v>
+      </c>
+      <c r="G98" s="8">
         <f t="shared" si="24"/>
-        <v>1017</v>
-      </c>
-      <c r="F98" s="8">
-        <f t="shared" si="30"/>
-        <v>725.35683391003465</v>
-      </c>
-      <c r="G98" s="5">
-        <f t="shared" si="36"/>
-        <v>1557376</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+        <v>973360</v>
+      </c>
+      <c r="H98" s="8">
+        <f>G98/$O$24</f>
+        <v>6759.4444444444443</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="5">
         <v>93</v>
       </c>
       <c r="C99" s="5">
-        <f>B$3+IF($B99&lt;$I$8,J$7*$B99,IF($B99&lt;$I$9,$B99*J$8,IF($B99&lt;$I$10,$B99*J$9,$B99*J$10)))</f>
+        <f>B$3+IF($B99&lt;$J$8,K$7*$B99,IF($B99&lt;$J$9,$B99*K$8,IF($B99&lt;$J$10,$B99*K$9,$B99*K$10)))</f>
         <v>1681</v>
       </c>
       <c r="D99" s="5">
+        <f t="shared" si="19"/>
+        <v>1309</v>
+      </c>
+      <c r="E99" s="5">
+        <f t="shared" si="20"/>
+        <v>1028</v>
+      </c>
+      <c r="F99" s="8">
         <f t="shared" si="23"/>
-        <v>1309</v>
-      </c>
-      <c r="E99" s="5">
+        <v>733.19683354728284</v>
+      </c>
+      <c r="G99" s="8">
         <f t="shared" si="24"/>
-        <v>1028</v>
-      </c>
-      <c r="F99" s="8">
-        <f t="shared" si="30"/>
-        <v>733.19683354728284</v>
-      </c>
-      <c r="G99" s="5">
-        <f>($G$2*(B99^3))/5</f>
-        <v>1608714</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1005446.25</v>
+      </c>
+      <c r="H99" s="8">
+        <f>G99/$O$24</f>
+        <v>6982.265625</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="5">
         <v>94</v>
       </c>
       <c r="C100" s="5">
-        <f t="shared" ref="C100:C108" si="37">B$3+IF($B100&lt;$I$8,J$7*$B100,IF($B100&lt;$I$9,$B100*J$8,IF($B100&lt;$I$10,$B100*J$9,$B100*J$10)))</f>
+        <f t="shared" ref="C100:C108" si="28">B$3+IF($B100&lt;$J$8,K$7*$B100,IF($B100&lt;$J$9,$B100*K$8,IF($B100&lt;$J$10,$B100*K$9,$B100*K$10)))</f>
         <v>1698</v>
       </c>
       <c r="D100" s="5">
+        <f t="shared" si="19"/>
+        <v>1323</v>
+      </c>
+      <c r="E100" s="5">
+        <f t="shared" si="20"/>
+        <v>1039</v>
+      </c>
+      <c r="F100" s="8">
         <f t="shared" si="23"/>
-        <v>1323</v>
-      </c>
-      <c r="E100" s="5">
+        <v>741.03683319221</v>
+      </c>
+      <c r="G100" s="8">
         <f t="shared" si="24"/>
-        <v>1039</v>
-      </c>
-      <c r="F100" s="8">
-        <f t="shared" si="30"/>
-        <v>741.03683319221</v>
-      </c>
-      <c r="G100" s="5">
-        <f t="shared" ref="G100:G108" si="38">($G$2*(B100^3))/5</f>
-        <v>1661168</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1038230</v>
+      </c>
+      <c r="H100" s="8">
+        <f>G100/$O$24</f>
+        <v>7209.9305555555557</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="5">
         <v>95</v>
       </c>
       <c r="C101" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>1715</v>
       </c>
       <c r="D101" s="5">
+        <f t="shared" si="19"/>
+        <v>1337</v>
+      </c>
+      <c r="E101" s="5">
+        <f t="shared" si="20"/>
+        <v>1050</v>
+      </c>
+      <c r="F101" s="8">
         <f t="shared" si="23"/>
-        <v>1337</v>
-      </c>
-      <c r="E101" s="5">
+        <v>748.87683284457478</v>
+      </c>
+      <c r="G101" s="8">
         <f t="shared" si="24"/>
-        <v>1050</v>
-      </c>
-      <c r="F101" s="8">
-        <f t="shared" si="30"/>
-        <v>748.87683284457478</v>
-      </c>
-      <c r="G101" s="5">
-        <f t="shared" si="38"/>
-        <v>1714750</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1071718.75</v>
+      </c>
+      <c r="H101" s="8">
+        <f>G101/$O$24</f>
+        <v>7442.4913194444443</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="5">
         <v>96</v>
       </c>
       <c r="C102" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>1732</v>
       </c>
       <c r="D102" s="5">
+        <f t="shared" si="19"/>
+        <v>1351</v>
+      </c>
+      <c r="E102" s="5">
+        <f t="shared" si="20"/>
+        <v>1061</v>
+      </c>
+      <c r="F102" s="8">
         <f t="shared" si="23"/>
-        <v>1351</v>
-      </c>
-      <c r="E102" s="5">
+        <v>756.71683250414594</v>
+      </c>
+      <c r="G102" s="8">
         <f t="shared" si="24"/>
-        <v>1061</v>
-      </c>
-      <c r="F102" s="8">
-        <f t="shared" si="30"/>
-        <v>756.71683250414594</v>
-      </c>
-      <c r="G102" s="5">
-        <f t="shared" si="38"/>
-        <v>1769472</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1105920</v>
+      </c>
+      <c r="H102" s="8">
+        <f>G102/$O$24</f>
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="5">
         <v>97</v>
       </c>
       <c r="C103" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>1749</v>
       </c>
       <c r="D103" s="5">
+        <f t="shared" si="19"/>
+        <v>1365</v>
+      </c>
+      <c r="E103" s="5">
+        <f t="shared" si="20"/>
+        <v>1072</v>
+      </c>
+      <c r="F103" s="8">
         <f t="shared" si="23"/>
-        <v>1365</v>
-      </c>
-      <c r="E103" s="5">
+        <v>764.55683217070168</v>
+      </c>
+      <c r="G103" s="8">
         <f t="shared" si="24"/>
-        <v>1072</v>
-      </c>
-      <c r="F103" s="8">
-        <f t="shared" si="30"/>
-        <v>764.55683217070168</v>
-      </c>
-      <c r="G103" s="5">
-        <f t="shared" si="38"/>
-        <v>1825346</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1140841.25</v>
+      </c>
+      <c r="H103" s="8">
+        <f>G103/$O$24</f>
+        <v>7922.5086805555557</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="5">
         <v>98</v>
       </c>
       <c r="C104" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>1766</v>
       </c>
       <c r="D104" s="5">
+        <f t="shared" si="19"/>
+        <v>1379</v>
+      </c>
+      <c r="E104" s="5">
+        <f t="shared" si="20"/>
+        <v>1083</v>
+      </c>
+      <c r="F104" s="8">
         <f t="shared" si="23"/>
-        <v>1379</v>
-      </c>
-      <c r="E104" s="5">
+        <v>772.39683184402929</v>
+      </c>
+      <c r="G104" s="8">
         <f t="shared" si="24"/>
-        <v>1083</v>
-      </c>
-      <c r="F104" s="8">
-        <f t="shared" si="30"/>
-        <v>772.39683184402929</v>
-      </c>
-      <c r="G104" s="5">
-        <f t="shared" si="38"/>
-        <v>1882384</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1176490</v>
+      </c>
+      <c r="H104" s="8">
+        <f>G104/$O$24</f>
+        <v>8170.0694444444443</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="5">
         <v>99</v>
       </c>
       <c r="C105" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>1783</v>
       </c>
       <c r="D105" s="5">
+        <f t="shared" si="19"/>
+        <v>1393</v>
+      </c>
+      <c r="E105" s="5">
+        <f t="shared" si="20"/>
+        <v>1094</v>
+      </c>
+      <c r="F105" s="8">
         <f t="shared" si="23"/>
-        <v>1393</v>
-      </c>
-      <c r="E105" s="5">
+        <v>780.23683152392437</v>
+      </c>
+      <c r="G105" s="8">
         <f t="shared" si="24"/>
-        <v>1094</v>
-      </c>
-      <c r="F105" s="8">
-        <f t="shared" si="30"/>
-        <v>780.23683152392437</v>
-      </c>
-      <c r="G105" s="5">
-        <f t="shared" si="38"/>
-        <v>1940598</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1212873.75</v>
+      </c>
+      <c r="H105" s="8">
+        <f>G105/$O$24</f>
+        <v>8422.734375</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="5">
         <v>100</v>
       </c>
       <c r="C106" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>1800</v>
       </c>
       <c r="D106" s="5">
+        <f t="shared" si="19"/>
+        <v>1407</v>
+      </c>
+      <c r="E106" s="5">
+        <f t="shared" si="20"/>
+        <v>1105</v>
+      </c>
+      <c r="F106" s="8">
         <f t="shared" si="23"/>
-        <v>1407</v>
-      </c>
-      <c r="E106" s="5">
+        <v>788.07683121019113</v>
+      </c>
+      <c r="G106" s="8">
         <f t="shared" si="24"/>
-        <v>1105</v>
-      </c>
-      <c r="F106" s="8">
-        <f t="shared" si="30"/>
-        <v>788.07683121019113</v>
-      </c>
-      <c r="G106" s="5">
-        <f t="shared" si="38"/>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1250000</v>
+      </c>
+      <c r="H106" s="8">
+        <f>G106/$O$24</f>
+        <v>8680.5555555555547</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="5">
         <v>101</v>
       </c>
       <c r="C107" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>1817</v>
       </c>
       <c r="D107" s="5">
+        <f t="shared" si="19"/>
+        <v>1421</v>
+      </c>
+      <c r="E107" s="5">
+        <f t="shared" si="20"/>
+        <v>1116</v>
+      </c>
+      <c r="F107" s="8">
         <f t="shared" si="23"/>
-        <v>1421</v>
-      </c>
-      <c r="E107" s="5">
+        <v>795.91683090264087</v>
+      </c>
+      <c r="G107" s="8">
         <f t="shared" si="24"/>
-        <v>1116</v>
-      </c>
-      <c r="F107" s="8">
-        <f t="shared" si="30"/>
-        <v>795.91683090264087</v>
-      </c>
-      <c r="G107" s="5">
-        <f t="shared" si="38"/>
-        <v>2060602</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1287876.25</v>
+      </c>
+      <c r="H107" s="8">
+        <f>G107/$O$24</f>
+        <v>8943.5850694444453</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="5">
         <v>102</v>
       </c>
       <c r="C108" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>1834</v>
       </c>
       <c r="D108" s="5">
+        <f t="shared" si="19"/>
+        <v>1435</v>
+      </c>
+      <c r="E108" s="5">
+        <f t="shared" si="20"/>
+        <v>1127</v>
+      </c>
+      <c r="F108" s="8">
         <f t="shared" si="23"/>
-        <v>1435</v>
-      </c>
-      <c r="E108" s="5">
+        <v>803.75683060109293</v>
+      </c>
+      <c r="G108" s="8">
         <f t="shared" si="24"/>
-        <v>1127</v>
-      </c>
-      <c r="F108" s="8">
-        <f t="shared" si="30"/>
-        <v>803.75683060109293</v>
-      </c>
-      <c r="G108" s="5">
-        <f t="shared" si="38"/>
-        <v>2122416</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1326510</v>
+      </c>
+      <c r="H108" s="8">
+        <f>G108/$O$24</f>
+        <v>9211.875</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="5">
         <v>103</v>
       </c>
       <c r="C109" s="5">
-        <f>B$3+IF($B109&lt;$I$8,J$7*$B109,IF($B109&lt;$I$9,$B109*J$8,IF($B109&lt;$I$10,$B109*J$9,$B109*J$10)))</f>
+        <f>B$3+IF($B109&lt;$J$8,K$7*$B109,IF($B109&lt;$J$9,$B109*K$8,IF($B109&lt;$J$10,$B109*K$9,$B109*K$10)))</f>
         <v>1851</v>
       </c>
       <c r="D109" s="5">
+        <f t="shared" si="19"/>
+        <v>1449</v>
+      </c>
+      <c r="E109" s="5">
+        <f t="shared" si="20"/>
+        <v>1138</v>
+      </c>
+      <c r="F109" s="8">
         <f t="shared" si="23"/>
-        <v>1449</v>
-      </c>
-      <c r="E109" s="5">
+        <v>811.59683030537303</v>
+      </c>
+      <c r="G109" s="8">
         <f t="shared" si="24"/>
-        <v>1138</v>
-      </c>
-      <c r="F109" s="8">
-        <f t="shared" si="30"/>
-        <v>811.59683030537303</v>
-      </c>
-      <c r="G109" s="5">
-        <f>($G$2*(B109^3))/5</f>
-        <v>2185454</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1365908.75</v>
+      </c>
+      <c r="H109" s="8">
+        <f>G109/$O$24</f>
+        <v>9485.4774305555547</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="5">
         <v>104</v>
       </c>
       <c r="C110" s="5">
-        <f t="shared" ref="C110:C114" si="39">B$3+IF($B110&lt;$I$8,J$7*$B110,IF($B110&lt;$I$9,$B110*J$8,IF($B110&lt;$I$10,$B110*J$9,$B110*J$10)))</f>
+        <f t="shared" ref="C110:C114" si="29">B$3+IF($B110&lt;$J$8,K$7*$B110,IF($B110&lt;$J$9,$B110*K$8,IF($B110&lt;$J$10,$B110*K$9,$B110*K$10)))</f>
         <v>1868</v>
       </c>
       <c r="D110" s="5">
+        <f t="shared" si="19"/>
+        <v>1463</v>
+      </c>
+      <c r="E110" s="5">
+        <f t="shared" si="20"/>
+        <v>1149</v>
+      </c>
+      <c r="F110" s="8">
         <f t="shared" si="23"/>
-        <v>1463</v>
-      </c>
-      <c r="E110" s="5">
+        <v>819.43683001531394</v>
+      </c>
+      <c r="G110" s="8">
         <f t="shared" si="24"/>
-        <v>1149</v>
-      </c>
-      <c r="F110" s="8">
-        <f t="shared" si="30"/>
-        <v>819.43683001531394</v>
-      </c>
-      <c r="G110" s="5">
-        <f t="shared" ref="G110:G114" si="40">($G$2*(B110^3))/5</f>
-        <v>2249728</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1406080</v>
+      </c>
+      <c r="H110" s="8">
+        <f>G110/$O$24</f>
+        <v>9764.4444444444453</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="5">
         <v>105</v>
       </c>
       <c r="C111" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v>1885</v>
       </c>
       <c r="D111" s="5">
+        <f t="shared" si="19"/>
+        <v>1477</v>
+      </c>
+      <c r="E111" s="5">
+        <f t="shared" si="20"/>
+        <v>1160</v>
+      </c>
+      <c r="F111" s="8">
         <f t="shared" si="23"/>
-        <v>1477</v>
-      </c>
-      <c r="E111" s="5">
+        <v>827.27682973075468</v>
+      </c>
+      <c r="G111" s="8">
         <f t="shared" si="24"/>
-        <v>1160</v>
-      </c>
-      <c r="F111" s="8">
-        <f t="shared" si="30"/>
-        <v>827.27682973075468</v>
-      </c>
-      <c r="G111" s="5">
-        <f t="shared" si="40"/>
-        <v>2315250</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1447031.25</v>
+      </c>
+      <c r="H111" s="8">
+        <f>G111/$O$24</f>
+        <v>10048.828125</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="5">
         <v>106</v>
       </c>
       <c r="C112" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v>1902</v>
       </c>
       <c r="D112" s="5">
-        <f t="shared" ref="D112:D126" si="41">C$3+IF($B112&lt;$I$8,K$7*$B112,IF($B112&lt;$I$9,$B112*K$8,IF($B112&lt;$I$10,$B112*K$9,$B112*K$10)))</f>
+        <f t="shared" ref="D112:D126" si="30">C$3+IF($B112&lt;$J$8,L$7*$B112,IF($B112&lt;$J$9,$B112*L$8,IF($B112&lt;$J$10,$B112*L$9,$B112*L$10)))</f>
         <v>1491</v>
       </c>
       <c r="E112" s="5">
-        <f t="shared" ref="E112:E126" si="42">D$3+IF($B112&lt;$I$8,L$7*$B112,IF($B112&lt;$I$9,$B112*L$8,IF($B112&lt;$I$10,$B112*L$9,$B112*L$10)))</f>
+        <f t="shared" ref="E112:E126" si="31">D$3+IF($B112&lt;$J$8,M$7*$B112,IF($B112&lt;$J$9,$B112*M$8,IF($B112&lt;$J$10,$B112*M$9,$B112*M$10)))</f>
         <v>1171</v>
       </c>
       <c r="F112" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>835.11682945154018</v>
       </c>
-      <c r="G112" s="5">
-        <f t="shared" si="40"/>
-        <v>2382032</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G112" s="8">
+        <f t="shared" si="24"/>
+        <v>1488770</v>
+      </c>
+      <c r="H112" s="8">
+        <f>G112/$O$24</f>
+        <v>10338.680555555555</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="5">
         <v>107</v>
       </c>
       <c r="C113" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v>1919</v>
       </c>
       <c r="D113" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>1505</v>
       </c>
       <c r="E113" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1182</v>
       </c>
       <c r="F113" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>842.9568291775214</v>
       </c>
-      <c r="G113" s="5">
-        <f t="shared" si="40"/>
-        <v>2450086</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G113" s="8">
+        <f t="shared" si="24"/>
+        <v>1531303.75</v>
+      </c>
+      <c r="H113" s="8">
+        <f>G113/$O$24</f>
+        <v>10634.053819444445</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="5">
         <v>108</v>
       </c>
       <c r="C114" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="29"/>
         <v>1936</v>
       </c>
       <c r="D114" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>1519</v>
       </c>
       <c r="E114" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1193</v>
       </c>
       <c r="F114" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>850.79682890855452</v>
       </c>
-      <c r="G114" s="5">
-        <f t="shared" si="40"/>
-        <v>2519424</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G114" s="8">
+        <f t="shared" si="24"/>
+        <v>1574640</v>
+      </c>
+      <c r="H114" s="8">
+        <f>G114/$O$24</f>
+        <v>10935</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="5">
         <v>109</v>
       </c>
       <c r="C115" s="5">
-        <f>B$3+IF($B115&lt;$I$8,J$7*$B115,IF($B115&lt;$I$9,$B115*J$8,IF($B115&lt;$I$10,$B115*J$9,$B115*J$10)))</f>
+        <f>B$3+IF($B115&lt;$J$8,K$7*$B115,IF($B115&lt;$J$9,$B115*K$8,IF($B115&lt;$J$10,$B115*K$9,$B115*K$10)))</f>
         <v>1953</v>
       </c>
       <c r="D115" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>1533</v>
       </c>
       <c r="E115" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1204</v>
       </c>
       <c r="F115" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>858.63682864450129</v>
       </c>
-      <c r="G115" s="5">
-        <f>($G$2*(B115^3))/5</f>
-        <v>2590058</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G115" s="8">
+        <f t="shared" si="24"/>
+        <v>1618786.25</v>
+      </c>
+      <c r="H115" s="8">
+        <f>G115/$O$24</f>
+        <v>11241.571180555555</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="5">
         <v>110</v>
       </c>
       <c r="C116" s="5">
-        <f t="shared" ref="C116:C122" si="43">B$3+IF($B116&lt;$I$8,J$7*$B116,IF($B116&lt;$I$9,$B116*J$8,IF($B116&lt;$I$10,$B116*J$9,$B116*J$10)))</f>
+        <f t="shared" ref="C116:C122" si="32">B$3+IF($B116&lt;$J$8,K$7*$B116,IF($B116&lt;$J$9,$B116*K$8,IF($B116&lt;$J$10,$B116*K$9,$B116*K$10)))</f>
         <v>1970</v>
       </c>
       <c r="D116" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>1547</v>
       </c>
       <c r="E116" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1215</v>
       </c>
       <c r="F116" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>866.47682838522815</v>
       </c>
-      <c r="G116" s="5">
-        <f t="shared" ref="G116:G122" si="44">($G$2*(B116^3))/5</f>
-        <v>2662000</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G116" s="8">
+        <f t="shared" si="24"/>
+        <v>1663750</v>
+      </c>
+      <c r="H116" s="8">
+        <f>G116/$O$24</f>
+        <v>11553.819444444445</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="5">
         <v>111</v>
       </c>
       <c r="C117" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>1987</v>
       </c>
       <c r="D117" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>1561</v>
       </c>
       <c r="E117" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1226</v>
       </c>
       <c r="F117" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>874.31682813060638</v>
       </c>
-      <c r="G117" s="5">
-        <f t="shared" si="44"/>
-        <v>2735262</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G117" s="8">
+        <f t="shared" si="24"/>
+        <v>1709538.75</v>
+      </c>
+      <c r="H117" s="8">
+        <f>G117/$O$24</f>
+        <v>11871.796875</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="5">
         <v>112</v>
       </c>
       <c r="C118" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>2004</v>
       </c>
       <c r="D118" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>1575</v>
       </c>
       <c r="E118" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1237</v>
       </c>
       <c r="F118" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>882.15682788051208</v>
       </c>
-      <c r="G118" s="5">
-        <f t="shared" si="44"/>
-        <v>2809856</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G118" s="8">
+        <f t="shared" si="24"/>
+        <v>1756160</v>
+      </c>
+      <c r="H118" s="8">
+        <f>G118/$O$24</f>
+        <v>12195.555555555555</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="5">
         <v>113</v>
       </c>
       <c r="C119" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>2021</v>
       </c>
       <c r="D119" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>1589</v>
       </c>
       <c r="E119" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1248</v>
       </c>
       <c r="F119" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>889.99682763482554</v>
       </c>
-      <c r="G119" s="5">
-        <f t="shared" si="44"/>
-        <v>2885794</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G119" s="8">
+        <f t="shared" si="24"/>
+        <v>1803621.25</v>
+      </c>
+      <c r="H119" s="8">
+        <f>G119/$O$24</f>
+        <v>12525.147569444445</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="5">
         <v>114</v>
       </c>
       <c r="C120" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>2038</v>
       </c>
       <c r="D120" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>1603</v>
       </c>
       <c r="E120" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1259</v>
       </c>
       <c r="F120" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>897.83682739343112</v>
       </c>
-      <c r="G120" s="5">
-        <f t="shared" si="44"/>
-        <v>2963088</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G120" s="8">
+        <f t="shared" si="24"/>
+        <v>1851930</v>
+      </c>
+      <c r="H120" s="8">
+        <f>G120/$O$24</f>
+        <v>12860.625</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="5">
         <v>115</v>
       </c>
       <c r="C121" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>2055</v>
       </c>
       <c r="D121" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>1617</v>
       </c>
       <c r="E121" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1270</v>
       </c>
       <c r="F121" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>905.67682715621754</v>
       </c>
-      <c r="G121" s="5">
-        <f t="shared" si="44"/>
-        <v>3041750</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G121" s="8">
+        <f t="shared" si="24"/>
+        <v>1901093.75</v>
+      </c>
+      <c r="H121" s="8">
+        <f>G121/$O$24</f>
+        <v>13202.039930555555</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="5">
         <v>116</v>
       </c>
       <c r="C122" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>2072</v>
       </c>
       <c r="D122" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>1631</v>
       </c>
       <c r="E122" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1281</v>
       </c>
       <c r="F122" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>913.51682692307691</v>
       </c>
-      <c r="G122" s="5">
-        <f t="shared" si="44"/>
-        <v>3121792</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G122" s="8">
+        <f t="shared" si="24"/>
+        <v>1951120</v>
+      </c>
+      <c r="H122" s="8">
+        <f>G122/$O$24</f>
+        <v>13549.444444444445</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="5">
         <v>117</v>
       </c>
       <c r="C123" s="5">
-        <f>B$3+IF($B123&lt;$I$8,J$7*$B123,IF($B123&lt;$I$9,$B123*J$8,IF($B123&lt;$I$10,$B123*J$9,$B123*J$10)))</f>
+        <f>B$3+IF($B123&lt;$J$8,K$7*$B123,IF($B123&lt;$J$9,$B123*K$8,IF($B123&lt;$J$10,$B123*K$9,$B123*K$10)))</f>
         <v>2089</v>
       </c>
       <c r="D123" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>1645</v>
       </c>
       <c r="E123" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1292</v>
       </c>
       <c r="F123" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>921.3568266939053</v>
       </c>
-      <c r="G123" s="5">
-        <f>($G$2*(B123^3))/5</f>
-        <v>3203226</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G123" s="8">
+        <f t="shared" si="24"/>
+        <v>2002016.25</v>
+      </c>
+      <c r="H123" s="8">
+        <f>G123/$O$24</f>
+        <v>13902.890625</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="5">
         <v>118</v>
       </c>
       <c r="C124" s="5">
-        <f t="shared" ref="C124:C125" si="45">B$3+IF($B124&lt;$I$8,J$7*$B124,IF($B124&lt;$I$9,$B124*J$8,IF($B124&lt;$I$10,$B124*J$9,$B124*J$10)))</f>
+        <f t="shared" ref="C124:C125" si="33">B$3+IF($B124&lt;$J$8,K$7*$B124,IF($B124&lt;$J$9,$B124*K$8,IF($B124&lt;$J$10,$B124*K$9,$B124*K$10)))</f>
         <v>2106</v>
       </c>
       <c r="D124" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>1659</v>
       </c>
       <c r="E124" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1303</v>
       </c>
       <c r="F124" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>929.19682646860224</v>
       </c>
-      <c r="G124" s="5">
-        <f t="shared" ref="G124:G125" si="46">($G$2*(B124^3))/5</f>
-        <v>3286064</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G124" s="8">
+        <f t="shared" si="24"/>
+        <v>2053790</v>
+      </c>
+      <c r="H124" s="8">
+        <f>G124/$O$24</f>
+        <v>14262.430555555555</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="5">
         <v>119</v>
       </c>
       <c r="C125" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="33"/>
         <v>2123</v>
       </c>
       <c r="D125" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>1673</v>
       </c>
       <c r="E125" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1314</v>
       </c>
       <c r="F125" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>937.03682624707062</v>
       </c>
-      <c r="G125" s="5">
-        <f t="shared" si="46"/>
-        <v>3370318</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G125" s="8">
+        <f t="shared" si="24"/>
+        <v>2106448.75</v>
+      </c>
+      <c r="H125" s="8">
+        <f>G125/$O$24</f>
+        <v>14628.116319444445</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="5">
         <v>120</v>
       </c>
       <c r="C126" s="5">
-        <f>B$3+IF($B126&lt;$I$8,J$7*$B126,IF($B126&lt;$I$9,$B126*J$8,IF($B126&lt;$I$10,$B126*J$9,$B126*J$10)))</f>
+        <f>B$3+IF($B126&lt;$J$8,K$7*$B126,IF($B126&lt;$J$9,$B126*K$8,IF($B126&lt;$J$10,$B126*K$9,$B126*K$10)))</f>
         <v>2140</v>
       </c>
       <c r="D126" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>1687</v>
       </c>
       <c r="E126" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1325</v>
       </c>
       <c r="F126" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>944.87682602921643</v>
       </c>
-      <c r="G126" s="5">
-        <f>($G$2*(B126^3))/5</f>
-        <v>3456000</v>
+      <c r="G126" s="8">
+        <f t="shared" si="24"/>
+        <v>2160000</v>
+      </c>
+      <c r="H126" s="8">
+        <f>G126/$O$24</f>
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="J14:N14"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="J22:Q22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/discord/Game System Calculations.xlsx
+++ b/discord/Game System Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerald\iCloudDrive\Working Folder\Coding\Python\Projects\ZeusRPG\discord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E99515-404D-4401-95C7-72E11C982346}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B001C03D-F800-4733-B875-6151786F8EE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCB550A9-44B4-4A74-8B55-9A7FD8859F8C}"/>
   </bookViews>
@@ -108,6 +108,42 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O15" authorId="0" shapeId="0" xr:uid="{7F014160-28CB-4923-97CC-7B5929543E39}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Damage Received by Mob</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Percentage of Player's defence over total team's defence * Damage dealt by monster
+- Allows player who scales high defence to receive lesser damage from monster</t>
         </r>
       </text>
     </comment>
@@ -269,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Player</t>
   </si>
@@ -342,13 +378,16 @@
   <si>
     <t># of turns to kill</t>
   </si>
+  <si>
+    <t>Received</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -458,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -535,15 +574,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -558,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -590,7 +620,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,23 +659,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -657,10 +686,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6174,16 +6200,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6210,16 +6236,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6546,8 +6572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264FC943-0808-4ECD-AA51-67678092A672}">
   <dimension ref="B1:S126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6557,22 +6583,22 @@
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
     <col min="16" max="16" width="9.140625" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" customWidth="1"/>
     <col min="18" max="18" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -6606,39 +6632,39 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="J5" s="26" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="J5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="25" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -6682,8 +6708,8 @@
         <v>1.25</v>
       </c>
       <c r="H7" s="8">
-        <f>G7/$O$24</f>
-        <v>8.6805555555555559E-3</v>
+        <f t="shared" ref="H7:H38" si="0">G7/$O$24</f>
+        <v>1.25E-4</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
@@ -6703,28 +6729,28 @@
         <v>2</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C8:C16" si="0">B$3+IF($B8&lt;$J$8,K$7*$B8,IF($B8&lt;$J$9,$B8*K$8,IF($B8&lt;$J$10,$B8*K$9,$B8*K$10)))</f>
+        <f t="shared" ref="C8:C16" si="1">B$3+IF($B8&lt;$J$8,K$7*$B8,IF($B8&lt;$J$9,$B8*K$8,IF($B8&lt;$J$10,$B8*K$9,$B8*K$10)))</f>
         <v>110</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" ref="D8:D17" si="1">C$3+IF($B8&lt;$J$8,L$7*$B8,IF($B8&lt;$J$9,$B8*L$8,IF($B8&lt;$J$10,$B8*L$9,$B8*L$10)))</f>
+        <f t="shared" ref="D8:D17" si="2">C$3+IF($B8&lt;$J$8,L$7*$B8,IF($B8&lt;$J$9,$B8*L$8,IF($B8&lt;$J$10,$B8*L$9,$B8*L$10)))</f>
         <v>11</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" ref="E8:E17" si="2">D$3+IF($B8&lt;$J$8,M$7*$B8,IF($B8&lt;$J$9,$B8*M$8,IF($B8&lt;$J$10,$B8*M$9,$B8*M$10)))</f>
+        <f t="shared" ref="E8:E17" si="3">D$3+IF($B8&lt;$J$8,M$7*$B8,IF($B8&lt;$J$9,$B8*M$8,IF($B8&lt;$J$10,$B8*M$9,$B8*M$10)))</f>
         <v>9</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F71" si="3">D8^2/(D8+E8)</f>
+        <f t="shared" ref="F8:F71" si="4">D8^2/(D8+E8)</f>
         <v>6.05</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" ref="G8:G71" si="4">($G$2*(B8^3))/4</f>
+        <f t="shared" ref="G8:G71" si="5">($G$2*(B8^3))/4</f>
         <v>10</v>
       </c>
       <c r="H8" s="8">
-        <f>G8/$O$24</f>
-        <v>6.9444444444444448E-2</v>
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
       </c>
       <c r="J8" s="6">
         <v>30</v>
@@ -6734,11 +6760,11 @@
         <v>9</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" ref="L8:M8" si="5">L7+L$11</f>
+        <f t="shared" ref="L8:M8" si="6">L7+L$11</f>
         <v>6</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -6747,42 +6773,42 @@
         <v>3</v>
       </c>
       <c r="C9" s="5">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="4"/>
+        <v>7.041666666666667</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="5"/>
+        <v>33.75</v>
+      </c>
+      <c r="H9" s="8">
         <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="3"/>
-        <v>7.041666666666667</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="4"/>
-        <v>33.75</v>
-      </c>
-      <c r="H9" s="8">
-        <f>G9/$O$24</f>
-        <v>0.234375</v>
+        <v>3.375E-3</v>
       </c>
       <c r="J9" s="6">
         <v>60</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" ref="K9:K10" si="6">K8+K$11</f>
+        <f t="shared" ref="K9:K10" si="7">K8+K$11</f>
         <v>13</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" ref="L9:L10" si="7">L8+L$11</f>
+        <f t="shared" ref="L9:L10" si="8">L8+L$11</f>
         <v>10</v>
       </c>
       <c r="M9" s="6">
-        <f t="shared" ref="M9:M10" si="8">M8+M$11</f>
+        <f t="shared" ref="M9:M10" si="9">M8+M$11</f>
         <v>8</v>
       </c>
     </row>
@@ -6791,42 +6817,42 @@
         <v>4</v>
       </c>
       <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="4"/>
+        <v>8.0357142857142865</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="H10" s="8">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="3"/>
-        <v>8.0357142857142865</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="H10" s="8">
-        <f>G10/$O$24</f>
-        <v>0.55555555555555558</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J10" s="6">
         <v>90</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="M10" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -6835,28 +6861,28 @@
         <v>5</v>
       </c>
       <c r="C11" s="5">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="4"/>
+        <v>9.03125</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="5"/>
+        <v>156.25</v>
+      </c>
+      <c r="H11" s="8">
         <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="3"/>
-        <v>9.03125</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="4"/>
-        <v>156.25</v>
-      </c>
-      <c r="H11" s="8">
-        <f>G11/$O$24</f>
-        <v>1.0850694444444444</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>9</v>
@@ -6876,28 +6902,28 @@
         <v>6</v>
       </c>
       <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="4"/>
+        <v>10.027777777777779</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="5"/>
+        <v>270</v>
+      </c>
+      <c r="H12" s="8">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="3"/>
-        <v>10.027777777777779</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" si="4"/>
-        <v>270</v>
-      </c>
-      <c r="H12" s="8">
-        <f>G12/$O$24</f>
-        <v>1.875</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
@@ -6905,28 +6931,28 @@
         <v>7</v>
       </c>
       <c r="C13" s="5">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="4"/>
+        <v>11.025</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="5"/>
+        <v>428.75</v>
+      </c>
+      <c r="H13" s="8">
         <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="3"/>
-        <v>11.025</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="4"/>
-        <v>428.75</v>
-      </c>
-      <c r="H13" s="8">
-        <f>G13/$O$24</f>
-        <v>2.9774305555555554</v>
+        <v>4.2875000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -6934,73 +6960,73 @@
         <v>8</v>
       </c>
       <c r="C14" s="5">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="4"/>
+        <v>12.022727272727273</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="5"/>
+        <v>640</v>
+      </c>
+      <c r="H14" s="8">
         <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="3"/>
-        <v>12.022727272727273</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" si="4"/>
-        <v>640</v>
-      </c>
-      <c r="H14" s="8">
-        <f>G14/$O$24</f>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="J14" s="22" t="s">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="J14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="20" t="s">
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="22" t="s">
+      <c r="Q14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="11"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="23"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>9</v>
       </c>
       <c r="C15" s="5">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="4"/>
+        <v>13.020833333333334</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="5"/>
+        <v>911.25</v>
+      </c>
+      <c r="H15" s="8">
         <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="3"/>
-        <v>13.020833333333334</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="4"/>
-        <v>911.25</v>
-      </c>
-      <c r="H15" s="8">
-        <f>G15/$O$24</f>
-        <v>6.328125</v>
+        <v>9.1124999999999998E-2</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>5</v>
@@ -7017,16 +7043,19 @@
       <c r="N15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="Q15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="S15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7035,69 +7064,73 @@
         <v>10</v>
       </c>
       <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="4"/>
+        <v>14.01923076923077</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="5"/>
+        <v>1250</v>
+      </c>
+      <c r="H16" s="8">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="3"/>
-        <v>14.01923076923077</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="4"/>
-        <v>1250</v>
-      </c>
-      <c r="H16" s="8">
-        <f>G16/$O$24</f>
-        <v>8.6805555555555554</v>
+        <v>0.125</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J16" s="6">
-        <f ca="1">RANDBETWEEN($I$17,$I$18)</f>
-        <v>4</v>
+        <f t="shared" ref="J16:J19" ca="1" si="10">RANDBETWEEN($I$17,$I$18)</f>
+        <v>1</v>
       </c>
       <c r="K16" s="6">
         <f ca="1">VLOOKUP($J16,$B$7:$G$126,2,0)</f>
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="L16" s="6">
         <f ca="1">VLOOKUP($J16,$B$7:$G$126,3,0)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M16" s="6">
         <f ca="1">VLOOKUP($J16,$B$7:$G$126,4,0)</f>
-        <v>13</v>
-      </c>
-      <c r="N16" s="21">
+        <v>7</v>
+      </c>
+      <c r="N16" s="20">
         <f ca="1">VLOOKUP($J16,$B$7:$G$126,5,0)</f>
-        <v>8.0357142857142865</v>
-      </c>
-      <c r="O16" s="16">
+        <v>5.0625</v>
+      </c>
+      <c r="O16" s="26">
+        <f ca="1">$P$24*(1-(M16/(SUM($M$16:$M$19))))</f>
+        <v>46.102150537634408</v>
+      </c>
+      <c r="P16" s="15">
         <v>1.2</v>
       </c>
-      <c r="P16" s="18">
-        <f ca="1">L16*$O$16</f>
-        <v>18</v>
-      </c>
-      <c r="Q16" s="18">
-        <f ca="1">L16*$O$17</f>
-        <v>75</v>
-      </c>
-      <c r="R16" s="18">
-        <f ca="1">L16*$O$18</f>
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q16" s="17">
+        <f ca="1">L16*$P$16</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="R16" s="17">
+        <f ca="1">L16*$P$17</f>
+        <v>45</v>
+      </c>
+      <c r="S16" s="17">
+        <f ca="1">L16*$P$18</f>
+        <v>15.299999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>11</v>
       </c>
@@ -7106,65 +7139,69 @@
         <v>155</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.017857142857142</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1663.75</v>
       </c>
       <c r="H17" s="8">
-        <f>G17/$O$24</f>
-        <v>11.553819444444445</v>
+        <f t="shared" si="0"/>
+        <v>0.166375</v>
       </c>
       <c r="I17" s="10">
         <v>1</v>
       </c>
       <c r="J17" s="6">
-        <f ca="1">RANDBETWEEN($I$17,$I$18)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
       </c>
       <c r="K17" s="6">
         <f ca="1">VLOOKUP($J17,$B$7:$G$126,2,0)</f>
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="L17" s="6">
         <f ca="1">VLOOKUP($J17,$B$7:$G$126,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="M17" s="14">
+        <v>15</v>
+      </c>
+      <c r="M17" s="13">
         <f ca="1">VLOOKUP($J17,$B$7:$G$126,4,0)</f>
-        <v>7</v>
-      </c>
-      <c r="N17" s="21">
-        <f t="shared" ref="N17:N19" ca="1" si="9">VLOOKUP($J17,$B$7:$G$126,5,0)</f>
-        <v>5.0625</v>
-      </c>
-      <c r="O17" s="16">
+        <v>13</v>
+      </c>
+      <c r="N17" s="20">
+        <f t="shared" ref="N17:N19" ca="1" si="11">VLOOKUP($J17,$B$7:$G$126,5,0)</f>
+        <v>8.0357142857142865</v>
+      </c>
+      <c r="O17" s="26">
+        <f t="shared" ref="O17:O19" ca="1" si="12">$P$24*(1-(M17/(SUM($M$16:$M$19))))</f>
+        <v>41.072825024437925</v>
+      </c>
+      <c r="P17" s="15">
         <v>5</v>
       </c>
-      <c r="P17" s="18">
-        <f t="shared" ref="P17:P19" ca="1" si="10">L17*$O$16</f>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="Q17" s="18">
-        <f t="shared" ref="Q17:Q19" ca="1" si="11">L17*$O$17</f>
-        <v>45</v>
-      </c>
-      <c r="R17" s="18">
-        <f t="shared" ref="R17:R19" ca="1" si="12">L17*$O$18</f>
-        <v>15.299999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q17" s="17">
+        <f ca="1">L17*$P$16</f>
+        <v>18</v>
+      </c>
+      <c r="R17" s="17">
+        <f ca="1">L17*$P$17</f>
+        <v>75</v>
+      </c>
+      <c r="S17" s="17">
+        <f ca="1">L17*$P$18</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>12</v>
       </c>
@@ -7181,57 +7218,61 @@
         <v>29</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.016666666666666</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2160</v>
       </c>
       <c r="H18" s="8">
-        <f>G18/$O$24</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>0.216</v>
       </c>
       <c r="I18" s="10">
         <v>10</v>
       </c>
       <c r="J18" s="6">
-        <f ca="1">RANDBETWEEN($I$17,$I$18)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
       </c>
       <c r="K18" s="6">
         <f ca="1">VLOOKUP($J18,$B$7:$G$126,2,0)</f>
-        <v>150</v>
-      </c>
-      <c r="L18" s="13">
+        <v>140</v>
+      </c>
+      <c r="L18" s="12">
         <f ca="1">VLOOKUP($J18,$B$7:$G$126,3,0)</f>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M18" s="6">
         <f ca="1">VLOOKUP($J18,$B$7:$G$126,4,0)</f>
-        <v>25</v>
-      </c>
-      <c r="N18" s="21">
-        <f t="shared" ca="1" si="9"/>
-        <v>14.01923076923077</v>
-      </c>
-      <c r="O18" s="16">
+        <v>21</v>
+      </c>
+      <c r="N18" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>12.022727272727273</v>
+      </c>
+      <c r="O18" s="26">
+        <f t="shared" ca="1" si="12"/>
+        <v>34.367057673509287</v>
+      </c>
+      <c r="P18" s="15">
         <v>1.7</v>
       </c>
-      <c r="P18" s="18">
-        <f t="shared" ca="1" si="10"/>
-        <v>32.4</v>
-      </c>
-      <c r="Q18" s="18">
-        <f t="shared" ca="1" si="11"/>
-        <v>135</v>
-      </c>
-      <c r="R18" s="18">
-        <f t="shared" ca="1" si="12"/>
-        <v>45.9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q18" s="17">
+        <f ca="1">L18*$P$16</f>
+        <v>27.599999999999998</v>
+      </c>
+      <c r="R18" s="17">
+        <f ca="1">L18*$P$17</f>
+        <v>115</v>
+      </c>
+      <c r="S18" s="17">
+        <f ca="1">L18*$P$18</f>
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>13</v>
       </c>
@@ -7248,52 +7289,56 @@
         <v>31</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.015625</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2746.25</v>
       </c>
       <c r="H19" s="8">
-        <f>G19/$O$24</f>
-        <v>19.071180555555557</v>
+        <f t="shared" si="0"/>
+        <v>0.27462500000000001</v>
       </c>
       <c r="J19" s="6">
-        <f ca="1">RANDBETWEEN($I$17,$I$18)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
       </c>
       <c r="K19" s="6">
         <f ca="1">VLOOKUP($J19,$B$7:$G$126,2,0)</f>
-        <v>110</v>
-      </c>
-      <c r="L19" s="13">
+        <v>140</v>
+      </c>
+      <c r="L19" s="12">
         <f ca="1">VLOOKUP($J19,$B$7:$G$126,3,0)</f>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M19" s="6">
         <f ca="1">VLOOKUP($J19,$B$7:$G$126,4,0)</f>
-        <v>9</v>
-      </c>
-      <c r="N19" s="21">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.05</v>
-      </c>
-      <c r="O19" s="19"/>
-      <c r="P19" s="18">
-        <f t="shared" ca="1" si="10"/>
-        <v>13.2</v>
-      </c>
-      <c r="Q19" s="18">
+        <v>21</v>
+      </c>
+      <c r="N19" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>55</v>
-      </c>
-      <c r="R19" s="18">
+        <v>12.022727272727273</v>
+      </c>
+      <c r="O19" s="26">
         <f t="shared" ca="1" si="12"/>
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+        <v>34.367057673509287</v>
+      </c>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="17">
+        <f ca="1">L19*$P$16</f>
+        <v>27.599999999999998</v>
+      </c>
+      <c r="R19" s="17">
+        <f ca="1">L19*$P$17</f>
+        <v>115</v>
+      </c>
+      <c r="S19" s="17">
+        <f ca="1">L19*$P$18</f>
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>14</v>
       </c>
@@ -7310,19 +7355,19 @@
         <v>33</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.014705882352942</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3430</v>
       </c>
       <c r="H20" s="8">
-        <f>G20/$O$24</f>
-        <v>23.819444444444443</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>15</v>
       </c>
@@ -7339,19 +7384,19 @@
         <v>35</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.013888888888889</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4218.75</v>
       </c>
       <c r="H21" s="8">
-        <f>G21/$O$24</f>
-        <v>29.296875</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.421875</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>16</v>
       </c>
@@ -7368,29 +7413,29 @@
         <v>37</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.013157894736842</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5120</v>
       </c>
       <c r="H22" s="8">
-        <f>G22/$O$24</f>
-        <v>35.555555555555557</v>
-      </c>
-      <c r="J22" s="27" t="s">
+        <f t="shared" si="0"/>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="J22" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>17</v>
       </c>
@@ -7407,16 +7452,16 @@
         <v>39</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.012499999999999</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6141.25</v>
       </c>
       <c r="H23" s="8">
-        <f>G23/$O$24</f>
-        <v>42.647569444444443</v>
+        <f t="shared" si="0"/>
+        <v>0.61412500000000003</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>5</v>
@@ -7443,7 +7488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>18</v>
       </c>
@@ -7460,49 +7505,49 @@
         <v>41</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.011904761904763</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7290</v>
       </c>
       <c r="H24" s="8">
-        <f>G24/$O$24</f>
-        <v>50.625</v>
+        <f t="shared" si="0"/>
+        <v>0.72899999999999998</v>
       </c>
       <c r="J24" s="2">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="K24" s="2">
         <f ca="1">AVERAGE(K16:K19)*4*$N$24</f>
-        <v>363.75</v>
+        <v>353.5</v>
       </c>
       <c r="L24" s="2">
         <f ca="1">AVERAGE(L16:L19)*4*$N$24</f>
-        <v>46.5</v>
+        <v>49</v>
       </c>
       <c r="M24" s="2">
         <f ca="1">AVERAGE(M16:M19)*4*$N$24</f>
-        <v>40.5</v>
-      </c>
-      <c r="N24" s="12">
-        <v>0.75</v>
+        <v>43.4</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0.7</v>
       </c>
       <c r="O24" s="2">
         <f>$J$24^2*4</f>
-        <v>144</v>
-      </c>
-      <c r="P24" s="34">
+        <v>10000</v>
+      </c>
+      <c r="P24" s="26">
         <f ca="1">L24^2/(L24+M24)*2</f>
-        <v>49.706896551724135</v>
-      </c>
-      <c r="Q24" s="35">
+        <v>51.969696969696969</v>
+      </c>
+      <c r="Q24" s="27">
         <f ca="1">K24/SUM(L16:L19)</f>
-        <v>5.866935483870968</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>19</v>
       </c>
@@ -7519,19 +7564,19 @@
         <v>43</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.011363636363637</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8573.75</v>
       </c>
       <c r="H25" s="8">
-        <f>G25/$O$24</f>
-        <v>59.539930555555557</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.857375</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>20</v>
       </c>
@@ -7548,19 +7593,19 @@
         <v>45</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.010869565217391</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="H26" s="8">
-        <f>G26/$O$24</f>
-        <v>69.444444444444443</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>21</v>
       </c>
@@ -7577,19 +7622,19 @@
         <v>47</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.010416666666668</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11576.25</v>
       </c>
       <c r="H27" s="8">
-        <f>G27/$O$24</f>
-        <v>80.390625</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1.1576249999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <v>22</v>
       </c>
@@ -7606,19 +7651,19 @@
         <v>49</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.01</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13310</v>
       </c>
       <c r="H28" s="8">
-        <f>G28/$O$24</f>
-        <v>92.430555555555557</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1.331</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>23</v>
       </c>
@@ -7635,19 +7680,19 @@
         <v>51</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.009615384615383</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15208.75</v>
       </c>
       <c r="H29" s="8">
-        <f>G29/$O$24</f>
-        <v>105.61631944444444</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1.520875</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>24</v>
       </c>
@@ -7664,19 +7709,19 @@
         <v>53</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.00925925925926</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17280</v>
       </c>
       <c r="H30" s="8">
-        <f>G30/$O$24</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1.728</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>25</v>
       </c>
@@ -7693,19 +7738,19 @@
         <v>55</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29.008928571428573</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19531.25</v>
       </c>
       <c r="H31" s="8">
-        <f>G31/$O$24</f>
-        <v>135.63368055555554</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1.953125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>26</v>
       </c>
@@ -7722,16 +7767,16 @@
         <v>57</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30.008620689655171</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21970</v>
       </c>
       <c r="H32" s="8">
-        <f>G32/$O$24</f>
-        <v>152.56944444444446</v>
+        <f t="shared" si="0"/>
+        <v>2.1970000000000001</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -7751,16 +7796,16 @@
         <v>59</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31.008333333333333</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24603.75</v>
       </c>
       <c r="H33" s="8">
-        <f>G33/$O$24</f>
-        <v>170.859375</v>
+        <f t="shared" si="0"/>
+        <v>2.460375</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -7780,16 +7825,16 @@
         <v>61</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.008064516129032</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27440</v>
       </c>
       <c r="H34" s="8">
-        <f>G34/$O$24</f>
-        <v>190.55555555555554</v>
+        <f t="shared" si="0"/>
+        <v>2.7440000000000002</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -7809,16 +7854,16 @@
         <v>63</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.0078125</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30486.25</v>
       </c>
       <c r="H35" s="8">
-        <f>G35/$O$24</f>
-        <v>211.71006944444446</v>
+        <f t="shared" si="0"/>
+        <v>3.0486249999999999</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -7838,16 +7883,16 @@
         <v>155</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>102.24853801169591</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33750</v>
       </c>
       <c r="H36" s="8">
-        <f>G36/$O$24</f>
-        <v>234.375</v>
+        <f t="shared" si="0"/>
+        <v>3.375</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -7867,16 +7912,16 @@
         <v>160</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>105.52124645892351</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37238.75</v>
       </c>
       <c r="H37" s="8">
-        <f>G37/$O$24</f>
-        <v>258.60243055555554</v>
+        <f t="shared" si="0"/>
+        <v>3.723875</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -7896,16 +7941,16 @@
         <v>165</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108.79395604395604</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40960</v>
       </c>
       <c r="H38" s="8">
-        <f>G38/$O$24</f>
-        <v>284.44444444444446</v>
+        <f t="shared" si="0"/>
+        <v>4.0960000000000001</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -7925,16 +7970,16 @@
         <v>170</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>112.06666666666666</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44921.25</v>
       </c>
       <c r="H39" s="8">
-        <f>G39/$O$24</f>
-        <v>311.953125</v>
+        <f t="shared" ref="H39:H70" si="18">G39/$O$24</f>
+        <v>4.4921249999999997</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -7954,16 +7999,16 @@
         <v>175</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>115.33937823834196</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49130</v>
       </c>
       <c r="H40" s="8">
-        <f>G40/$O$24</f>
-        <v>341.18055555555554</v>
+        <f t="shared" si="18"/>
+        <v>4.9130000000000003</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -7983,16 +8028,16 @@
         <v>180</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>118.61209068010075</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53593.75</v>
       </c>
       <c r="H41" s="8">
-        <f>G41/$O$24</f>
-        <v>372.17881944444446</v>
+        <f t="shared" si="18"/>
+        <v>5.359375</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -8012,16 +8057,16 @@
         <v>185</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>121.88480392156863</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58320</v>
       </c>
       <c r="H42" s="8">
-        <f>G42/$O$24</f>
-        <v>405</v>
+        <f t="shared" si="18"/>
+        <v>5.8319999999999999</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -8041,16 +8086,16 @@
         <v>190</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>125.15751789976133</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63316.25</v>
       </c>
       <c r="H43" s="8">
-        <f>G43/$O$24</f>
-        <v>439.69618055555554</v>
+        <f t="shared" si="18"/>
+        <v>6.3316249999999998</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -8070,16 +8115,16 @@
         <v>195</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>128.43023255813952</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68590</v>
       </c>
       <c r="H44" s="8">
-        <f>G44/$O$24</f>
-        <v>476.31944444444446</v>
+        <f t="shared" si="18"/>
+        <v>6.859</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -8099,16 +8144,16 @@
         <v>200</v>
       </c>
       <c r="F45" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>131.702947845805</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74148.75</v>
       </c>
       <c r="H45" s="8">
-        <f>G45/$O$24</f>
-        <v>514.921875</v>
+        <f t="shared" si="18"/>
+        <v>7.4148750000000003</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -8128,16 +8173,16 @@
         <v>205</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>134.97566371681415</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80000</v>
       </c>
       <c r="H46" s="8">
-        <f>G46/$O$24</f>
-        <v>555.55555555555554</v>
+        <f t="shared" si="18"/>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -8157,16 +8202,16 @@
         <v>210</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>138.24838012958963</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86151.25</v>
       </c>
       <c r="H47" s="8">
-        <f>G47/$O$24</f>
-        <v>598.27256944444446</v>
+        <f t="shared" si="18"/>
+        <v>8.6151250000000008</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -8174,28 +8219,28 @@
         <v>42</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" ref="C48:C54" si="18">B$3+IF($B48&lt;$J$8,K$7*$B48,IF($B48&lt;$J$9,$B48*K$8,IF($B48&lt;$J$10,$B48*K$9,$B48*K$10)))</f>
+        <f t="shared" ref="C48:C54" si="19">B$3+IF($B48&lt;$J$8,K$7*$B48,IF($B48&lt;$J$9,$B48*K$8,IF($B48&lt;$J$10,$B48*K$9,$B48*K$10)))</f>
         <v>478</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" ref="D48:D111" si="19">C$3+IF($B48&lt;$J$8,L$7*$B48,IF($B48&lt;$J$9,$B48*L$8,IF($B48&lt;$J$10,$B48*L$9,$B48*L$10)))</f>
+        <f t="shared" ref="D48:D111" si="20">C$3+IF($B48&lt;$J$8,L$7*$B48,IF($B48&lt;$J$9,$B48*L$8,IF($B48&lt;$J$10,$B48*L$9,$B48*L$10)))</f>
         <v>259</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" ref="E48:E111" si="20">D$3+IF($B48&lt;$J$8,M$7*$B48,IF($B48&lt;$J$9,$B48*M$8,IF($B48&lt;$J$10,$B48*M$9,$B48*M$10)))</f>
+        <f t="shared" ref="E48:E111" si="21">D$3+IF($B48&lt;$J$8,M$7*$B48,IF($B48&lt;$J$9,$B48*M$8,IF($B48&lt;$J$10,$B48*M$9,$B48*M$10)))</f>
         <v>215</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>141.5210970464135</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>92610</v>
       </c>
       <c r="H48" s="8">
-        <f>G48/$O$24</f>
-        <v>643.125</v>
+        <f t="shared" si="18"/>
+        <v>9.2609999999999992</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -8203,28 +8248,28 @@
         <v>43</v>
       </c>
       <c r="C49" s="5">
+        <f t="shared" si="19"/>
+        <v>487</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="20"/>
+        <v>265</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="21"/>
+        <v>220</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" si="4"/>
+        <v>144.79381443298968</v>
+      </c>
+      <c r="G49" s="8">
+        <f t="shared" si="5"/>
+        <v>99383.75</v>
+      </c>
+      <c r="H49" s="8">
         <f t="shared" si="18"/>
-        <v>487</v>
-      </c>
-      <c r="D49" s="5">
-        <f t="shared" si="19"/>
-        <v>265</v>
-      </c>
-      <c r="E49" s="5">
-        <f t="shared" si="20"/>
-        <v>220</v>
-      </c>
-      <c r="F49" s="8">
-        <f t="shared" si="3"/>
-        <v>144.79381443298968</v>
-      </c>
-      <c r="G49" s="8">
-        <f t="shared" si="4"/>
-        <v>99383.75</v>
-      </c>
-      <c r="H49" s="8">
-        <f>G49/$O$24</f>
-        <v>690.16493055555554</v>
+        <v>9.9383750000000006</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -8232,28 +8277,28 @@
         <v>44</v>
       </c>
       <c r="C50" s="5">
+        <f t="shared" si="19"/>
+        <v>496</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="20"/>
+        <v>271</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="21"/>
+        <v>225</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="4"/>
+        <v>148.06653225806451</v>
+      </c>
+      <c r="G50" s="8">
+        <f t="shared" si="5"/>
+        <v>106480</v>
+      </c>
+      <c r="H50" s="8">
         <f t="shared" si="18"/>
-        <v>496</v>
-      </c>
-      <c r="D50" s="5">
-        <f t="shared" si="19"/>
-        <v>271</v>
-      </c>
-      <c r="E50" s="5">
-        <f t="shared" si="20"/>
-        <v>225</v>
-      </c>
-      <c r="F50" s="8">
-        <f t="shared" si="3"/>
-        <v>148.06653225806451</v>
-      </c>
-      <c r="G50" s="8">
-        <f t="shared" si="4"/>
-        <v>106480</v>
-      </c>
-      <c r="H50" s="8">
-        <f>G50/$O$24</f>
-        <v>739.44444444444446</v>
+        <v>10.648</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -8261,28 +8306,28 @@
         <v>45</v>
       </c>
       <c r="C51" s="5">
+        <f t="shared" si="19"/>
+        <v>505</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="20"/>
+        <v>277</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="21"/>
+        <v>230</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" si="4"/>
+        <v>151.33925049309664</v>
+      </c>
+      <c r="G51" s="8">
+        <f t="shared" si="5"/>
+        <v>113906.25</v>
+      </c>
+      <c r="H51" s="8">
         <f t="shared" si="18"/>
-        <v>505</v>
-      </c>
-      <c r="D51" s="5">
-        <f t="shared" si="19"/>
-        <v>277</v>
-      </c>
-      <c r="E51" s="5">
-        <f t="shared" si="20"/>
-        <v>230</v>
-      </c>
-      <c r="F51" s="8">
-        <f t="shared" si="3"/>
-        <v>151.33925049309664</v>
-      </c>
-      <c r="G51" s="8">
-        <f t="shared" si="4"/>
-        <v>113906.25</v>
-      </c>
-      <c r="H51" s="8">
-        <f>G51/$O$24</f>
-        <v>791.015625</v>
+        <v>11.390625</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -8290,28 +8335,28 @@
         <v>46</v>
       </c>
       <c r="C52" s="5">
+        <f t="shared" si="19"/>
+        <v>514</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="20"/>
+        <v>283</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="21"/>
+        <v>235</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" si="4"/>
+        <v>154.6119691119691</v>
+      </c>
+      <c r="G52" s="8">
+        <f t="shared" si="5"/>
+        <v>121670</v>
+      </c>
+      <c r="H52" s="8">
         <f t="shared" si="18"/>
-        <v>514</v>
-      </c>
-      <c r="D52" s="5">
-        <f t="shared" si="19"/>
-        <v>283</v>
-      </c>
-      <c r="E52" s="5">
-        <f t="shared" si="20"/>
-        <v>235</v>
-      </c>
-      <c r="F52" s="8">
-        <f t="shared" si="3"/>
-        <v>154.6119691119691</v>
-      </c>
-      <c r="G52" s="8">
-        <f t="shared" si="4"/>
-        <v>121670</v>
-      </c>
-      <c r="H52" s="8">
-        <f>G52/$O$24</f>
-        <v>844.93055555555554</v>
+        <v>12.167</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -8319,28 +8364,28 @@
         <v>47</v>
       </c>
       <c r="C53" s="5">
+        <f t="shared" si="19"/>
+        <v>523</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="20"/>
+        <v>289</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="21"/>
+        <v>240</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" si="4"/>
+        <v>157.88468809073723</v>
+      </c>
+      <c r="G53" s="8">
+        <f t="shared" si="5"/>
+        <v>129778.75</v>
+      </c>
+      <c r="H53" s="8">
         <f t="shared" si="18"/>
-        <v>523</v>
-      </c>
-      <c r="D53" s="5">
-        <f t="shared" si="19"/>
-        <v>289</v>
-      </c>
-      <c r="E53" s="5">
-        <f t="shared" si="20"/>
-        <v>240</v>
-      </c>
-      <c r="F53" s="8">
-        <f t="shared" si="3"/>
-        <v>157.88468809073723</v>
-      </c>
-      <c r="G53" s="8">
-        <f t="shared" si="4"/>
-        <v>129778.75</v>
-      </c>
-      <c r="H53" s="8">
-        <f>G53/$O$24</f>
-        <v>901.24131944444446</v>
+        <v>12.977874999999999</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -8348,28 +8393,28 @@
         <v>48</v>
       </c>
       <c r="C54" s="5">
+        <f t="shared" si="19"/>
+        <v>532</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="20"/>
+        <v>295</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="21"/>
+        <v>245</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" si="4"/>
+        <v>161.15740740740742</v>
+      </c>
+      <c r="G54" s="8">
+        <f t="shared" si="5"/>
+        <v>138240</v>
+      </c>
+      <c r="H54" s="8">
         <f t="shared" si="18"/>
-        <v>532</v>
-      </c>
-      <c r="D54" s="5">
-        <f t="shared" si="19"/>
-        <v>295</v>
-      </c>
-      <c r="E54" s="5">
-        <f t="shared" si="20"/>
-        <v>245</v>
-      </c>
-      <c r="F54" s="8">
-        <f t="shared" si="3"/>
-        <v>161.15740740740742</v>
-      </c>
-      <c r="G54" s="8">
-        <f t="shared" si="4"/>
-        <v>138240</v>
-      </c>
-      <c r="H54" s="8">
-        <f>G54/$O$24</f>
-        <v>960</v>
+        <v>13.824</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -8381,24 +8426,24 @@
         <v>541</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>301</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>250</v>
       </c>
       <c r="F55" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>164.43012704174228</v>
       </c>
       <c r="G55" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>147061.25</v>
       </c>
       <c r="H55" s="8">
-        <f>G55/$O$24</f>
-        <v>1021.2586805555555</v>
+        <f t="shared" si="18"/>
+        <v>14.706125</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -8406,28 +8451,28 @@
         <v>50</v>
       </c>
       <c r="C56" s="5">
-        <f t="shared" ref="C56:C64" si="21">B$3+IF($B56&lt;$J$8,K$7*$B56,IF($B56&lt;$J$9,$B56*K$8,IF($B56&lt;$J$10,$B56*K$9,$B56*K$10)))</f>
+        <f t="shared" ref="C56:C64" si="22">B$3+IF($B56&lt;$J$8,K$7*$B56,IF($B56&lt;$J$9,$B56*K$8,IF($B56&lt;$J$10,$B56*K$9,$B56*K$10)))</f>
         <v>550</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>307</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>255</v>
       </c>
       <c r="F56" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>167.70284697508896</v>
       </c>
       <c r="G56" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>156250</v>
       </c>
       <c r="H56" s="8">
-        <f>G56/$O$24</f>
-        <v>1085.0694444444443</v>
+        <f t="shared" si="18"/>
+        <v>15.625</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -8435,28 +8480,28 @@
         <v>51</v>
       </c>
       <c r="C57" s="5">
+        <f t="shared" si="22"/>
+        <v>559</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="20"/>
+        <v>313</v>
+      </c>
+      <c r="E57" s="5">
         <f t="shared" si="21"/>
-        <v>559</v>
-      </c>
-      <c r="D57" s="5">
-        <f t="shared" si="19"/>
-        <v>313</v>
-      </c>
-      <c r="E57" s="5">
-        <f t="shared" si="20"/>
         <v>260</v>
       </c>
       <c r="F57" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>170.97556719022688</v>
       </c>
       <c r="G57" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165813.75</v>
       </c>
       <c r="H57" s="8">
-        <f>G57/$O$24</f>
-        <v>1151.484375</v>
+        <f t="shared" si="18"/>
+        <v>16.581375000000001</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -8464,28 +8509,28 @@
         <v>52</v>
       </c>
       <c r="C58" s="5">
+        <f t="shared" si="22"/>
+        <v>568</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="20"/>
+        <v>319</v>
+      </c>
+      <c r="E58" s="5">
         <f t="shared" si="21"/>
-        <v>568</v>
-      </c>
-      <c r="D58" s="5">
-        <f t="shared" si="19"/>
-        <v>319</v>
-      </c>
-      <c r="E58" s="5">
-        <f t="shared" si="20"/>
         <v>265</v>
       </c>
       <c r="F58" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>174.24828767123287</v>
       </c>
       <c r="G58" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>175760</v>
       </c>
       <c r="H58" s="8">
-        <f>G58/$O$24</f>
-        <v>1220.5555555555557</v>
+        <f t="shared" si="18"/>
+        <v>17.576000000000001</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -8493,28 +8538,28 @@
         <v>53</v>
       </c>
       <c r="C59" s="5">
+        <f t="shared" si="22"/>
+        <v>577</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="20"/>
+        <v>325</v>
+      </c>
+      <c r="E59" s="5">
         <f t="shared" si="21"/>
-        <v>577</v>
-      </c>
-      <c r="D59" s="5">
-        <f t="shared" si="19"/>
-        <v>325</v>
-      </c>
-      <c r="E59" s="5">
-        <f t="shared" si="20"/>
         <v>270</v>
       </c>
       <c r="F59" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>177.52100840336135</v>
       </c>
       <c r="G59" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>186096.25</v>
       </c>
       <c r="H59" s="8">
-        <f>G59/$O$24</f>
-        <v>1292.3350694444443</v>
+        <f t="shared" si="18"/>
+        <v>18.609625000000001</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -8522,28 +8567,28 @@
         <v>54</v>
       </c>
       <c r="C60" s="5">
+        <f t="shared" si="22"/>
+        <v>586</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="20"/>
+        <v>331</v>
+      </c>
+      <c r="E60" s="5">
         <f t="shared" si="21"/>
-        <v>586</v>
-      </c>
-      <c r="D60" s="5">
-        <f t="shared" si="19"/>
-        <v>331</v>
-      </c>
-      <c r="E60" s="5">
-        <f t="shared" si="20"/>
         <v>275</v>
       </c>
       <c r="F60" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180.79372937293729</v>
       </c>
       <c r="G60" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>196830</v>
       </c>
       <c r="H60" s="8">
-        <f>G60/$O$24</f>
-        <v>1366.875</v>
+        <f t="shared" si="18"/>
+        <v>19.683</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -8551,28 +8596,28 @@
         <v>55</v>
       </c>
       <c r="C61" s="5">
+        <f t="shared" si="22"/>
+        <v>595</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="20"/>
+        <v>337</v>
+      </c>
+      <c r="E61" s="5">
         <f t="shared" si="21"/>
-        <v>595</v>
-      </c>
-      <c r="D61" s="5">
-        <f t="shared" si="19"/>
-        <v>337</v>
-      </c>
-      <c r="E61" s="5">
-        <f t="shared" si="20"/>
         <v>280</v>
       </c>
       <c r="F61" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>184.06645056726094</v>
       </c>
       <c r="G61" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>207968.75</v>
       </c>
       <c r="H61" s="8">
-        <f>G61/$O$24</f>
-        <v>1444.2274305555557</v>
+        <f t="shared" si="18"/>
+        <v>20.796875</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -8580,28 +8625,28 @@
         <v>56</v>
       </c>
       <c r="C62" s="5">
+        <f t="shared" si="22"/>
+        <v>604</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" si="20"/>
+        <v>343</v>
+      </c>
+      <c r="E62" s="5">
         <f t="shared" si="21"/>
-        <v>604</v>
-      </c>
-      <c r="D62" s="5">
-        <f t="shared" si="19"/>
-        <v>343</v>
-      </c>
-      <c r="E62" s="5">
-        <f t="shared" si="20"/>
         <v>285</v>
       </c>
       <c r="F62" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>187.33917197452229</v>
       </c>
       <c r="G62" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>219520</v>
       </c>
       <c r="H62" s="8">
-        <f>G62/$O$24</f>
-        <v>1524.4444444444443</v>
+        <f t="shared" si="18"/>
+        <v>21.952000000000002</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -8609,28 +8654,28 @@
         <v>57</v>
       </c>
       <c r="C63" s="5">
+        <f t="shared" si="22"/>
+        <v>613</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="20"/>
+        <v>349</v>
+      </c>
+      <c r="E63" s="5">
         <f t="shared" si="21"/>
-        <v>613</v>
-      </c>
-      <c r="D63" s="5">
-        <f t="shared" si="19"/>
-        <v>349</v>
-      </c>
-      <c r="E63" s="5">
-        <f t="shared" si="20"/>
         <v>290</v>
       </c>
       <c r="F63" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>190.61189358372457</v>
       </c>
       <c r="G63" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>231491.25</v>
       </c>
       <c r="H63" s="8">
-        <f>G63/$O$24</f>
-        <v>1607.578125</v>
+        <f t="shared" si="18"/>
+        <v>23.149125000000002</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
@@ -8638,28 +8683,28 @@
         <v>58</v>
       </c>
       <c r="C64" s="5">
+        <f t="shared" si="22"/>
+        <v>622</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="20"/>
+        <v>355</v>
+      </c>
+      <c r="E64" s="5">
         <f t="shared" si="21"/>
-        <v>622</v>
-      </c>
-      <c r="D64" s="5">
-        <f t="shared" si="19"/>
-        <v>355</v>
-      </c>
-      <c r="E64" s="5">
-        <f t="shared" si="20"/>
         <v>295</v>
       </c>
       <c r="F64" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>193.88461538461539</v>
       </c>
       <c r="G64" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>243890</v>
       </c>
       <c r="H64" s="8">
-        <f>G64/$O$24</f>
-        <v>1693.6805555555557</v>
+        <f t="shared" si="18"/>
+        <v>24.388999999999999</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
@@ -8671,24 +8716,24 @@
         <v>631</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>361</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>300</v>
       </c>
       <c r="F65" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>197.15733736762482</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>256723.75</v>
       </c>
       <c r="H65" s="8">
-        <f>G65/$O$24</f>
-        <v>1782.8038194444443</v>
+        <f t="shared" si="18"/>
+        <v>25.672374999999999</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
@@ -8696,28 +8741,28 @@
         <v>60</v>
       </c>
       <c r="C66" s="5">
-        <f t="shared" ref="C66:C74" si="22">B$3+IF($B66&lt;$J$8,K$7*$B66,IF($B66&lt;$J$9,$B66*K$8,IF($B66&lt;$J$10,$B66*K$9,$B66*K$10)))</f>
+        <f t="shared" ref="C66:C74" si="23">B$3+IF($B66&lt;$J$8,K$7*$B66,IF($B66&lt;$J$9,$B66*K$8,IF($B66&lt;$J$10,$B66*K$9,$B66*K$10)))</f>
         <v>880</v>
       </c>
       <c r="D66" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>607</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>485</v>
       </c>
       <c r="F66" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>337.40750915750914</v>
       </c>
       <c r="G66" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>270000</v>
       </c>
       <c r="H66" s="8">
-        <f>G66/$O$24</f>
-        <v>1875</v>
+        <f t="shared" si="18"/>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
@@ -8725,28 +8770,28 @@
         <v>61</v>
       </c>
       <c r="C67" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>893</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>617</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>493</v>
       </c>
       <c r="F67" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>342.96306306306309</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>283726.25</v>
       </c>
       <c r="H67" s="8">
-        <f>G67/$O$24</f>
-        <v>1970.3211805555557</v>
+        <f t="shared" si="18"/>
+        <v>28.372624999999999</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -8754,28 +8799,28 @@
         <v>62</v>
       </c>
       <c r="C68" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>906</v>
       </c>
       <c r="D68" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>627</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>501</v>
       </c>
       <c r="F68" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>348.51861702127661</v>
       </c>
       <c r="G68" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>297910</v>
       </c>
       <c r="H68" s="8">
-        <f>G68/$O$24</f>
-        <v>2068.8194444444443</v>
+        <f t="shared" si="18"/>
+        <v>29.791</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
@@ -8783,28 +8828,28 @@
         <v>63</v>
       </c>
       <c r="C69" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>919</v>
       </c>
       <c r="D69" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>637</v>
       </c>
       <c r="E69" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>509</v>
       </c>
       <c r="F69" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>354.07417102966843</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>312558.75</v>
       </c>
       <c r="H69" s="8">
-        <f>G69/$O$24</f>
-        <v>2170.546875</v>
+        <f t="shared" si="18"/>
+        <v>31.255875</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
@@ -8812,28 +8857,28 @@
         <v>64</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>932</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>647</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>517</v>
       </c>
       <c r="F70" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>359.62972508591065</v>
       </c>
       <c r="G70" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>327680</v>
       </c>
       <c r="H70" s="8">
-        <f>G70/$O$24</f>
-        <v>2275.5555555555557</v>
+        <f t="shared" si="18"/>
+        <v>32.768000000000001</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
@@ -8841,28 +8886,28 @@
         <v>65</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>945</v>
       </c>
       <c r="D71" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>657</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>525</v>
       </c>
       <c r="F71" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>365.18527918781729</v>
       </c>
       <c r="G71" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>343281.25</v>
       </c>
       <c r="H71" s="8">
-        <f>G71/$O$24</f>
-        <v>2383.8975694444443</v>
+        <f t="shared" ref="H71:H102" si="24">G71/$O$24</f>
+        <v>34.328125</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
@@ -8870,28 +8915,28 @@
         <v>66</v>
       </c>
       <c r="C72" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>958</v>
       </c>
       <c r="D72" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>667</v>
       </c>
       <c r="E72" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>533</v>
       </c>
       <c r="F72" s="8">
-        <f t="shared" ref="F72:F126" si="23">D72^2/(D72+E72)</f>
+        <f t="shared" ref="F72:F126" si="25">D72^2/(D72+E72)</f>
         <v>370.74083333333334</v>
       </c>
       <c r="G72" s="8">
-        <f t="shared" ref="G72:G126" si="24">($G$2*(B72^3))/4</f>
+        <f t="shared" ref="G72:G126" si="26">($G$2*(B72^3))/4</f>
         <v>359370</v>
       </c>
       <c r="H72" s="8">
-        <f>G72/$O$24</f>
-        <v>2495.625</v>
+        <f t="shared" si="24"/>
+        <v>35.936999999999998</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
@@ -8899,28 +8944,28 @@
         <v>67</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>971</v>
       </c>
       <c r="D73" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>677</v>
       </c>
       <c r="E73" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>541</v>
       </c>
       <c r="F73" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>376.29638752052546</v>
       </c>
       <c r="G73" s="8">
+        <f t="shared" si="26"/>
+        <v>375953.75</v>
+      </c>
+      <c r="H73" s="8">
         <f t="shared" si="24"/>
-        <v>375953.75</v>
-      </c>
-      <c r="H73" s="8">
-        <f>G73/$O$24</f>
-        <v>2610.7899305555557</v>
+        <v>37.595374999999997</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
@@ -8928,28 +8973,28 @@
         <v>68</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>984</v>
       </c>
       <c r="D74" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>687</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>549</v>
       </c>
       <c r="F74" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>381.85194174757282</v>
       </c>
       <c r="G74" s="8">
+        <f t="shared" si="26"/>
+        <v>393040</v>
+      </c>
+      <c r="H74" s="8">
         <f t="shared" si="24"/>
-        <v>393040</v>
-      </c>
-      <c r="H74" s="8">
-        <f>G74/$O$24</f>
-        <v>2729.4444444444443</v>
+        <v>39.304000000000002</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
@@ -8961,24 +9006,24 @@
         <v>997</v>
       </c>
       <c r="D75" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>697</v>
       </c>
       <c r="E75" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>557</v>
       </c>
       <c r="F75" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>387.40749601275917</v>
       </c>
       <c r="G75" s="8">
+        <f t="shared" si="26"/>
+        <v>410636.25</v>
+      </c>
+      <c r="H75" s="8">
         <f t="shared" si="24"/>
-        <v>410636.25</v>
-      </c>
-      <c r="H75" s="8">
-        <f>G75/$O$24</f>
-        <v>2851.640625</v>
+        <v>41.063625000000002</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
@@ -8990,24 +9035,24 @@
         <v>1010</v>
       </c>
       <c r="D76" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>707</v>
       </c>
       <c r="E76" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>565</v>
       </c>
       <c r="F76" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>392.96305031446542</v>
       </c>
       <c r="G76" s="8">
+        <f t="shared" si="26"/>
+        <v>428750</v>
+      </c>
+      <c r="H76" s="8">
         <f t="shared" si="24"/>
-        <v>428750</v>
-      </c>
-      <c r="H76" s="8">
-        <f>G76/$O$24</f>
-        <v>2977.4305555555557</v>
+        <v>42.875</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
@@ -9015,28 +9060,28 @@
         <v>71</v>
       </c>
       <c r="C77" s="5">
-        <f t="shared" ref="C77:C85" si="25">B$3+IF($B77&lt;$J$8,K$7*$B77,IF($B77&lt;$J$9,$B77*K$8,IF($B77&lt;$J$10,$B77*K$9,$B77*K$10)))</f>
+        <f t="shared" ref="C77:C85" si="27">B$3+IF($B77&lt;$J$8,K$7*$B77,IF($B77&lt;$J$9,$B77*K$8,IF($B77&lt;$J$10,$B77*K$9,$B77*K$10)))</f>
         <v>1023</v>
       </c>
       <c r="D77" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>717</v>
       </c>
       <c r="E77" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>573</v>
       </c>
       <c r="F77" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>398.51860465116278</v>
       </c>
       <c r="G77" s="8">
+        <f t="shared" si="26"/>
+        <v>447388.75</v>
+      </c>
+      <c r="H77" s="8">
         <f t="shared" si="24"/>
-        <v>447388.75</v>
-      </c>
-      <c r="H77" s="8">
-        <f>G77/$O$24</f>
-        <v>3106.8663194444443</v>
+        <v>44.738875</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
@@ -9044,28 +9089,28 @@
         <v>72</v>
       </c>
       <c r="C78" s="5">
+        <f t="shared" si="27"/>
+        <v>1036</v>
+      </c>
+      <c r="D78" s="5">
+        <f t="shared" si="20"/>
+        <v>727</v>
+      </c>
+      <c r="E78" s="5">
+        <f t="shared" si="21"/>
+        <v>581</v>
+      </c>
+      <c r="F78" s="8">
         <f t="shared" si="25"/>
-        <v>1036</v>
-      </c>
-      <c r="D78" s="5">
-        <f t="shared" si="19"/>
-        <v>727</v>
-      </c>
-      <c r="E78" s="5">
-        <f t="shared" si="20"/>
-        <v>581</v>
-      </c>
-      <c r="F78" s="8">
-        <f t="shared" si="23"/>
         <v>404.07415902140673</v>
       </c>
       <c r="G78" s="8">
+        <f t="shared" si="26"/>
+        <v>466560</v>
+      </c>
+      <c r="H78" s="8">
         <f t="shared" si="24"/>
-        <v>466560</v>
-      </c>
-      <c r="H78" s="8">
-        <f>G78/$O$24</f>
-        <v>3240</v>
+        <v>46.655999999999999</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
@@ -9073,28 +9118,28 @@
         <v>73</v>
       </c>
       <c r="C79" s="5">
+        <f t="shared" si="27"/>
+        <v>1049</v>
+      </c>
+      <c r="D79" s="5">
+        <f t="shared" si="20"/>
+        <v>737</v>
+      </c>
+      <c r="E79" s="5">
+        <f t="shared" si="21"/>
+        <v>589</v>
+      </c>
+      <c r="F79" s="8">
         <f t="shared" si="25"/>
-        <v>1049</v>
-      </c>
-      <c r="D79" s="5">
-        <f t="shared" si="19"/>
-        <v>737</v>
-      </c>
-      <c r="E79" s="5">
-        <f t="shared" si="20"/>
-        <v>589</v>
-      </c>
-      <c r="F79" s="8">
-        <f t="shared" si="23"/>
         <v>409.62971342383105</v>
       </c>
       <c r="G79" s="8">
+        <f t="shared" si="26"/>
+        <v>486271.25</v>
+      </c>
+      <c r="H79" s="8">
         <f t="shared" si="24"/>
-        <v>486271.25</v>
-      </c>
-      <c r="H79" s="8">
-        <f>G79/$O$24</f>
-        <v>3376.8836805555557</v>
+        <v>48.627124999999999</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
@@ -9102,28 +9147,28 @@
         <v>74</v>
       </c>
       <c r="C80" s="5">
+        <f t="shared" si="27"/>
+        <v>1062</v>
+      </c>
+      <c r="D80" s="5">
+        <f t="shared" si="20"/>
+        <v>747</v>
+      </c>
+      <c r="E80" s="5">
+        <f t="shared" si="21"/>
+        <v>597</v>
+      </c>
+      <c r="F80" s="8">
         <f t="shared" si="25"/>
-        <v>1062</v>
-      </c>
-      <c r="D80" s="5">
-        <f t="shared" si="19"/>
-        <v>747</v>
-      </c>
-      <c r="E80" s="5">
-        <f t="shared" si="20"/>
-        <v>597</v>
-      </c>
-      <c r="F80" s="8">
-        <f t="shared" si="23"/>
         <v>415.18526785714283</v>
       </c>
       <c r="G80" s="8">
+        <f t="shared" si="26"/>
+        <v>506530</v>
+      </c>
+      <c r="H80" s="8">
         <f t="shared" si="24"/>
-        <v>506530</v>
-      </c>
-      <c r="H80" s="8">
-        <f>G80/$O$24</f>
-        <v>3517.5694444444443</v>
+        <v>50.652999999999999</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
@@ -9131,28 +9176,28 @@
         <v>75</v>
       </c>
       <c r="C81" s="5">
+        <f t="shared" si="27"/>
+        <v>1075</v>
+      </c>
+      <c r="D81" s="5">
+        <f t="shared" si="20"/>
+        <v>757</v>
+      </c>
+      <c r="E81" s="5">
+        <f t="shared" si="21"/>
+        <v>605</v>
+      </c>
+      <c r="F81" s="8">
         <f t="shared" si="25"/>
-        <v>1075</v>
-      </c>
-      <c r="D81" s="5">
-        <f t="shared" si="19"/>
-        <v>757</v>
-      </c>
-      <c r="E81" s="5">
-        <f t="shared" si="20"/>
-        <v>605</v>
-      </c>
-      <c r="F81" s="8">
-        <f t="shared" si="23"/>
         <v>420.7408223201175</v>
       </c>
       <c r="G81" s="8">
+        <f t="shared" si="26"/>
+        <v>527343.75</v>
+      </c>
+      <c r="H81" s="8">
         <f t="shared" si="24"/>
-        <v>527343.75</v>
-      </c>
-      <c r="H81" s="8">
-        <f>G81/$O$24</f>
-        <v>3662.109375</v>
+        <v>52.734375</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
@@ -9160,28 +9205,28 @@
         <v>76</v>
       </c>
       <c r="C82" s="5">
+        <f t="shared" si="27"/>
+        <v>1088</v>
+      </c>
+      <c r="D82" s="5">
+        <f t="shared" si="20"/>
+        <v>767</v>
+      </c>
+      <c r="E82" s="5">
+        <f t="shared" si="21"/>
+        <v>613</v>
+      </c>
+      <c r="F82" s="8">
         <f t="shared" si="25"/>
-        <v>1088</v>
-      </c>
-      <c r="D82" s="5">
-        <f t="shared" si="19"/>
-        <v>767</v>
-      </c>
-      <c r="E82" s="5">
-        <f t="shared" si="20"/>
-        <v>613</v>
-      </c>
-      <c r="F82" s="8">
-        <f t="shared" si="23"/>
         <v>426.2963768115942</v>
       </c>
       <c r="G82" s="8">
+        <f t="shared" si="26"/>
+        <v>548720</v>
+      </c>
+      <c r="H82" s="8">
         <f t="shared" si="24"/>
-        <v>548720</v>
-      </c>
-      <c r="H82" s="8">
-        <f>G82/$O$24</f>
-        <v>3810.5555555555557</v>
+        <v>54.872</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -9189,28 +9234,28 @@
         <v>77</v>
       </c>
       <c r="C83" s="5">
+        <f t="shared" si="27"/>
+        <v>1101</v>
+      </c>
+      <c r="D83" s="5">
+        <f t="shared" si="20"/>
+        <v>777</v>
+      </c>
+      <c r="E83" s="5">
+        <f t="shared" si="21"/>
+        <v>621</v>
+      </c>
+      <c r="F83" s="8">
         <f t="shared" si="25"/>
-        <v>1101</v>
-      </c>
-      <c r="D83" s="5">
-        <f t="shared" si="19"/>
-        <v>777</v>
-      </c>
-      <c r="E83" s="5">
-        <f t="shared" si="20"/>
-        <v>621</v>
-      </c>
-      <c r="F83" s="8">
-        <f t="shared" si="23"/>
         <v>431.8519313304721</v>
       </c>
       <c r="G83" s="8">
+        <f t="shared" si="26"/>
+        <v>570666.25</v>
+      </c>
+      <c r="H83" s="8">
         <f t="shared" si="24"/>
-        <v>570666.25</v>
-      </c>
-      <c r="H83" s="8">
-        <f>G83/$O$24</f>
-        <v>3962.9600694444443</v>
+        <v>57.066625000000002</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
@@ -9218,28 +9263,28 @@
         <v>78</v>
       </c>
       <c r="C84" s="5">
+        <f t="shared" si="27"/>
+        <v>1114</v>
+      </c>
+      <c r="D84" s="5">
+        <f t="shared" si="20"/>
+        <v>787</v>
+      </c>
+      <c r="E84" s="5">
+        <f t="shared" si="21"/>
+        <v>629</v>
+      </c>
+      <c r="F84" s="8">
         <f t="shared" si="25"/>
-        <v>1114</v>
-      </c>
-      <c r="D84" s="5">
-        <f t="shared" si="19"/>
-        <v>787</v>
-      </c>
-      <c r="E84" s="5">
-        <f t="shared" si="20"/>
-        <v>629</v>
-      </c>
-      <c r="F84" s="8">
-        <f t="shared" si="23"/>
         <v>437.40748587570624</v>
       </c>
       <c r="G84" s="8">
+        <f t="shared" si="26"/>
+        <v>593190</v>
+      </c>
+      <c r="H84" s="8">
         <f t="shared" si="24"/>
-        <v>593190</v>
-      </c>
-      <c r="H84" s="8">
-        <f>G84/$O$24</f>
-        <v>4119.375</v>
+        <v>59.319000000000003</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
@@ -9247,28 +9292,28 @@
         <v>79</v>
       </c>
       <c r="C85" s="5">
+        <f t="shared" si="27"/>
+        <v>1127</v>
+      </c>
+      <c r="D85" s="5">
+        <f t="shared" si="20"/>
+        <v>797</v>
+      </c>
+      <c r="E85" s="5">
+        <f t="shared" si="21"/>
+        <v>637</v>
+      </c>
+      <c r="F85" s="8">
         <f t="shared" si="25"/>
-        <v>1127</v>
-      </c>
-      <c r="D85" s="5">
-        <f t="shared" si="19"/>
-        <v>797</v>
-      </c>
-      <c r="E85" s="5">
-        <f t="shared" si="20"/>
-        <v>637</v>
-      </c>
-      <c r="F85" s="8">
-        <f t="shared" si="23"/>
         <v>442.96304044630403</v>
       </c>
       <c r="G85" s="8">
+        <f t="shared" si="26"/>
+        <v>616298.75</v>
+      </c>
+      <c r="H85" s="8">
         <f t="shared" si="24"/>
-        <v>616298.75</v>
-      </c>
-      <c r="H85" s="8">
-        <f>G85/$O$24</f>
-        <v>4279.8524305555557</v>
+        <v>61.629874999999998</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
@@ -9280,24 +9325,24 @@
         <v>1140</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>807</v>
       </c>
       <c r="E86" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>645</v>
       </c>
       <c r="F86" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>448.51859504132233</v>
       </c>
       <c r="G86" s="8">
+        <f t="shared" si="26"/>
+        <v>640000</v>
+      </c>
+      <c r="H86" s="8">
         <f t="shared" si="24"/>
-        <v>640000</v>
-      </c>
-      <c r="H86" s="8">
-        <f>G86/$O$24</f>
-        <v>4444.4444444444443</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
@@ -9305,28 +9350,28 @@
         <v>81</v>
       </c>
       <c r="C87" s="5">
-        <f t="shared" ref="C87:C95" si="26">B$3+IF($B87&lt;$J$8,K$7*$B87,IF($B87&lt;$J$9,$B87*K$8,IF($B87&lt;$J$10,$B87*K$9,$B87*K$10)))</f>
+        <f t="shared" ref="C87:C95" si="28">B$3+IF($B87&lt;$J$8,K$7*$B87,IF($B87&lt;$J$9,$B87*K$8,IF($B87&lt;$J$10,$B87*K$9,$B87*K$10)))</f>
         <v>1153</v>
       </c>
       <c r="D87" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>817</v>
       </c>
       <c r="E87" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>653</v>
       </c>
       <c r="F87" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>454.07414965986396</v>
       </c>
       <c r="G87" s="8">
+        <f t="shared" si="26"/>
+        <v>664301.25</v>
+      </c>
+      <c r="H87" s="8">
         <f t="shared" si="24"/>
-        <v>664301.25</v>
-      </c>
-      <c r="H87" s="8">
-        <f>G87/$O$24</f>
-        <v>4613.203125</v>
+        <v>66.430125000000004</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
@@ -9334,28 +9379,28 @@
         <v>82</v>
       </c>
       <c r="C88" s="5">
+        <f t="shared" si="28"/>
+        <v>1166</v>
+      </c>
+      <c r="D88" s="5">
+        <f t="shared" si="20"/>
+        <v>827</v>
+      </c>
+      <c r="E88" s="5">
+        <f t="shared" si="21"/>
+        <v>661</v>
+      </c>
+      <c r="F88" s="8">
+        <f t="shared" si="25"/>
+        <v>459.62970430107526</v>
+      </c>
+      <c r="G88" s="8">
         <f t="shared" si="26"/>
-        <v>1166</v>
-      </c>
-      <c r="D88" s="5">
-        <f t="shared" si="19"/>
-        <v>827</v>
-      </c>
-      <c r="E88" s="5">
-        <f t="shared" si="20"/>
-        <v>661</v>
-      </c>
-      <c r="F88" s="8">
-        <f t="shared" si="23"/>
-        <v>459.62970430107526</v>
-      </c>
-      <c r="G88" s="8">
+        <v>689210</v>
+      </c>
+      <c r="H88" s="8">
         <f t="shared" si="24"/>
-        <v>689210</v>
-      </c>
-      <c r="H88" s="8">
-        <f>G88/$O$24</f>
-        <v>4786.1805555555557</v>
+        <v>68.921000000000006</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
@@ -9363,28 +9408,28 @@
         <v>83</v>
       </c>
       <c r="C89" s="5">
+        <f t="shared" si="28"/>
+        <v>1179</v>
+      </c>
+      <c r="D89" s="5">
+        <f t="shared" si="20"/>
+        <v>837</v>
+      </c>
+      <c r="E89" s="5">
+        <f t="shared" si="21"/>
+        <v>669</v>
+      </c>
+      <c r="F89" s="8">
+        <f t="shared" si="25"/>
+        <v>465.18525896414343</v>
+      </c>
+      <c r="G89" s="8">
         <f t="shared" si="26"/>
-        <v>1179</v>
-      </c>
-      <c r="D89" s="5">
-        <f t="shared" si="19"/>
-        <v>837</v>
-      </c>
-      <c r="E89" s="5">
-        <f t="shared" si="20"/>
-        <v>669</v>
-      </c>
-      <c r="F89" s="8">
-        <f t="shared" si="23"/>
-        <v>465.18525896414343</v>
-      </c>
-      <c r="G89" s="8">
+        <v>714733.75</v>
+      </c>
+      <c r="H89" s="8">
         <f t="shared" si="24"/>
-        <v>714733.75</v>
-      </c>
-      <c r="H89" s="8">
-        <f>G89/$O$24</f>
-        <v>4963.4288194444443</v>
+        <v>71.473375000000004</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
@@ -9392,28 +9437,28 @@
         <v>84</v>
       </c>
       <c r="C90" s="5">
+        <f t="shared" si="28"/>
+        <v>1192</v>
+      </c>
+      <c r="D90" s="5">
+        <f t="shared" si="20"/>
+        <v>847</v>
+      </c>
+      <c r="E90" s="5">
+        <f t="shared" si="21"/>
+        <v>677</v>
+      </c>
+      <c r="F90" s="8">
+        <f t="shared" si="25"/>
+        <v>470.74081364829397</v>
+      </c>
+      <c r="G90" s="8">
         <f t="shared" si="26"/>
-        <v>1192</v>
-      </c>
-      <c r="D90" s="5">
-        <f t="shared" si="19"/>
-        <v>847</v>
-      </c>
-      <c r="E90" s="5">
-        <f t="shared" si="20"/>
-        <v>677</v>
-      </c>
-      <c r="F90" s="8">
-        <f t="shared" si="23"/>
-        <v>470.74081364829397</v>
-      </c>
-      <c r="G90" s="8">
+        <v>740880</v>
+      </c>
+      <c r="H90" s="8">
         <f t="shared" si="24"/>
-        <v>740880</v>
-      </c>
-      <c r="H90" s="8">
-        <f>G90/$O$24</f>
-        <v>5145</v>
+        <v>74.087999999999994</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
@@ -9421,28 +9466,28 @@
         <v>85</v>
       </c>
       <c r="C91" s="5">
+        <f t="shared" si="28"/>
+        <v>1205</v>
+      </c>
+      <c r="D91" s="5">
+        <f t="shared" si="20"/>
+        <v>857</v>
+      </c>
+      <c r="E91" s="5">
+        <f t="shared" si="21"/>
+        <v>685</v>
+      </c>
+      <c r="F91" s="8">
+        <f t="shared" si="25"/>
+        <v>476.29636835278859</v>
+      </c>
+      <c r="G91" s="8">
         <f t="shared" si="26"/>
-        <v>1205</v>
-      </c>
-      <c r="D91" s="5">
-        <f t="shared" si="19"/>
-        <v>857</v>
-      </c>
-      <c r="E91" s="5">
-        <f t="shared" si="20"/>
-        <v>685</v>
-      </c>
-      <c r="F91" s="8">
-        <f t="shared" si="23"/>
-        <v>476.29636835278859</v>
-      </c>
-      <c r="G91" s="8">
+        <v>767656.25</v>
+      </c>
+      <c r="H91" s="8">
         <f t="shared" si="24"/>
-        <v>767656.25</v>
-      </c>
-      <c r="H91" s="8">
-        <f>G91/$O$24</f>
-        <v>5330.9461805555557</v>
+        <v>76.765625</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
@@ -9450,28 +9495,28 @@
         <v>86</v>
       </c>
       <c r="C92" s="5">
+        <f t="shared" si="28"/>
+        <v>1218</v>
+      </c>
+      <c r="D92" s="5">
+        <f t="shared" si="20"/>
+        <v>867</v>
+      </c>
+      <c r="E92" s="5">
+        <f t="shared" si="21"/>
+        <v>693</v>
+      </c>
+      <c r="F92" s="8">
+        <f t="shared" si="25"/>
+        <v>481.85192307692307</v>
+      </c>
+      <c r="G92" s="8">
         <f t="shared" si="26"/>
-        <v>1218</v>
-      </c>
-      <c r="D92" s="5">
-        <f t="shared" si="19"/>
-        <v>867</v>
-      </c>
-      <c r="E92" s="5">
-        <f t="shared" si="20"/>
-        <v>693</v>
-      </c>
-      <c r="F92" s="8">
-        <f t="shared" si="23"/>
-        <v>481.85192307692307</v>
-      </c>
-      <c r="G92" s="8">
+        <v>795070</v>
+      </c>
+      <c r="H92" s="8">
         <f t="shared" si="24"/>
-        <v>795070</v>
-      </c>
-      <c r="H92" s="8">
-        <f>G92/$O$24</f>
-        <v>5521.3194444444443</v>
+        <v>79.507000000000005</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
@@ -9479,28 +9524,28 @@
         <v>87</v>
       </c>
       <c r="C93" s="5">
+        <f t="shared" si="28"/>
+        <v>1231</v>
+      </c>
+      <c r="D93" s="5">
+        <f t="shared" si="20"/>
+        <v>877</v>
+      </c>
+      <c r="E93" s="5">
+        <f t="shared" si="21"/>
+        <v>701</v>
+      </c>
+      <c r="F93" s="8">
+        <f t="shared" si="25"/>
+        <v>487.40747782002535</v>
+      </c>
+      <c r="G93" s="8">
         <f t="shared" si="26"/>
-        <v>1231</v>
-      </c>
-      <c r="D93" s="5">
-        <f t="shared" si="19"/>
-        <v>877</v>
-      </c>
-      <c r="E93" s="5">
-        <f t="shared" si="20"/>
-        <v>701</v>
-      </c>
-      <c r="F93" s="8">
-        <f t="shared" si="23"/>
-        <v>487.40747782002535</v>
-      </c>
-      <c r="G93" s="8">
+        <v>823128.75</v>
+      </c>
+      <c r="H93" s="8">
         <f t="shared" si="24"/>
-        <v>823128.75</v>
-      </c>
-      <c r="H93" s="8">
-        <f>G93/$O$24</f>
-        <v>5716.171875</v>
+        <v>82.312875000000005</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
@@ -9508,28 +9553,28 @@
         <v>88</v>
       </c>
       <c r="C94" s="5">
+        <f t="shared" si="28"/>
+        <v>1244</v>
+      </c>
+      <c r="D94" s="5">
+        <f t="shared" si="20"/>
+        <v>887</v>
+      </c>
+      <c r="E94" s="5">
+        <f t="shared" si="21"/>
+        <v>709</v>
+      </c>
+      <c r="F94" s="8">
+        <f t="shared" si="25"/>
+        <v>492.96303258145366</v>
+      </c>
+      <c r="G94" s="8">
         <f t="shared" si="26"/>
-        <v>1244</v>
-      </c>
-      <c r="D94" s="5">
-        <f t="shared" si="19"/>
-        <v>887</v>
-      </c>
-      <c r="E94" s="5">
-        <f t="shared" si="20"/>
-        <v>709</v>
-      </c>
-      <c r="F94" s="8">
-        <f t="shared" si="23"/>
-        <v>492.96303258145366</v>
-      </c>
-      <c r="G94" s="8">
+        <v>851840</v>
+      </c>
+      <c r="H94" s="8">
         <f t="shared" si="24"/>
-        <v>851840</v>
-      </c>
-      <c r="H94" s="8">
-        <f>G94/$O$24</f>
-        <v>5915.5555555555557</v>
+        <v>85.183999999999997</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
@@ -9537,28 +9582,28 @@
         <v>89</v>
       </c>
       <c r="C95" s="5">
+        <f t="shared" si="28"/>
+        <v>1257</v>
+      </c>
+      <c r="D95" s="5">
+        <f t="shared" si="20"/>
+        <v>897</v>
+      </c>
+      <c r="E95" s="5">
+        <f t="shared" si="21"/>
+        <v>717</v>
+      </c>
+      <c r="F95" s="8">
+        <f t="shared" si="25"/>
+        <v>498.51858736059478</v>
+      </c>
+      <c r="G95" s="8">
         <f t="shared" si="26"/>
-        <v>1257</v>
-      </c>
-      <c r="D95" s="5">
-        <f t="shared" si="19"/>
-        <v>897</v>
-      </c>
-      <c r="E95" s="5">
-        <f t="shared" si="20"/>
-        <v>717</v>
-      </c>
-      <c r="F95" s="8">
-        <f t="shared" si="23"/>
-        <v>498.51858736059478</v>
-      </c>
-      <c r="G95" s="8">
+        <v>881211.25</v>
+      </c>
+      <c r="H95" s="8">
         <f t="shared" si="24"/>
-        <v>881211.25</v>
-      </c>
-      <c r="H95" s="8">
-        <f>G95/$O$24</f>
-        <v>6119.5225694444443</v>
+        <v>88.121125000000006</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
@@ -9570,24 +9615,24 @@
         <v>1630</v>
       </c>
       <c r="D96" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1267</v>
       </c>
       <c r="E96" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>995</v>
       </c>
       <c r="F96" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>709.67683465959328</v>
       </c>
       <c r="G96" s="8">
+        <f t="shared" si="26"/>
+        <v>911250</v>
+      </c>
+      <c r="H96" s="8">
         <f t="shared" si="24"/>
-        <v>911250</v>
-      </c>
-      <c r="H96" s="8">
-        <f>G96/$O$24</f>
-        <v>6328.125</v>
+        <v>91.125</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -9595,28 +9640,28 @@
         <v>91</v>
       </c>
       <c r="C97" s="5">
-        <f t="shared" ref="C97:C98" si="27">B$3+IF($B97&lt;$J$8,K$7*$B97,IF($B97&lt;$J$9,$B97*K$8,IF($B97&lt;$J$10,$B97*K$9,$B97*K$10)))</f>
+        <f t="shared" ref="C97:C98" si="29">B$3+IF($B97&lt;$J$8,K$7*$B97,IF($B97&lt;$J$9,$B97*K$8,IF($B97&lt;$J$10,$B97*K$9,$B97*K$10)))</f>
         <v>1647</v>
       </c>
       <c r="D97" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1281</v>
       </c>
       <c r="E97" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1006</v>
       </c>
       <c r="F97" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>717.51683428071715</v>
       </c>
       <c r="G97" s="8">
+        <f t="shared" si="26"/>
+        <v>941963.75</v>
+      </c>
+      <c r="H97" s="8">
         <f t="shared" si="24"/>
-        <v>941963.75</v>
-      </c>
-      <c r="H97" s="8">
-        <f>G97/$O$24</f>
-        <v>6541.4149305555557</v>
+        <v>94.196375000000003</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -9624,28 +9669,28 @@
         <v>92</v>
       </c>
       <c r="C98" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1664</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1295</v>
       </c>
       <c r="E98" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1017</v>
       </c>
       <c r="F98" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>725.35683391003465</v>
       </c>
       <c r="G98" s="8">
+        <f t="shared" si="26"/>
+        <v>973360</v>
+      </c>
+      <c r="H98" s="8">
         <f t="shared" si="24"/>
-        <v>973360</v>
-      </c>
-      <c r="H98" s="8">
-        <f>G98/$O$24</f>
-        <v>6759.4444444444443</v>
+        <v>97.335999999999999</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -9657,24 +9702,24 @@
         <v>1681</v>
       </c>
       <c r="D99" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1309</v>
       </c>
       <c r="E99" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1028</v>
       </c>
       <c r="F99" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>733.19683354728284</v>
       </c>
       <c r="G99" s="8">
+        <f t="shared" si="26"/>
+        <v>1005446.25</v>
+      </c>
+      <c r="H99" s="8">
         <f t="shared" si="24"/>
-        <v>1005446.25</v>
-      </c>
-      <c r="H99" s="8">
-        <f>G99/$O$24</f>
-        <v>6982.265625</v>
+        <v>100.544625</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
@@ -9682,28 +9727,28 @@
         <v>94</v>
       </c>
       <c r="C100" s="5">
-        <f t="shared" ref="C100:C108" si="28">B$3+IF($B100&lt;$J$8,K$7*$B100,IF($B100&lt;$J$9,$B100*K$8,IF($B100&lt;$J$10,$B100*K$9,$B100*K$10)))</f>
+        <f t="shared" ref="C100:C108" si="30">B$3+IF($B100&lt;$J$8,K$7*$B100,IF($B100&lt;$J$9,$B100*K$8,IF($B100&lt;$J$10,$B100*K$9,$B100*K$10)))</f>
         <v>1698</v>
       </c>
       <c r="D100" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1323</v>
       </c>
       <c r="E100" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1039</v>
       </c>
       <c r="F100" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>741.03683319221</v>
       </c>
       <c r="G100" s="8">
+        <f t="shared" si="26"/>
+        <v>1038230</v>
+      </c>
+      <c r="H100" s="8">
         <f t="shared" si="24"/>
-        <v>1038230</v>
-      </c>
-      <c r="H100" s="8">
-        <f>G100/$O$24</f>
-        <v>7209.9305555555557</v>
+        <v>103.82299999999999</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
@@ -9711,28 +9756,28 @@
         <v>95</v>
       </c>
       <c r="C101" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1715</v>
       </c>
       <c r="D101" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1337</v>
       </c>
       <c r="E101" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1050</v>
       </c>
       <c r="F101" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>748.87683284457478</v>
       </c>
       <c r="G101" s="8">
+        <f t="shared" si="26"/>
+        <v>1071718.75</v>
+      </c>
+      <c r="H101" s="8">
         <f t="shared" si="24"/>
-        <v>1071718.75</v>
-      </c>
-      <c r="H101" s="8">
-        <f>G101/$O$24</f>
-        <v>7442.4913194444443</v>
+        <v>107.171875</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
@@ -9740,28 +9785,28 @@
         <v>96</v>
       </c>
       <c r="C102" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1732</v>
       </c>
       <c r="D102" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1351</v>
       </c>
       <c r="E102" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1061</v>
       </c>
       <c r="F102" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>756.71683250414594</v>
       </c>
       <c r="G102" s="8">
+        <f t="shared" si="26"/>
+        <v>1105920</v>
+      </c>
+      <c r="H102" s="8">
         <f t="shared" si="24"/>
-        <v>1105920</v>
-      </c>
-      <c r="H102" s="8">
-        <f>G102/$O$24</f>
-        <v>7680</v>
+        <v>110.592</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -9769,28 +9814,28 @@
         <v>97</v>
       </c>
       <c r="C103" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1749</v>
       </c>
       <c r="D103" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1365</v>
       </c>
       <c r="E103" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1072</v>
       </c>
       <c r="F103" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>764.55683217070168</v>
       </c>
       <c r="G103" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1140841.25</v>
       </c>
       <c r="H103" s="8">
-        <f>G103/$O$24</f>
-        <v>7922.5086805555557</v>
+        <f t="shared" ref="H103:H134" si="31">G103/$O$24</f>
+        <v>114.084125</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -9798,28 +9843,28 @@
         <v>98</v>
       </c>
       <c r="C104" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1766</v>
       </c>
       <c r="D104" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1379</v>
       </c>
       <c r="E104" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1083</v>
       </c>
       <c r="F104" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>772.39683184402929</v>
       </c>
       <c r="G104" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1176490</v>
       </c>
       <c r="H104" s="8">
-        <f>G104/$O$24</f>
-        <v>8170.0694444444443</v>
+        <f t="shared" si="31"/>
+        <v>117.649</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
@@ -9827,28 +9872,28 @@
         <v>99</v>
       </c>
       <c r="C105" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1783</v>
       </c>
       <c r="D105" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1393</v>
       </c>
       <c r="E105" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1094</v>
       </c>
       <c r="F105" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>780.23683152392437</v>
       </c>
       <c r="G105" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1212873.75</v>
       </c>
       <c r="H105" s="8">
-        <f>G105/$O$24</f>
-        <v>8422.734375</v>
+        <f t="shared" si="31"/>
+        <v>121.287375</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
@@ -9856,28 +9901,28 @@
         <v>100</v>
       </c>
       <c r="C106" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1800</v>
       </c>
       <c r="D106" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1407</v>
       </c>
       <c r="E106" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1105</v>
       </c>
       <c r="F106" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>788.07683121019113</v>
       </c>
       <c r="G106" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1250000</v>
       </c>
       <c r="H106" s="8">
-        <f>G106/$O$24</f>
-        <v>8680.5555555555547</v>
+        <f t="shared" si="31"/>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -9885,28 +9930,28 @@
         <v>101</v>
       </c>
       <c r="C107" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1817</v>
       </c>
       <c r="D107" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1421</v>
       </c>
       <c r="E107" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1116</v>
       </c>
       <c r="F107" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>795.91683090264087</v>
       </c>
       <c r="G107" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1287876.25</v>
       </c>
       <c r="H107" s="8">
-        <f>G107/$O$24</f>
-        <v>8943.5850694444453</v>
+        <f t="shared" si="31"/>
+        <v>128.78762499999999</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
@@ -9914,28 +9959,28 @@
         <v>102</v>
       </c>
       <c r="C108" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1834</v>
       </c>
       <c r="D108" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1435</v>
       </c>
       <c r="E108" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1127</v>
       </c>
       <c r="F108" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>803.75683060109293</v>
       </c>
       <c r="G108" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1326510</v>
       </c>
       <c r="H108" s="8">
-        <f>G108/$O$24</f>
-        <v>9211.875</v>
+        <f t="shared" si="31"/>
+        <v>132.65100000000001</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
@@ -9947,24 +9992,24 @@
         <v>1851</v>
       </c>
       <c r="D109" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1449</v>
       </c>
       <c r="E109" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1138</v>
       </c>
       <c r="F109" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>811.59683030537303</v>
       </c>
       <c r="G109" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1365908.75</v>
       </c>
       <c r="H109" s="8">
-        <f>G109/$O$24</f>
-        <v>9485.4774305555547</v>
+        <f t="shared" si="31"/>
+        <v>136.59087500000001</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -9972,28 +10017,28 @@
         <v>104</v>
       </c>
       <c r="C110" s="5">
-        <f t="shared" ref="C110:C114" si="29">B$3+IF($B110&lt;$J$8,K$7*$B110,IF($B110&lt;$J$9,$B110*K$8,IF($B110&lt;$J$10,$B110*K$9,$B110*K$10)))</f>
+        <f t="shared" ref="C110:C114" si="32">B$3+IF($B110&lt;$J$8,K$7*$B110,IF($B110&lt;$J$9,$B110*K$8,IF($B110&lt;$J$10,$B110*K$9,$B110*K$10)))</f>
         <v>1868</v>
       </c>
       <c r="D110" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1463</v>
       </c>
       <c r="E110" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1149</v>
       </c>
       <c r="F110" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>819.43683001531394</v>
       </c>
       <c r="G110" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1406080</v>
       </c>
       <c r="H110" s="8">
-        <f>G110/$O$24</f>
-        <v>9764.4444444444453</v>
+        <f t="shared" si="31"/>
+        <v>140.608</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
@@ -10001,28 +10046,28 @@
         <v>105</v>
       </c>
       <c r="C111" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1885</v>
       </c>
       <c r="D111" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1477</v>
       </c>
       <c r="E111" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1160</v>
       </c>
       <c r="F111" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>827.27682973075468</v>
       </c>
       <c r="G111" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1447031.25</v>
       </c>
       <c r="H111" s="8">
-        <f>G111/$O$24</f>
-        <v>10048.828125</v>
+        <f t="shared" si="31"/>
+        <v>144.703125</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
@@ -10030,28 +10075,28 @@
         <v>106</v>
       </c>
       <c r="C112" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1902</v>
       </c>
       <c r="D112" s="5">
-        <f t="shared" ref="D112:D126" si="30">C$3+IF($B112&lt;$J$8,L$7*$B112,IF($B112&lt;$J$9,$B112*L$8,IF($B112&lt;$J$10,$B112*L$9,$B112*L$10)))</f>
+        <f t="shared" ref="D112:D126" si="33">C$3+IF($B112&lt;$J$8,L$7*$B112,IF($B112&lt;$J$9,$B112*L$8,IF($B112&lt;$J$10,$B112*L$9,$B112*L$10)))</f>
         <v>1491</v>
       </c>
       <c r="E112" s="5">
-        <f t="shared" ref="E112:E126" si="31">D$3+IF($B112&lt;$J$8,M$7*$B112,IF($B112&lt;$J$9,$B112*M$8,IF($B112&lt;$J$10,$B112*M$9,$B112*M$10)))</f>
+        <f t="shared" ref="E112:E126" si="34">D$3+IF($B112&lt;$J$8,M$7*$B112,IF($B112&lt;$J$9,$B112*M$8,IF($B112&lt;$J$10,$B112*M$9,$B112*M$10)))</f>
         <v>1171</v>
       </c>
       <c r="F112" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>835.11682945154018</v>
       </c>
       <c r="G112" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1488770</v>
       </c>
       <c r="H112" s="8">
-        <f>G112/$O$24</f>
-        <v>10338.680555555555</v>
+        <f t="shared" si="31"/>
+        <v>148.87700000000001</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
@@ -10059,28 +10104,28 @@
         <v>107</v>
       </c>
       <c r="C113" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1919</v>
       </c>
       <c r="D113" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1505</v>
       </c>
       <c r="E113" s="5">
+        <f t="shared" si="34"/>
+        <v>1182</v>
+      </c>
+      <c r="F113" s="8">
+        <f t="shared" si="25"/>
+        <v>842.9568291775214</v>
+      </c>
+      <c r="G113" s="8">
+        <f t="shared" si="26"/>
+        <v>1531303.75</v>
+      </c>
+      <c r="H113" s="8">
         <f t="shared" si="31"/>
-        <v>1182</v>
-      </c>
-      <c r="F113" s="8">
-        <f t="shared" si="23"/>
-        <v>842.9568291775214</v>
-      </c>
-      <c r="G113" s="8">
-        <f t="shared" si="24"/>
-        <v>1531303.75</v>
-      </c>
-      <c r="H113" s="8">
-        <f>G113/$O$24</f>
-        <v>10634.053819444445</v>
+        <v>153.13037499999999</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
@@ -10088,28 +10133,28 @@
         <v>108</v>
       </c>
       <c r="C114" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1936</v>
       </c>
       <c r="D114" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1519</v>
       </c>
       <c r="E114" s="5">
+        <f t="shared" si="34"/>
+        <v>1193</v>
+      </c>
+      <c r="F114" s="8">
+        <f t="shared" si="25"/>
+        <v>850.79682890855452</v>
+      </c>
+      <c r="G114" s="8">
+        <f t="shared" si="26"/>
+        <v>1574640</v>
+      </c>
+      <c r="H114" s="8">
         <f t="shared" si="31"/>
-        <v>1193</v>
-      </c>
-      <c r="F114" s="8">
-        <f t="shared" si="23"/>
-        <v>850.79682890855452</v>
-      </c>
-      <c r="G114" s="8">
-        <f t="shared" si="24"/>
-        <v>1574640</v>
-      </c>
-      <c r="H114" s="8">
-        <f>G114/$O$24</f>
-        <v>10935</v>
+        <v>157.464</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
@@ -10121,24 +10166,24 @@
         <v>1953</v>
       </c>
       <c r="D115" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1533</v>
       </c>
       <c r="E115" s="5">
+        <f t="shared" si="34"/>
+        <v>1204</v>
+      </c>
+      <c r="F115" s="8">
+        <f t="shared" si="25"/>
+        <v>858.63682864450129</v>
+      </c>
+      <c r="G115" s="8">
+        <f t="shared" si="26"/>
+        <v>1618786.25</v>
+      </c>
+      <c r="H115" s="8">
         <f t="shared" si="31"/>
-        <v>1204</v>
-      </c>
-      <c r="F115" s="8">
-        <f t="shared" si="23"/>
-        <v>858.63682864450129</v>
-      </c>
-      <c r="G115" s="8">
-        <f t="shared" si="24"/>
-        <v>1618786.25</v>
-      </c>
-      <c r="H115" s="8">
-        <f>G115/$O$24</f>
-        <v>11241.571180555555</v>
+        <v>161.878625</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
@@ -10146,28 +10191,28 @@
         <v>110</v>
       </c>
       <c r="C116" s="5">
-        <f t="shared" ref="C116:C122" si="32">B$3+IF($B116&lt;$J$8,K$7*$B116,IF($B116&lt;$J$9,$B116*K$8,IF($B116&lt;$J$10,$B116*K$9,$B116*K$10)))</f>
+        <f t="shared" ref="C116:C122" si="35">B$3+IF($B116&lt;$J$8,K$7*$B116,IF($B116&lt;$J$9,$B116*K$8,IF($B116&lt;$J$10,$B116*K$9,$B116*K$10)))</f>
         <v>1970</v>
       </c>
       <c r="D116" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1547</v>
       </c>
       <c r="E116" s="5">
+        <f t="shared" si="34"/>
+        <v>1215</v>
+      </c>
+      <c r="F116" s="8">
+        <f t="shared" si="25"/>
+        <v>866.47682838522815</v>
+      </c>
+      <c r="G116" s="8">
+        <f t="shared" si="26"/>
+        <v>1663750</v>
+      </c>
+      <c r="H116" s="8">
         <f t="shared" si="31"/>
-        <v>1215</v>
-      </c>
-      <c r="F116" s="8">
-        <f t="shared" si="23"/>
-        <v>866.47682838522815</v>
-      </c>
-      <c r="G116" s="8">
-        <f t="shared" si="24"/>
-        <v>1663750</v>
-      </c>
-      <c r="H116" s="8">
-        <f>G116/$O$24</f>
-        <v>11553.819444444445</v>
+        <v>166.375</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
@@ -10175,28 +10220,28 @@
         <v>111</v>
       </c>
       <c r="C117" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1987</v>
       </c>
       <c r="D117" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1561</v>
       </c>
       <c r="E117" s="5">
+        <f t="shared" si="34"/>
+        <v>1226</v>
+      </c>
+      <c r="F117" s="8">
+        <f t="shared" si="25"/>
+        <v>874.31682813060638</v>
+      </c>
+      <c r="G117" s="8">
+        <f t="shared" si="26"/>
+        <v>1709538.75</v>
+      </c>
+      <c r="H117" s="8">
         <f t="shared" si="31"/>
-        <v>1226</v>
-      </c>
-      <c r="F117" s="8">
-        <f t="shared" si="23"/>
-        <v>874.31682813060638</v>
-      </c>
-      <c r="G117" s="8">
-        <f t="shared" si="24"/>
-        <v>1709538.75</v>
-      </c>
-      <c r="H117" s="8">
-        <f>G117/$O$24</f>
-        <v>11871.796875</v>
+        <v>170.95387500000001</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
@@ -10204,28 +10249,28 @@
         <v>112</v>
       </c>
       <c r="C118" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2004</v>
       </c>
       <c r="D118" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1575</v>
       </c>
       <c r="E118" s="5">
+        <f t="shared" si="34"/>
+        <v>1237</v>
+      </c>
+      <c r="F118" s="8">
+        <f t="shared" si="25"/>
+        <v>882.15682788051208</v>
+      </c>
+      <c r="G118" s="8">
+        <f t="shared" si="26"/>
+        <v>1756160</v>
+      </c>
+      <c r="H118" s="8">
         <f t="shared" si="31"/>
-        <v>1237</v>
-      </c>
-      <c r="F118" s="8">
-        <f t="shared" si="23"/>
-        <v>882.15682788051208</v>
-      </c>
-      <c r="G118" s="8">
-        <f t="shared" si="24"/>
-        <v>1756160</v>
-      </c>
-      <c r="H118" s="8">
-        <f>G118/$O$24</f>
-        <v>12195.555555555555</v>
+        <v>175.61600000000001</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
@@ -10233,28 +10278,28 @@
         <v>113</v>
       </c>
       <c r="C119" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2021</v>
       </c>
       <c r="D119" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1589</v>
       </c>
       <c r="E119" s="5">
+        <f t="shared" si="34"/>
+        <v>1248</v>
+      </c>
+      <c r="F119" s="8">
+        <f t="shared" si="25"/>
+        <v>889.99682763482554</v>
+      </c>
+      <c r="G119" s="8">
+        <f t="shared" si="26"/>
+        <v>1803621.25</v>
+      </c>
+      <c r="H119" s="8">
         <f t="shared" si="31"/>
-        <v>1248</v>
-      </c>
-      <c r="F119" s="8">
-        <f t="shared" si="23"/>
-        <v>889.99682763482554</v>
-      </c>
-      <c r="G119" s="8">
-        <f t="shared" si="24"/>
-        <v>1803621.25</v>
-      </c>
-      <c r="H119" s="8">
-        <f>G119/$O$24</f>
-        <v>12525.147569444445</v>
+        <v>180.36212499999999</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
@@ -10262,28 +10307,28 @@
         <v>114</v>
       </c>
       <c r="C120" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2038</v>
       </c>
       <c r="D120" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1603</v>
       </c>
       <c r="E120" s="5">
+        <f t="shared" si="34"/>
+        <v>1259</v>
+      </c>
+      <c r="F120" s="8">
+        <f t="shared" si="25"/>
+        <v>897.83682739343112</v>
+      </c>
+      <c r="G120" s="8">
+        <f t="shared" si="26"/>
+        <v>1851930</v>
+      </c>
+      <c r="H120" s="8">
         <f t="shared" si="31"/>
-        <v>1259</v>
-      </c>
-      <c r="F120" s="8">
-        <f t="shared" si="23"/>
-        <v>897.83682739343112</v>
-      </c>
-      <c r="G120" s="8">
-        <f t="shared" si="24"/>
-        <v>1851930</v>
-      </c>
-      <c r="H120" s="8">
-        <f>G120/$O$24</f>
-        <v>12860.625</v>
+        <v>185.19300000000001</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
@@ -10291,28 +10336,28 @@
         <v>115</v>
       </c>
       <c r="C121" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2055</v>
       </c>
       <c r="D121" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1617</v>
       </c>
       <c r="E121" s="5">
+        <f t="shared" si="34"/>
+        <v>1270</v>
+      </c>
+      <c r="F121" s="8">
+        <f t="shared" si="25"/>
+        <v>905.67682715621754</v>
+      </c>
+      <c r="G121" s="8">
+        <f t="shared" si="26"/>
+        <v>1901093.75</v>
+      </c>
+      <c r="H121" s="8">
         <f t="shared" si="31"/>
-        <v>1270</v>
-      </c>
-      <c r="F121" s="8">
-        <f t="shared" si="23"/>
-        <v>905.67682715621754</v>
-      </c>
-      <c r="G121" s="8">
-        <f t="shared" si="24"/>
-        <v>1901093.75</v>
-      </c>
-      <c r="H121" s="8">
-        <f>G121/$O$24</f>
-        <v>13202.039930555555</v>
+        <v>190.109375</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
@@ -10320,28 +10365,28 @@
         <v>116</v>
       </c>
       <c r="C122" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2072</v>
       </c>
       <c r="D122" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1631</v>
       </c>
       <c r="E122" s="5">
+        <f t="shared" si="34"/>
+        <v>1281</v>
+      </c>
+      <c r="F122" s="8">
+        <f t="shared" si="25"/>
+        <v>913.51682692307691</v>
+      </c>
+      <c r="G122" s="8">
+        <f t="shared" si="26"/>
+        <v>1951120</v>
+      </c>
+      <c r="H122" s="8">
         <f t="shared" si="31"/>
-        <v>1281</v>
-      </c>
-      <c r="F122" s="8">
-        <f t="shared" si="23"/>
-        <v>913.51682692307691</v>
-      </c>
-      <c r="G122" s="8">
-        <f t="shared" si="24"/>
-        <v>1951120</v>
-      </c>
-      <c r="H122" s="8">
-        <f>G122/$O$24</f>
-        <v>13549.444444444445</v>
+        <v>195.11199999999999</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
@@ -10353,24 +10398,24 @@
         <v>2089</v>
       </c>
       <c r="D123" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1645</v>
       </c>
       <c r="E123" s="5">
+        <f t="shared" si="34"/>
+        <v>1292</v>
+      </c>
+      <c r="F123" s="8">
+        <f t="shared" si="25"/>
+        <v>921.3568266939053</v>
+      </c>
+      <c r="G123" s="8">
+        <f t="shared" si="26"/>
+        <v>2002016.25</v>
+      </c>
+      <c r="H123" s="8">
         <f t="shared" si="31"/>
-        <v>1292</v>
-      </c>
-      <c r="F123" s="8">
-        <f t="shared" si="23"/>
-        <v>921.3568266939053</v>
-      </c>
-      <c r="G123" s="8">
-        <f t="shared" si="24"/>
-        <v>2002016.25</v>
-      </c>
-      <c r="H123" s="8">
-        <f>G123/$O$24</f>
-        <v>13902.890625</v>
+        <v>200.20162500000001</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
@@ -10378,28 +10423,28 @@
         <v>118</v>
       </c>
       <c r="C124" s="5">
-        <f t="shared" ref="C124:C125" si="33">B$3+IF($B124&lt;$J$8,K$7*$B124,IF($B124&lt;$J$9,$B124*K$8,IF($B124&lt;$J$10,$B124*K$9,$B124*K$10)))</f>
+        <f t="shared" ref="C124:C125" si="36">B$3+IF($B124&lt;$J$8,K$7*$B124,IF($B124&lt;$J$9,$B124*K$8,IF($B124&lt;$J$10,$B124*K$9,$B124*K$10)))</f>
         <v>2106</v>
       </c>
       <c r="D124" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1659</v>
       </c>
       <c r="E124" s="5">
+        <f t="shared" si="34"/>
+        <v>1303</v>
+      </c>
+      <c r="F124" s="8">
+        <f t="shared" si="25"/>
+        <v>929.19682646860224</v>
+      </c>
+      <c r="G124" s="8">
+        <f t="shared" si="26"/>
+        <v>2053790</v>
+      </c>
+      <c r="H124" s="8">
         <f t="shared" si="31"/>
-        <v>1303</v>
-      </c>
-      <c r="F124" s="8">
-        <f t="shared" si="23"/>
-        <v>929.19682646860224</v>
-      </c>
-      <c r="G124" s="8">
-        <f t="shared" si="24"/>
-        <v>2053790</v>
-      </c>
-      <c r="H124" s="8">
-        <f>G124/$O$24</f>
-        <v>14262.430555555555</v>
+        <v>205.37899999999999</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
@@ -10407,28 +10452,28 @@
         <v>119</v>
       </c>
       <c r="C125" s="5">
+        <f t="shared" si="36"/>
+        <v>2123</v>
+      </c>
+      <c r="D125" s="5">
         <f t="shared" si="33"/>
-        <v>2123</v>
-      </c>
-      <c r="D125" s="5">
-        <f t="shared" si="30"/>
         <v>1673</v>
       </c>
       <c r="E125" s="5">
+        <f t="shared" si="34"/>
+        <v>1314</v>
+      </c>
+      <c r="F125" s="8">
+        <f t="shared" si="25"/>
+        <v>937.03682624707062</v>
+      </c>
+      <c r="G125" s="8">
+        <f t="shared" si="26"/>
+        <v>2106448.75</v>
+      </c>
+      <c r="H125" s="8">
         <f t="shared" si="31"/>
-        <v>1314</v>
-      </c>
-      <c r="F125" s="8">
-        <f t="shared" si="23"/>
-        <v>937.03682624707062</v>
-      </c>
-      <c r="G125" s="8">
-        <f t="shared" si="24"/>
-        <v>2106448.75</v>
-      </c>
-      <c r="H125" s="8">
-        <f>G125/$O$24</f>
-        <v>14628.116319444445</v>
+        <v>210.64487500000001</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
@@ -10440,34 +10485,33 @@
         <v>2140</v>
       </c>
       <c r="D126" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1687</v>
       </c>
       <c r="E126" s="5">
+        <f t="shared" si="34"/>
+        <v>1325</v>
+      </c>
+      <c r="F126" s="8">
+        <f t="shared" si="25"/>
+        <v>944.87682602921643</v>
+      </c>
+      <c r="G126" s="8">
+        <f t="shared" si="26"/>
+        <v>2160000</v>
+      </c>
+      <c r="H126" s="8">
         <f t="shared" si="31"/>
-        <v>1325</v>
-      </c>
-      <c r="F126" s="8">
-        <f t="shared" si="23"/>
-        <v>944.87682602921643</v>
-      </c>
-      <c r="G126" s="8">
-        <f t="shared" si="24"/>
-        <v>2160000</v>
-      </c>
-      <c r="H126" s="8">
-        <f>G126/$O$24</f>
-        <v>15000</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="J14:N14"/>
+  <mergeCells count="5">
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="J14:O14"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="J22:Q22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/discord/Game System Calculations.xlsx
+++ b/discord/Game System Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerald\iCloudDrive\Working Folder\Coding\Python\Projects\ZeusRPG\discord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37501D11-02B9-4990-B919-523CCA5677EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FCD7EE-7C4E-4A09-B25B-30007DA301A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FCB550A9-44B4-4A74-8B55-9A7FD8859F8C}"/>
   </bookViews>
@@ -794,7 +794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -879,6 +879,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12405,12 +12408,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
@@ -12427,10 +12430,10 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
@@ -12446,11 +12449,11 @@
       <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="39">
         <f ca="1">SUM(I7:I126)/60</f>
-        <v>11.433517284464809</v>
-      </c>
-      <c r="H3" s="38"/>
+        <v>12.695976413458206</v>
+      </c>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -12458,24 +12461,24 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="K5" s="40" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="K5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="N5" s="34" t="s">
+      <c r="L5" s="41"/>
+      <c r="N5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="34"/>
+      <c r="O5" s="35"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
@@ -12541,19 +12544,19 @@
       </c>
       <c r="H7" s="24">
         <f t="shared" ref="H7:H38" ca="1" si="1">G7/$P$29</f>
-        <v>5.2061640982923784E-5</v>
+        <v>5.7810151462596829E-5</v>
       </c>
       <c r="I7" s="8">
         <f ca="1">(H7*15)/60</f>
-        <v>1.3015410245730946E-5</v>
+        <v>1.4452537865649207E-5</v>
       </c>
       <c r="K7" s="10">
         <f ca="1">$J$16*RANDBETWEEN(10,100)</f>
-        <v>448</v>
+        <v>630</v>
       </c>
       <c r="L7" s="10">
         <f ca="1">$J$16*RANDBETWEEN(5,50)</f>
-        <v>182</v>
+        <v>343</v>
       </c>
       <c r="N7" s="25">
         <v>1</v>
@@ -12588,11 +12591,11 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1649312786339027E-4</v>
+        <v>4.6248121170077463E-4</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" ref="I8:I71" ca="1" si="6">(H8*15)/60</f>
-        <v>1.0412328196584757E-4</v>
+        <v>1.1562030292519366E-4</v>
       </c>
       <c r="N8" s="25">
         <v>0.25</v>
@@ -12627,11 +12630,11 @@
       </c>
       <c r="H9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4056643065389421E-3</v>
+        <v>1.5608740894901144E-3</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5141607663473552E-4</v>
+        <v>3.902185223725286E-4</v>
       </c>
       <c r="N9" s="25">
         <v>0.6</v>
@@ -12666,11 +12669,11 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3319450229071222E-3</v>
+        <v>3.6998496936061971E-3</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>8.3298625572678054E-4</v>
+        <v>9.2496242340154927E-4</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
@@ -12699,11 +12702,11 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5077051228654729E-3</v>
+        <v>7.2262689328246041E-3</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6269262807163682E-3</v>
+        <v>1.806567233206151E-3</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -12732,11 +12735,11 @@
       </c>
       <c r="H12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1245314452311536E-2</v>
+        <v>1.2486992715920915E-2</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8113286130778841E-3</v>
+        <v>3.1217481789802288E-3</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
@@ -12765,11 +12768,11 @@
       </c>
       <c r="H13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7857142857142856E-2</v>
+        <v>1.9828881951670714E-2</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.464285714285714E-3</v>
+        <v>4.9572204879176785E-3</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -12798,25 +12801,25 @@
       </c>
       <c r="H14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6655560183256977E-2</v>
+        <v>2.9598797548849577E-2</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6638900458142443E-3</v>
-      </c>
-      <c r="K14" s="29" t="s">
+        <v>7.3996993872123941E-3</v>
+      </c>
+      <c r="K14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="30" t="s">
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="31"/>
-      <c r="S14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
@@ -12844,11 +12847,11 @@
       </c>
       <c r="H15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7952936276551434E-2</v>
+        <v>4.2143600416233093E-2</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.4882340691378585E-3</v>
+        <v>1.0535900104058273E-2</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>28</v>
@@ -12907,50 +12910,50 @@
       </c>
       <c r="H16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2061640982923783E-2</v>
+        <v>5.7810151462596833E-2</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3015410245730946E-2</v>
+        <v>1.4452537865649208E-2</v>
       </c>
       <c r="J16" s="2">
         <v>7</v>
       </c>
       <c r="K16" s="6">
         <f ca="1">RANDBETWEEN($J$18,$J$19)</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" ref="L16:L17" ca="1" si="7">IF(K16=0,0,VLOOKUP($K16,$B$7:$G$126,2,0))</f>
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="M16" s="12">
         <f ca="1">IF(K16=0,0,VLOOKUP($K16,$B$7:$G$126,3,0))+$K$7</f>
-        <v>740</v>
+        <v>919</v>
       </c>
       <c r="N16" s="6">
         <f ca="1">IF(K16=0,0,VLOOKUP($K16,$B$7:$G$126,4,0))+$L$7</f>
-        <v>377</v>
+        <v>536</v>
       </c>
       <c r="O16" s="14">
         <f t="shared" ref="O16:O17" ca="1" si="8">IF(K16=0,0,VLOOKUP($K16,$B$7:$G$126,5,0))</f>
-        <v>175.08008213552361</v>
+        <v>173.28008298755188</v>
       </c>
       <c r="P16" s="17">
         <f ca="1">IF(K16=0,0,$Q$29*(1-(N16/(SUM($N$16:$N$19)))))</f>
-        <v>509.88479445264323</v>
+        <v>612.7797957844756</v>
       </c>
       <c r="Q16" s="20">
         <f ca="1">O16*$O$7</f>
-        <v>175.08008213552361</v>
+        <v>173.28008298755188</v>
       </c>
       <c r="R16" s="20">
         <f ca="1">O16*$O$8</f>
-        <v>875.40041067761808</v>
+        <v>866.40041493775936</v>
       </c>
       <c r="S16" s="20">
         <f ca="1">O16*$O$9</f>
-        <v>262.6201232032854</v>
+        <v>259.92012448132783</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
@@ -12979,50 +12982,50 @@
       </c>
       <c r="H17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9294044148271547E-2</v>
+        <v>7.6945311596716387E-2</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7323511037067887E-2</v>
+        <v>1.9236327899179097E-2</v>
       </c>
       <c r="J17" s="19" t="s">
         <v>11</v>
       </c>
       <c r="K17" s="6">
         <f ca="1">RANDBETWEEN($J$18,$J$19)</f>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="M17" s="12">
         <f ca="1">IF(K17=0,0,VLOOKUP($K17,$B$7:$G$126,3,0))+$K$7</f>
-        <v>731</v>
+        <v>937</v>
       </c>
       <c r="N17" s="6">
         <f ca="1">IF(K17=0,0,VLOOKUP($K17,$B$7:$G$126,4,0))+$L$7</f>
-        <v>371</v>
+        <v>548</v>
       </c>
       <c r="O17" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>169.68008474576271</v>
+        <v>184.080078125</v>
       </c>
       <c r="P17" s="17">
         <f ca="1">IF(K17=0,0,$Q$29*(1-(N17/(SUM($N$16:$N$19)))))</f>
-        <v>512.62365637450171</v>
+        <v>608.23507542019013</v>
       </c>
       <c r="Q17" s="20">
         <f t="shared" ref="Q17:Q19" ca="1" si="9">O17*$O$7</f>
-        <v>169.68008474576271</v>
+        <v>184.080078125</v>
       </c>
       <c r="R17" s="20">
         <f t="shared" ref="R17:R19" ca="1" si="10">O17*$O$8</f>
-        <v>848.40042372881362</v>
+        <v>920.400390625</v>
       </c>
       <c r="S17" s="20">
         <f t="shared" ref="S17:S19" ca="1" si="11">O17*$O$9</f>
-        <v>254.52012711864407</v>
+        <v>276.1201171875</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
@@ -13051,11 +13054,11 @@
       </c>
       <c r="H18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9962515618492292E-2</v>
+        <v>9.9895941727367321E-2</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2490628904623073E-2</v>
+        <v>2.497398543184183E-2</v>
       </c>
       <c r="J18" s="10">
         <v>90</v>
@@ -13070,11 +13073,11 @@
       </c>
       <c r="M18" s="12">
         <f ca="1">IF(K18=0,0,VLOOKUP($K18,$B$7:$G$126,3,0))+$K$7</f>
-        <v>725</v>
+        <v>907</v>
       </c>
       <c r="N18" s="6">
         <f ca="1">IF(K18=0,0,VLOOKUP($K18,$B$7:$G$126,4,0))+$L$7</f>
-        <v>367</v>
+        <v>528</v>
       </c>
       <c r="O18" s="14">
         <f ca="1">IF(K18=0,0,VLOOKUP($K18,$B$7:$G$126,5,0))</f>
@@ -13082,7 +13085,7 @@
       </c>
       <c r="P18" s="17">
         <f ca="1">IF(K18=0,0,$Q$29*(1-(N18/(SUM($N$16:$N$19)))))</f>
-        <v>514.44956432240735</v>
+        <v>615.80960936066583</v>
       </c>
       <c r="Q18" s="20">
         <f t="shared" ca="1" si="9"/>
@@ -13123,50 +13126,50 @@
       </c>
       <c r="H19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11437942523948355</v>
+        <v>0.12700890276332524</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8594856309870888E-2</v>
+        <v>3.1752225690831311E-2</v>
       </c>
       <c r="J19" s="10">
         <v>100</v>
       </c>
       <c r="K19" s="6">
         <f ca="1">RANDBETWEEN($J$18,$J$19)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L19" s="6">
         <f ca="1">IF(K19=0,0,VLOOKUP($K19,$B$7:$G$126,2,0))</f>
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="M19" s="12">
         <f ca="1">IF(K19=0,0,VLOOKUP($K19,$B$7:$G$126,3,0))+$K$7</f>
-        <v>743</v>
+        <v>928</v>
       </c>
       <c r="N19" s="6">
         <f ca="1">IF(K19=0,0,VLOOKUP($K19,$B$7:$G$126,4,0))+$L$7</f>
-        <v>379</v>
+        <v>542</v>
       </c>
       <c r="O19" s="14">
         <f ca="1">IF(K19=0,0,VLOOKUP($K19,$B$7:$G$126,5,0))</f>
-        <v>176.880081300813</v>
+        <v>178.68008048289738</v>
       </c>
       <c r="P19" s="17">
         <f ca="1">IF(K19=0,0,$Q$29*(1-(N19/(SUM($N$16:$N$19)))))</f>
-        <v>508.97184047869041</v>
+        <v>610.50743560233286</v>
       </c>
       <c r="Q19" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>176.880081300813</v>
+        <v>178.68008048289738</v>
       </c>
       <c r="R19" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>884.40040650406502</v>
+        <v>893.40040241448696</v>
       </c>
       <c r="S19" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>265.32012195121951</v>
+        <v>268.02012072434604</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
@@ -13195,11 +13198,11 @@
       </c>
       <c r="H20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.15863105561336571</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.9657763903341428E-2</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
@@ -13228,11 +13231,11 @@
       </c>
       <c r="H21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17570803831736775</v>
+        <v>0.19510926118626432</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.3927009579341939E-2</v>
+        <v>4.8777315296566079E-2</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
@@ -13261,11 +13264,11 @@
       </c>
       <c r="H22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21324448146605582</v>
+        <v>0.23679038039079661</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3311120366513955E-2</v>
+        <v>5.9197595097699153E-2</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
@@ -13294,11 +13297,11 @@
       </c>
       <c r="H23" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25577884214910451</v>
+        <v>0.28402127413573824</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.3944710537276128E-2</v>
+        <v>7.1005318533934561E-2</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
@@ -13327,11 +13330,11 @@
       </c>
       <c r="H24" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30362349021241147</v>
+        <v>0.33714880332986474</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>7.5905872553102868E-2</v>
+        <v>8.4287200832466186E-2</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
@@ -13360,11 +13363,11 @@
       </c>
       <c r="H25" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35709079550187423</v>
+        <v>0.3965198288819517</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>8.9272698875468556E-2</v>
+        <v>9.9129957220487924E-2</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
@@ -13393,11 +13396,11 @@
       </c>
       <c r="H26" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41649312786339027</v>
+        <v>0.46248121170077466</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10412328196584757</v>
+        <v>0.11562030292519367</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
@@ -13426,22 +13429,22 @@
       </c>
       <c r="H27" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48214285714285715</v>
+        <v>0.53537981269510926</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.12053571428571429</v>
-      </c>
-      <c r="K27" s="33" t="s">
+        <v>0.13384495317377734</v>
+      </c>
+      <c r="K27" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
@@ -13469,11 +13472,11 @@
       </c>
       <c r="H28" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55435235318617238</v>
+        <v>0.6155624927737311</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13858808829654309</v>
+        <v>0.15389062319343277</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>5</v>
@@ -13526,27 +13529,27 @@
       </c>
       <c r="H29" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6334339858392336</v>
+        <v>0.70337611284541568</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.1583584964598084</v>
+        <v>0.17584402821135392</v>
       </c>
       <c r="K29" s="2">
         <f ca="1">RANDBETWEEN(J18,J19)</f>
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L29" s="2">
         <f ca="1">AVERAGE(L16:L19)*$O$29</f>
-        <v>792.75</v>
+        <v>806.75</v>
       </c>
       <c r="M29" s="2">
         <f ca="1">AVERAGE(M16:M19)*$O$29</f>
-        <v>1028.6499999999999</v>
+        <v>1291.8499999999999</v>
       </c>
       <c r="N29" s="2">
         <f ca="1">AVERAGE(N16:N19)*$O$29</f>
-        <v>522.9</v>
+        <v>753.9</v>
       </c>
       <c r="O29" s="11">
         <f ca="1">1+(4-COUNTIF(K16:K19,0))*0.1</f>
@@ -13554,15 +13557,15 @@
       </c>
       <c r="P29" s="2">
         <f ca="1">$K$29^2*4</f>
-        <v>38416</v>
+        <v>34596</v>
       </c>
       <c r="Q29" s="17">
         <f ca="1">M29^2/(M29+N29)</f>
-        <v>681.97661854274759</v>
+        <v>815.77730538922151</v>
       </c>
       <c r="R29" s="18">
         <f ca="1">L29/SUM(Q16:Q19)</f>
-        <v>1.152721476927294</v>
+        <v>1.149019573463063</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
@@ -13591,11 +13594,11 @@
       </c>
       <c r="H30" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71970012494793834</v>
+        <v>0.79916753381893857</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.17992503123698458</v>
+        <v>0.19979188345473464</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
@@ -13624,11 +13627,11 @@
       </c>
       <c r="H31" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81346314035818412</v>
+        <v>0.90328361660307555</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.20336578508954603</v>
+        <v>0.22582090415076889</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
@@ -13657,11 +13660,11 @@
       </c>
       <c r="H32" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91503540191586841</v>
+        <v>1.0160712221066019</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2287588504789671</v>
+        <v>0.25401780552665049</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -13690,11 +13693,11 @@
       </c>
       <c r="H33" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0247292794668887</v>
+        <v>1.1378772112382936</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.25618231986672219</v>
+        <v>0.28446930280957339</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -13723,11 +13726,11 @@
       </c>
       <c r="H34" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1428571428571428</v>
+        <v>1.2690484449069257</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2857142857142857</v>
+        <v>0.31726211122673142</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -13756,11 +13759,11 @@
       </c>
       <c r="H35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2697313619325281</v>
+        <v>1.4099317840212742</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31743284048313203</v>
+        <v>0.35248294600531854</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -13789,11 +13792,11 @@
       </c>
       <c r="H36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.405664306538942</v>
+        <v>1.5608740894901145</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.35141607663473551</v>
+        <v>0.39021852237252863</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -13822,11 +13825,11 @@
       </c>
       <c r="H37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5509683465222823</v>
+        <v>1.7222222222222223</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38774208663057058</v>
+        <v>0.43055555555555558</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -13855,11 +13858,11 @@
       </c>
       <c r="H38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7059558517284465</v>
+        <v>1.8943230431263729</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42648896293211164</v>
+        <v>0.47358076078159322</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -13888,11 +13891,11 @@
       </c>
       <c r="H39" s="8">
         <f t="shared" ref="H39:H70" ca="1" si="13">G39/$P$29</f>
-        <v>1.870939192003332</v>
+        <v>2.0775234131113423</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.46773479800083301</v>
+        <v>0.51938085327783556</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -13921,11 +13924,11 @@
       </c>
       <c r="H40" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>2.0462307371928361</v>
+        <v>2.272170193085906</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51155768429820903</v>
+        <v>0.56804254827147649</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -13954,11 +13957,11 @@
       </c>
       <c r="H41" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>2.2321428571428572</v>
+        <v>2.4786102439588391</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5580357142857143</v>
+        <v>0.61965256098970978</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -13987,11 +13990,11 @@
       </c>
       <c r="H42" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>2.4289879216992918</v>
+        <v>2.6971904266389179</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.60724698042482295</v>
+        <v>0.67429760665972949</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -14020,11 +14023,11 @@
       </c>
       <c r="H43" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>2.6370783007080383</v>
+        <v>2.9282576020349174</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65926957517700957</v>
+        <v>0.73206440050872934</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -14053,11 +14056,11 @@
       </c>
       <c r="H44" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>2.8567263640149938</v>
+        <v>3.1721586310556136</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.71418159100374845</v>
+        <v>0.79303965776390339</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -14086,11 +14089,11 @@
       </c>
       <c r="H45" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>3.0882444814660559</v>
+        <v>3.4292403746097815</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.77206112036651398</v>
+        <v>0.85731009365244537</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -14119,11 +14122,11 @@
       </c>
       <c r="H46" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>3.3319450229071221</v>
+        <v>3.6998496936061973</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83298625572678053</v>
+        <v>0.92496242340154933</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -14152,11 +14155,11 @@
       </c>
       <c r="H47" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>3.5881403581840901</v>
+        <v>3.9843334489536364</v>
       </c>
       <c r="I47" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.89703508954602251</v>
+        <v>0.9960833622384091</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
@@ -14185,11 +14188,11 @@
       </c>
       <c r="H48" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>3.8571428571428572</v>
+        <v>4.2830385015608741</v>
       </c>
       <c r="I48" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.9642857142857143</v>
+        <v>1.0707596253902187</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -14218,11 +14221,11 @@
       </c>
       <c r="H49" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>4.1392648896293212</v>
+        <v>4.5963117123366866</v>
       </c>
       <c r="I49" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0348162224073303</v>
+        <v>1.1490779280841716</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -14251,11 +14254,11 @@
       </c>
       <c r="H50" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>4.434818825489379</v>
+        <v>4.9244999421898488</v>
       </c>
       <c r="I50" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1087047063723448</v>
+        <v>1.2311249855474622</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -14284,11 +14287,11 @@
       </c>
       <c r="H51" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>4.7441170345689292</v>
+        <v>5.2679500520291365</v>
       </c>
       <c r="I51" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1860292586422323</v>
+        <v>1.3169875130072841</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -14317,11 +14320,11 @@
       </c>
       <c r="H52" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0674718867138688</v>
+        <v>5.6270089027633254</v>
       </c>
       <c r="I52" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2668679716784672</v>
+        <v>1.4067522256908314</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -14350,11 +14353,11 @@
       </c>
       <c r="H53" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>5.4051957517700959</v>
+        <v>6.0020233553011906</v>
       </c>
       <c r="I53" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.351298937942524</v>
+        <v>1.5005058388252976</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -14383,11 +14386,11 @@
       </c>
       <c r="H54" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>5.7576009995835067</v>
+        <v>6.3933402705515086</v>
       </c>
       <c r="I54" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4394002498958767</v>
+        <v>1.5983350676378771</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -14416,11 +14419,11 @@
       </c>
       <c r="H55" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6.125</v>
+        <v>6.8013065094230543</v>
       </c>
       <c r="I55" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.53125</v>
+        <v>1.7003266273557636</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -14449,11 +14452,11 @@
       </c>
       <c r="H56" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6.507705122865473</v>
+        <v>7.2262689328246044</v>
       </c>
       <c r="I56" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6269262807163682</v>
+        <v>1.8065672332061511</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -14482,11 +14485,11 @@
       </c>
       <c r="H57" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6.9060287380258227</v>
+        <v>7.668574401664932</v>
       </c>
       <c r="I57" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7265071845064557</v>
+        <v>1.917143600416233</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -14515,11 +14518,11 @@
       </c>
       <c r="H58" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>7.3202832153269473</v>
+        <v>8.1285697768528156</v>
       </c>
       <c r="I58" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8300708038317368</v>
+        <v>2.0321424442132039</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -14548,11 +14551,11 @@
       </c>
       <c r="H59" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>7.7507809246147437</v>
+        <v>8.6066019192970291</v>
       </c>
       <c r="I59" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9376952311536859</v>
+        <v>2.1516504798242573</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -14581,11 +14584,11 @@
       </c>
       <c r="H60" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>8.1978342357351099</v>
+        <v>9.1030176899063484</v>
       </c>
       <c r="I60" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0494585589337775</v>
+        <v>2.2757544224765871</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -14614,11 +14617,11 @@
       </c>
       <c r="H61" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>8.6617555185339441</v>
+        <v>9.6181639495895475</v>
       </c>
       <c r="I61" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.165438879633486</v>
+        <v>2.4045409873973869</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -14647,11 +14650,11 @@
       </c>
       <c r="H62" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>9.1428571428571423</v>
+        <v>10.152387559255406</v>
       </c>
       <c r="I62" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2857142857142856</v>
+        <v>2.5380968898138514</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -14680,11 +14683,11 @@
       </c>
       <c r="H63" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>9.6414514785506036</v>
+        <v>10.706035379812695</v>
       </c>
       <c r="I63" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.4103628696376509</v>
+        <v>2.6765088449531738</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -14713,11 +14716,11 @@
       </c>
       <c r="H64" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>10.157850895460225</v>
+        <v>11.279454272170193</v>
       </c>
       <c r="I64" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.5394627238650562</v>
+        <v>2.8198635680425483</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -14746,11 +14749,11 @@
       </c>
       <c r="H65" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>10.692367763431903</v>
+        <v>11.872991097236675</v>
       </c>
       <c r="I65" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.6730919408579763</v>
+        <v>2.9682477743091686</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -14779,11 +14782,11 @@
       </c>
       <c r="H66" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>11.245314452311536</v>
+        <v>12.486992715920916</v>
       </c>
       <c r="I66" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8113286130778841</v>
+        <v>3.121748178980229</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -14812,11 +14815,11 @@
       </c>
       <c r="H67" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>11.817003331945022</v>
+        <v>13.121805989131692</v>
       </c>
       <c r="I67" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9542508329862556</v>
+        <v>3.2804514972829231</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -14845,11 +14848,11 @@
       </c>
       <c r="H68" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>12.407746772178259</v>
+        <v>13.777777777777779</v>
       </c>
       <c r="I68" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1019366930445647</v>
+        <v>3.4444444444444446</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -14878,11 +14881,11 @@
       </c>
       <c r="H69" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>13.017857142857142</v>
+        <v>14.455254942767951</v>
       </c>
       <c r="I69" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2544642857142856</v>
+        <v>3.6138137356919873</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -14911,11 +14914,11 @@
       </c>
       <c r="H70" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>13.647646813827572</v>
+        <v>15.154584345010983</v>
       </c>
       <c r="I70" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.4119117034568931</v>
+        <v>3.7886460862527458</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -14944,11 +14947,11 @@
       </c>
       <c r="H71" s="8">
         <f t="shared" ref="H71:H102" ca="1" si="15">G71/$P$29</f>
-        <v>14.297428154935444</v>
+        <v>15.876112845415655</v>
       </c>
       <c r="I71" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.574357038733861</v>
+        <v>3.9690282113539137</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -14977,11 +14980,11 @@
       </c>
       <c r="H72" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>14.967513536026656</v>
+        <v>16.620187304890738</v>
       </c>
       <c r="I72" s="8">
         <f t="shared" ref="I72:I126" ca="1" si="20">(H72*15)/60</f>
-        <v>3.7418783840066641</v>
+        <v>4.1550468262226845</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -15010,11 +15013,11 @@
       </c>
       <c r="H73" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>15.658215326947106</v>
+        <v>17.387154584345012</v>
       </c>
       <c r="I73" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>3.9145538317367765</v>
+        <v>4.346788646086253</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -15043,11 +15046,11 @@
       </c>
       <c r="H74" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>16.369845897542689</v>
+        <v>18.177361544687248</v>
       </c>
       <c r="I74" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>4.0924614743856722</v>
+        <v>4.5443403861718119</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -15076,11 +15079,11 @@
       </c>
       <c r="H75" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>17.102717617659309</v>
+        <v>18.991155046826222</v>
       </c>
       <c r="I75" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>4.2756794044148272</v>
+        <v>4.7477887617065555</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -15109,11 +15112,11 @@
       </c>
       <c r="H76" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>17.857142857142858</v>
+        <v>19.828881951670713</v>
       </c>
       <c r="I76" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>4.4642857142857144</v>
+        <v>4.9572204879176782</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
@@ -15142,11 +15145,11 @@
       </c>
       <c r="H77" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>18.633433985839233</v>
+        <v>20.690889120129494</v>
       </c>
       <c r="I77" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>4.6583584964598082</v>
+        <v>5.1727222800323736</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -15175,11 +15178,11 @@
       </c>
       <c r="H78" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>19.431903373594334</v>
+        <v>21.577523413111344</v>
       </c>
       <c r="I78" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>4.8579758433985836</v>
+        <v>5.3943808532778359</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -15208,11 +15211,11 @@
       </c>
       <c r="H79" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>20.25286339025406</v>
+        <v>22.489131691525031</v>
       </c>
       <c r="I79" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>5.0632158475635149</v>
+        <v>5.6222829228812579</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -15241,11 +15244,11 @@
       </c>
       <c r="H80" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>21.096626405664306</v>
+        <v>23.426060816279339</v>
       </c>
       <c r="I80" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>5.2741566014160766</v>
+        <v>5.8565152040698347</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
@@ -15274,11 +15277,11 @@
       </c>
       <c r="H81" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>21.963504789670971</v>
+        <v>24.38865764828304</v>
       </c>
       <c r="I81" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>5.4908761974177427</v>
+        <v>6.09716441207076</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -15307,11 +15310,11 @@
       </c>
       <c r="H82" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>22.85381091211995</v>
+        <v>25.377269048444909</v>
       </c>
       <c r="I82" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>5.7134527280299876</v>
+        <v>6.3443172621112272</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -15340,11 +15343,11 @@
       </c>
       <c r="H83" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>23.767857142857142</v>
+        <v>26.392241877673719</v>
       </c>
       <c r="I83" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>5.9419642857142856</v>
+        <v>6.5980604694184297</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -15373,11 +15376,11 @@
       </c>
       <c r="H84" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>24.705955851728447</v>
+        <v>27.433922996878252</v>
       </c>
       <c r="I84" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>6.1764889629321118</v>
+        <v>6.858480749219563</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -15406,11 +15409,11 @@
       </c>
       <c r="H85" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>25.668419408579759</v>
+        <v>28.502659266967278</v>
       </c>
       <c r="I85" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>6.4171048521449396</v>
+        <v>7.1256648167418195</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
@@ -15439,11 +15442,11 @@
       </c>
       <c r="H86" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>26.655560183256977</v>
+        <v>29.598797548849578</v>
       </c>
       <c r="I86" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>6.6638900458142443</v>
+        <v>7.3996993872123946</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
@@ -15472,11 +15475,11 @@
       </c>
       <c r="H87" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>27.667690545605996</v>
+        <v>30.722684703433924</v>
       </c>
       <c r="I87" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>6.9169226364014991</v>
+        <v>7.6806711758584809</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
@@ -15505,11 +15508,11 @@
       </c>
       <c r="H88" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>28.70512286547272</v>
+        <v>31.874667591629091</v>
       </c>
       <c r="I88" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>7.1762807163681801</v>
+        <v>7.9686668979072728</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
@@ -15538,11 +15541,11 @@
       </c>
       <c r="H89" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>29.768169512703039</v>
+        <v>33.055093074343851</v>
       </c>
       <c r="I89" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>7.4420423781757599</v>
+        <v>8.2637732685859628</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
@@ -15571,11 +15574,11 @@
       </c>
       <c r="H90" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>30.857142857142858</v>
+        <v>34.264308012486993</v>
       </c>
       <c r="I90" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>7.7142857142857144</v>
+        <v>8.5660770031217499</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -15604,11 +15607,11 @@
       </c>
       <c r="H91" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>31.972355268638069</v>
+        <v>35.502659266967278</v>
       </c>
       <c r="I91" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>7.9930888171595171</v>
+        <v>8.8756648167418195</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
@@ -15637,11 +15640,11 @@
       </c>
       <c r="H92" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>33.114119117034569</v>
+        <v>36.770493698693492</v>
       </c>
       <c r="I92" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>8.2785297792586423</v>
+        <v>9.1926234246733731</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -15670,11 +15673,11 @@
       </c>
       <c r="H93" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>34.282746772178257</v>
+        <v>38.068158168574399</v>
       </c>
       <c r="I93" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>8.5706866930445642</v>
+        <v>9.5170395421435998</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
@@ -15703,11 +15706,11 @@
       </c>
       <c r="H94" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>35.478550603915032</v>
+        <v>39.39599953751879</v>
       </c>
       <c r="I94" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>8.869637650978758</v>
+        <v>9.8489998843796975</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -15736,11 +15739,11 @@
       </c>
       <c r="H95" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>36.701842982090795</v>
+        <v>40.754364666435428</v>
       </c>
       <c r="I95" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>9.1754607455227006</v>
+        <v>10.188591166608857</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -15769,11 +15772,11 @@
       </c>
       <c r="H96" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>37.952936276551434</v>
+        <v>42.143600416233092</v>
       </c>
       <c r="I96" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>9.4882340691378584</v>
+        <v>10.535900104058273</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
@@ -15802,11 +15805,11 @@
       </c>
       <c r="H97" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>39.232142857142854</v>
+        <v>43.564053647820558</v>
       </c>
       <c r="I97" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>9.8080357142857135</v>
+        <v>10.891013411955139</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
@@ -15835,11 +15838,11 @@
       </c>
       <c r="H98" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>40.539775093710951</v>
+        <v>45.016071222106603</v>
       </c>
       <c r="I98" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>10.134943773427738</v>
+        <v>11.254017805526651</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
@@ -15868,11 +15871,11 @@
       </c>
       <c r="H99" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>41.876145356101624</v>
+        <v>46.5</v>
       </c>
       <c r="I99" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>10.469036339025406</v>
+        <v>11.625</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
@@ -15901,11 +15904,11 @@
       </c>
       <c r="H100" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>43.241566014160767</v>
+        <v>48.016186842409525</v>
       </c>
       <c r="I100" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>10.810391503540192</v>
+        <v>12.004046710602381</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
@@ -15934,11 +15937,11 @@
       </c>
       <c r="H101" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>44.636349437734275</v>
+        <v>49.564978610243962</v>
       </c>
       <c r="I101" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>11.159087359433569</v>
+        <v>12.391244652560991</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
@@ -15967,11 +15970,11 @@
       </c>
       <c r="H102" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>46.060807996668053</v>
+        <v>51.146722164412068</v>
       </c>
       <c r="I102" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>11.515201999167013</v>
+        <v>12.786680541103017</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -15999,12 +16002,12 @@
         <v>1825346</v>
       </c>
       <c r="H103" s="8">
-        <f t="shared" ref="H103:H134" ca="1" si="22">G103/$P$29</f>
-        <v>47.515254060807997</v>
+        <f t="shared" ref="H103:H126" ca="1" si="22">G103/$P$29</f>
+        <v>52.761764365822636</v>
       </c>
       <c r="I103" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>11.878813515201999</v>
+        <v>13.190441091455659</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -16033,11 +16036,11 @@
       </c>
       <c r="H104" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>49</v>
+        <v>54.410452075384434</v>
       </c>
       <c r="I104" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>12.25</v>
+        <v>13.602613018846109</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
@@ -16066,11 +16069,11 @@
       </c>
       <c r="H105" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>50.515358184089962</v>
+        <v>56.093132154006241</v>
       </c>
       <c r="I105" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>12.628839546022489</v>
+        <v>14.023283038501559</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
@@ -16099,11 +16102,11 @@
       </c>
       <c r="H106" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>52.061640982923784</v>
+        <v>57.810151462596835</v>
       </c>
       <c r="I106" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>13.015410245730946</v>
+        <v>14.452537865649209</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
@@ -16132,11 +16135,11 @@
       </c>
       <c r="H107" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>53.639160766347352</v>
+        <v>59.561856862064978</v>
       </c>
       <c r="I107" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>13.409790191586838</v>
+        <v>14.890464215516245</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
@@ -16165,11 +16168,11 @@
       </c>
       <c r="H108" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>55.248229904206582</v>
+        <v>61.348595213319456</v>
       </c>
       <c r="I108" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>13.812057476051645</v>
+        <v>15.337148803329864</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -16198,11 +16201,11 @@
       </c>
       <c r="H109" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>56.889160766347352</v>
+        <v>63.170713377269045</v>
       </c>
       <c r="I109" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>14.222290191586838</v>
+        <v>15.792678344317261</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -16231,11 +16234,11 @@
       </c>
       <c r="H110" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>58.562265722615578</v>
+        <v>65.028558214822525</v>
       </c>
       <c r="I110" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>14.640566430653895</v>
+        <v>16.257139553705631</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -16264,11 +16267,11 @@
       </c>
       <c r="H111" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>60.267857142857146</v>
+        <v>66.922476586888664</v>
       </c>
       <c r="I111" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>15.066964285714286</v>
+        <v>16.730619146722166</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -16297,11 +16300,11 @@
       </c>
       <c r="H112" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>62.006247396917949</v>
+        <v>68.852815354376233</v>
       </c>
       <c r="I112" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>15.501561849229487</v>
+        <v>17.213203838594058</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
@@ -16330,11 +16333,11 @@
       </c>
       <c r="H113" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>63.777748854643896</v>
+        <v>70.81992137819401</v>
       </c>
       <c r="I113" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>15.944437213660974</v>
+        <v>17.704980344548503</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
@@ -16363,11 +16366,11 @@
       </c>
       <c r="H114" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>65.58267388588088</v>
+        <v>72.824141519250787</v>
       </c>
       <c r="I114" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>16.39566847147022</v>
+        <v>18.206035379812697</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
@@ -16396,11 +16399,11 @@
       </c>
       <c r="H115" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>67.421334860474801</v>
+        <v>74.865822638455313</v>
       </c>
       <c r="I115" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>16.8553337151187</v>
+        <v>18.716455659613828</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
@@ -16429,11 +16432,11 @@
       </c>
       <c r="H116" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>69.294044148271553</v>
+        <v>76.94531159671638</v>
       </c>
       <c r="I116" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>17.323511037067888</v>
+        <v>19.236327899179095</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
@@ -16462,11 +16465,11 @@
       </c>
       <c r="H117" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>71.201114119117037</v>
+        <v>79.062955254942764</v>
       </c>
       <c r="I117" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>17.800278529779259</v>
+        <v>19.765738813735691</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
@@ -16495,11 +16498,11 @@
       </c>
       <c r="H118" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>73.142857142857139</v>
+        <v>81.219100474043245</v>
       </c>
       <c r="I118" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>18.285714285714285</v>
+        <v>20.304775118510811</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
@@ -16528,11 +16531,11 @@
       </c>
       <c r="H119" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>75.119585589337774</v>
+        <v>83.414094114926584</v>
       </c>
       <c r="I119" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>18.779896397334443</v>
+        <v>20.853523528731646</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
@@ -16561,11 +16564,11 @@
       </c>
       <c r="H120" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>77.131611828404829</v>
+        <v>85.64828303850156</v>
       </c>
       <c r="I120" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>19.282902957101207</v>
+        <v>21.41207075962539</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
@@ -16594,11 +16597,11 @@
       </c>
       <c r="H121" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>79.179248229904204</v>
+        <v>87.922014105676951</v>
       </c>
       <c r="I121" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>19.794812057476051</v>
+        <v>21.980503526419238</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
@@ -16627,11 +16630,11 @@
       </c>
       <c r="H122" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>81.262807163681799</v>
+        <v>90.235634177361547</v>
       </c>
       <c r="I122" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>20.31570179092045</v>
+        <v>22.558908544340387</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
@@ -16660,11 +16663,11 @@
       </c>
       <c r="H123" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>83.382600999583502</v>
+        <v>92.589490114464098</v>
       </c>
       <c r="I123" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>20.845650249895876</v>
+        <v>23.147372528616025</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -16693,11 +16696,11 @@
       </c>
       <c r="H124" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>85.538942107455227</v>
+        <v>94.983928777893397</v>
       </c>
       <c r="I124" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>21.38473552686381</v>
+        <v>23.745982194473349</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
@@ -16726,11 +16729,11 @@
       </c>
       <c r="H125" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>87.732142857142861</v>
+        <v>97.419297028558219</v>
       </c>
       <c r="I125" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>21.933035714285715</v>
+        <v>24.354824257139555</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
@@ -16759,11 +16762,11 @@
       </c>
       <c r="H126" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>89.96251561849229</v>
+        <v>99.89594172736733</v>
       </c>
       <c r="I126" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>22.490628904623073</v>
+        <v>24.973985431841832</v>
       </c>
     </row>
   </sheetData>
@@ -16790,7 +16793,7 @@
   <dimension ref="B1:S126"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16810,12 +16813,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
@@ -16832,10 +16835,10 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
@@ -16851,38 +16854,38 @@
       <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="39">
         <f ca="1">SUM(I7:I126)/60</f>
-        <v>56.718749999999993</v>
-      </c>
-      <c r="H3" s="38"/>
+        <v>338.91203703703707</v>
+      </c>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="P4" s="41" t="s">
+      <c r="P4" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="K5" s="29" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="K5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
       <c r="P5" s="23" t="s">
         <v>2</v>
       </c>
@@ -16929,11 +16932,11 @@
       </c>
       <c r="P6" s="10">
         <f ca="1">$J$16*RANDBETWEEN(10,100)</f>
-        <v>370</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="10">
         <f ca="1">$J$16*RANDBETWEEN(5,50)</f>
-        <v>190</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
@@ -16962,11 +16965,11 @@
       </c>
       <c r="H7" s="24">
         <f t="shared" ref="H7:H38" ca="1" si="1">G7/$P$24</f>
-        <v>2.5826446280991736E-4</v>
+        <v>1.5432098765432098E-3</v>
       </c>
       <c r="I7" s="8">
         <f ca="1">(H7*15)/60</f>
-        <v>6.4566115702479341E-5</v>
+        <v>3.8580246913580245E-4</v>
       </c>
       <c r="K7" s="6">
         <v>1</v>
@@ -17007,11 +17010,11 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0661157024793389E-3</v>
+        <v>1.2345679012345678E-2</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" ref="I8:I71" ca="1" si="6">(H8*15)/60</f>
-        <v>5.1652892561983473E-4</v>
+        <v>3.0864197530864196E-3</v>
       </c>
       <c r="K8" s="6">
         <v>30</v>
@@ -17028,10 +17031,10 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="P8" s="34" t="s">
+      <c r="P8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="34"/>
+      <c r="Q8" s="35"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
@@ -17059,11 +17062,11 @@
       </c>
       <c r="H9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9731404958677688E-3</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7432851239669422E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K9" s="6">
         <v>60</v>
@@ -17113,11 +17116,11 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6528925619834711E-2</v>
+        <v>9.8765432098765427E-2</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1322314049586778E-3</v>
+        <v>2.4691358024691357E-2</v>
       </c>
       <c r="K10" s="6">
         <v>90</v>
@@ -17167,11 +17170,11 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2283057851239666E-2</v>
+        <v>0.19290123456790123</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0707644628099165E-3</v>
+        <v>4.8225308641975308E-2</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>25</v>
@@ -17218,11 +17221,15 @@
       </c>
       <c r="H12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.578512396694215E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3946280991735538E-2</v>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J12">
+        <f ca="1">RANDBETWEEN($J$18,$J$19)</f>
+        <v>16</v>
       </c>
       <c r="P12" s="25">
         <v>0.6</v>
@@ -17257,11 +17264,11 @@
       </c>
       <c r="H13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8584710743801656E-2</v>
+        <v>0.52932098765432101</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2146177685950414E-2</v>
+        <v>0.13233024691358025</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -17290,25 +17297,25 @@
       </c>
       <c r="H14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13223140495867769</v>
+        <v>0.79012345679012341</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3057851239669422E-2</v>
-      </c>
-      <c r="K14" s="29" t="s">
+        <v>0.19753086419753085</v>
+      </c>
+      <c r="K14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="43" t="s">
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="44"/>
-      <c r="S14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="46"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
@@ -17336,11 +17343,11 @@
       </c>
       <c r="H15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18827479338842976</v>
+        <v>1.125</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7068698347107439E-2</v>
+        <v>0.28125</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>28</v>
@@ -17399,50 +17406,49 @@
       </c>
       <c r="H16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25826446280991733</v>
+        <v>1.5432098765432098</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4566115702479332E-2</v>
+        <v>0.38580246913580246</v>
       </c>
       <c r="J16" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K16" s="6">
-        <f ca="1">RANDBETWEEN($J$18,$J$19)</f>
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" ref="L16:L17" ca="1" si="11">IF(K16=0,0,VLOOKUP($K16,$B$7:$G$126,2,0))</f>
-        <v>523</v>
+        <f t="shared" ref="L16:L17" si="11">IF(K16=0,0,VLOOKUP($K16,$B$7:$G$126,2,0))</f>
+        <v>150</v>
       </c>
       <c r="M16" s="12">
-        <f ca="1">IF(K16=0,0,VLOOKUP($K16,$B$7:$G$126,3,0))+$P$6</f>
-        <v>659</v>
-      </c>
-      <c r="N16" s="6">
-        <f ca="1">IF(K16=0,0,VLOOKUP($K16,$B$7:$G$126,4,0))+$Q$6</f>
-        <v>430</v>
+        <f ca="1">IF(K16=0,0,VLOOKUP($K16,$B$7:$G$126,3,0)+$P$6)</f>
+        <v>165</v>
+      </c>
+      <c r="N16" s="29">
+        <f ca="1">IF(K16=0,0,VLOOKUP($K16,$B$7:$G$126,4,0)+$Q$6)</f>
+        <v>79</v>
       </c>
       <c r="O16" s="14">
-        <f t="shared" ref="O16:O17" ca="1" si="12">IF(K16=0,0,VLOOKUP($K16,$B$7:$G$126,5,0))</f>
-        <v>157.88468809073723</v>
+        <f ca="1">IF(K16=0,0,M16^2/(M16+N16))</f>
+        <v>111.57786885245902</v>
       </c>
       <c r="P16" s="17">
-        <f t="shared" ref="P16:P17" ca="1" si="13">IF(K16=0,0,$Q$24*(1-(N16/(SUM($N$16:$N$19)))))</f>
-        <v>372.75421686746989</v>
+        <f ca="1">IF(K16=0,0,IF(COUNTIF($K$16:$K$19,"&gt;"&amp;0)=1,$Q$24,$Q$24*(1-(N16/(SUM($N$16:$N$19))))))</f>
+        <v>47.25</v>
       </c>
       <c r="Q16" s="20">
         <f ca="1">O16*$Q$10</f>
-        <v>157.88468809073723</v>
+        <v>111.57786885245902</v>
       </c>
       <c r="R16" s="20">
         <f ca="1">O16*$Q$11</f>
-        <v>789.42344045368611</v>
+        <v>557.88934426229514</v>
       </c>
       <c r="S16" s="20">
         <f ca="1">O16*$Q$12</f>
-        <v>236.82703213610586</v>
+        <v>167.36680327868854</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
@@ -17471,50 +17477,49 @@
       </c>
       <c r="H17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34375</v>
+        <v>2.0540123456790123</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>8.59375E-2</v>
+        <v>0.51350308641975306</v>
       </c>
       <c r="J17" s="19" t="s">
         <v>11</v>
       </c>
       <c r="K17" s="6">
-        <f ca="1">RANDBETWEEN($J$18,$J$19)</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" ca="1" si="11"/>
-        <v>478</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="M17" s="12">
-        <f ca="1">IF(K17=0,0,VLOOKUP($K17,$B$7:$G$126,3,0))+$P$6</f>
-        <v>629</v>
+        <f>IF(K17=0,0,VLOOKUP($K17,$B$7:$G$126,3,0)+$P$6)</f>
+        <v>0</v>
       </c>
       <c r="N17" s="6">
-        <f ca="1">IF(K17=0,0,VLOOKUP($K17,$B$7:$G$126,4,0))+$Q$6</f>
-        <v>405</v>
+        <f>IF(K17=0,0,VLOOKUP($K17,$B$7:$G$126,4,0)+$Q$6)</f>
+        <v>0</v>
       </c>
       <c r="O17" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>141.5210970464135</v>
+        <f t="shared" ref="O17:O19" si="12">IF(K17=0,0,M17^2/(M17+N17))</f>
+        <v>0</v>
       </c>
       <c r="P17" s="17">
-        <f t="shared" ca="1" si="13"/>
-        <v>380.3305220883534</v>
+        <f t="shared" ref="P17:P19" si="13">IF(K17=0,0,IF(COUNTIF($K$16:$K$19,"&gt;"&amp;0)=1,$Q$24,$Q$24*(1-(N17/(SUM($N$16:$N$19))))))</f>
+        <v>0</v>
       </c>
       <c r="Q17" s="20">
-        <f t="shared" ref="Q17:Q19" ca="1" si="14">O17*$Q$10</f>
-        <v>141.5210970464135</v>
+        <f t="shared" ref="Q17:Q19" si="14">O17*$Q$10</f>
+        <v>0</v>
       </c>
       <c r="R17" s="20">
-        <f t="shared" ref="R17:R19" ca="1" si="15">O17*$Q$11</f>
-        <v>707.60548523206751</v>
+        <f t="shared" ref="R17:R19" si="15">O17*$Q$11</f>
+        <v>0</v>
       </c>
       <c r="S17" s="20">
-        <f t="shared" ref="S17:S19" ca="1" si="16">O17*$Q$12</f>
-        <v>212.28164556962025</v>
+        <f t="shared" ref="S17:S19" si="16">O17*$Q$12</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
@@ -17543,51 +17548,50 @@
       </c>
       <c r="H18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4462809917355372</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.1115702479338843</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J18" s="10">
         <f>VLOOKUP($J$16,Items!$B$4:$D$15,2,0)</f>
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K18" s="6">
-        <f ca="1">RANDBETWEEN($J$18,$J$19)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L18" s="6">
-        <f ca="1">IF(K18=0,0,VLOOKUP($K18,$B$7:$G$126,2,0))</f>
-        <v>505</v>
+        <f>IF(K18=0,0,VLOOKUP($K18,$B$7:$G$126,2,0))</f>
+        <v>0</v>
       </c>
       <c r="M18" s="12">
-        <f ca="1">IF(K18=0,0,VLOOKUP($K18,$B$7:$G$126,3,0))+$P$6</f>
-        <v>647</v>
-      </c>
-      <c r="N18" s="6">
-        <f ca="1">IF(K18=0,0,VLOOKUP($K18,$B$7:$G$126,4,0))+$Q$6</f>
-        <v>420</v>
+        <f t="shared" ref="M18:M19" si="20">IF(K18=0,0,VLOOKUP($K18,$B$7:$G$126,3,0)+$P$6)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="29">
+        <f t="shared" ref="N18:N19" si="21">IF(K18=0,0,VLOOKUP($K18,$B$7:$G$126,4,0)+$Q$6)</f>
+        <v>0</v>
       </c>
       <c r="O18" s="14">
-        <f ca="1">IF(K18=0,0,VLOOKUP($K18,$B$7:$G$126,5,0))</f>
-        <v>151.33925049309664</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="P18" s="17">
-        <f ca="1">IF(K18=0,0,$Q$24*(1-(N18/(SUM($N$16:$N$19)))))</f>
-        <v>375.78473895582329</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Q18" s="20">
-        <f t="shared" ca="1" si="14"/>
-        <v>151.33925049309664</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="R18" s="20">
-        <f t="shared" ca="1" si="15"/>
-        <v>756.69625246548321</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="S18" s="20">
-        <f t="shared" ca="1" si="16"/>
-        <v>227.00887573964496</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
@@ -17616,51 +17620,50 @@
       </c>
       <c r="H19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56740702479338845</v>
+        <v>3.3904320987654319</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.14185175619834711</v>
+        <v>0.84760802469135799</v>
       </c>
       <c r="J19" s="10">
         <f>VLOOKUP($J$16,Items!$B$4:$D$15,3,0)</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K19" s="6">
-        <f ca="1">RANDBETWEEN($J$18,$J$19)</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L19" s="6">
-        <f ca="1">IF(K19=0,0,VLOOKUP($K19,$B$7:$G$126,2,0))</f>
-        <v>478</v>
+        <f>IF(K19=0,0,VLOOKUP($K19,$B$7:$G$126,2,0))</f>
+        <v>0</v>
       </c>
       <c r="M19" s="12">
-        <f ca="1">IF(K19=0,0,VLOOKUP($K19,$B$7:$G$126,3,0))+$P$6</f>
-        <v>629</v>
-      </c>
-      <c r="N19" s="6">
-        <f ca="1">IF(K19=0,0,VLOOKUP($K19,$B$7:$G$126,4,0))+$Q$6</f>
-        <v>405</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="29">
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="O19" s="14">
-        <f ca="1">IF(K19=0,0,VLOOKUP($K19,$B$7:$G$126,5,0))</f>
-        <v>141.5210970464135</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="P19" s="17">
-        <f ca="1">IF(K19=0,0,$Q$24*(1-(N19/(SUM($N$16:$N$19)))))</f>
-        <v>380.3305220883534</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Q19" s="20">
-        <f t="shared" ca="1" si="14"/>
-        <v>141.5210970464135</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="R19" s="20">
-        <f t="shared" ca="1" si="15"/>
-        <v>707.60548523206751</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="S19" s="20">
-        <f t="shared" ca="1" si="16"/>
-        <v>212.28164556962025</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
@@ -17689,11 +17692,11 @@
       </c>
       <c r="H20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70867768595041325</v>
+        <v>4.2345679012345681</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.17716942148760331</v>
+        <v>1.058641975308642</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
@@ -17722,11 +17725,11 @@
       </c>
       <c r="H21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87164256198347112</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21791064049586778</v>
+        <v>1.3020833333333333</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
@@ -17755,22 +17758,22 @@
       </c>
       <c r="H22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0578512396694215</v>
+        <v>6.3209876543209873</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26446280991735538</v>
-      </c>
-      <c r="K22" s="33" t="s">
+        <v>1.5802469135802468</v>
+      </c>
+      <c r="K22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
@@ -17798,11 +17801,11 @@
       </c>
       <c r="H23" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2688533057851239</v>
+        <v>7.5817901234567904</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31721332644628097</v>
+        <v>1.8954475308641976</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>5</v>
@@ -17855,43 +17858,43 @@
       </c>
       <c r="H24" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5061983471074381</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.37654958677685951</v>
+        <v>2.25</v>
       </c>
       <c r="K24" s="2">
         <f ca="1">RANDBETWEEN(J18,J19)</f>
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L24" s="2">
         <f ca="1">$K$24*IF($K$24&lt;$K$31,L30,IF($K$24&lt;$K$32,L31,IF($K$24&lt;$K$33,L32,L33)))*$O$24</f>
-        <v>948.6400000000001</v>
+        <v>132.30000000000001</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" ref="M24:N24" ca="1" si="20">$K$24*IF($K$24&lt;$K$31,M30,IF($K$24&lt;$K$32,M31,IF($K$24&lt;$K$33,M32,M33)))*$O$24</f>
-        <v>862.4</v>
+        <f t="shared" ref="M24:N24" ca="1" si="22">$K$24*IF($K$24&lt;$K$31,M30,IF($K$24&lt;$K$32,M31,IF($K$24&lt;$K$33,M32,M33)))*$O$24</f>
+        <v>94.5</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" ca="1" si="20"/>
-        <v>616</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>94.5</v>
       </c>
       <c r="O24" s="11">
         <f ca="1">1+(4-COUNTIF(K16:K19,0))*IF(K24&lt;K31,O30,IF(K24&lt;K32,O31,IF(K24&lt;K33,O32,O33)))</f>
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="P24" s="2">
         <f ca="1">$K$24^2*4</f>
-        <v>7744</v>
+        <v>1296</v>
       </c>
       <c r="Q24" s="17">
         <f ca="1">M24^2/(M24+N24)</f>
-        <v>503.06666666666666</v>
+        <v>47.25</v>
       </c>
       <c r="R24" s="18">
         <f ca="1">L24/SUM(Q16:Q19)</f>
-        <v>1.6017123851278803</v>
+        <v>1.1857190082644629</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
@@ -17920,11 +17923,11 @@
       </c>
       <c r="H25" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7714359504132231</v>
+        <v>10.584876543209877</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44285898760330578</v>
+        <v>2.6462191358024691</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
@@ -17953,11 +17956,11 @@
       </c>
       <c r="H26" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0661157024793386</v>
+        <v>12.345679012345679</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51652892561983466</v>
+        <v>3.0864197530864197</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
@@ -17986,11 +17989,11 @@
       </c>
       <c r="H27" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3917871900826446</v>
+        <v>14.291666666666666</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.59794679752066116</v>
+        <v>3.5729166666666665</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
@@ -17998,7 +18001,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" ref="C28:C35" si="21">B$3+IF($B28&lt;$K$8,L$7*$B28,IF($B28&lt;$K$9,$B28*L$8,IF($B28&lt;$K$10,$B28*L$9,$B28*L$10)))</f>
+        <f t="shared" ref="C28:C35" si="23">B$3+IF($B28&lt;$K$8,L$7*$B28,IF($B28&lt;$K$9,$B28*L$8,IF($B28&lt;$K$10,$B28*L$9,$B28*L$10)))</f>
         <v>210</v>
       </c>
       <c r="D28" s="5">
@@ -18019,26 +18022,26 @@
       </c>
       <c r="H28" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.75</v>
+        <v>16.432098765432098</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6875</v>
-      </c>
-      <c r="K28" s="33" t="s">
+        <v>4.1080246913580245</v>
+      </c>
+      <c r="K28" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>23</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>215</v>
       </c>
       <c r="D29" s="5">
@@ -18059,11 +18062,11 @@
       </c>
       <c r="H29" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1423037190082646</v>
+        <v>18.776234567901234</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.78557592975206603</v>
+        <v>4.6940586419753085</v>
       </c>
       <c r="K29" s="21" t="s">
         <v>5</v>
@@ -18086,7 +18089,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>220</v>
       </c>
       <c r="D30" s="5">
@@ -18107,11 +18110,11 @@
       </c>
       <c r="H30" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5702479338842976</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.8925619834710744</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="K30" s="2">
         <v>1</v>
@@ -18120,7 +18123,7 @@
         <v>7</v>
       </c>
       <c r="M30" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N30" s="2">
         <v>5</v>
@@ -18134,7 +18137,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>225</v>
       </c>
       <c r="D31" s="5">
@@ -18155,11 +18158,11 @@
       </c>
       <c r="H31" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0353822314049586</v>
+        <v>24.112654320987655</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0088455578512396</v>
+        <v>6.0281635802469138</v>
       </c>
       <c r="K31" s="2">
         <v>30</v>
@@ -18169,11 +18172,11 @@
         <v>15.400000000000002</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" ref="M31:N33" si="22">M30*2</f>
-        <v>14</v>
+        <f t="shared" ref="M31:N33" si="24">M30*2</f>
+        <v>10</v>
       </c>
       <c r="N31" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="O31" s="2">
@@ -18186,7 +18189,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>230</v>
       </c>
       <c r="D32" s="5">
@@ -18207,29 +18210,29 @@
       </c>
       <c r="H32" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5392561983471076</v>
+        <v>27.123456790123456</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1348140495867769</v>
+        <v>6.7808641975308639</v>
       </c>
       <c r="K32" s="2">
         <v>60</v>
       </c>
       <c r="L32" s="17">
-        <f t="shared" ref="L32" si="23">L31*2*(1+O32)</f>
+        <f t="shared" ref="L32" si="25">L31*2*(1+O32)</f>
         <v>36.96</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="22"/>
-        <v>28</v>
+        <f t="shared" si="24"/>
+        <v>20</v>
       </c>
       <c r="N32" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" ref="O32:O33" si="24">O31*2</f>
+        <f t="shared" ref="O32:O33" si="26">O31*2</f>
         <v>0.2</v>
       </c>
     </row>
@@ -18238,7 +18241,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>235</v>
       </c>
       <c r="D33" s="5">
@@ -18259,11 +18262,11 @@
       </c>
       <c r="H33" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0834194214876032</v>
+        <v>30.375</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2708548553719008</v>
+        <v>7.59375</v>
       </c>
       <c r="K33" s="2">
         <v>90</v>
@@ -18273,15 +18276,15 @@
         <v>103.488</v>
       </c>
       <c r="M33" s="2">
-        <f t="shared" si="22"/>
-        <v>56</v>
+        <f t="shared" si="24"/>
+        <v>40</v>
       </c>
       <c r="N33" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>40</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.4</v>
       </c>
     </row>
@@ -18290,7 +18293,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>240</v>
       </c>
       <c r="D34" s="5">
@@ -18311,11 +18314,11 @@
       </c>
       <c r="H34" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.669421487603306</v>
+        <v>33.876543209876544</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4173553719008265</v>
+        <v>8.4691358024691361</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -18323,7 +18326,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>245</v>
       </c>
       <c r="D35" s="5">
@@ -18344,11 +18347,11 @@
       </c>
       <c r="H35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2988119834710741</v>
+        <v>37.637345679012348</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5747029958677685</v>
+        <v>9.4093364197530871</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
@@ -18377,11 +18380,11 @@
       </c>
       <c r="H36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6.973140495867769</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7432851239669422</v>
+        <v>10.416666666666666</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
@@ -18410,11 +18413,11 @@
       </c>
       <c r="H37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6939566115702478</v>
+        <v>45.973765432098766</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9234891528925619</v>
+        <v>11.493441358024691</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -18422,7 +18425,7 @@
         <v>32</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" ref="C38:C46" si="25">B$3+IF($B38&lt;$K$8,L$7*$B38,IF($B38&lt;$K$9,$B38*L$8,IF($B38&lt;$K$10,$B38*L$9,$B38*L$10)))</f>
+        <f t="shared" ref="C38:C46" si="27">B$3+IF($B38&lt;$K$8,L$7*$B38,IF($B38&lt;$K$9,$B38*L$8,IF($B38&lt;$K$10,$B38*L$9,$B38*L$10)))</f>
         <v>388</v>
       </c>
       <c r="D38" s="5">
@@ -18443,11 +18446,11 @@
       </c>
       <c r="H38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4628099173553721</v>
+        <v>50.567901234567898</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.115702479338843</v>
+        <v>12.641975308641975</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
@@ -18455,7 +18458,7 @@
         <v>33</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>397</v>
       </c>
       <c r="D39" s="5">
@@ -18471,16 +18474,16 @@
         <v>112.06666666666666</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" ref="G39:G70" si="26">($E$3*(B39^3))/4</f>
+        <f t="shared" ref="G39:G70" si="28">($E$3*(B39^3))/4</f>
         <v>71874</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" ref="H39:H70" ca="1" si="27">G39/$P$24</f>
-        <v>9.28125</v>
+        <f t="shared" ref="H39:H70" ca="1" si="29">G39/$P$24</f>
+        <v>55.458333333333336</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.3203125</v>
+        <v>13.864583333333334</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
@@ -18488,7 +18491,7 @@
         <v>34</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>406</v>
       </c>
       <c r="D40" s="5">
@@ -18504,16 +18507,16 @@
         <v>115.33937823834196</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>78608</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>10.150826446280991</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>60.654320987654323</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.5377066115702478</v>
+        <v>15.163580246913581</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
@@ -18521,7 +18524,7 @@
         <v>35</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>415</v>
       </c>
       <c r="D41" s="5">
@@ -18537,16 +18540,16 @@
         <v>118.61209068010075</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>85750</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>11.073088842975206</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>66.165123456790127</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7682722107438016</v>
+        <v>16.541280864197532</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
@@ -18554,7 +18557,7 @@
         <v>36</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>424</v>
       </c>
       <c r="D42" s="5">
@@ -18570,16 +18573,16 @@
         <v>121.88480392156863</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>93312</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>12.049586776859504</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>72</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0123966942148761</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
@@ -18587,7 +18590,7 @@
         <v>37</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>433</v>
       </c>
       <c r="D43" s="5">
@@ -18603,16 +18606,16 @@
         <v>125.15751789976133</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>101306</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>13.081869834710744</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>78.168209876543216</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2704674586776861</v>
+        <v>19.542052469135804</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
@@ -18620,7 +18623,7 @@
         <v>38</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>442</v>
       </c>
       <c r="D44" s="5">
@@ -18636,16 +18639,16 @@
         <v>128.43023255813952</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>109744</v>
       </c>
       <c r="H44" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>14.171487603305785</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>84.679012345679013</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5428719008264462</v>
+        <v>21.169753086419753</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
@@ -18653,7 +18656,7 @@
         <v>39</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>451</v>
       </c>
       <c r="D45" s="5">
@@ -18669,16 +18672,16 @@
         <v>131.702947845805</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>118638</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>15.319989669421487</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>91.541666666666671</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.8299974173553717</v>
+        <v>22.885416666666668</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
@@ -18686,7 +18689,7 @@
         <v>40</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>460</v>
       </c>
       <c r="D46" s="5">
@@ -18702,16 +18705,16 @@
         <v>134.97566371681415</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>128000</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>16.528925619834709</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>98.76543209876543</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1322314049586772</v>
+        <v>24.691358024691358</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -18735,16 +18738,16 @@
         <v>138.24838012958963</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>137842</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>17.799845041322314</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>106.35956790123457</v>
       </c>
       <c r="I47" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.4499612603305785</v>
+        <v>26.589891975308642</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
@@ -18752,15 +18755,15 @@
         <v>42</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" ref="C48:C54" si="28">B$3+IF($B48&lt;$K$8,L$7*$B48,IF($B48&lt;$K$9,$B48*L$8,IF($B48&lt;$K$10,$B48*L$9,$B48*L$10)))</f>
+        <f t="shared" ref="C48:C54" si="30">B$3+IF($B48&lt;$K$8,L$7*$B48,IF($B48&lt;$K$9,$B48*L$8,IF($B48&lt;$K$10,$B48*L$9,$B48*L$10)))</f>
         <v>478</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" ref="D48:D111" si="29">C$3+IF($B48&lt;$K$8,M$7*$B48,IF($B48&lt;$K$9,$B48*M$8,IF($B48&lt;$K$10,$B48*M$9,$B48*M$10)))</f>
+        <f t="shared" ref="D48:D111" si="31">C$3+IF($B48&lt;$K$8,M$7*$B48,IF($B48&lt;$K$9,$B48*M$8,IF($B48&lt;$K$10,$B48*M$9,$B48*M$10)))</f>
         <v>259</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" ref="E48:E111" si="30">D$3+IF($B48&lt;$K$8,N$7*$B48,IF($B48&lt;$K$9,$B48*N$8,IF($B48&lt;$K$10,$B48*N$9,$B48*N$10)))</f>
+        <f t="shared" ref="E48:E111" si="32">D$3+IF($B48&lt;$K$8,N$7*$B48,IF($B48&lt;$K$9,$B48*N$8,IF($B48&lt;$K$10,$B48*N$9,$B48*N$10)))</f>
         <v>215</v>
       </c>
       <c r="F48" s="8">
@@ -18768,16 +18771,16 @@
         <v>141.5210970464135</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>148176</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>19.134297520661157</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>114.33333333333333</v>
       </c>
       <c r="I48" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7835743801652892</v>
+        <v>28.583333333333332</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -18785,15 +18788,15 @@
         <v>43</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>487</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>265</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>220</v>
       </c>
       <c r="F49" s="8">
@@ -18801,16 +18804,16 @@
         <v>144.79381443298968</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>159014</v>
       </c>
       <c r="H49" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>20.533832644628099</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>122.69598765432099</v>
       </c>
       <c r="I49" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1334581611570247</v>
+        <v>30.673996913580247</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -18818,15 +18821,15 @@
         <v>44</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>496</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>271</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>225</v>
       </c>
       <c r="F50" s="8">
@@ -18834,16 +18837,16 @@
         <v>148.06653225806451</v>
       </c>
       <c r="G50" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>170368</v>
       </c>
       <c r="H50" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>131.45679012345678</v>
       </c>
       <c r="I50" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5</v>
+        <v>32.864197530864196</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -18851,15 +18854,15 @@
         <v>45</v>
       </c>
       <c r="C51" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>505</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>277</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>230</v>
       </c>
       <c r="F51" s="8">
@@ -18867,16 +18870,16 @@
         <v>151.33925049309664</v>
       </c>
       <c r="G51" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>182250</v>
       </c>
       <c r="H51" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>23.534349173553718</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>140.625</v>
       </c>
       <c r="I51" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>5.8835872933884295</v>
+        <v>35.15625</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -18884,15 +18887,15 @@
         <v>46</v>
       </c>
       <c r="C52" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>514</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>283</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>235</v>
       </c>
       <c r="F52" s="8">
@@ -18900,16 +18903,16 @@
         <v>154.6119691119691</v>
       </c>
       <c r="G52" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>194672</v>
       </c>
       <c r="H52" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>25.138429752066116</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>150.20987654320987</v>
       </c>
       <c r="I52" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.2846074380165282</v>
+        <v>37.552469135802468</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -18917,15 +18920,15 @@
         <v>47</v>
       </c>
       <c r="C53" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>523</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>289</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>240</v>
       </c>
       <c r="F53" s="8">
@@ -18933,16 +18936,16 @@
         <v>157.88468809073723</v>
       </c>
       <c r="G53" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>207646</v>
       </c>
       <c r="H53" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>26.813791322314049</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>160.22067901234567</v>
       </c>
       <c r="I53" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.7034478305785123</v>
+        <v>40.055169753086417</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -18950,15 +18953,15 @@
         <v>48</v>
       </c>
       <c r="C54" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>532</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>295</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>245</v>
       </c>
       <c r="F54" s="8">
@@ -18966,16 +18969,16 @@
         <v>161.15740740740742</v>
       </c>
       <c r="G54" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>221184</v>
       </c>
       <c r="H54" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>28.561983471074381</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>170.66666666666666</v>
       </c>
       <c r="I54" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>7.1404958677685952</v>
+        <v>42.666666666666664</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -18987,11 +18990,11 @@
         <v>541</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>301</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>250</v>
       </c>
       <c r="F55" s="8">
@@ -18999,16 +19002,16 @@
         <v>164.43012704174228</v>
       </c>
       <c r="G55" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>235298</v>
       </c>
       <c r="H55" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>30.384555785123968</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>181.5570987654321</v>
       </c>
       <c r="I55" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>7.5961389462809921</v>
+        <v>45.389274691358032</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -19016,15 +19019,15 @@
         <v>50</v>
       </c>
       <c r="C56" s="5">
-        <f t="shared" ref="C56:C64" si="31">B$3+IF($B56&lt;$K$8,L$7*$B56,IF($B56&lt;$K$9,$B56*L$8,IF($B56&lt;$K$10,$B56*L$9,$B56*L$10)))</f>
+        <f t="shared" ref="C56:C64" si="33">B$3+IF($B56&lt;$K$8,L$7*$B56,IF($B56&lt;$K$9,$B56*L$8,IF($B56&lt;$K$10,$B56*L$9,$B56*L$10)))</f>
         <v>550</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>307</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>255</v>
       </c>
       <c r="F56" s="8">
@@ -19032,16 +19035,16 @@
         <v>167.70284697508896</v>
       </c>
       <c r="G56" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>250000</v>
       </c>
       <c r="H56" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>32.283057851239668</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>192.90123456790124</v>
       </c>
       <c r="I56" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0707644628099171</v>
+        <v>48.22530864197531</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -19049,15 +19052,15 @@
         <v>51</v>
       </c>
       <c r="C57" s="5">
+        <f t="shared" si="33"/>
+        <v>559</v>
+      </c>
+      <c r="D57" s="5">
         <f t="shared" si="31"/>
-        <v>559</v>
-      </c>
-      <c r="D57" s="5">
-        <f t="shared" si="29"/>
         <v>313</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>260</v>
       </c>
       <c r="F57" s="8">
@@ -19065,16 +19068,16 @@
         <v>170.97556719022688</v>
       </c>
       <c r="G57" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>265302</v>
       </c>
       <c r="H57" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>34.259039256198349</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>204.70833333333334</v>
       </c>
       <c r="I57" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>8.5647598140495873</v>
+        <v>51.177083333333336</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -19082,15 +19085,15 @@
         <v>52</v>
       </c>
       <c r="C58" s="5">
+        <f t="shared" si="33"/>
+        <v>568</v>
+      </c>
+      <c r="D58" s="5">
         <f t="shared" si="31"/>
-        <v>568</v>
-      </c>
-      <c r="D58" s="5">
-        <f t="shared" si="29"/>
         <v>319</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>265</v>
       </c>
       <c r="F58" s="8">
@@ -19098,16 +19101,16 @@
         <v>174.24828767123287</v>
       </c>
       <c r="G58" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>281216</v>
       </c>
       <c r="H58" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>36.314049586776861</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>216.98765432098764</v>
       </c>
       <c r="I58" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0785123966942152</v>
+        <v>54.246913580246911</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -19115,15 +19118,15 @@
         <v>53</v>
       </c>
       <c r="C59" s="5">
+        <f t="shared" si="33"/>
+        <v>577</v>
+      </c>
+      <c r="D59" s="5">
         <f t="shared" si="31"/>
-        <v>577</v>
-      </c>
-      <c r="D59" s="5">
-        <f t="shared" si="29"/>
         <v>325</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>270</v>
       </c>
       <c r="F59" s="8">
@@ -19131,16 +19134,16 @@
         <v>177.52100840336135</v>
       </c>
       <c r="G59" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>297754</v>
       </c>
       <c r="H59" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>38.449638429752063</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>229.74845679012347</v>
       </c>
       <c r="I59" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.6124096074380159</v>
+        <v>57.437114197530867</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -19148,15 +19151,15 @@
         <v>54</v>
       </c>
       <c r="C60" s="5">
+        <f t="shared" si="33"/>
+        <v>586</v>
+      </c>
+      <c r="D60" s="5">
         <f t="shared" si="31"/>
-        <v>586</v>
-      </c>
-      <c r="D60" s="5">
-        <f t="shared" si="29"/>
         <v>331</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>275</v>
       </c>
       <c r="F60" s="8">
@@ -19164,16 +19167,16 @@
         <v>180.79372937293729</v>
       </c>
       <c r="G60" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>314928</v>
       </c>
       <c r="H60" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>40.667355371900825</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>243</v>
       </c>
       <c r="I60" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>10.166838842975206</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -19181,15 +19184,15 @@
         <v>55</v>
       </c>
       <c r="C61" s="5">
+        <f t="shared" si="33"/>
+        <v>595</v>
+      </c>
+      <c r="D61" s="5">
         <f t="shared" si="31"/>
-        <v>595</v>
-      </c>
-      <c r="D61" s="5">
-        <f t="shared" si="29"/>
         <v>337</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>280</v>
       </c>
       <c r="F61" s="8">
@@ -19197,16 +19200,16 @@
         <v>184.06645056726094</v>
       </c>
       <c r="G61" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>332750</v>
       </c>
       <c r="H61" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>42.96875</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>256.75154320987656</v>
       </c>
       <c r="I61" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>10.7421875</v>
+        <v>64.18788580246914</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -19214,15 +19217,15 @@
         <v>56</v>
       </c>
       <c r="C62" s="5">
+        <f t="shared" si="33"/>
+        <v>604</v>
+      </c>
+      <c r="D62" s="5">
         <f t="shared" si="31"/>
-        <v>604</v>
-      </c>
-      <c r="D62" s="5">
-        <f t="shared" si="29"/>
         <v>343</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>285</v>
       </c>
       <c r="F62" s="8">
@@ -19230,16 +19233,16 @@
         <v>187.33917197452229</v>
       </c>
       <c r="G62" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>351232</v>
       </c>
       <c r="H62" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>45.355371900826448</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>271.01234567901236</v>
       </c>
       <c r="I62" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>11.338842975206612</v>
+        <v>67.753086419753089</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -19247,15 +19250,15 @@
         <v>57</v>
       </c>
       <c r="C63" s="5">
+        <f t="shared" si="33"/>
+        <v>613</v>
+      </c>
+      <c r="D63" s="5">
         <f t="shared" si="31"/>
-        <v>613</v>
-      </c>
-      <c r="D63" s="5">
-        <f t="shared" si="29"/>
         <v>349</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>290</v>
       </c>
       <c r="F63" s="8">
@@ -19263,16 +19266,16 @@
         <v>190.61189358372457</v>
       </c>
       <c r="G63" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>370386</v>
       </c>
       <c r="H63" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>47.828770661157023</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>285.79166666666669</v>
       </c>
       <c r="I63" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>11.957192665289256</v>
+        <v>71.447916666666671</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -19280,15 +19283,15 @@
         <v>58</v>
       </c>
       <c r="C64" s="5">
+        <f t="shared" si="33"/>
+        <v>622</v>
+      </c>
+      <c r="D64" s="5">
         <f t="shared" si="31"/>
-        <v>622</v>
-      </c>
-      <c r="D64" s="5">
-        <f t="shared" si="29"/>
         <v>355</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>295</v>
       </c>
       <c r="F64" s="8">
@@ -19296,16 +19299,16 @@
         <v>193.88461538461539</v>
       </c>
       <c r="G64" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>390224</v>
       </c>
       <c r="H64" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>50.390495867768593</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>301.09876543209879</v>
       </c>
       <c r="I64" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>12.597623966942148</v>
+        <v>75.274691358024697</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -19317,11 +19320,11 @@
         <v>631</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>361</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>300</v>
       </c>
       <c r="F65" s="8">
@@ -19329,16 +19332,16 @@
         <v>197.15733736762482</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>410758</v>
       </c>
       <c r="H65" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>53.042097107438018</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>316.9429012345679</v>
       </c>
       <c r="I65" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>13.260524276859504</v>
+        <v>79.235725308641975</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -19346,15 +19349,15 @@
         <v>60</v>
       </c>
       <c r="C66" s="5">
-        <f t="shared" ref="C66:C74" si="32">B$3+IF($B66&lt;$K$8,L$7*$B66,IF($B66&lt;$K$9,$B66*L$8,IF($B66&lt;$K$10,$B66*L$9,$B66*L$10)))</f>
+        <f t="shared" ref="C66:C74" si="34">B$3+IF($B66&lt;$K$8,L$7*$B66,IF($B66&lt;$K$9,$B66*L$8,IF($B66&lt;$K$10,$B66*L$9,$B66*L$10)))</f>
         <v>880</v>
       </c>
       <c r="D66" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>607</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>485</v>
       </c>
       <c r="F66" s="8">
@@ -19362,16 +19365,16 @@
         <v>337.40750915750914</v>
       </c>
       <c r="G66" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>432000</v>
       </c>
       <c r="H66" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>55.785123966942152</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>333.33333333333331</v>
       </c>
       <c r="I66" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>13.946280991735538</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -19379,15 +19382,15 @@
         <v>61</v>
       </c>
       <c r="C67" s="5">
+        <f t="shared" si="34"/>
+        <v>893</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" si="31"/>
+        <v>617</v>
+      </c>
+      <c r="E67" s="5">
         <f t="shared" si="32"/>
-        <v>893</v>
-      </c>
-      <c r="D67" s="5">
-        <f t="shared" si="29"/>
-        <v>617</v>
-      </c>
-      <c r="E67" s="5">
-        <f t="shared" si="30"/>
         <v>493</v>
       </c>
       <c r="F67" s="8">
@@ -19395,16 +19398,16 @@
         <v>342.96306306306309</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>453962</v>
       </c>
       <c r="H67" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>58.621126033057848</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>350.27932098765433</v>
       </c>
       <c r="I67" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>14.655281508264462</v>
+        <v>87.569830246913583</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -19412,15 +19415,15 @@
         <v>62</v>
       </c>
       <c r="C68" s="5">
+        <f t="shared" si="34"/>
+        <v>906</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="31"/>
+        <v>627</v>
+      </c>
+      <c r="E68" s="5">
         <f t="shared" si="32"/>
-        <v>906</v>
-      </c>
-      <c r="D68" s="5">
-        <f t="shared" si="29"/>
-        <v>627</v>
-      </c>
-      <c r="E68" s="5">
-        <f t="shared" si="30"/>
         <v>501</v>
       </c>
       <c r="F68" s="8">
@@ -19428,16 +19431,16 @@
         <v>348.51861702127661</v>
       </c>
       <c r="G68" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>476656</v>
       </c>
       <c r="H68" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>61.551652892561982</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>367.79012345679013</v>
       </c>
       <c r="I68" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>15.387913223140496</v>
+        <v>91.947530864197532</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -19445,15 +19448,15 @@
         <v>63</v>
       </c>
       <c r="C69" s="5">
+        <f t="shared" si="34"/>
+        <v>919</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" si="31"/>
+        <v>637</v>
+      </c>
+      <c r="E69" s="5">
         <f t="shared" si="32"/>
-        <v>919</v>
-      </c>
-      <c r="D69" s="5">
-        <f t="shared" si="29"/>
-        <v>637</v>
-      </c>
-      <c r="E69" s="5">
-        <f t="shared" si="30"/>
         <v>509</v>
       </c>
       <c r="F69" s="8">
@@ -19461,16 +19464,16 @@
         <v>354.07417102966843</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500094</v>
       </c>
       <c r="H69" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>64.578254132231407</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>385.875</v>
       </c>
       <c r="I69" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>16.144563533057852</v>
+        <v>96.46875</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -19478,15 +19481,15 @@
         <v>64</v>
       </c>
       <c r="C70" s="5">
+        <f t="shared" si="34"/>
+        <v>932</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="31"/>
+        <v>647</v>
+      </c>
+      <c r="E70" s="5">
         <f t="shared" si="32"/>
-        <v>932</v>
-      </c>
-      <c r="D70" s="5">
-        <f t="shared" si="29"/>
-        <v>647</v>
-      </c>
-      <c r="E70" s="5">
-        <f t="shared" si="30"/>
         <v>517</v>
       </c>
       <c r="F70" s="8">
@@ -19494,16 +19497,16 @@
         <v>359.62972508591065</v>
       </c>
       <c r="G70" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>524288</v>
       </c>
       <c r="H70" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>67.702479338842977</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>404.54320987654319</v>
       </c>
       <c r="I70" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>16.925619834710744</v>
+        <v>101.1358024691358</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -19511,15 +19514,15 @@
         <v>65</v>
       </c>
       <c r="C71" s="5">
+        <f t="shared" si="34"/>
+        <v>945</v>
+      </c>
+      <c r="D71" s="5">
+        <f t="shared" si="31"/>
+        <v>657</v>
+      </c>
+      <c r="E71" s="5">
         <f t="shared" si="32"/>
-        <v>945</v>
-      </c>
-      <c r="D71" s="5">
-        <f t="shared" si="29"/>
-        <v>657</v>
-      </c>
-      <c r="E71" s="5">
-        <f t="shared" si="30"/>
         <v>525</v>
       </c>
       <c r="F71" s="8">
@@ -19527,16 +19530,16 @@
         <v>365.18527918781729</v>
       </c>
       <c r="G71" s="8">
-        <f t="shared" ref="G71:G102" si="33">($E$3*(B71^3))/4</f>
+        <f t="shared" ref="G71:G102" si="35">($E$3*(B71^3))/4</f>
         <v>549250</v>
       </c>
       <c r="H71" s="8">
-        <f t="shared" ref="H71:H102" ca="1" si="34">G71/$P$24</f>
-        <v>70.925878099173559</v>
+        <f t="shared" ref="H71:H102" ca="1" si="36">G71/$P$24</f>
+        <v>423.80401234567898</v>
       </c>
       <c r="I71" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>17.73146952479339</v>
+        <v>105.95100308641973</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -19544,32 +19547,32 @@
         <v>66</v>
       </c>
       <c r="C72" s="5">
+        <f t="shared" si="34"/>
+        <v>958</v>
+      </c>
+      <c r="D72" s="5">
+        <f t="shared" si="31"/>
+        <v>667</v>
+      </c>
+      <c r="E72" s="5">
         <f t="shared" si="32"/>
-        <v>958</v>
-      </c>
-      <c r="D72" s="5">
-        <f t="shared" si="29"/>
-        <v>667</v>
-      </c>
-      <c r="E72" s="5">
-        <f t="shared" si="30"/>
         <v>533</v>
       </c>
       <c r="F72" s="8">
-        <f t="shared" ref="F72:F126" si="35">D72^2/(D72+E72)</f>
+        <f t="shared" ref="F72:F126" si="37">D72^2/(D72+E72)</f>
         <v>370.74083333333334</v>
       </c>
       <c r="G72" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>574992</v>
       </c>
       <c r="H72" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>74.25</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>443.66666666666669</v>
       </c>
       <c r="I72" s="8">
-        <f t="shared" ref="I72:I126" ca="1" si="36">(H72*15)/60</f>
-        <v>18.5625</v>
+        <f t="shared" ref="I72:I126" ca="1" si="38">(H72*15)/60</f>
+        <v>110.91666666666667</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -19577,32 +19580,32 @@
         <v>67</v>
       </c>
       <c r="C73" s="5">
+        <f t="shared" si="34"/>
+        <v>971</v>
+      </c>
+      <c r="D73" s="5">
+        <f t="shared" si="31"/>
+        <v>677</v>
+      </c>
+      <c r="E73" s="5">
         <f t="shared" si="32"/>
-        <v>971</v>
-      </c>
-      <c r="D73" s="5">
-        <f t="shared" si="29"/>
-        <v>677</v>
-      </c>
-      <c r="E73" s="5">
-        <f t="shared" si="30"/>
         <v>541</v>
       </c>
       <c r="F73" s="8">
+        <f t="shared" si="37"/>
+        <v>376.29638752052546</v>
+      </c>
+      <c r="G73" s="8">
         <f t="shared" si="35"/>
-        <v>376.29638752052546</v>
-      </c>
-      <c r="G73" s="8">
-        <f t="shared" si="33"/>
         <v>601526</v>
       </c>
       <c r="H73" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>77.676394628099175</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>464.14043209876542</v>
       </c>
       <c r="I73" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>19.419098657024794</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>116.03510802469135</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -19610,32 +19613,32 @@
         <v>68</v>
       </c>
       <c r="C74" s="5">
+        <f t="shared" si="34"/>
+        <v>984</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" si="31"/>
+        <v>687</v>
+      </c>
+      <c r="E74" s="5">
         <f t="shared" si="32"/>
-        <v>984</v>
-      </c>
-      <c r="D74" s="5">
-        <f t="shared" si="29"/>
-        <v>687</v>
-      </c>
-      <c r="E74" s="5">
-        <f t="shared" si="30"/>
         <v>549</v>
       </c>
       <c r="F74" s="8">
+        <f t="shared" si="37"/>
+        <v>381.85194174757282</v>
+      </c>
+      <c r="G74" s="8">
         <f t="shared" si="35"/>
-        <v>381.85194174757282</v>
-      </c>
-      <c r="G74" s="8">
-        <f t="shared" si="33"/>
         <v>628864</v>
       </c>
       <c r="H74" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>81.206611570247929</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>485.23456790123458</v>
       </c>
       <c r="I74" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>20.301652892561982</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>121.30864197530865</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -19647,28 +19650,28 @@
         <v>997</v>
       </c>
       <c r="D75" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>697</v>
       </c>
       <c r="E75" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>557</v>
       </c>
       <c r="F75" s="8">
+        <f t="shared" si="37"/>
+        <v>387.40749601275917</v>
+      </c>
+      <c r="G75" s="8">
         <f t="shared" si="35"/>
-        <v>387.40749601275917</v>
-      </c>
-      <c r="G75" s="8">
-        <f t="shared" si="33"/>
         <v>657018</v>
       </c>
       <c r="H75" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>84.842200413223139</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>506.95833333333331</v>
       </c>
       <c r="I75" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>21.210550103305785</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>126.73958333333333</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -19680,28 +19683,28 @@
         <v>1010</v>
       </c>
       <c r="D76" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>707</v>
       </c>
       <c r="E76" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>565</v>
       </c>
       <c r="F76" s="8">
+        <f t="shared" si="37"/>
+        <v>392.96305031446542</v>
+      </c>
+      <c r="G76" s="8">
         <f t="shared" si="35"/>
-        <v>392.96305031446542</v>
-      </c>
-      <c r="G76" s="8">
-        <f t="shared" si="33"/>
         <v>686000</v>
       </c>
       <c r="H76" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>88.584710743801651</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>529.32098765432102</v>
       </c>
       <c r="I76" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>22.146177685950413</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>132.33024691358025</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
@@ -19709,32 +19712,32 @@
         <v>71</v>
       </c>
       <c r="C77" s="5">
-        <f t="shared" ref="C77:C85" si="37">B$3+IF($B77&lt;$K$8,L$7*$B77,IF($B77&lt;$K$9,$B77*L$8,IF($B77&lt;$K$10,$B77*L$9,$B77*L$10)))</f>
+        <f t="shared" ref="C77:C85" si="39">B$3+IF($B77&lt;$K$8,L$7*$B77,IF($B77&lt;$K$9,$B77*L$8,IF($B77&lt;$K$10,$B77*L$9,$B77*L$10)))</f>
         <v>1023</v>
       </c>
       <c r="D77" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>717</v>
       </c>
       <c r="E77" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>573</v>
       </c>
       <c r="F77" s="8">
+        <f t="shared" si="37"/>
+        <v>398.51860465116278</v>
+      </c>
+      <c r="G77" s="8">
         <f t="shared" si="35"/>
-        <v>398.51860465116278</v>
-      </c>
-      <c r="G77" s="8">
-        <f t="shared" si="33"/>
         <v>715822</v>
       </c>
       <c r="H77" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>92.435692148760324</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>552.33179012345681</v>
       </c>
       <c r="I77" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>23.108923037190081</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>138.0829475308642</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -19742,32 +19745,32 @@
         <v>72</v>
       </c>
       <c r="C78" s="5">
+        <f t="shared" si="39"/>
+        <v>1036</v>
+      </c>
+      <c r="D78" s="5">
+        <f t="shared" si="31"/>
+        <v>727</v>
+      </c>
+      <c r="E78" s="5">
+        <f t="shared" si="32"/>
+        <v>581</v>
+      </c>
+      <c r="F78" s="8">
         <f t="shared" si="37"/>
-        <v>1036</v>
-      </c>
-      <c r="D78" s="5">
-        <f t="shared" si="29"/>
-        <v>727</v>
-      </c>
-      <c r="E78" s="5">
-        <f t="shared" si="30"/>
-        <v>581</v>
-      </c>
-      <c r="F78" s="8">
+        <v>404.07415902140673</v>
+      </c>
+      <c r="G78" s="8">
         <f t="shared" si="35"/>
-        <v>404.07415902140673</v>
-      </c>
-      <c r="G78" s="8">
-        <f t="shared" si="33"/>
         <v>746496</v>
       </c>
       <c r="H78" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>96.396694214876035</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>576</v>
       </c>
       <c r="I78" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>24.099173553719009</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -19775,32 +19778,32 @@
         <v>73</v>
       </c>
       <c r="C79" s="5">
+        <f t="shared" si="39"/>
+        <v>1049</v>
+      </c>
+      <c r="D79" s="5">
+        <f t="shared" si="31"/>
+        <v>737</v>
+      </c>
+      <c r="E79" s="5">
+        <f t="shared" si="32"/>
+        <v>589</v>
+      </c>
+      <c r="F79" s="8">
         <f t="shared" si="37"/>
-        <v>1049</v>
-      </c>
-      <c r="D79" s="5">
-        <f t="shared" si="29"/>
-        <v>737</v>
-      </c>
-      <c r="E79" s="5">
-        <f t="shared" si="30"/>
-        <v>589</v>
-      </c>
-      <c r="F79" s="8">
+        <v>409.62971342383105</v>
+      </c>
+      <c r="G79" s="8">
         <f t="shared" si="35"/>
-        <v>409.62971342383105</v>
-      </c>
-      <c r="G79" s="8">
-        <f t="shared" si="33"/>
         <v>778034</v>
       </c>
       <c r="H79" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>100.46926652892562</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>600.33487654320993</v>
       </c>
       <c r="I79" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>25.117316632231404</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>150.08371913580248</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -19808,32 +19811,32 @@
         <v>74</v>
       </c>
       <c r="C80" s="5">
+        <f t="shared" si="39"/>
+        <v>1062</v>
+      </c>
+      <c r="D80" s="5">
+        <f t="shared" si="31"/>
+        <v>747</v>
+      </c>
+      <c r="E80" s="5">
+        <f t="shared" si="32"/>
+        <v>597</v>
+      </c>
+      <c r="F80" s="8">
         <f t="shared" si="37"/>
-        <v>1062</v>
-      </c>
-      <c r="D80" s="5">
-        <f t="shared" si="29"/>
-        <v>747</v>
-      </c>
-      <c r="E80" s="5">
-        <f t="shared" si="30"/>
-        <v>597</v>
-      </c>
-      <c r="F80" s="8">
+        <v>415.18526785714283</v>
+      </c>
+      <c r="G80" s="8">
         <f t="shared" si="35"/>
-        <v>415.18526785714283</v>
-      </c>
-      <c r="G80" s="8">
-        <f t="shared" si="33"/>
         <v>810448</v>
       </c>
       <c r="H80" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>104.65495867768595</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>625.34567901234573</v>
       </c>
       <c r="I80" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>26.163739669421489</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>156.33641975308643</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
@@ -19841,32 +19844,32 @@
         <v>75</v>
       </c>
       <c r="C81" s="5">
+        <f t="shared" si="39"/>
+        <v>1075</v>
+      </c>
+      <c r="D81" s="5">
+        <f t="shared" si="31"/>
+        <v>757</v>
+      </c>
+      <c r="E81" s="5">
+        <f t="shared" si="32"/>
+        <v>605</v>
+      </c>
+      <c r="F81" s="8">
         <f t="shared" si="37"/>
-        <v>1075</v>
-      </c>
-      <c r="D81" s="5">
-        <f t="shared" si="29"/>
-        <v>757</v>
-      </c>
-      <c r="E81" s="5">
-        <f t="shared" si="30"/>
-        <v>605</v>
-      </c>
-      <c r="F81" s="8">
+        <v>420.7408223201175</v>
+      </c>
+      <c r="G81" s="8">
         <f t="shared" si="35"/>
-        <v>420.7408223201175</v>
-      </c>
-      <c r="G81" s="8">
-        <f t="shared" si="33"/>
         <v>843750</v>
       </c>
       <c r="H81" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>108.95532024793388</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>651.04166666666663</v>
       </c>
       <c r="I81" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>27.238830061983471</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>162.76041666666666</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -19874,32 +19877,32 @@
         <v>76</v>
       </c>
       <c r="C82" s="5">
+        <f t="shared" si="39"/>
+        <v>1088</v>
+      </c>
+      <c r="D82" s="5">
+        <f t="shared" si="31"/>
+        <v>767</v>
+      </c>
+      <c r="E82" s="5">
+        <f t="shared" si="32"/>
+        <v>613</v>
+      </c>
+      <c r="F82" s="8">
         <f t="shared" si="37"/>
-        <v>1088</v>
-      </c>
-      <c r="D82" s="5">
-        <f t="shared" si="29"/>
-        <v>767</v>
-      </c>
-      <c r="E82" s="5">
-        <f t="shared" si="30"/>
-        <v>613</v>
-      </c>
-      <c r="F82" s="8">
+        <v>426.2963768115942</v>
+      </c>
+      <c r="G82" s="8">
         <f t="shared" si="35"/>
-        <v>426.2963768115942</v>
-      </c>
-      <c r="G82" s="8">
-        <f t="shared" si="33"/>
         <v>877952</v>
       </c>
       <c r="H82" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>113.37190082644628</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>677.4320987654321</v>
       </c>
       <c r="I82" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>28.34297520661157</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>169.35802469135803</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -19907,32 +19910,32 @@
         <v>77</v>
       </c>
       <c r="C83" s="5">
+        <f t="shared" si="39"/>
+        <v>1101</v>
+      </c>
+      <c r="D83" s="5">
+        <f t="shared" si="31"/>
+        <v>777</v>
+      </c>
+      <c r="E83" s="5">
+        <f t="shared" si="32"/>
+        <v>621</v>
+      </c>
+      <c r="F83" s="8">
         <f t="shared" si="37"/>
-        <v>1101</v>
-      </c>
-      <c r="D83" s="5">
-        <f t="shared" si="29"/>
-        <v>777</v>
-      </c>
-      <c r="E83" s="5">
-        <f t="shared" si="30"/>
-        <v>621</v>
-      </c>
-      <c r="F83" s="8">
+        <v>431.8519313304721</v>
+      </c>
+      <c r="G83" s="8">
         <f t="shared" si="35"/>
-        <v>431.8519313304721</v>
-      </c>
-      <c r="G83" s="8">
-        <f t="shared" si="33"/>
         <v>913066</v>
       </c>
       <c r="H83" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>117.90625</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>704.52623456790127</v>
       </c>
       <c r="I83" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>29.4765625</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>176.13155864197532</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -19940,32 +19943,32 @@
         <v>78</v>
       </c>
       <c r="C84" s="5">
+        <f t="shared" si="39"/>
+        <v>1114</v>
+      </c>
+      <c r="D84" s="5">
+        <f t="shared" si="31"/>
+        <v>787</v>
+      </c>
+      <c r="E84" s="5">
+        <f t="shared" si="32"/>
+        <v>629</v>
+      </c>
+      <c r="F84" s="8">
         <f t="shared" si="37"/>
-        <v>1114</v>
-      </c>
-      <c r="D84" s="5">
-        <f t="shared" si="29"/>
-        <v>787</v>
-      </c>
-      <c r="E84" s="5">
-        <f t="shared" si="30"/>
-        <v>629</v>
-      </c>
-      <c r="F84" s="8">
+        <v>437.40748587570624</v>
+      </c>
+      <c r="G84" s="8">
         <f t="shared" si="35"/>
-        <v>437.40748587570624</v>
-      </c>
-      <c r="G84" s="8">
-        <f t="shared" si="33"/>
         <v>949104</v>
       </c>
       <c r="H84" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>122.55991735537189</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>732.33333333333337</v>
       </c>
       <c r="I84" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>30.639979338842974</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>183.08333333333334</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -19973,32 +19976,32 @@
         <v>79</v>
       </c>
       <c r="C85" s="5">
+        <f t="shared" si="39"/>
+        <v>1127</v>
+      </c>
+      <c r="D85" s="5">
+        <f t="shared" si="31"/>
+        <v>797</v>
+      </c>
+      <c r="E85" s="5">
+        <f t="shared" si="32"/>
+        <v>637</v>
+      </c>
+      <c r="F85" s="8">
         <f t="shared" si="37"/>
-        <v>1127</v>
-      </c>
-      <c r="D85" s="5">
-        <f t="shared" si="29"/>
-        <v>797</v>
-      </c>
-      <c r="E85" s="5">
-        <f t="shared" si="30"/>
-        <v>637</v>
-      </c>
-      <c r="F85" s="8">
+        <v>442.96304044630403</v>
+      </c>
+      <c r="G85" s="8">
         <f t="shared" si="35"/>
-        <v>442.96304044630403</v>
-      </c>
-      <c r="G85" s="8">
-        <f t="shared" si="33"/>
         <v>986078</v>
       </c>
       <c r="H85" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>127.33445247933884</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>760.86265432098764</v>
       </c>
       <c r="I85" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>31.833613119834709</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>190.21566358024691</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
@@ -20010,28 +20013,28 @@
         <v>1140</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>807</v>
       </c>
       <c r="E86" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>645</v>
       </c>
       <c r="F86" s="8">
+        <f t="shared" si="37"/>
+        <v>448.51859504132233</v>
+      </c>
+      <c r="G86" s="8">
         <f t="shared" si="35"/>
-        <v>448.51859504132233</v>
-      </c>
-      <c r="G86" s="8">
-        <f t="shared" si="33"/>
         <v>1024000</v>
       </c>
       <c r="H86" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>132.23140495867767</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>790.12345679012344</v>
       </c>
       <c r="I86" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>33.057851239669418</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>197.53086419753086</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
@@ -20039,32 +20042,32 @@
         <v>81</v>
       </c>
       <c r="C87" s="5">
-        <f t="shared" ref="C87:C95" si="38">B$3+IF($B87&lt;$K$8,L$7*$B87,IF($B87&lt;$K$9,$B87*L$8,IF($B87&lt;$K$10,$B87*L$9,$B87*L$10)))</f>
+        <f t="shared" ref="C87:C95" si="40">B$3+IF($B87&lt;$K$8,L$7*$B87,IF($B87&lt;$K$9,$B87*L$8,IF($B87&lt;$K$10,$B87*L$9,$B87*L$10)))</f>
         <v>1153</v>
       </c>
       <c r="D87" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>817</v>
       </c>
       <c r="E87" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>653</v>
       </c>
       <c r="F87" s="8">
+        <f t="shared" si="37"/>
+        <v>454.07414965986396</v>
+      </c>
+      <c r="G87" s="8">
         <f t="shared" si="35"/>
-        <v>454.07414965986396</v>
-      </c>
-      <c r="G87" s="8">
-        <f t="shared" si="33"/>
         <v>1062882</v>
       </c>
       <c r="H87" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>137.25232438016528</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>820.125</v>
       </c>
       <c r="I87" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>34.313081095041319</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>205.03125</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
@@ -20072,32 +20075,32 @@
         <v>82</v>
       </c>
       <c r="C88" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1166</v>
       </c>
       <c r="D88" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>827</v>
       </c>
       <c r="E88" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>661</v>
       </c>
       <c r="F88" s="8">
+        <f t="shared" si="37"/>
+        <v>459.62970430107526</v>
+      </c>
+      <c r="G88" s="8">
         <f t="shared" si="35"/>
-        <v>459.62970430107526</v>
-      </c>
-      <c r="G88" s="8">
-        <f t="shared" si="33"/>
         <v>1102736</v>
       </c>
       <c r="H88" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>142.39876033057851</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>850.87654320987656</v>
       </c>
       <c r="I88" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>35.599690082644628</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>212.71913580246914</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
@@ -20105,32 +20108,32 @@
         <v>83</v>
       </c>
       <c r="C89" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1179</v>
       </c>
       <c r="D89" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>837</v>
       </c>
       <c r="E89" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>669</v>
       </c>
       <c r="F89" s="8">
+        <f t="shared" si="37"/>
+        <v>465.18525896414343</v>
+      </c>
+      <c r="G89" s="8">
         <f t="shared" si="35"/>
-        <v>465.18525896414343</v>
-      </c>
-      <c r="G89" s="8">
-        <f t="shared" si="33"/>
         <v>1143574</v>
       </c>
       <c r="H89" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>147.67226239669421</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>882.38734567901236</v>
       </c>
       <c r="I89" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>36.918065599173552</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>220.59683641975309</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
@@ -20138,32 +20141,32 @@
         <v>84</v>
       </c>
       <c r="C90" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1192</v>
       </c>
       <c r="D90" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>847</v>
       </c>
       <c r="E90" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>677</v>
       </c>
       <c r="F90" s="8">
+        <f t="shared" si="37"/>
+        <v>470.74081364829397</v>
+      </c>
+      <c r="G90" s="8">
         <f t="shared" si="35"/>
-        <v>470.74081364829397</v>
-      </c>
-      <c r="G90" s="8">
-        <f t="shared" si="33"/>
         <v>1185408</v>
       </c>
       <c r="H90" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>153.07438016528926</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>914.66666666666663</v>
       </c>
       <c r="I90" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>38.268595041322314</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>228.66666666666666</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -20171,32 +20174,32 @@
         <v>85</v>
       </c>
       <c r="C91" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1205</v>
       </c>
       <c r="D91" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>857</v>
       </c>
       <c r="E91" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>685</v>
       </c>
       <c r="F91" s="8">
+        <f t="shared" si="37"/>
+        <v>476.29636835278859</v>
+      </c>
+      <c r="G91" s="8">
         <f t="shared" si="35"/>
-        <v>476.29636835278859</v>
-      </c>
-      <c r="G91" s="8">
-        <f t="shared" si="33"/>
         <v>1228250</v>
       </c>
       <c r="H91" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>158.60666322314049</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>947.72376543209873</v>
       </c>
       <c r="I91" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>39.651665805785122</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>236.93094135802468</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
@@ -20204,32 +20207,32 @@
         <v>86</v>
       </c>
       <c r="C92" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1218</v>
       </c>
       <c r="D92" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>867</v>
       </c>
       <c r="E92" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>693</v>
       </c>
       <c r="F92" s="8">
+        <f t="shared" si="37"/>
+        <v>481.85192307692307</v>
+      </c>
+      <c r="G92" s="8">
         <f t="shared" si="35"/>
-        <v>481.85192307692307</v>
-      </c>
-      <c r="G92" s="8">
-        <f t="shared" si="33"/>
         <v>1272112</v>
       </c>
       <c r="H92" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>164.27066115702479</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>981.5679012345679</v>
       </c>
       <c r="I92" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>41.067665289256198</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>245.39197530864197</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -20237,32 +20240,32 @@
         <v>87</v>
       </c>
       <c r="C93" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1231</v>
       </c>
       <c r="D93" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>877</v>
       </c>
       <c r="E93" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>701</v>
       </c>
       <c r="F93" s="8">
+        <f t="shared" si="37"/>
+        <v>487.40747782002535</v>
+      </c>
+      <c r="G93" s="8">
         <f t="shared" si="35"/>
-        <v>487.40747782002535</v>
-      </c>
-      <c r="G93" s="8">
-        <f t="shared" si="33"/>
         <v>1317006</v>
       </c>
       <c r="H93" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>170.067923553719</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>1016.2083333333334</v>
       </c>
       <c r="I93" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>42.51698088842975</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>254.05208333333334</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
@@ -20270,32 +20273,32 @@
         <v>88</v>
       </c>
       <c r="C94" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1244</v>
       </c>
       <c r="D94" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>887</v>
       </c>
       <c r="E94" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>709</v>
       </c>
       <c r="F94" s="8">
+        <f t="shared" si="37"/>
+        <v>492.96303258145366</v>
+      </c>
+      <c r="G94" s="8">
         <f t="shared" si="35"/>
-        <v>492.96303258145366</v>
-      </c>
-      <c r="G94" s="8">
-        <f t="shared" si="33"/>
         <v>1362944</v>
       </c>
       <c r="H94" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>176</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>1051.6543209876543</v>
       </c>
       <c r="I94" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>262.91358024691357</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -20303,32 +20306,32 @@
         <v>89</v>
       </c>
       <c r="C95" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1257</v>
       </c>
       <c r="D95" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>897</v>
       </c>
       <c r="E95" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>717</v>
       </c>
       <c r="F95" s="8">
+        <f t="shared" si="37"/>
+        <v>498.51858736059478</v>
+      </c>
+      <c r="G95" s="8">
         <f t="shared" si="35"/>
-        <v>498.51858736059478</v>
-      </c>
-      <c r="G95" s="8">
-        <f t="shared" si="33"/>
         <v>1409938</v>
       </c>
       <c r="H95" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>182.06844008264463</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>1087.9151234567901</v>
       </c>
       <c r="I95" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>45.517110020661157</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>271.97878086419752</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -20340,28 +20343,28 @@
         <v>1630</v>
       </c>
       <c r="D96" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1267</v>
       </c>
       <c r="E96" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>995</v>
       </c>
       <c r="F96" s="8">
+        <f t="shared" si="37"/>
+        <v>709.67683465959328</v>
+      </c>
+      <c r="G96" s="8">
         <f t="shared" si="35"/>
-        <v>709.67683465959328</v>
-      </c>
-      <c r="G96" s="8">
-        <f t="shared" si="33"/>
         <v>1458000</v>
       </c>
       <c r="H96" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>188.27479338842974</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>1125</v>
       </c>
       <c r="I96" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>47.068698347107436</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>281.25</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
@@ -20369,32 +20372,32 @@
         <v>91</v>
       </c>
       <c r="C97" s="5">
-        <f t="shared" ref="C97:C98" si="39">B$3+IF($B97&lt;$K$8,L$7*$B97,IF($B97&lt;$K$9,$B97*L$8,IF($B97&lt;$K$10,$B97*L$9,$B97*L$10)))</f>
+        <f t="shared" ref="C97:C98" si="41">B$3+IF($B97&lt;$K$8,L$7*$B97,IF($B97&lt;$K$9,$B97*L$8,IF($B97&lt;$K$10,$B97*L$9,$B97*L$10)))</f>
         <v>1647</v>
       </c>
       <c r="D97" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1281</v>
       </c>
       <c r="E97" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1006</v>
       </c>
       <c r="F97" s="8">
+        <f t="shared" si="37"/>
+        <v>717.51683428071715</v>
+      </c>
+      <c r="G97" s="8">
         <f t="shared" si="35"/>
-        <v>717.51683428071715</v>
-      </c>
-      <c r="G97" s="8">
-        <f t="shared" si="33"/>
         <v>1507142</v>
       </c>
       <c r="H97" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>194.62060950413223</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>1162.9182098765432</v>
       </c>
       <c r="I97" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>48.655152376033058</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>290.72955246913574</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
@@ -20402,32 +20405,32 @@
         <v>92</v>
       </c>
       <c r="C98" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1664</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1295</v>
       </c>
       <c r="E98" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1017</v>
       </c>
       <c r="F98" s="8">
+        <f t="shared" si="37"/>
+        <v>725.35683391003465</v>
+      </c>
+      <c r="G98" s="8">
         <f t="shared" si="35"/>
-        <v>725.35683391003465</v>
-      </c>
-      <c r="G98" s="8">
-        <f t="shared" si="33"/>
         <v>1557376</v>
       </c>
       <c r="H98" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>201.10743801652893</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>1201.679012345679</v>
       </c>
       <c r="I98" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>50.276859504132226</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>300.41975308641975</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
@@ -20439,28 +20442,28 @@
         <v>1681</v>
       </c>
       <c r="D99" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1309</v>
       </c>
       <c r="E99" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1028</v>
       </c>
       <c r="F99" s="8">
+        <f t="shared" si="37"/>
+        <v>733.19683354728284</v>
+      </c>
+      <c r="G99" s="8">
         <f t="shared" si="35"/>
-        <v>733.19683354728284</v>
-      </c>
-      <c r="G99" s="8">
-        <f t="shared" si="33"/>
         <v>1608714</v>
       </c>
       <c r="H99" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>207.7368285123967</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>1241.2916666666667</v>
       </c>
       <c r="I99" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>51.934207128099175</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>310.32291666666669</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
@@ -20468,32 +20471,32 @@
         <v>94</v>
       </c>
       <c r="C100" s="5">
-        <f t="shared" ref="C100:C108" si="40">B$3+IF($B100&lt;$K$8,L$7*$B100,IF($B100&lt;$K$9,$B100*L$8,IF($B100&lt;$K$10,$B100*L$9,$B100*L$10)))</f>
+        <f t="shared" ref="C100:C108" si="42">B$3+IF($B100&lt;$K$8,L$7*$B100,IF($B100&lt;$K$9,$B100*L$8,IF($B100&lt;$K$10,$B100*L$9,$B100*L$10)))</f>
         <v>1698</v>
       </c>
       <c r="D100" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1323</v>
       </c>
       <c r="E100" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1039</v>
       </c>
       <c r="F100" s="8">
+        <f t="shared" si="37"/>
+        <v>741.03683319221</v>
+      </c>
+      <c r="G100" s="8">
         <f t="shared" si="35"/>
-        <v>741.03683319221</v>
-      </c>
-      <c r="G100" s="8">
-        <f t="shared" si="33"/>
         <v>1661168</v>
       </c>
       <c r="H100" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>214.5103305785124</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>1281.7654320987654</v>
       </c>
       <c r="I100" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>53.627582644628099</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>320.44135802469134</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
@@ -20501,32 +20504,32 @@
         <v>95</v>
       </c>
       <c r="C101" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1715</v>
       </c>
       <c r="D101" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1337</v>
       </c>
       <c r="E101" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1050</v>
       </c>
       <c r="F101" s="8">
+        <f t="shared" si="37"/>
+        <v>748.87683284457478</v>
+      </c>
+      <c r="G101" s="8">
         <f t="shared" si="35"/>
-        <v>748.87683284457478</v>
-      </c>
-      <c r="G101" s="8">
-        <f t="shared" si="33"/>
         <v>1714750</v>
       </c>
       <c r="H101" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>221.42949380165288</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>1323.1095679012346</v>
       </c>
       <c r="I101" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>55.35737345041322</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>330.77739197530866</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
@@ -20534,32 +20537,32 @@
         <v>96</v>
       </c>
       <c r="C102" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1732</v>
       </c>
       <c r="D102" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1351</v>
       </c>
       <c r="E102" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1061</v>
       </c>
       <c r="F102" s="8">
+        <f t="shared" si="37"/>
+        <v>756.71683250414594</v>
+      </c>
+      <c r="G102" s="8">
         <f t="shared" si="35"/>
-        <v>756.71683250414594</v>
-      </c>
-      <c r="G102" s="8">
-        <f t="shared" si="33"/>
         <v>1769472</v>
       </c>
       <c r="H102" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>228.49586776859505</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>1365.3333333333333</v>
       </c>
       <c r="I102" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>57.123966942148762</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>341.33333333333331</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -20567,32 +20570,32 @@
         <v>97</v>
       </c>
       <c r="C103" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1749</v>
       </c>
       <c r="D103" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1365</v>
       </c>
       <c r="E103" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1072</v>
       </c>
       <c r="F103" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>764.55683217070168</v>
       </c>
       <c r="G103" s="8">
-        <f t="shared" ref="G103:G126" si="41">($E$3*(B103^3))/4</f>
+        <f t="shared" ref="G103:G126" si="43">($E$3*(B103^3))/4</f>
         <v>1825346</v>
       </c>
       <c r="H103" s="8">
-        <f t="shared" ref="H103:H126" ca="1" si="42">G103/$P$24</f>
-        <v>235.7110020661157</v>
+        <f t="shared" ref="H103:H126" ca="1" si="44">G103/$P$24</f>
+        <v>1408.445987654321</v>
       </c>
       <c r="I103" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>58.927750516528924</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>352.11149691358025</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -20600,32 +20603,32 @@
         <v>98</v>
       </c>
       <c r="C104" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1766</v>
       </c>
       <c r="D104" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1379</v>
       </c>
       <c r="E104" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1083</v>
       </c>
       <c r="F104" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>772.39683184402929</v>
       </c>
       <c r="G104" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1882384</v>
       </c>
       <c r="H104" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>243.07644628099175</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>1452.4567901234568</v>
       </c>
       <c r="I104" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>60.769111570247937</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>363.11419753086426</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
@@ -20633,32 +20636,32 @@
         <v>99</v>
       </c>
       <c r="C105" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1783</v>
       </c>
       <c r="D105" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1393</v>
       </c>
       <c r="E105" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1094</v>
       </c>
       <c r="F105" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>780.23683152392437</v>
       </c>
       <c r="G105" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1940598</v>
       </c>
       <c r="H105" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>250.59375</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>1497.375</v>
       </c>
       <c r="I105" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>62.6484375</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>374.34375</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
@@ -20666,32 +20669,32 @@
         <v>100</v>
       </c>
       <c r="C106" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1800</v>
       </c>
       <c r="D106" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1407</v>
       </c>
       <c r="E106" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1105</v>
       </c>
       <c r="F106" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>788.07683121019113</v>
       </c>
       <c r="G106" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2000000</v>
       </c>
       <c r="H106" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>258.26446280991735</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>1543.2098765432099</v>
       </c>
       <c r="I106" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>64.566115702479337</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>385.80246913580248</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
@@ -20699,32 +20702,32 @@
         <v>101</v>
       </c>
       <c r="C107" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1817</v>
       </c>
       <c r="D107" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1421</v>
       </c>
       <c r="E107" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1116</v>
       </c>
       <c r="F107" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>795.91683090264087</v>
       </c>
       <c r="G107" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2060602</v>
       </c>
       <c r="H107" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>266.09013429752065</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>1589.9706790123457</v>
       </c>
       <c r="I107" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>66.522533574380162</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>397.49266975308643</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
@@ -20732,32 +20735,32 @@
         <v>102</v>
       </c>
       <c r="C108" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1834</v>
       </c>
       <c r="D108" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1435</v>
       </c>
       <c r="E108" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1127</v>
       </c>
       <c r="F108" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>803.75683060109293</v>
       </c>
       <c r="G108" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2122416</v>
       </c>
       <c r="H108" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>274.07231404958679</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>1637.6666666666667</v>
       </c>
       <c r="I108" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>68.518078512396698</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>409.41666666666669</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -20769,28 +20772,28 @@
         <v>1851</v>
       </c>
       <c r="D109" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1449</v>
       </c>
       <c r="E109" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1138</v>
       </c>
       <c r="F109" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>811.59683030537303</v>
       </c>
       <c r="G109" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2185454</v>
       </c>
       <c r="H109" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>282.21255165289256</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>1686.3070987654321</v>
       </c>
       <c r="I109" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>70.553137913223139</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>421.57677469135803</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -20798,32 +20801,32 @@
         <v>104</v>
       </c>
       <c r="C110" s="5">
-        <f t="shared" ref="C110:C114" si="43">B$3+IF($B110&lt;$K$8,L$7*$B110,IF($B110&lt;$K$9,$B110*L$8,IF($B110&lt;$K$10,$B110*L$9,$B110*L$10)))</f>
+        <f t="shared" ref="C110:C114" si="45">B$3+IF($B110&lt;$K$8,L$7*$B110,IF($B110&lt;$K$9,$B110*L$8,IF($B110&lt;$K$10,$B110*L$9,$B110*L$10)))</f>
         <v>1868</v>
       </c>
       <c r="D110" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1463</v>
       </c>
       <c r="E110" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1149</v>
       </c>
       <c r="F110" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>819.43683001531394</v>
       </c>
       <c r="G110" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2249728</v>
       </c>
       <c r="H110" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>290.51239669421489</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>1735.9012345679012</v>
       </c>
       <c r="I110" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>72.628099173553721</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>433.97530864197529</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -20831,32 +20834,32 @@
         <v>105</v>
       </c>
       <c r="C111" s="5">
+        <f t="shared" si="45"/>
+        <v>1885</v>
+      </c>
+      <c r="D111" s="5">
+        <f t="shared" si="31"/>
+        <v>1477</v>
+      </c>
+      <c r="E111" s="5">
+        <f t="shared" si="32"/>
+        <v>1160</v>
+      </c>
+      <c r="F111" s="8">
+        <f t="shared" si="37"/>
+        <v>827.27682973075468</v>
+      </c>
+      <c r="G111" s="8">
         <f t="shared" si="43"/>
-        <v>1885</v>
-      </c>
-      <c r="D111" s="5">
-        <f t="shared" si="29"/>
-        <v>1477</v>
-      </c>
-      <c r="E111" s="5">
-        <f t="shared" si="30"/>
-        <v>1160</v>
-      </c>
-      <c r="F111" s="8">
-        <f t="shared" si="35"/>
-        <v>827.27682973075468</v>
-      </c>
-      <c r="G111" s="8">
-        <f t="shared" si="41"/>
         <v>2315250</v>
       </c>
       <c r="H111" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>298.97339876033055</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>1786.4583333333333</v>
       </c>
       <c r="I111" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>74.743349690082638</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>446.61458333333331</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -20864,32 +20867,32 @@
         <v>106</v>
       </c>
       <c r="C112" s="5">
+        <f t="shared" si="45"/>
+        <v>1902</v>
+      </c>
+      <c r="D112" s="5">
+        <f t="shared" ref="D112:D126" si="46">C$3+IF($B112&lt;$K$8,M$7*$B112,IF($B112&lt;$K$9,$B112*M$8,IF($B112&lt;$K$10,$B112*M$9,$B112*M$10)))</f>
+        <v>1491</v>
+      </c>
+      <c r="E112" s="5">
+        <f t="shared" ref="E112:E126" si="47">D$3+IF($B112&lt;$K$8,N$7*$B112,IF($B112&lt;$K$9,$B112*N$8,IF($B112&lt;$K$10,$B112*N$9,$B112*N$10)))</f>
+        <v>1171</v>
+      </c>
+      <c r="F112" s="8">
+        <f t="shared" si="37"/>
+        <v>835.11682945154018</v>
+      </c>
+      <c r="G112" s="8">
         <f t="shared" si="43"/>
-        <v>1902</v>
-      </c>
-      <c r="D112" s="5">
-        <f t="shared" ref="D112:D126" si="44">C$3+IF($B112&lt;$K$8,M$7*$B112,IF($B112&lt;$K$9,$B112*M$8,IF($B112&lt;$K$10,$B112*M$9,$B112*M$10)))</f>
-        <v>1491</v>
-      </c>
-      <c r="E112" s="5">
-        <f t="shared" ref="E112:E126" si="45">D$3+IF($B112&lt;$K$8,N$7*$B112,IF($B112&lt;$K$9,$B112*N$8,IF($B112&lt;$K$10,$B112*N$9,$B112*N$10)))</f>
-        <v>1171</v>
-      </c>
-      <c r="F112" s="8">
-        <f t="shared" si="35"/>
-        <v>835.11682945154018</v>
-      </c>
-      <c r="G112" s="8">
-        <f t="shared" si="41"/>
         <v>2382032</v>
       </c>
       <c r="H112" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>307.59710743801651</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>1837.9876543209878</v>
       </c>
       <c r="I112" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>76.899276859504127</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>459.49691358024694</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
@@ -20897,32 +20900,32 @@
         <v>107</v>
       </c>
       <c r="C113" s="5">
+        <f t="shared" si="45"/>
+        <v>1919</v>
+      </c>
+      <c r="D113" s="5">
+        <f t="shared" si="46"/>
+        <v>1505</v>
+      </c>
+      <c r="E113" s="5">
+        <f t="shared" si="47"/>
+        <v>1182</v>
+      </c>
+      <c r="F113" s="8">
+        <f t="shared" si="37"/>
+        <v>842.9568291775214</v>
+      </c>
+      <c r="G113" s="8">
         <f t="shared" si="43"/>
-        <v>1919</v>
-      </c>
-      <c r="D113" s="5">
-        <f t="shared" si="44"/>
-        <v>1505</v>
-      </c>
-      <c r="E113" s="5">
-        <f t="shared" si="45"/>
-        <v>1182</v>
-      </c>
-      <c r="F113" s="8">
-        <f t="shared" si="35"/>
-        <v>842.9568291775214</v>
-      </c>
-      <c r="G113" s="8">
-        <f t="shared" si="41"/>
         <v>2450086</v>
       </c>
       <c r="H113" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>316.38507231404958</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>1890.4984567901236</v>
       </c>
       <c r="I113" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>79.096268078512395</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>472.62461419753089</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
@@ -20930,32 +20933,32 @@
         <v>108</v>
       </c>
       <c r="C114" s="5">
+        <f t="shared" si="45"/>
+        <v>1936</v>
+      </c>
+      <c r="D114" s="5">
+        <f t="shared" si="46"/>
+        <v>1519</v>
+      </c>
+      <c r="E114" s="5">
+        <f t="shared" si="47"/>
+        <v>1193</v>
+      </c>
+      <c r="F114" s="8">
+        <f t="shared" si="37"/>
+        <v>850.79682890855452</v>
+      </c>
+      <c r="G114" s="8">
         <f t="shared" si="43"/>
-        <v>1936</v>
-      </c>
-      <c r="D114" s="5">
-        <f t="shared" si="44"/>
-        <v>1519</v>
-      </c>
-      <c r="E114" s="5">
-        <f t="shared" si="45"/>
-        <v>1193</v>
-      </c>
-      <c r="F114" s="8">
-        <f t="shared" si="35"/>
-        <v>850.79682890855452</v>
-      </c>
-      <c r="G114" s="8">
-        <f t="shared" si="41"/>
         <v>2519424</v>
       </c>
       <c r="H114" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>325.3388429752066</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>1944</v>
       </c>
       <c r="I114" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>81.334710743801651</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>486</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
@@ -20967,28 +20970,28 @@
         <v>1953</v>
       </c>
       <c r="D115" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1533</v>
       </c>
       <c r="E115" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1204</v>
       </c>
       <c r="F115" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>858.63682864450129</v>
       </c>
       <c r="G115" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2590058</v>
       </c>
       <c r="H115" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>334.45996900826447</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>1998.5015432098764</v>
       </c>
       <c r="I115" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>83.614992252066116</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>499.62538580246911</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
@@ -20996,32 +20999,32 @@
         <v>110</v>
       </c>
       <c r="C116" s="5">
-        <f t="shared" ref="C116:C122" si="46">B$3+IF($B116&lt;$K$8,L$7*$B116,IF($B116&lt;$K$9,$B116*L$8,IF($B116&lt;$K$10,$B116*L$9,$B116*L$10)))</f>
+        <f t="shared" ref="C116:C122" si="48">B$3+IF($B116&lt;$K$8,L$7*$B116,IF($B116&lt;$K$9,$B116*L$8,IF($B116&lt;$K$10,$B116*L$9,$B116*L$10)))</f>
         <v>1970</v>
       </c>
       <c r="D116" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1547</v>
       </c>
       <c r="E116" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1215</v>
       </c>
       <c r="F116" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>866.47682838522815</v>
       </c>
       <c r="G116" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2662000</v>
       </c>
       <c r="H116" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>343.75</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>2054.0123456790125</v>
       </c>
       <c r="I116" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>85.9375</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>513.50308641975312</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
@@ -21029,32 +21032,32 @@
         <v>111</v>
       </c>
       <c r="C117" s="5">
+        <f t="shared" si="48"/>
+        <v>1987</v>
+      </c>
+      <c r="D117" s="5">
         <f t="shared" si="46"/>
-        <v>1987</v>
-      </c>
-      <c r="D117" s="5">
-        <f t="shared" si="44"/>
         <v>1561</v>
       </c>
       <c r="E117" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1226</v>
       </c>
       <c r="F117" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>874.31682813060638</v>
       </c>
       <c r="G117" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2735262</v>
       </c>
       <c r="H117" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>353.2104855371901</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>2110.5416666666665</v>
       </c>
       <c r="I117" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>88.302621384297524</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>527.63541666666663</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
@@ -21062,32 +21065,32 @@
         <v>112</v>
       </c>
       <c r="C118" s="5">
+        <f t="shared" si="48"/>
+        <v>2004</v>
+      </c>
+      <c r="D118" s="5">
         <f t="shared" si="46"/>
-        <v>2004</v>
-      </c>
-      <c r="D118" s="5">
-        <f t="shared" si="44"/>
         <v>1575</v>
       </c>
       <c r="E118" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1237</v>
       </c>
       <c r="F118" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>882.15682788051208</v>
       </c>
       <c r="G118" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2809856</v>
       </c>
       <c r="H118" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>362.84297520661158</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>2168.0987654320988</v>
       </c>
       <c r="I118" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>90.710743801652896</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>542.02469135802471</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
@@ -21095,32 +21098,32 @@
         <v>113</v>
       </c>
       <c r="C119" s="5">
+        <f t="shared" si="48"/>
+        <v>2021</v>
+      </c>
+      <c r="D119" s="5">
         <f t="shared" si="46"/>
-        <v>2021</v>
-      </c>
-      <c r="D119" s="5">
-        <f t="shared" si="44"/>
         <v>1589</v>
       </c>
       <c r="E119" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1248</v>
       </c>
       <c r="F119" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>889.99682763482554</v>
       </c>
       <c r="G119" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2885794</v>
       </c>
       <c r="H119" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>372.6490185950413</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>2226.6929012345681</v>
       </c>
       <c r="I119" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>93.162254648760324</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>556.67322530864215</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
@@ -21128,32 +21131,32 @@
         <v>114</v>
       </c>
       <c r="C120" s="5">
+        <f t="shared" si="48"/>
+        <v>2038</v>
+      </c>
+      <c r="D120" s="5">
         <f t="shared" si="46"/>
-        <v>2038</v>
-      </c>
-      <c r="D120" s="5">
-        <f t="shared" si="44"/>
         <v>1603</v>
       </c>
       <c r="E120" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1259</v>
       </c>
       <c r="F120" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>897.83682739343112</v>
       </c>
       <c r="G120" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2963088</v>
       </c>
       <c r="H120" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>382.63016528925618</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>2286.3333333333335</v>
       </c>
       <c r="I120" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>95.657541322314046</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>571.58333333333337</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
@@ -21161,32 +21164,32 @@
         <v>115</v>
       </c>
       <c r="C121" s="5">
+        <f t="shared" si="48"/>
+        <v>2055</v>
+      </c>
+      <c r="D121" s="5">
         <f t="shared" si="46"/>
-        <v>2055</v>
-      </c>
-      <c r="D121" s="5">
-        <f t="shared" si="44"/>
         <v>1617</v>
       </c>
       <c r="E121" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1270</v>
       </c>
       <c r="F121" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>905.67682715621754</v>
       </c>
       <c r="G121" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3041750</v>
       </c>
       <c r="H121" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>392.78796487603307</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>2347.0293209876545</v>
       </c>
       <c r="I121" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>98.196991219008268</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>586.75733024691363</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
@@ -21194,32 +21197,32 @@
         <v>116</v>
       </c>
       <c r="C122" s="5">
+        <f t="shared" si="48"/>
+        <v>2072</v>
+      </c>
+      <c r="D122" s="5">
         <f t="shared" si="46"/>
-        <v>2072</v>
-      </c>
-      <c r="D122" s="5">
-        <f t="shared" si="44"/>
         <v>1631</v>
       </c>
       <c r="E122" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1281</v>
       </c>
       <c r="F122" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>913.51682692307691</v>
       </c>
       <c r="G122" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3121792</v>
       </c>
       <c r="H122" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>403.12396694214874</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>2408.7901234567903</v>
       </c>
       <c r="I122" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>100.78099173553719</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>602.19753086419757</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
@@ -21231,28 +21234,28 @@
         <v>2089</v>
       </c>
       <c r="D123" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1645</v>
       </c>
       <c r="E123" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1292</v>
       </c>
       <c r="F123" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>921.3568266939053</v>
       </c>
       <c r="G123" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3203226</v>
       </c>
       <c r="H123" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>413.63972107438019</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>2471.625</v>
       </c>
       <c r="I123" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>103.40993026859505</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>617.90625</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -21260,32 +21263,32 @@
         <v>118</v>
       </c>
       <c r="C124" s="5">
-        <f t="shared" ref="C124:C125" si="47">B$3+IF($B124&lt;$K$8,L$7*$B124,IF($B124&lt;$K$9,$B124*L$8,IF($B124&lt;$K$10,$B124*L$9,$B124*L$10)))</f>
+        <f t="shared" ref="C124:C125" si="49">B$3+IF($B124&lt;$K$8,L$7*$B124,IF($B124&lt;$K$9,$B124*L$8,IF($B124&lt;$K$10,$B124*L$9,$B124*L$10)))</f>
         <v>2106</v>
       </c>
       <c r="D124" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1659</v>
       </c>
       <c r="E124" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1303</v>
       </c>
       <c r="F124" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>929.19682646860224</v>
       </c>
       <c r="G124" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3286064</v>
       </c>
       <c r="H124" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>424.33677685950414</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>2535.5432098765432</v>
       </c>
       <c r="I124" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>106.08419421487604</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>633.8858024691358</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
@@ -21293,32 +21296,32 @@
         <v>119</v>
       </c>
       <c r="C125" s="5">
+        <f t="shared" si="49"/>
+        <v>2123</v>
+      </c>
+      <c r="D125" s="5">
+        <f t="shared" si="46"/>
+        <v>1673</v>
+      </c>
+      <c r="E125" s="5">
         <f t="shared" si="47"/>
-        <v>2123</v>
-      </c>
-      <c r="D125" s="5">
-        <f t="shared" si="44"/>
-        <v>1673</v>
-      </c>
-      <c r="E125" s="5">
-        <f t="shared" si="45"/>
         <v>1314</v>
       </c>
       <c r="F125" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>937.03682624707062</v>
       </c>
       <c r="G125" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3370318</v>
       </c>
       <c r="H125" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>435.21668388429754</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>2600.554012345679</v>
       </c>
       <c r="I125" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>108.80417097107438</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>650.13850308641975</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
@@ -21330,28 +21333,28 @@
         <v>2140</v>
       </c>
       <c r="D126" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1687</v>
       </c>
       <c r="E126" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1325</v>
       </c>
       <c r="F126" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>944.87682602921643</v>
       </c>
       <c r="G126" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3456000</v>
       </c>
       <c r="H126" s="8">
-        <f t="shared" ca="1" si="42"/>
-        <v>446.28099173553721</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>2666.6666666666665</v>
       </c>
       <c r="I126" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>111.5702479338843</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>666.66666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -21386,20 +21389,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2">

--- a/discord/Game System Calculations.xlsx
+++ b/discord/Game System Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerald\iCloudDrive\Working Folder\Coding\Python\Projects\ZeusRPG\discord\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\jeraldlim2020\Github\HoloRPG\discord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FCD7EE-7C4E-4A09-B25B-30007DA301A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FE8F88-A639-4AF6-A3D0-4157B7882D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FCB550A9-44B4-4A74-8B55-9A7FD8859F8C}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FCB550A9-44B4-4A74-8B55-9A7FD8859F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Static" sheetId="3" r:id="rId1"/>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
   <si>
     <t>Player</t>
   </si>
@@ -568,6 +568,21 @@
   <si>
     <t>Chance</t>
   </si>
+  <si>
+    <t>Bounty PVP</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -634,7 +649,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,6 +707,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,7 +821,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -932,6 +959,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12451,7 +12487,7 @@
       </c>
       <c r="G3" s="39">
         <f ca="1">SUM(I7:I126)/60</f>
-        <v>12.695976413458206</v>
+        <v>12.973475897920606</v>
       </c>
       <c r="H3" s="39"/>
     </row>
@@ -12544,19 +12580,19 @@
       </c>
       <c r="H7" s="24">
         <f t="shared" ref="H7:H38" ca="1" si="1">G7/$P$29</f>
-        <v>5.7810151462596829E-5</v>
+        <v>5.9073724007561438E-5</v>
       </c>
       <c r="I7" s="8">
         <f ca="1">(H7*15)/60</f>
-        <v>1.4452537865649207E-5</v>
+        <v>1.476843100189036E-5</v>
       </c>
       <c r="K7" s="10">
         <f ca="1">$J$16*RANDBETWEEN(10,100)</f>
-        <v>630</v>
+        <v>504</v>
       </c>
       <c r="L7" s="10">
         <f ca="1">$J$16*RANDBETWEEN(5,50)</f>
-        <v>343</v>
+        <v>126</v>
       </c>
       <c r="N7" s="25">
         <v>1</v>
@@ -12591,11 +12627,11 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6248121170077463E-4</v>
+        <v>4.7258979206049151E-4</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" ref="I8:I71" ca="1" si="6">(H8*15)/60</f>
-        <v>1.1562030292519366E-4</v>
+        <v>1.1814744801512288E-4</v>
       </c>
       <c r="N8" s="25">
         <v>0.25</v>
@@ -12630,11 +12666,11 @@
       </c>
       <c r="H9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5608740894901144E-3</v>
+        <v>1.5949905482041588E-3</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.902185223725286E-4</v>
+        <v>3.9874763705103971E-4</v>
       </c>
       <c r="N9" s="25">
         <v>0.6</v>
@@ -12669,11 +12705,11 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6998496936061971E-3</v>
+        <v>3.780718336483932E-3</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.2496242340154927E-4</v>
+        <v>9.4517958412098301E-4</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
@@ -12702,11 +12738,11 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2262689328246041E-3</v>
+        <v>7.3842155009451798E-3</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.806567233206151E-3</v>
+        <v>1.846053875236295E-3</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -12735,11 +12771,11 @@
       </c>
       <c r="H12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2486992715920915E-2</v>
+        <v>1.2759924385633271E-2</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1217481789802288E-3</v>
+        <v>3.1899810964083177E-3</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
@@ -12768,11 +12804,11 @@
       </c>
       <c r="H13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9828881951670714E-2</v>
+        <v>2.0262287334593572E-2</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9572204879176785E-3</v>
+        <v>5.065571833648393E-3</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -12801,11 +12837,11 @@
       </c>
       <c r="H14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9598797548849577E-2</v>
+        <v>3.0245746691871456E-2</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>7.3996993872123941E-3</v>
+        <v>7.5614366729678641E-3</v>
       </c>
       <c r="K14" s="30" t="s">
         <v>12</v>
@@ -12847,11 +12883,11 @@
       </c>
       <c r="H15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2143600416233093E-2</v>
+        <v>4.3064744801512289E-2</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0535900104058273E-2</v>
+        <v>1.0766186200378074E-2</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>28</v>
@@ -12910,50 +12946,50 @@
       </c>
       <c r="H16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7810151462596833E-2</v>
+        <v>5.9073724007561439E-2</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4452537865649208E-2</v>
+        <v>1.476843100189036E-2</v>
       </c>
       <c r="J16" s="2">
         <v>7</v>
       </c>
       <c r="K16" s="6">
         <f ca="1">RANDBETWEEN($J$18,$J$19)</f>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" ref="L16:L17" ca="1" si="7">IF(K16=0,0,VLOOKUP($K16,$B$7:$G$126,2,0))</f>
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="M16" s="12">
         <f ca="1">IF(K16=0,0,VLOOKUP($K16,$B$7:$G$126,3,0))+$K$7</f>
-        <v>919</v>
+        <v>799</v>
       </c>
       <c r="N16" s="6">
         <f ca="1">IF(K16=0,0,VLOOKUP($K16,$B$7:$G$126,4,0))+$L$7</f>
-        <v>536</v>
+        <v>323</v>
       </c>
       <c r="O16" s="14">
         <f t="shared" ref="O16:O17" ca="1" si="8">IF(K16=0,0,VLOOKUP($K16,$B$7:$G$126,5,0))</f>
-        <v>173.28008298755188</v>
+        <v>176.880081300813</v>
       </c>
       <c r="P16" s="17">
         <f ca="1">IF(K16=0,0,$Q$29*(1-(N16/(SUM($N$16:$N$19)))))</f>
-        <v>612.7797957844756</v>
+        <v>592.84032143758407</v>
       </c>
       <c r="Q16" s="20">
         <f ca="1">O16*$O$7</f>
-        <v>173.28008298755188</v>
+        <v>176.880081300813</v>
       </c>
       <c r="R16" s="20">
         <f ca="1">O16*$O$8</f>
-        <v>866.40041493775936</v>
+        <v>884.40040650406502</v>
       </c>
       <c r="S16" s="20">
         <f ca="1">O16*$O$9</f>
-        <v>259.92012448132783</v>
+        <v>265.32012195121951</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
@@ -12982,50 +13018,50 @@
       </c>
       <c r="H17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6945311596716387E-2</v>
+        <v>7.8627126654064267E-2</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9236327899179097E-2</v>
+        <v>1.9656781663516067E-2</v>
       </c>
       <c r="J17" s="19" t="s">
         <v>11</v>
       </c>
       <c r="K17" s="6">
         <f ca="1">RANDBETWEEN($J$18,$J$19)</f>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="M17" s="12">
         <f ca="1">IF(K17=0,0,VLOOKUP($K17,$B$7:$G$126,3,0))+$K$7</f>
-        <v>937</v>
+        <v>808</v>
       </c>
       <c r="N17" s="6">
         <f ca="1">IF(K17=0,0,VLOOKUP($K17,$B$7:$G$126,4,0))+$L$7</f>
-        <v>548</v>
+        <v>329</v>
       </c>
       <c r="O17" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>184.080078125</v>
+        <v>182.2800788954635</v>
       </c>
       <c r="P17" s="17">
         <f ca="1">IF(K17=0,0,$Q$29*(1-(N17/(SUM($N$16:$N$19)))))</f>
-        <v>608.23507542019013</v>
+        <v>589.12345421853968</v>
       </c>
       <c r="Q17" s="20">
         <f t="shared" ref="Q17:Q19" ca="1" si="9">O17*$O$7</f>
-        <v>184.080078125</v>
+        <v>182.2800788954635</v>
       </c>
       <c r="R17" s="20">
         <f t="shared" ref="R17:R19" ca="1" si="10">O17*$O$8</f>
-        <v>920.400390625</v>
+        <v>911.40039447731749</v>
       </c>
       <c r="S17" s="20">
         <f t="shared" ref="S17:S19" ca="1" si="11">O17*$O$9</f>
-        <v>276.1201171875</v>
+        <v>273.42011834319527</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
@@ -13054,50 +13090,50 @@
       </c>
       <c r="H18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9895941727367321E-2</v>
+        <v>0.10207939508506617</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.497398543184183E-2</v>
+        <v>2.5519848771266541E-2</v>
       </c>
       <c r="J18" s="10">
         <v>90</v>
       </c>
       <c r="K18" s="6">
         <f ca="1">RANDBETWEEN($J$18,$J$19)</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L18" s="6">
         <f ca="1">IF(K18=0,0,VLOOKUP($K18,$B$7:$G$126,2,0))</f>
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="M18" s="12">
         <f ca="1">IF(K18=0,0,VLOOKUP($K18,$B$7:$G$126,3,0))+$K$7</f>
-        <v>907</v>
+        <v>787</v>
       </c>
       <c r="N18" s="6">
         <f ca="1">IF(K18=0,0,VLOOKUP($K18,$B$7:$G$126,4,0))+$L$7</f>
-        <v>528</v>
+        <v>315</v>
       </c>
       <c r="O18" s="14">
         <f ca="1">IF(K18=0,0,VLOOKUP($K18,$B$7:$G$126,5,0))</f>
-        <v>166.08008658008657</v>
+        <v>169.68008474576271</v>
       </c>
       <c r="P18" s="17">
         <f ca="1">IF(K18=0,0,$Q$29*(1-(N18/(SUM($N$16:$N$19)))))</f>
-        <v>615.80960936066583</v>
+        <v>597.79614439630996</v>
       </c>
       <c r="Q18" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>166.08008658008657</v>
+        <v>169.68008474576271</v>
       </c>
       <c r="R18" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>830.40043290043286</v>
+        <v>848.40042372881362</v>
       </c>
       <c r="S18" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>249.12012987012986</v>
+        <v>254.52012711864407</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
@@ -13126,50 +13162,50 @@
       </c>
       <c r="H19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12700890276332524</v>
+        <v>0.12978497164461247</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1752225690831311E-2</v>
+        <v>3.2446242911153118E-2</v>
       </c>
       <c r="J19" s="10">
         <v>100</v>
       </c>
       <c r="K19" s="6">
         <f ca="1">RANDBETWEEN($J$18,$J$19)</f>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L19" s="6">
         <f ca="1">IF(K19=0,0,VLOOKUP($K19,$B$7:$G$126,2,0))</f>
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="M19" s="12">
         <f ca="1">IF(K19=0,0,VLOOKUP($K19,$B$7:$G$126,3,0))+$K$7</f>
-        <v>928</v>
+        <v>784</v>
       </c>
       <c r="N19" s="6">
         <f ca="1">IF(K19=0,0,VLOOKUP($K19,$B$7:$G$126,4,0))+$L$7</f>
-        <v>542</v>
+        <v>313</v>
       </c>
       <c r="O19" s="14">
         <f ca="1">IF(K19=0,0,VLOOKUP($K19,$B$7:$G$126,5,0))</f>
-        <v>178.68008048289738</v>
+        <v>167.88008565310491</v>
       </c>
       <c r="P19" s="17">
         <f ca="1">IF(K19=0,0,$Q$29*(1-(N19/(SUM($N$16:$N$19)))))</f>
-        <v>610.50743560233286</v>
+        <v>599.03510013599146</v>
       </c>
       <c r="Q19" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>178.68008048289738</v>
+        <v>167.88008565310491</v>
       </c>
       <c r="R19" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>893.40040241448696</v>
+        <v>839.40042826552462</v>
       </c>
       <c r="S19" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>268.02012072434604</v>
+        <v>251.82012847965737</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
@@ -13198,11 +13234,11 @@
       </c>
       <c r="H20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15863105561336571</v>
+        <v>0.16209829867674858</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.9657763903341428E-2</v>
+        <v>4.0524574669187144E-2</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
@@ -13231,11 +13267,11 @@
       </c>
       <c r="H21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19510926118626432</v>
+        <v>0.19937381852551986</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8777315296566079E-2</v>
+        <v>4.9843454631379965E-2</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
@@ -13264,11 +13300,11 @@
       </c>
       <c r="H22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23679038039079661</v>
+        <v>0.24196597353497165</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9197595097699153E-2</v>
+        <v>6.0491493383742913E-2</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
@@ -13297,11 +13333,11 @@
       </c>
       <c r="H23" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28402127413573824</v>
+        <v>0.29022920604914931</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>7.1005318533934561E-2</v>
+        <v>7.2557301512287328E-2</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
@@ -13330,11 +13366,11 @@
       </c>
       <c r="H24" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33714880332986474</v>
+        <v>0.34451795841209831</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>8.4287200832466186E-2</v>
+        <v>8.6129489603024592E-2</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
@@ -13363,11 +13399,11 @@
       </c>
       <c r="H25" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3965198288819517</v>
+        <v>0.40518667296786387</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.9129957220487924E-2</v>
+        <v>0.10129666824196597</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
@@ -13396,11 +13432,11 @@
       </c>
       <c r="H26" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46248121170077466</v>
+        <v>0.47258979206049151</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.11562030292519367</v>
+        <v>0.11814744801512288</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
@@ -13429,11 +13465,11 @@
       </c>
       <c r="H27" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53537981269510926</v>
+        <v>0.54708175803402648</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13384495317377734</v>
+        <v>0.13677043950850662</v>
       </c>
       <c r="K27" s="34" t="s">
         <v>10</v>
@@ -13472,11 +13508,11 @@
       </c>
       <c r="H28" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6155624927737311</v>
+        <v>0.62901701323251413</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15389062319343277</v>
+        <v>0.15725425330812853</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>5</v>
@@ -13529,27 +13565,27 @@
       </c>
       <c r="H29" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70337611284541568</v>
+        <v>0.71875</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.17584402821135392</v>
+        <v>0.1796875</v>
       </c>
       <c r="K29" s="2">
         <f ca="1">RANDBETWEEN(J18,J19)</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L29" s="2">
         <f ca="1">AVERAGE(L16:L19)*$O$29</f>
-        <v>806.75</v>
+        <v>801.5</v>
       </c>
       <c r="M29" s="2">
         <f ca="1">AVERAGE(M16:M19)*$O$29</f>
-        <v>1291.8499999999999</v>
+        <v>1112.3</v>
       </c>
       <c r="N29" s="2">
         <f ca="1">AVERAGE(N16:N19)*$O$29</f>
-        <v>753.9</v>
+        <v>448</v>
       </c>
       <c r="O29" s="11">
         <f ca="1">1+(4-COUNTIF(K16:K19,0))*0.1</f>
@@ -13557,15 +13593,15 @@
       </c>
       <c r="P29" s="2">
         <f ca="1">$K$29^2*4</f>
-        <v>34596</v>
+        <v>33856</v>
       </c>
       <c r="Q29" s="17">
         <f ca="1">M29^2/(M29+N29)</f>
-        <v>815.77730538922151</v>
+        <v>792.93167339614172</v>
       </c>
       <c r="R29" s="18">
         <f ca="1">L29/SUM(Q16:Q19)</f>
-        <v>1.149019573463063</v>
+        <v>1.1503898548724023</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
@@ -13594,11 +13630,11 @@
       </c>
       <c r="H30" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79916753381893857</v>
+        <v>0.81663516068052933</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19979188345473464</v>
+        <v>0.20415879017013233</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
@@ -13627,11 +13663,11 @@
       </c>
       <c r="H31" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90328361660307555</v>
+        <v>0.92302693761814747</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.22582090415076889</v>
+        <v>0.23075673440453687</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
@@ -13660,11 +13696,11 @@
       </c>
       <c r="H32" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0160712221066019</v>
+        <v>1.0382797731568998</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.25401780552665049</v>
+        <v>0.25956994328922495</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -13693,11 +13729,11 @@
       </c>
       <c r="H33" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1378772112382936</v>
+        <v>1.1627481096408319</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.28446930280957339</v>
+        <v>0.29068702741020797</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -13726,11 +13762,11 @@
       </c>
       <c r="H34" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2690484449069257</v>
+        <v>1.2967863894139886</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31726211122673142</v>
+        <v>0.32419659735349715</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -13759,11 +13795,11 @@
       </c>
       <c r="H35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4099317840212742</v>
+        <v>1.4407490548204158</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.35248294600531854</v>
+        <v>0.36018726370510395</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -13792,11 +13828,11 @@
       </c>
       <c r="H36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5608740894901145</v>
+        <v>1.5949905482041589</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39021852237252863</v>
+        <v>0.39874763705103972</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -13825,11 +13861,11 @@
       </c>
       <c r="H37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7222222222222223</v>
+        <v>1.7598653119092627</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.43055555555555558</v>
+        <v>0.43996632797731566</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -13858,11 +13894,11 @@
       </c>
       <c r="H38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8943230431263729</v>
+        <v>1.9357277882797732</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.47358076078159322</v>
+        <v>0.4839319470699433</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -13891,11 +13927,11 @@
       </c>
       <c r="H39" s="8">
         <f t="shared" ref="H39:H70" ca="1" si="13">G39/$P$29</f>
-        <v>2.0775234131113423</v>
+        <v>2.1229324196597354</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51938085327783556</v>
+        <v>0.53073310491493386</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -13924,11 +13960,11 @@
       </c>
       <c r="H40" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>2.272170193085906</v>
+        <v>2.3218336483931945</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.56804254827147649</v>
+        <v>0.58045841209829863</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -13957,11 +13993,11 @@
       </c>
       <c r="H41" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>2.4786102439588391</v>
+        <v>2.5327859168241966</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.61965256098970978</v>
+        <v>0.63319647920604916</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -13990,11 +14026,11 @@
       </c>
       <c r="H42" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>2.6971904266389179</v>
+        <v>2.7561436672967865</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.67429760665972949</v>
+        <v>0.68903591682419674</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -14023,11 +14059,11 @@
       </c>
       <c r="H43" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>2.9282576020349174</v>
+        <v>2.9922613421550093</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.73206440050872934</v>
+        <v>0.74806533553875232</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -14056,11 +14092,11 @@
       </c>
       <c r="H44" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>3.1721586310556136</v>
+        <v>3.241493383742911</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.79303965776390339</v>
+        <v>0.81037334593572774</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -14089,11 +14125,11 @@
       </c>
       <c r="H45" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>3.4292403746097815</v>
+        <v>3.5041942344045367</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.85731009365244537</v>
+        <v>0.87604855860113418</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -14122,11 +14158,11 @@
       </c>
       <c r="H46" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>3.6998496936061973</v>
+        <v>3.7807183364839321</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.92496242340154933</v>
+        <v>0.94517958412098302</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -14155,11 +14191,11 @@
       </c>
       <c r="H47" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>3.9843334489536364</v>
+        <v>4.0714201323251418</v>
       </c>
       <c r="I47" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.9960833622384091</v>
+        <v>1.0178550330812854</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
@@ -14188,11 +14224,11 @@
       </c>
       <c r="H48" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>4.2830385015608741</v>
+        <v>4.3766540642722118</v>
       </c>
       <c r="I48" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0707596253902187</v>
+        <v>1.094163516068053</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -14221,11 +14257,11 @@
       </c>
       <c r="H49" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>4.5963117123366866</v>
+        <v>4.6967745746691874</v>
       </c>
       <c r="I49" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1490779280841716</v>
+        <v>1.1741936436672968</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -14254,11 +14290,11 @@
       </c>
       <c r="H50" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9244999421898488</v>
+        <v>5.0321361058601131</v>
       </c>
       <c r="I50" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2311249855474622</v>
+        <v>1.2580340264650283</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -14287,11 +14323,11 @@
       </c>
       <c r="H51" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>5.2679500520291365</v>
+        <v>5.3830931001890363</v>
       </c>
       <c r="I51" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3169875130072841</v>
+        <v>1.3457732750472593</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -14320,11 +14356,11 @@
       </c>
       <c r="H52" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>5.6270089027633254</v>
+        <v>5.75</v>
       </c>
       <c r="I52" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4067522256908314</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -14353,11 +14389,11 @@
       </c>
       <c r="H53" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6.0020233553011906</v>
+        <v>6.1332112476370506</v>
       </c>
       <c r="I53" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5005058388252976</v>
+        <v>1.5333028119092627</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -14386,11 +14422,11 @@
       </c>
       <c r="H54" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6.3933402705515086</v>
+        <v>6.5330812854442346</v>
       </c>
       <c r="I54" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5983350676378771</v>
+        <v>1.6332703213610587</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -14419,11 +14455,11 @@
       </c>
       <c r="H55" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6.8013065094230543</v>
+        <v>6.9499645557655958</v>
       </c>
       <c r="I55" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7003266273557636</v>
+        <v>1.7374911389413989</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -14452,11 +14488,11 @@
       </c>
       <c r="H56" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>7.2262689328246044</v>
+        <v>7.3842155009451798</v>
       </c>
       <c r="I56" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8065672332061511</v>
+        <v>1.8460538752362949</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -14485,11 +14521,11 @@
       </c>
       <c r="H57" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>7.668574401664932</v>
+        <v>7.8361885633270321</v>
       </c>
       <c r="I57" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.917143600416233</v>
+        <v>1.959047140831758</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -14518,11 +14554,11 @@
       </c>
       <c r="H58" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>8.1285697768528156</v>
+        <v>8.3062381852551983</v>
       </c>
       <c r="I58" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0321424442132039</v>
+        <v>2.0765595463137996</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -14551,11 +14587,11 @@
       </c>
       <c r="H59" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>8.6066019192970291</v>
+        <v>8.7947188090737232</v>
       </c>
       <c r="I59" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.1516504798242573</v>
+        <v>2.1986797022684308</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -14584,11 +14620,11 @@
       </c>
       <c r="H60" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>9.1030176899063484</v>
+        <v>9.3019848771266549</v>
       </c>
       <c r="I60" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2757544224765871</v>
+        <v>2.3254962192816637</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -14617,11 +14653,11 @@
       </c>
       <c r="H61" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>9.6181639495895475</v>
+        <v>9.8283908317580337</v>
       </c>
       <c r="I61" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.4045409873973869</v>
+        <v>2.4570977079395084</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -14650,11 +14686,11 @@
       </c>
       <c r="H62" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>10.152387559255406</v>
+        <v>10.374291115311909</v>
       </c>
       <c r="I62" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.5380968898138514</v>
+        <v>2.5935727788279772</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -14683,11 +14719,11 @@
       </c>
       <c r="H63" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>10.706035379812695</v>
+        <v>10.940040170132326</v>
       </c>
       <c r="I63" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.6765088449531738</v>
+        <v>2.7350100425330814</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -14716,11 +14752,11 @@
       </c>
       <c r="H64" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>11.279454272170193</v>
+        <v>11.525992438563327</v>
       </c>
       <c r="I64" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8198635680425483</v>
+        <v>2.8814981096408316</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -14749,11 +14785,11 @@
       </c>
       <c r="H65" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>11.872991097236675</v>
+        <v>12.13250236294896</v>
       </c>
       <c r="I65" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9682477743091686</v>
+        <v>3.0331255907372401</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -14782,11 +14818,11 @@
       </c>
       <c r="H66" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>12.486992715920916</v>
+        <v>12.759924385633271</v>
       </c>
       <c r="I66" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.121748178980229</v>
+        <v>3.1899810964083177</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -14815,11 +14851,11 @@
       </c>
       <c r="H67" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>13.121805989131692</v>
+        <v>13.408612948960302</v>
       </c>
       <c r="I67" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2804514972829231</v>
+        <v>3.3521532372400755</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -14848,11 +14884,11 @@
       </c>
       <c r="H68" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>13.777777777777779</v>
+        <v>14.078922495274101</v>
       </c>
       <c r="I68" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.4444444444444446</v>
+        <v>3.5197306238185253</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -14881,11 +14917,11 @@
       </c>
       <c r="H69" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>14.455254942767951</v>
+        <v>14.771207466918714</v>
       </c>
       <c r="I69" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.6138137356919873</v>
+        <v>3.6928018667296785</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -14914,11 +14950,11 @@
       </c>
       <c r="H70" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>15.154584345010983</v>
+        <v>15.485822306238186</v>
       </c>
       <c r="I70" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7886460862527458</v>
+        <v>3.8714555765595464</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -14947,11 +14983,11 @@
       </c>
       <c r="H71" s="8">
         <f t="shared" ref="H71:H102" ca="1" si="15">G71/$P$29</f>
-        <v>15.876112845415655</v>
+        <v>16.22312145557656</v>
       </c>
       <c r="I71" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.9690282113539137</v>
+        <v>4.0557803638941401</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -14980,11 +15016,11 @@
       </c>
       <c r="H72" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>16.620187304890738</v>
+        <v>16.983459357277884</v>
       </c>
       <c r="I72" s="8">
         <f t="shared" ref="I72:I126" ca="1" si="20">(H72*15)/60</f>
-        <v>4.1550468262226845</v>
+        <v>4.2458648393194709</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -15013,11 +15049,11 @@
       </c>
       <c r="H73" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>17.387154584345012</v>
+        <v>17.767190453686201</v>
       </c>
       <c r="I73" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>4.346788646086253</v>
+        <v>4.4417976134215502</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -15046,11 +15082,11 @@
       </c>
       <c r="H74" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>18.177361544687248</v>
+        <v>18.574669187145556</v>
       </c>
       <c r="I74" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>4.5443403861718119</v>
+        <v>4.643667296786389</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -15079,11 +15115,11 @@
       </c>
       <c r="H75" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>18.991155046826222</v>
+        <v>19.40625</v>
       </c>
       <c r="I75" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>4.7477887617065555</v>
+        <v>4.8515625</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -15112,11 +15148,11 @@
       </c>
       <c r="H76" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>19.828881951670713</v>
+        <v>20.262287334593573</v>
       </c>
       <c r="I76" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>4.9572204879176782</v>
+        <v>5.0655718336483933</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
@@ -15145,11 +15181,11 @@
       </c>
       <c r="H77" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>20.690889120129494</v>
+        <v>21.143135633270322</v>
       </c>
       <c r="I77" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>5.1727222800323736</v>
+        <v>5.2857839083175806</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -15178,11 +15214,11 @@
       </c>
       <c r="H78" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>21.577523413111344</v>
+        <v>22.049149338374292</v>
       </c>
       <c r="I78" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>5.3943808532778359</v>
+        <v>5.5122873345935739</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -15211,11 +15247,11 @@
       </c>
       <c r="H79" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>22.489131691525031</v>
+        <v>22.980682892249526</v>
       </c>
       <c r="I79" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>5.6222829228812579</v>
+        <v>5.7451707230623814</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -15244,11 +15280,11 @@
       </c>
       <c r="H80" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>23.426060816279339</v>
+        <v>23.938090737240074</v>
       </c>
       <c r="I80" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>5.8565152040698347</v>
+        <v>5.9845226843100185</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
@@ -15277,11 +15313,11 @@
       </c>
       <c r="H81" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>24.38865764828304</v>
+        <v>24.921727315689981</v>
       </c>
       <c r="I81" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>6.09716441207076</v>
+        <v>6.2304318289224954</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -15310,11 +15346,11 @@
       </c>
       <c r="H82" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>25.377269048444909</v>
+        <v>25.931947069943288</v>
       </c>
       <c r="I82" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>6.3443172621112272</v>
+        <v>6.4829867674858219</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -15343,11 +15379,11 @@
       </c>
       <c r="H83" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>26.392241877673719</v>
+        <v>26.969104442344044</v>
       </c>
       <c r="I83" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>6.5980604694184297</v>
+        <v>6.742276110586011</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -15376,11 +15412,11 @@
       </c>
       <c r="H84" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>27.433922996878252</v>
+        <v>28.033553875236294</v>
       </c>
       <c r="I84" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>6.858480749219563</v>
+        <v>7.0083884688090734</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -15409,11 +15445,11 @@
       </c>
       <c r="H85" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>28.502659266967278</v>
+        <v>29.125649810964084</v>
       </c>
       <c r="I85" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>7.1256648167418195</v>
+        <v>7.2814124527410211</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
@@ -15442,11 +15478,11 @@
       </c>
       <c r="H86" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>29.598797548849578</v>
+        <v>30.245746691871457</v>
       </c>
       <c r="I86" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>7.3996993872123946</v>
+        <v>7.5614366729678641</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
@@ -15475,11 +15511,11 @@
       </c>
       <c r="H87" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>30.722684703433924</v>
+        <v>31.394198960302457</v>
       </c>
       <c r="I87" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>7.6806711758584809</v>
+        <v>7.8485497400756143</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
@@ -15508,11 +15544,11 @@
       </c>
       <c r="H88" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>31.874667591629091</v>
+        <v>32.571361058601134</v>
       </c>
       <c r="I88" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>7.9686668979072728</v>
+        <v>8.1428402646502835</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
@@ -15541,11 +15577,11 @@
       </c>
       <c r="H89" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>33.055093074343851</v>
+        <v>33.777587429111534</v>
       </c>
       <c r="I89" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>8.2637732685859628</v>
+        <v>8.4443968572778836</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
@@ -15574,11 +15610,11 @@
       </c>
       <c r="H90" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>34.264308012486993</v>
+        <v>35.013232514177695</v>
       </c>
       <c r="I90" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>8.5660770031217499</v>
+        <v>8.7533081285444236</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -15607,11 +15643,11 @@
       </c>
       <c r="H91" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>35.502659266967278</v>
+        <v>36.278650756143669</v>
       </c>
       <c r="I91" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>8.8756648167418195</v>
+        <v>9.0696626890359173</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
@@ -15640,11 +15676,11 @@
       </c>
       <c r="H92" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>36.770493698693492</v>
+        <v>37.574196597353499</v>
       </c>
       <c r="I92" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>9.1926234246733731</v>
+        <v>9.3935491493383747</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -15673,11 +15709,11 @@
       </c>
       <c r="H93" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>38.068158168574399</v>
+        <v>38.90022448015123</v>
       </c>
       <c r="I93" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>9.5170395421435998</v>
+        <v>9.7250561200378076</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
@@ -15706,11 +15742,11 @@
       </c>
       <c r="H94" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>39.39599953751879</v>
+        <v>40.257088846880904</v>
       </c>
       <c r="I94" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>9.8489998843796975</v>
+        <v>10.064272211720226</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -15739,11 +15775,11 @@
       </c>
       <c r="H95" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>40.754364666435428</v>
+        <v>41.645144139886575</v>
       </c>
       <c r="I95" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>10.188591166608857</v>
+        <v>10.411286034971644</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -15772,11 +15808,11 @@
       </c>
       <c r="H96" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>42.143600416233092</v>
+        <v>43.06474480151229</v>
       </c>
       <c r="I96" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>10.535900104058273</v>
+        <v>10.766186200378074</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
@@ -15805,11 +15841,11 @@
       </c>
       <c r="H97" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>43.564053647820558</v>
+        <v>44.516245274102083</v>
       </c>
       <c r="I97" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>10.891013411955139</v>
+        <v>11.129061318525521</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
@@ -15838,11 +15874,11 @@
       </c>
       <c r="H98" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45.016071222106603</v>
+        <v>46</v>
       </c>
       <c r="I98" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>11.254017805526651</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
@@ -15871,11 +15907,11 @@
       </c>
       <c r="H99" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>46.5</v>
+        <v>47.516363421550096</v>
       </c>
       <c r="I99" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>11.625</v>
+        <v>11.879090855387524</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
@@ -15904,11 +15940,11 @@
       </c>
       <c r="H100" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>48.016186842409525</v>
+        <v>49.065689981096405</v>
       </c>
       <c r="I100" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>12.004046710602381</v>
+        <v>12.266422495274101</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
@@ -15937,11 +15973,11 @@
       </c>
       <c r="H101" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>49.564978610243962</v>
+        <v>50.648334120982987</v>
       </c>
       <c r="I101" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>12.391244652560991</v>
+        <v>12.662083530245747</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
@@ -15970,11 +16006,11 @@
       </c>
       <c r="H102" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>51.146722164412068</v>
+        <v>52.264650283553877</v>
       </c>
       <c r="I102" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>12.786680541103017</v>
+        <v>13.066162570888469</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -16003,11 +16039,11 @@
       </c>
       <c r="H103" s="8">
         <f t="shared" ref="H103:H126" ca="1" si="22">G103/$P$29</f>
-        <v>52.761764365822636</v>
+        <v>53.914992911153121</v>
       </c>
       <c r="I103" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>13.190441091455659</v>
+        <v>13.47874822778828</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -16036,11 +16072,11 @@
       </c>
       <c r="H104" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>54.410452075384434</v>
+        <v>55.599716446124766</v>
       </c>
       <c r="I104" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>13.602613018846109</v>
+        <v>13.899929111531192</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
@@ -16069,11 +16105,11 @@
       </c>
       <c r="H105" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>56.093132154006241</v>
+        <v>57.319175330812854</v>
       </c>
       <c r="I105" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>14.023283038501559</v>
+        <v>14.329793832703213</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
@@ -16102,11 +16138,11 @@
       </c>
       <c r="H106" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>57.810151462596835</v>
+        <v>59.073724007561438</v>
       </c>
       <c r="I106" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>14.452537865649209</v>
+        <v>14.76843100189036</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
@@ -16135,11 +16171,11 @@
       </c>
       <c r="H107" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>59.561856862064978</v>
+        <v>60.863716918714559</v>
       </c>
       <c r="I107" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>14.890464215516245</v>
+        <v>15.21592922967864</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
@@ -16168,11 +16204,11 @@
       </c>
       <c r="H108" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>61.348595213319456</v>
+        <v>62.689508506616257</v>
       </c>
       <c r="I108" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>15.337148803329864</v>
+        <v>15.672377126654064</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -16201,11 +16237,11 @@
       </c>
       <c r="H109" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>63.170713377269045</v>
+        <v>64.551453213610586</v>
       </c>
       <c r="I109" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>15.792678344317261</v>
+        <v>16.137863303402646</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -16234,11 +16270,11 @@
       </c>
       <c r="H110" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>65.028558214822525</v>
+        <v>66.449905482041586</v>
       </c>
       <c r="I110" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>16.257139553705631</v>
+        <v>16.612476370510397</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -16267,11 +16303,11 @@
       </c>
       <c r="H111" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>66.922476586888664</v>
+        <v>68.385219754253313</v>
       </c>
       <c r="I111" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>16.730619146722166</v>
+        <v>17.096304938563328</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -16300,11 +16336,11 @@
       </c>
       <c r="H112" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>68.852815354376233</v>
+        <v>70.357750472589785</v>
       </c>
       <c r="I112" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>17.213203838594058</v>
+        <v>17.589437618147446</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
@@ -16333,11 +16369,11 @@
       </c>
       <c r="H113" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>70.81992137819401</v>
+        <v>72.367852079395078</v>
       </c>
       <c r="I113" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>17.704980344548503</v>
+        <v>18.09196301984877</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
@@ -16366,11 +16402,11 @@
       </c>
       <c r="H114" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>72.824141519250787</v>
+        <v>74.415879017013239</v>
       </c>
       <c r="I114" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>18.206035379812697</v>
+        <v>18.60396975425331</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
@@ -16399,11 +16435,11 @@
       </c>
       <c r="H115" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>74.865822638455313</v>
+        <v>76.502185727788273</v>
       </c>
       <c r="I115" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>18.716455659613828</v>
+        <v>19.125546431947068</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
@@ -16432,11 +16468,11 @@
       </c>
       <c r="H116" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>76.94531159671638</v>
+        <v>78.62712665406427</v>
       </c>
       <c r="I116" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>19.236327899179095</v>
+        <v>19.656781663516067</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
@@ -16465,11 +16501,11 @@
       </c>
       <c r="H117" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>79.062955254942764</v>
+        <v>80.791056238185249</v>
       </c>
       <c r="I117" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>19.765738813735691</v>
+        <v>20.197764059546312</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
@@ -16498,11 +16534,11 @@
       </c>
       <c r="H118" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>81.219100474043245</v>
+        <v>82.994328922495271</v>
       </c>
       <c r="I118" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>20.304775118510811</v>
+        <v>20.748582230623818</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
@@ -16531,11 +16567,11 @@
       </c>
       <c r="H119" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>83.414094114926584</v>
+        <v>85.237299149338369</v>
       </c>
       <c r="I119" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>20.853523528731646</v>
+        <v>21.309324787334592</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
@@ -16564,11 +16600,11 @@
       </c>
       <c r="H120" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>85.64828303850156</v>
+        <v>87.520321361058606</v>
       </c>
       <c r="I120" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>21.41207075962539</v>
+        <v>21.880080340264652</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
@@ -16597,11 +16633,11 @@
       </c>
       <c r="H121" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>87.922014105676951</v>
+        <v>89.84375</v>
       </c>
       <c r="I121" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>21.980503526419238</v>
+        <v>22.4609375</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
@@ -16630,11 +16666,11 @@
       </c>
       <c r="H122" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>90.235634177361547</v>
+        <v>92.207939508506612</v>
       </c>
       <c r="I122" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>22.558908544340387</v>
+        <v>23.051984877126653</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
@@ -16663,11 +16699,11 @@
       </c>
       <c r="H123" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>92.589490114464098</v>
+        <v>94.613244328922491</v>
       </c>
       <c r="I123" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>23.147372528616025</v>
+        <v>23.653311082230623</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -16696,11 +16732,11 @@
       </c>
       <c r="H124" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>94.983928777893397</v>
+        <v>97.060018903591683</v>
       </c>
       <c r="I124" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>23.745982194473349</v>
+        <v>24.265004725897921</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
@@ -16729,11 +16765,11 @@
       </c>
       <c r="H125" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>97.419297028558219</v>
+        <v>99.548617674858221</v>
       </c>
       <c r="I125" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>24.354824257139555</v>
+        <v>24.887154418714555</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
@@ -16762,11 +16798,11 @@
       </c>
       <c r="H126" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>99.89594172736733</v>
+        <v>102.07939508506617</v>
       </c>
       <c r="I126" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>24.973985431841832</v>
+        <v>25.519848771266542</v>
       </c>
     </row>
   </sheetData>
@@ -16792,8 +16828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264FC943-0808-4ECD-AA51-67678092A672}">
   <dimension ref="B1:S126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16856,7 +16892,7 @@
       </c>
       <c r="G3" s="39">
         <f ca="1">SUM(I7:I126)/60</f>
-        <v>338.91203703703707</v>
+        <v>762.55208333333337</v>
       </c>
       <c r="H3" s="39"/>
     </row>
@@ -16932,11 +16968,11 @@
       </c>
       <c r="P6" s="10">
         <f ca="1">$J$16*RANDBETWEEN(10,100)</f>
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="Q6" s="10">
         <f ca="1">$J$16*RANDBETWEEN(5,50)</f>
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
@@ -16965,11 +17001,11 @@
       </c>
       <c r="H7" s="24">
         <f t="shared" ref="H7:H38" ca="1" si="1">G7/$P$24</f>
-        <v>1.5432098765432098E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="I7" s="8">
         <f ca="1">(H7*15)/60</f>
-        <v>3.8580246913580245E-4</v>
+        <v>8.6805555555555551E-4</v>
       </c>
       <c r="K7" s="6">
         <v>1</v>
@@ -17010,11 +17046,11 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2345679012345678E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" ref="I8:I71" ca="1" si="6">(H8*15)/60</f>
-        <v>3.0864197530864196E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="K8" s="6">
         <v>30</v>
@@ -17062,11 +17098,11 @@
       </c>
       <c r="H9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1666666666666664E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0416666666666666E-2</v>
+        <v>2.34375E-2</v>
       </c>
       <c r="K9" s="6">
         <v>60</v>
@@ -17116,11 +17152,11 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8765432098765427E-2</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.4691358024691357E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="K10" s="6">
         <v>90</v>
@@ -17170,11 +17206,11 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19290123456790123</v>
+        <v>0.43402777777777779</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8225308641975308E-2</v>
+        <v>0.10850694444444445</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>25</v>
@@ -17221,15 +17257,11 @@
       </c>
       <c r="H12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J12">
-        <f ca="1">RANDBETWEEN($J$18,$J$19)</f>
-        <v>16</v>
+        <v>0.1875</v>
       </c>
       <c r="P12" s="25">
         <v>0.6</v>
@@ -17264,11 +17296,11 @@
       </c>
       <c r="H13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52932098765432101</v>
+        <v>1.1909722222222223</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13233024691358025</v>
+        <v>0.29774305555555558</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -17297,11 +17329,11 @@
       </c>
       <c r="H14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79012345679012341</v>
+        <v>1.7777777777777777</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19753086419753085</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="K14" s="30" t="s">
         <v>12</v>
@@ -17343,11 +17375,11 @@
       </c>
       <c r="H15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.125</v>
+        <v>2.53125</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.28125</v>
+        <v>0.6328125</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>28</v>
@@ -17406,11 +17438,11 @@
       </c>
       <c r="H16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5432098765432098</v>
+        <v>3.4722222222222223</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38580246913580246</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="J16" s="2">
         <v>2</v>
@@ -17424,31 +17456,31 @@
       </c>
       <c r="M16" s="12">
         <f ca="1">IF(K16=0,0,VLOOKUP($K16,$B$7:$G$126,3,0)+$P$6)</f>
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="N16" s="29">
         <f ca="1">IF(K16=0,0,VLOOKUP($K16,$B$7:$G$126,4,0)+$Q$6)</f>
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="O16" s="14">
         <f ca="1">IF(K16=0,0,M16^2/(M16+N16))</f>
-        <v>111.57786885245902</v>
+        <v>88.166666666666671</v>
       </c>
       <c r="P16" s="17">
         <f ca="1">IF(K16=0,0,IF(COUNTIF($K$16:$K$19,"&gt;"&amp;0)=1,$Q$24,$Q$24*(1-(N16/(SUM($N$16:$N$19))))))</f>
-        <v>47.25</v>
+        <v>31.5</v>
       </c>
       <c r="Q16" s="20">
         <f ca="1">O16*$Q$10</f>
-        <v>111.57786885245902</v>
+        <v>88.166666666666671</v>
       </c>
       <c r="R16" s="20">
         <f ca="1">O16*$Q$11</f>
-        <v>557.88934426229514</v>
+        <v>440.83333333333337</v>
       </c>
       <c r="S16" s="20">
         <f ca="1">O16*$Q$12</f>
-        <v>167.36680327868854</v>
+        <v>132.25</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
@@ -17477,11 +17509,11 @@
       </c>
       <c r="H17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0540123456790123</v>
+        <v>4.6215277777777777</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51350308641975306</v>
+        <v>1.1553819444444444</v>
       </c>
       <c r="J17" s="19" t="s">
         <v>11</v>
@@ -17548,11 +17580,11 @@
       </c>
       <c r="H18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6666666666666665</v>
+        <v>6</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66666666666666663</v>
+        <v>1.5</v>
       </c>
       <c r="J18" s="10">
         <f>VLOOKUP($J$16,Items!$B$4:$D$15,2,0)</f>
@@ -17620,11 +17652,11 @@
       </c>
       <c r="H19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3904320987654319</v>
+        <v>7.6284722222222223</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84760802469135799</v>
+        <v>1.9071180555555556</v>
       </c>
       <c r="J19" s="10">
         <f>VLOOKUP($J$16,Items!$B$4:$D$15,3,0)</f>
@@ -17692,11 +17724,11 @@
       </c>
       <c r="H20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2345679012345681</v>
+        <v>9.5277777777777786</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.058641975308642</v>
+        <v>2.3819444444444446</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
@@ -17725,11 +17757,11 @@
       </c>
       <c r="H21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.208333333333333</v>
+        <v>11.71875</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3020833333333333</v>
+        <v>2.9296875</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
@@ -17758,11 +17790,11 @@
       </c>
       <c r="H22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3209876543209873</v>
+        <v>14.222222222222221</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5802469135802468</v>
+        <v>3.5555555555555554</v>
       </c>
       <c r="K22" s="34" t="s">
         <v>10</v>
@@ -17801,11 +17833,11 @@
       </c>
       <c r="H23" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5817901234567904</v>
+        <v>17.059027777777779</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8954475308641976</v>
+        <v>4.2647569444444446</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>5</v>
@@ -17858,27 +17890,27 @@
       </c>
       <c r="H24" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>20.25</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.25</v>
+        <v>5.0625</v>
       </c>
       <c r="K24" s="2">
         <f ca="1">RANDBETWEEN(J18,J19)</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L24" s="2">
         <f ca="1">$K$24*IF($K$24&lt;$K$31,L30,IF($K$24&lt;$K$32,L31,IF($K$24&lt;$K$33,L32,L33)))*$O$24</f>
-        <v>132.30000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" ref="M24:N24" ca="1" si="22">$K$24*IF($K$24&lt;$K$31,M30,IF($K$24&lt;$K$32,M31,IF($K$24&lt;$K$33,M32,M33)))*$O$24</f>
-        <v>94.5</v>
+        <v>63</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>94.5</v>
+        <v>63</v>
       </c>
       <c r="O24" s="11">
         <f ca="1">1+(4-COUNTIF(K16:K19,0))*IF(K24&lt;K31,O30,IF(K24&lt;K32,O31,IF(K24&lt;K33,O32,O33)))</f>
@@ -17886,15 +17918,15 @@
       </c>
       <c r="P24" s="2">
         <f ca="1">$K$24^2*4</f>
-        <v>1296</v>
+        <v>576</v>
       </c>
       <c r="Q24" s="17">
         <f ca="1">M24^2/(M24+N24)</f>
-        <v>47.25</v>
+        <v>31.5</v>
       </c>
       <c r="R24" s="18">
         <f ca="1">L24/SUM(Q16:Q19)</f>
-        <v>1.1857190082644629</v>
+        <v>1.0003780718336484</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
@@ -17923,11 +17955,11 @@
       </c>
       <c r="H25" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>10.584876543209877</v>
+        <v>23.815972222222221</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.6462191358024691</v>
+        <v>5.9539930555555554</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
@@ -17956,11 +17988,11 @@
       </c>
       <c r="H26" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>12.345679012345679</v>
+        <v>27.777777777777779</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0864197530864197</v>
+        <v>6.9444444444444446</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
@@ -17989,11 +18021,11 @@
       </c>
       <c r="H27" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>14.291666666666666</v>
+        <v>32.15625</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5729166666666665</v>
+        <v>8.0390625</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
@@ -18022,11 +18054,11 @@
       </c>
       <c r="H28" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>16.432098765432098</v>
+        <v>36.972222222222221</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1080246913580245</v>
+        <v>9.2430555555555554</v>
       </c>
       <c r="K28" s="34" t="s">
         <v>24</v>
@@ -18062,11 +18094,11 @@
       </c>
       <c r="H29" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>18.776234567901234</v>
+        <v>42.246527777777779</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.6940586419753085</v>
+        <v>10.561631944444445</v>
       </c>
       <c r="K29" s="21" t="s">
         <v>5</v>
@@ -18110,11 +18142,11 @@
       </c>
       <c r="H30" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>21.333333333333332</v>
+        <v>48</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>5.333333333333333</v>
+        <v>12</v>
       </c>
       <c r="K30" s="2">
         <v>1</v>
@@ -18158,11 +18190,11 @@
       </c>
       <c r="H31" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>24.112654320987655</v>
+        <v>54.253472222222221</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0281635802469138</v>
+        <v>13.563368055555555</v>
       </c>
       <c r="K31" s="2">
         <v>30</v>
@@ -18210,11 +18242,11 @@
       </c>
       <c r="H32" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>27.123456790123456</v>
+        <v>61.027777777777779</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.7808641975308639</v>
+        <v>15.256944444444445</v>
       </c>
       <c r="K32" s="2">
         <v>60</v>
@@ -18262,11 +18294,11 @@
       </c>
       <c r="H33" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>30.375</v>
+        <v>68.34375</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>7.59375</v>
+        <v>17.0859375</v>
       </c>
       <c r="K33" s="2">
         <v>90</v>
@@ -18314,11 +18346,11 @@
       </c>
       <c r="H34" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>33.876543209876544</v>
+        <v>76.222222222222229</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>8.4691358024691361</v>
+        <v>19.055555555555557</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -18347,12 +18379,19 @@
       </c>
       <c r="H35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>37.637345679012348</v>
+        <v>84.684027777777771</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.4093364197530871</v>
-      </c>
+        <v>21.171006944444443</v>
+      </c>
+      <c r="K35" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
@@ -18380,11 +18419,24 @@
       </c>
       <c r="H36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>41.666666666666664</v>
+        <v>93.75</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>10.416666666666666</v>
+        <v>23.4375</v>
+      </c>
+      <c r="K36" s="48"/>
+      <c r="L36" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="M36" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" s="49" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
@@ -18413,11 +18465,29 @@
       </c>
       <c r="H37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>45.973765432098766</v>
+        <v>103.44097222222223</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>11.493441358024691</v>
+        <v>25.860243055555557</v>
+      </c>
+      <c r="K37" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="2">
+        <v>5</v>
+      </c>
+      <c r="M37" s="2">
+        <f>L38^2*4</f>
+        <v>400</v>
+      </c>
+      <c r="N37" s="2">
+        <f ca="1">RANDBETWEEN(0, $L$37+$L$38) *5</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <f ca="1">SUM(M37:N37)</f>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -18446,11 +18516,29 @@
       </c>
       <c r="H38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>50.567901234567898</v>
+        <v>113.77777777777777</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>12.641975308641975</v>
+        <v>28.444444444444443</v>
+      </c>
+      <c r="K38" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="2">
+        <v>10</v>
+      </c>
+      <c r="M38" s="2">
+        <f>L37^2*4</f>
+        <v>100</v>
+      </c>
+      <c r="N38" s="2">
+        <f ca="1">RANDBETWEEN(0, $L$37+$L$38) *5</f>
+        <v>25</v>
+      </c>
+      <c r="O38" s="2">
+        <f ca="1">SUM(M38:N38)</f>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
@@ -18479,11 +18567,11 @@
       </c>
       <c r="H39" s="8">
         <f t="shared" ref="H39:H70" ca="1" si="29">G39/$P$24</f>
-        <v>55.458333333333336</v>
+        <v>124.78125</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>13.864583333333334</v>
+        <v>31.1953125</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
@@ -18512,11 +18600,11 @@
       </c>
       <c r="H40" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>60.654320987654323</v>
+        <v>136.47222222222223</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>15.163580246913581</v>
+        <v>34.118055555555557</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
@@ -18545,11 +18633,11 @@
       </c>
       <c r="H41" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>66.165123456790127</v>
+        <v>148.87152777777777</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>16.541280864197532</v>
+        <v>37.217881944444443</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
@@ -18578,11 +18666,11 @@
       </c>
       <c r="H42" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
@@ -18611,11 +18699,11 @@
       </c>
       <c r="H43" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>78.168209876543216</v>
+        <v>175.87847222222223</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>19.542052469135804</v>
+        <v>43.969618055555557</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
@@ -18644,11 +18732,11 @@
       </c>
       <c r="H44" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>84.679012345679013</v>
+        <v>190.52777777777777</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>21.169753086419753</v>
+        <v>47.631944444444443</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
@@ -18677,11 +18765,11 @@
       </c>
       <c r="H45" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>91.541666666666671</v>
+        <v>205.96875</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>22.885416666666668</v>
+        <v>51.4921875</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
@@ -18710,11 +18798,11 @@
       </c>
       <c r="H46" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>98.76543209876543</v>
+        <v>222.22222222222223</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>24.691358024691358</v>
+        <v>55.555555555555557</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -18743,11 +18831,11 @@
       </c>
       <c r="H47" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>106.35956790123457</v>
+        <v>239.30902777777777</v>
       </c>
       <c r="I47" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>26.589891975308642</v>
+        <v>59.827256944444443</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
@@ -18776,11 +18864,11 @@
       </c>
       <c r="H48" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>114.33333333333333</v>
+        <v>257.25</v>
       </c>
       <c r="I48" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>28.583333333333332</v>
+        <v>64.3125</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -18809,11 +18897,11 @@
       </c>
       <c r="H49" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>122.69598765432099</v>
+        <v>276.06597222222223</v>
       </c>
       <c r="I49" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>30.673996913580247</v>
+        <v>69.016493055555557</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -18842,11 +18930,11 @@
       </c>
       <c r="H50" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>131.45679012345678</v>
+        <v>295.77777777777777</v>
       </c>
       <c r="I50" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.864197530864196</v>
+        <v>73.944444444444443</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -18875,11 +18963,11 @@
       </c>
       <c r="H51" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>140.625</v>
+        <v>316.40625</v>
       </c>
       <c r="I51" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>35.15625</v>
+        <v>79.1015625</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -18908,11 +18996,11 @@
       </c>
       <c r="H52" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>150.20987654320987</v>
+        <v>337.97222222222223</v>
       </c>
       <c r="I52" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>37.552469135802468</v>
+        <v>84.493055555555557</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -18941,11 +19029,11 @@
       </c>
       <c r="H53" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>160.22067901234567</v>
+        <v>360.49652777777777</v>
       </c>
       <c r="I53" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>40.055169753086417</v>
+        <v>90.124131944444443</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -18974,11 +19062,11 @@
       </c>
       <c r="H54" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>170.66666666666666</v>
+        <v>384</v>
       </c>
       <c r="I54" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>42.666666666666664</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -19007,11 +19095,11 @@
       </c>
       <c r="H55" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>181.5570987654321</v>
+        <v>408.50347222222223</v>
       </c>
       <c r="I55" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>45.389274691358032</v>
+        <v>102.12586805555556</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -19040,11 +19128,11 @@
       </c>
       <c r="H56" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>192.90123456790124</v>
+        <v>434.02777777777777</v>
       </c>
       <c r="I56" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>48.22530864197531</v>
+        <v>108.50694444444444</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -19073,11 +19161,11 @@
       </c>
       <c r="H57" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>204.70833333333334</v>
+        <v>460.59375</v>
       </c>
       <c r="I57" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>51.177083333333336</v>
+        <v>115.1484375</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -19106,11 +19194,11 @@
       </c>
       <c r="H58" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>216.98765432098764</v>
+        <v>488.22222222222223</v>
       </c>
       <c r="I58" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>54.246913580246911</v>
+        <v>122.05555555555556</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -19139,11 +19227,11 @@
       </c>
       <c r="H59" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>229.74845679012347</v>
+        <v>516.93402777777783</v>
       </c>
       <c r="I59" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>57.437114197530867</v>
+        <v>129.23350694444446</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -19172,11 +19260,11 @@
       </c>
       <c r="H60" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>243</v>
+        <v>546.75</v>
       </c>
       <c r="I60" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>60.75</v>
+        <v>136.6875</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -19205,11 +19293,11 @@
       </c>
       <c r="H61" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>256.75154320987656</v>
+        <v>577.69097222222217</v>
       </c>
       <c r="I61" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>64.18788580246914</v>
+        <v>144.42274305555554</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -19238,11 +19326,11 @@
       </c>
       <c r="H62" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>271.01234567901236</v>
+        <v>609.77777777777783</v>
       </c>
       <c r="I62" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>67.753086419753089</v>
+        <v>152.44444444444446</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -19271,11 +19359,11 @@
       </c>
       <c r="H63" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>285.79166666666669</v>
+        <v>643.03125</v>
       </c>
       <c r="I63" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>71.447916666666671</v>
+        <v>160.7578125</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -19304,11 +19392,11 @@
       </c>
       <c r="H64" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>301.09876543209879</v>
+        <v>677.47222222222217</v>
       </c>
       <c r="I64" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>75.274691358024697</v>
+        <v>169.36805555555554</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -19337,11 +19425,11 @@
       </c>
       <c r="H65" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>316.9429012345679</v>
+        <v>713.12152777777783</v>
       </c>
       <c r="I65" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>79.235725308641975</v>
+        <v>178.28038194444446</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -19370,11 +19458,11 @@
       </c>
       <c r="H66" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>333.33333333333331</v>
+        <v>750</v>
       </c>
       <c r="I66" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>83.333333333333329</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -19403,11 +19491,11 @@
       </c>
       <c r="H67" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>350.27932098765433</v>
+        <v>788.12847222222217</v>
       </c>
       <c r="I67" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>87.569830246913583</v>
+        <v>197.03211805555554</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -19436,11 +19524,11 @@
       </c>
       <c r="H68" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>367.79012345679013</v>
+        <v>827.52777777777783</v>
       </c>
       <c r="I68" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>91.947530864197532</v>
+        <v>206.88194444444446</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -19469,11 +19557,11 @@
       </c>
       <c r="H69" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>385.875</v>
+        <v>868.21875</v>
       </c>
       <c r="I69" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>96.46875</v>
+        <v>217.0546875</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -19502,11 +19590,11 @@
       </c>
       <c r="H70" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>404.54320987654319</v>
+        <v>910.22222222222217</v>
       </c>
       <c r="I70" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>101.1358024691358</v>
+        <v>227.55555555555554</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -19535,11 +19623,11 @@
       </c>
       <c r="H71" s="8">
         <f t="shared" ref="H71:H102" ca="1" si="36">G71/$P$24</f>
-        <v>423.80401234567898</v>
+        <v>953.55902777777783</v>
       </c>
       <c r="I71" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>105.95100308641973</v>
+        <v>238.38975694444446</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -19568,11 +19656,11 @@
       </c>
       <c r="H72" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>443.66666666666669</v>
+        <v>998.25</v>
       </c>
       <c r="I72" s="8">
         <f t="shared" ref="I72:I126" ca="1" si="38">(H72*15)/60</f>
-        <v>110.91666666666667</v>
+        <v>249.5625</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -19601,11 +19689,11 @@
       </c>
       <c r="H73" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>464.14043209876542</v>
+        <v>1044.3159722222222</v>
       </c>
       <c r="I73" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>116.03510802469135</v>
+        <v>261.07899305555554</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -19634,11 +19722,11 @@
       </c>
       <c r="H74" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>485.23456790123458</v>
+        <v>1091.7777777777778</v>
       </c>
       <c r="I74" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>121.30864197530865</v>
+        <v>272.94444444444446</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -19667,11 +19755,11 @@
       </c>
       <c r="H75" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>506.95833333333331</v>
+        <v>1140.65625</v>
       </c>
       <c r="I75" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>126.73958333333333</v>
+        <v>285.1640625</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -19700,11 +19788,11 @@
       </c>
       <c r="H76" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>529.32098765432102</v>
+        <v>1190.9722222222222</v>
       </c>
       <c r="I76" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>132.33024691358025</v>
+        <v>297.74305555555554</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
@@ -19733,11 +19821,11 @@
       </c>
       <c r="H77" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>552.33179012345681</v>
+        <v>1242.7465277777778</v>
       </c>
       <c r="I77" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>138.0829475308642</v>
+        <v>310.68663194444446</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -19766,11 +19854,11 @@
       </c>
       <c r="H78" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>576</v>
+        <v>1296</v>
       </c>
       <c r="I78" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>144</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -19799,11 +19887,11 @@
       </c>
       <c r="H79" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>600.33487654320993</v>
+        <v>1350.7534722222222</v>
       </c>
       <c r="I79" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>150.08371913580248</v>
+        <v>337.68836805555554</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -19832,11 +19920,11 @@
       </c>
       <c r="H80" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>625.34567901234573</v>
+        <v>1407.0277777777778</v>
       </c>
       <c r="I80" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>156.33641975308643</v>
+        <v>351.75694444444446</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
@@ -19865,11 +19953,11 @@
       </c>
       <c r="H81" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>651.04166666666663</v>
+        <v>1464.84375</v>
       </c>
       <c r="I81" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>162.76041666666666</v>
+        <v>366.2109375</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -19898,11 +19986,11 @@
       </c>
       <c r="H82" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>677.4320987654321</v>
+        <v>1524.2222222222222</v>
       </c>
       <c r="I82" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>169.35802469135803</v>
+        <v>381.05555555555554</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -19931,11 +20019,11 @@
       </c>
       <c r="H83" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>704.52623456790127</v>
+        <v>1585.1840277777778</v>
       </c>
       <c r="I83" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>176.13155864197532</v>
+        <v>396.29600694444446</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -19964,11 +20052,11 @@
       </c>
       <c r="H84" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>732.33333333333337</v>
+        <v>1647.75</v>
       </c>
       <c r="I84" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>183.08333333333334</v>
+        <v>411.9375</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -19997,11 +20085,11 @@
       </c>
       <c r="H85" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>760.86265432098764</v>
+        <v>1711.9409722222222</v>
       </c>
       <c r="I85" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>190.21566358024691</v>
+        <v>427.98524305555554</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
@@ -20030,11 +20118,11 @@
       </c>
       <c r="H86" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>790.12345679012344</v>
+        <v>1777.7777777777778</v>
       </c>
       <c r="I86" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>197.53086419753086</v>
+        <v>444.44444444444446</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
@@ -20063,11 +20151,11 @@
       </c>
       <c r="H87" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>820.125</v>
+        <v>1845.28125</v>
       </c>
       <c r="I87" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>205.03125</v>
+        <v>461.3203125</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
@@ -20096,11 +20184,11 @@
       </c>
       <c r="H88" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>850.87654320987656</v>
+        <v>1914.4722222222222</v>
       </c>
       <c r="I88" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>212.71913580246914</v>
+        <v>478.61805555555554</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
@@ -20129,11 +20217,11 @@
       </c>
       <c r="H89" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>882.38734567901236</v>
+        <v>1985.3715277777778</v>
       </c>
       <c r="I89" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>220.59683641975309</v>
+        <v>496.34288194444446</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
@@ -20162,11 +20250,11 @@
       </c>
       <c r="H90" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>914.66666666666663</v>
+        <v>2058</v>
       </c>
       <c r="I90" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>228.66666666666666</v>
+        <v>514.5</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -20195,11 +20283,11 @@
       </c>
       <c r="H91" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>947.72376543209873</v>
+        <v>2132.3784722222222</v>
       </c>
       <c r="I91" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>236.93094135802468</v>
+        <v>533.09461805555554</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
@@ -20228,11 +20316,11 @@
       </c>
       <c r="H92" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>981.5679012345679</v>
+        <v>2208.5277777777778</v>
       </c>
       <c r="I92" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>245.39197530864197</v>
+        <v>552.13194444444446</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -20261,11 +20349,11 @@
       </c>
       <c r="H93" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>1016.2083333333334</v>
+        <v>2286.46875</v>
       </c>
       <c r="I93" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>254.05208333333334</v>
+        <v>571.6171875</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
@@ -20294,11 +20382,11 @@
       </c>
       <c r="H94" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>1051.6543209876543</v>
+        <v>2366.2222222222222</v>
       </c>
       <c r="I94" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>262.91358024691357</v>
+        <v>591.55555555555554</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -20327,11 +20415,11 @@
       </c>
       <c r="H95" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>1087.9151234567901</v>
+        <v>2447.8090277777778</v>
       </c>
       <c r="I95" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>271.97878086419752</v>
+        <v>611.95225694444446</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -20360,11 +20448,11 @@
       </c>
       <c r="H96" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>1125</v>
+        <v>2531.25</v>
       </c>
       <c r="I96" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>281.25</v>
+        <v>632.8125</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
@@ -20393,11 +20481,11 @@
       </c>
       <c r="H97" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>1162.9182098765432</v>
+        <v>2616.5659722222222</v>
       </c>
       <c r="I97" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>290.72955246913574</v>
+        <v>654.14149305555554</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
@@ -20426,11 +20514,11 @@
       </c>
       <c r="H98" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>1201.679012345679</v>
+        <v>2703.7777777777778</v>
       </c>
       <c r="I98" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>300.41975308641975</v>
+        <v>675.94444444444446</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
@@ -20459,11 +20547,11 @@
       </c>
       <c r="H99" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>1241.2916666666667</v>
+        <v>2792.90625</v>
       </c>
       <c r="I99" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>310.32291666666669</v>
+        <v>698.2265625</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
@@ -20492,11 +20580,11 @@
       </c>
       <c r="H100" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>1281.7654320987654</v>
+        <v>2883.9722222222222</v>
       </c>
       <c r="I100" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>320.44135802469134</v>
+        <v>720.99305555555554</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
@@ -20525,11 +20613,11 @@
       </c>
       <c r="H101" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>1323.1095679012346</v>
+        <v>2976.9965277777778</v>
       </c>
       <c r="I101" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>330.77739197530866</v>
+        <v>744.24913194444446</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
@@ -20558,11 +20646,11 @@
       </c>
       <c r="H102" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>1365.3333333333333</v>
+        <v>3072</v>
       </c>
       <c r="I102" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>341.33333333333331</v>
+        <v>768</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -20591,11 +20679,11 @@
       </c>
       <c r="H103" s="8">
         <f t="shared" ref="H103:H126" ca="1" si="44">G103/$P$24</f>
-        <v>1408.445987654321</v>
+        <v>3169.0034722222222</v>
       </c>
       <c r="I103" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>352.11149691358025</v>
+        <v>792.25086805555554</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -20624,11 +20712,11 @@
       </c>
       <c r="H104" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>1452.4567901234568</v>
+        <v>3268.0277777777778</v>
       </c>
       <c r="I104" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>363.11419753086426</v>
+        <v>817.00694444444446</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
@@ -20657,11 +20745,11 @@
       </c>
       <c r="H105" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>1497.375</v>
+        <v>3369.09375</v>
       </c>
       <c r="I105" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>374.34375</v>
+        <v>842.2734375</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
@@ -20690,11 +20778,11 @@
       </c>
       <c r="H106" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>1543.2098765432099</v>
+        <v>3472.2222222222222</v>
       </c>
       <c r="I106" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>385.80246913580248</v>
+        <v>868.05555555555554</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
@@ -20723,11 +20811,11 @@
       </c>
       <c r="H107" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>1589.9706790123457</v>
+        <v>3577.4340277777778</v>
       </c>
       <c r="I107" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>397.49266975308643</v>
+        <v>894.35850694444446</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
@@ -20756,11 +20844,11 @@
       </c>
       <c r="H108" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>1637.6666666666667</v>
+        <v>3684.75</v>
       </c>
       <c r="I108" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>409.41666666666669</v>
+        <v>921.1875</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -20789,11 +20877,11 @@
       </c>
       <c r="H109" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>1686.3070987654321</v>
+        <v>3794.1909722222222</v>
       </c>
       <c r="I109" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>421.57677469135803</v>
+        <v>948.54774305555554</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -20822,11 +20910,11 @@
       </c>
       <c r="H110" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>1735.9012345679012</v>
+        <v>3905.7777777777778</v>
       </c>
       <c r="I110" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>433.97530864197529</v>
+        <v>976.44444444444446</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -20855,11 +20943,11 @@
       </c>
       <c r="H111" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>1786.4583333333333</v>
+        <v>4019.53125</v>
       </c>
       <c r="I111" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>446.61458333333331</v>
+        <v>1004.8828125</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -20888,11 +20976,11 @@
       </c>
       <c r="H112" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>1837.9876543209878</v>
+        <v>4135.4722222222226</v>
       </c>
       <c r="I112" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>459.49691358024694</v>
+        <v>1033.8680555555557</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
@@ -20921,11 +21009,11 @@
       </c>
       <c r="H113" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>1890.4984567901236</v>
+        <v>4253.6215277777774</v>
       </c>
       <c r="I113" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>472.62461419753089</v>
+        <v>1063.4053819444443</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
@@ -20954,11 +21042,11 @@
       </c>
       <c r="H114" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>1944</v>
+        <v>4374</v>
       </c>
       <c r="I114" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>486</v>
+        <v>1093.5</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
@@ -20987,11 +21075,11 @@
       </c>
       <c r="H115" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>1998.5015432098764</v>
+        <v>4496.6284722222226</v>
       </c>
       <c r="I115" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>499.62538580246911</v>
+        <v>1124.1571180555557</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
@@ -21020,11 +21108,11 @@
       </c>
       <c r="H116" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>2054.0123456790125</v>
+        <v>4621.5277777777774</v>
       </c>
       <c r="I116" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>513.50308641975312</v>
+        <v>1155.3819444444443</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
@@ -21053,11 +21141,11 @@
       </c>
       <c r="H117" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>2110.5416666666665</v>
+        <v>4748.71875</v>
       </c>
       <c r="I117" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>527.63541666666663</v>
+        <v>1187.1796875</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
@@ -21086,11 +21174,11 @@
       </c>
       <c r="H118" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>2168.0987654320988</v>
+        <v>4878.2222222222226</v>
       </c>
       <c r="I118" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>542.02469135802471</v>
+        <v>1219.5555555555557</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
@@ -21119,11 +21207,11 @@
       </c>
       <c r="H119" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>2226.6929012345681</v>
+        <v>5010.0590277777774</v>
       </c>
       <c r="I119" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>556.67322530864215</v>
+        <v>1252.5147569444443</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
@@ -21152,11 +21240,11 @@
       </c>
       <c r="H120" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>2286.3333333333335</v>
+        <v>5144.25</v>
       </c>
       <c r="I120" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>571.58333333333337</v>
+        <v>1286.0625</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
@@ -21185,11 +21273,11 @@
       </c>
       <c r="H121" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>2347.0293209876545</v>
+        <v>5280.8159722222226</v>
       </c>
       <c r="I121" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>586.75733024691363</v>
+        <v>1320.2039930555557</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
@@ -21218,11 +21306,11 @@
       </c>
       <c r="H122" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>2408.7901234567903</v>
+        <v>5419.7777777777774</v>
       </c>
       <c r="I122" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>602.19753086419757</v>
+        <v>1354.9444444444443</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
@@ -21251,11 +21339,11 @@
       </c>
       <c r="H123" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>2471.625</v>
+        <v>5561.15625</v>
       </c>
       <c r="I123" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>617.90625</v>
+        <v>1390.2890625</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -21284,11 +21372,11 @@
       </c>
       <c r="H124" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>2535.5432098765432</v>
+        <v>5704.9722222222226</v>
       </c>
       <c r="I124" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>633.8858024691358</v>
+        <v>1426.2430555555557</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
@@ -21317,11 +21405,11 @@
       </c>
       <c r="H125" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>2600.554012345679</v>
+        <v>5851.2465277777774</v>
       </c>
       <c r="I125" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>650.13850308641975</v>
+        <v>1462.8116319444443</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
@@ -21350,15 +21438,16 @@
       </c>
       <c r="H126" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>2666.6666666666665</v>
+        <v>6000</v>
       </c>
       <c r="I126" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>666.66666666666663</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="K35:O35"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="B1:E1"/>
